--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDFE33-B29C-432E-B886-8616BC4350AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89FEC3C-B145-4BEE-9F7F-C8C6164EB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="165" windowWidth="22125" windowHeight="14595" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="golcadomide" sheetId="3" r:id="rId3"/>
-    <sheet name="Matrix" sheetId="4" r:id="rId4"/>
+    <sheet name="BMS-986365" sheetId="6" r:id="rId4"/>
+    <sheet name="iberdomide" sheetId="5" r:id="rId5"/>
+    <sheet name="Matrix" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
   <si>
     <t>Indication</t>
   </si>
@@ -296,15 +298,9 @@
     <t>mezigdomide</t>
   </si>
   <si>
-    <t>ario-cel</t>
-  </si>
-  <si>
     <t>2L+Multiple Myeloma Vd&amp;Kd</t>
   </si>
   <si>
-    <t>2-4L Multiple Myeleoma</t>
-  </si>
-  <si>
     <t>II</t>
   </si>
   <si>
@@ -317,9 +313,6 @@
     <t>admilparant</t>
   </si>
   <si>
-    <t>IPF &amp; PPF</t>
-  </si>
-  <si>
     <t>obexelimab</t>
   </si>
   <si>
@@ -335,18 +328,12 @@
     <t>Alzheimer's</t>
   </si>
   <si>
-    <t>MS Spasticity &amp; Alzheimer's Agitation</t>
-  </si>
-  <si>
     <t>MYK-224</t>
   </si>
   <si>
     <t>milvexian</t>
   </si>
   <si>
-    <t>ACS &amp; AFib &amp; Secondary Stroke Prevention</t>
-  </si>
-  <si>
     <t>MRK</t>
   </si>
   <si>
@@ -359,9 +346,6 @@
     <t>Zai Lab</t>
   </si>
   <si>
-    <t>Intravenous</t>
-  </si>
-  <si>
     <t>Juno Therapeutics</t>
   </si>
   <si>
@@ -458,15 +442,9 @@
     <t>Augtyro (repotrectinib)</t>
   </si>
   <si>
-    <t>Tablet; Oral</t>
-  </si>
-  <si>
     <t>Eliquis (apixaban)</t>
   </si>
   <si>
-    <t>Afib VTE DVT PE</t>
-  </si>
-  <si>
     <t>Clinical Trials</t>
   </si>
   <si>
@@ -500,9 +478,6 @@
     <t>Competition</t>
   </si>
   <si>
-    <t>Orphan</t>
-  </si>
-  <si>
     <t>Orencia (abatacept)</t>
   </si>
   <si>
@@ -525,6 +500,120 @@
   </si>
   <si>
     <t>Cumulative</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>Divestiture &amp; Royalties</t>
+  </si>
+  <si>
+    <t>Investment Losses</t>
+  </si>
+  <si>
+    <t>Rebates &amp; Discounts</t>
+  </si>
+  <si>
+    <t>Tax Payable</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
+  </si>
+  <si>
+    <t>Divestiture</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>IPF, PPF</t>
+  </si>
+  <si>
+    <t>MS Spasticity, Alzheimer's Agitation</t>
+  </si>
+  <si>
+    <t>ACS, Afib, Secondary Stroke Prevention</t>
+  </si>
+  <si>
+    <t>Afib, VTE, DVT, PE</t>
+  </si>
+  <si>
+    <t>2-4L Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>search sec filings for what they say the drug will be generic by and the patent type</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Subcutaneous</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>Opdualag (nivolumab/relatlimab-rmbw)</t>
+  </si>
+  <si>
+    <t>Camzyos (mavacamten)</t>
+  </si>
+  <si>
+    <t>Zeposia (ozanimod)</t>
+  </si>
+  <si>
+    <t>Abecma (idecabtagene vicleucel)</t>
+  </si>
+  <si>
+    <t>Cobenfy (xanomelin/trospium)</t>
+  </si>
+  <si>
+    <t>Revlimid (lenalidomide)</t>
+  </si>
+  <si>
+    <t>Pomalyst/Imnovid (pomalidomide)</t>
+  </si>
+  <si>
+    <t>Sprycel (dasatinib)</t>
+  </si>
+  <si>
+    <t>Abraxane (nab-paclitaxel)</t>
+  </si>
+  <si>
+    <t>RayzeBio</t>
+  </si>
+  <si>
+    <t>BMS-986365</t>
+  </si>
+  <si>
+    <t>BMS-986393 (ario-cel)</t>
+  </si>
+  <si>
+    <t>GPRC5D</t>
   </si>
 </sst>
 </file>
@@ -671,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -705,9 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,6 +806,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,16 +835,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>153865</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -766,8 +859,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7532077" y="21981"/>
-          <a:ext cx="7327" cy="8997461"/>
+          <a:off x="8946173" y="21981"/>
+          <a:ext cx="14654" cy="16309731"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1177,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C84D59-1CB2-4A24-A9E5-2B8BEE45A87C}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1283,7 @@
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="10" width="4.85546875" customWidth="1"/>
   </cols>
@@ -1225,13 +1318,19 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="2">
+        <v>38359</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="23"/>
       <c r="K3" t="s">
         <v>5</v>
       </c>
@@ -1243,13 +1342,19 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="2">
+        <v>38896</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="23"/>
       <c r="K4" t="s">
         <v>6</v>
       </c>
@@ -1259,13 +1364,19 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="2">
+        <v>41313</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="23"/>
       <c r="K5" t="s">
         <v>7</v>
       </c>
@@ -1278,13 +1389,19 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
+      <c r="B6" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="2">
+        <v>38713</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="23"/>
       <c r="K6" t="s">
         <v>8</v>
       </c>
@@ -1297,13 +1414,19 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
+      <c r="B7" s="29" t="s">
+        <v>173</v>
+      </c>
       <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="2">
+        <v>45561</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="23"/>
       <c r="K7" t="s">
         <v>9</v>
       </c>
@@ -1313,224 +1436,258 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>145</v>
+      <c r="B8" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="2">
-        <v>38709</v>
+        <v>44258</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="24" t="s">
-        <v>144</v>
+      <c r="G8" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
+      <c r="B9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="2">
-        <v>41271</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>43915</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="23"/>
       <c r="K9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="2">
-        <v>44232</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>44679</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="23"/>
       <c r="K10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="10"/>
+        <v>44638</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="2">
-        <v>43777</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>38709</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
       </c>
       <c r="D13" s="2">
-        <v>44907</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>41271</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2">
-        <v>41995</v>
+        <v>44232</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2">
-        <v>45758</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="21">
-        <v>45456</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="B16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43777</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44907</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41995</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45758</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="21">
+        <v>45456</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="10"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>69</v>
       </c>
+      <c r="E22" s="33" t="s">
+        <v>178</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>80</v>
+      <c r="B23" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>82</v>
+      <c r="B24" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>69</v>
@@ -1539,102 +1696,160 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="D26" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C32">
+      <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33">
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34">
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35">
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>138</v>
+      <c r="D39" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" location="golcadomide!A1" display="golcadomide" xr:uid="{CE94D3E4-668B-4EC7-A589-411EBF2CDE51}"/>
+    <hyperlink ref="B27" location="golcadomide!A1" display="golcadomide" xr:uid="{CE94D3E4-668B-4EC7-A589-411EBF2CDE51}"/>
+    <hyperlink ref="B23" location="'BMS-986365'!A1" display="BMS-986365" xr:uid="{F8ABEC5A-B630-493F-A5E8-4E23266187C8}"/>
+    <hyperlink ref="B24" location="iberdomide!A1" display="iberdomide" xr:uid="{EBA13268-CE72-4D74-8E77-9846D0396F4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1643,25 +1858,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C781408B-354D-406F-81C7-71B6E19A8D24}">
-  <dimension ref="A1:DX71"/>
+  <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X52" sqref="X52"/>
+      <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="11" width="9.140625" style="1"/>
-    <col min="12" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="1"/>
+    <col min="14" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -1672,15 +1887,15 @@
       <c r="H1" s="2">
         <v>45863</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2">
         <v>45291</v>
       </c>
-      <c r="N1" s="2">
+      <c r="P1" s="2">
         <v>45657</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1706,519 +1921,576 @@
         <v>59</v>
       </c>
       <c r="L2" s="6">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M2" s="6">
         <f>L2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="N2" s="6">
+        <f>M2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="O2" s="6">
+        <f>N2+1</f>
         <v>2023</v>
       </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:T2" si="0">M2+1</f>
+      <c r="P2" s="6">
+        <f t="shared" ref="P2:V2" si="0">O2+1</f>
         <v>2024</v>
       </c>
-      <c r="O2" s="6">
+      <c r="Q2" s="6">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="P2" s="6">
+      <c r="R2" s="6">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="S2" s="6">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="R2" s="6">
+      <c r="T2" s="6">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="S2" s="6">
+      <c r="U2" s="6">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="T2" s="6">
+      <c r="V2" s="6">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="1">
+        <v>94</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="1">
         <v>31210</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>34105</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="1">
+        <v>95</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="1">
         <v>13097</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>13199</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="1">
+        <v>96</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="1">
         <v>699</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>996</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1">
         <v>2265</v>
       </c>
       <c r="H7" s="1">
-        <f>G7*1.01</f>
+        <f t="shared" ref="H7:J8" si="1">G7*1.01</f>
         <v>2287.65</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:J7" si="1">H7*1.01</f>
+        <f t="shared" si="1"/>
         <v>2310.5264999999999</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>2333.6317650000001</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="1">
+        <v>6992</v>
+      </c>
       <c r="M7" s="1">
+        <v>7523</v>
+      </c>
+      <c r="N7" s="1">
+        <v>8249</v>
+      </c>
+      <c r="O7" s="1">
         <v>9009</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>9304</v>
       </c>
-      <c r="O7" s="1">
-        <f t="shared" ref="O7:O26" si="2">SUM(G7:J7)</f>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q19" si="2">SUM(G7:J7)</f>
         <v>9196.8082649999997</v>
       </c>
-      <c r="P7" s="1">
-        <f>N7*1.03</f>
-        <v>9583.1200000000008</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" ref="Q7:T9" si="3">P7*1.04</f>
-        <v>9966.4448000000011</v>
-      </c>
       <c r="R7" s="1">
-        <f>Q7*0.4</f>
-        <v>3986.5779200000006</v>
+        <f>Q7*1.03</f>
+        <v>9472.71251295</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <f>R7*1.03</f>
+        <v>9756.8938883384999</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <f>S7*0.2</f>
+        <v>1951.3787776677</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1">
         <v>770</v>
       </c>
       <c r="H8" s="1">
-        <f>G8*1.01</f>
+        <f t="shared" si="1"/>
         <v>777.7</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:J8" si="4">H8*1.01</f>
+        <f t="shared" si="1"/>
         <v>785.47700000000009</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>793.33177000000012</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="1">
+        <v>3157</v>
+      </c>
       <c r="M8" s="1">
+        <v>3306</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3464</v>
+      </c>
+      <c r="O8" s="1">
         <v>3601</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>3682</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>3126.5087700000004</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" ref="P8:P26" si="5">N8*1.02</f>
-        <v>3755.64</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" ref="Q8:T8" si="6">P8*1.1</f>
-        <v>4131.2040000000006</v>
-      </c>
       <c r="R8" s="1">
-        <f t="shared" si="6"/>
-        <v>4544.3244000000013</v>
+        <f>Q8*1.03</f>
+        <v>3220.3040331000007</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="6"/>
-        <v>4998.7568400000018</v>
+        <f t="shared" ref="S8:V8" si="3">R8*1.03</f>
+        <v>3316.9131540930007</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="6"/>
-        <v>5498.6325240000024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>3416.4205487157906</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="3"/>
+        <v>3518.9131651772645</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="3"/>
+        <v>3624.4805601325825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G9" s="5">
         <v>624</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ref="H9:H14" si="7">G9*1.03</f>
+        <f t="shared" ref="H9:J14" si="4">G9*1.03</f>
         <v>642.72</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ref="I9:J9" si="8">H9*1.03</f>
+        <f t="shared" si="4"/>
         <v>662.00160000000005</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>681.86164800000006</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="5">
+        <v>1682</v>
+      </c>
       <c r="M9" s="5">
+        <v>2026</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2131</v>
+      </c>
+      <c r="O9" s="5">
         <v>2238</v>
       </c>
-      <c r="N9" s="5">
+      <c r="P9" s="5">
         <v>2530</v>
       </c>
-      <c r="O9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
         <v>2610.5832479999999</v>
       </c>
-      <c r="P9" s="5">
+      <c r="R9" s="5">
+        <f>Q9*1.05</f>
+        <v>2741.1124104</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:V9" si="5">R9*1.05</f>
+        <v>2878.1680309200001</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="5"/>
-        <v>2580.6</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="3"/>
-        <v>2683.8240000000001</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="3"/>
-        <v>2791.1769600000002</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="3"/>
-        <v>2902.8240384000005</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="3"/>
-        <v>3018.9369999360006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3022.0764324660004</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="5"/>
+        <v>3173.1802540893004</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="5"/>
+        <v>3331.8392667937655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5">
         <v>478</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>492.34000000000003</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:J10" si="9">H10*1.03</f>
+        <f t="shared" si="4"/>
         <v>507.11020000000002</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>522.32350600000007</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="5">
+        <v>274</v>
+      </c>
       <c r="M10" s="5">
+        <v>551</v>
+      </c>
+      <c r="N10" s="28">
+        <v>717</v>
+      </c>
+      <c r="O10" s="5">
         <v>1008</v>
       </c>
-      <c r="N10" s="5">
+      <c r="P10" s="5">
         <v>1773</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="2"/>
         <v>1999.7737059999999</v>
       </c>
-      <c r="P10" s="5">
-        <f t="shared" si="5"/>
-        <v>1808.46</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" ref="Q10:T10" si="10">P10*1.04</f>
-        <v>1880.7984000000001</v>
-      </c>
       <c r="R10" s="5">
-        <f t="shared" si="10"/>
-        <v>1956.0303360000003</v>
+        <f>Q10*1.1</f>
+        <v>2199.7510766</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="10"/>
-        <v>2034.2715494400004</v>
+        <f t="shared" ref="S10:V10" si="6">R10*1.1</f>
+        <v>2419.7261842600001</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="10"/>
-        <v>2115.6424114176007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>2661.6988026860004</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="6"/>
+        <v>2927.8686829546004</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="6"/>
+        <v>3220.6555512500609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G11" s="5">
         <v>252</v>
       </c>
       <c r="H11" s="5">
+        <f>G11*1.05</f>
+        <v>264.60000000000002</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11:J11" si="7">H11*1.05</f>
+        <v>277.83000000000004</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="7"/>
-        <v>259.56</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" ref="I11:J11" si="11">H11*1.03</f>
-        <v>267.34680000000003</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="11"/>
-        <v>275.36720400000002</v>
-      </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="5">
+        <v>291.72150000000005</v>
+      </c>
+      <c r="N11" s="28">
+        <v>252</v>
+      </c>
+      <c r="O11" s="5">
         <v>627</v>
       </c>
-      <c r="N11" s="5">
+      <c r="P11" s="5">
         <v>928</v>
       </c>
-      <c r="O11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
-        <v>1054.2740039999999</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="5"/>
-        <v>946.56000000000006</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" ref="Q11:T26" si="12">P11*1.04</f>
-        <v>984.42240000000004</v>
+        <v>1086.1515000000002</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="12"/>
-        <v>1023.799296</v>
+        <f>Q11*1.1</f>
+        <v>1194.7666500000003</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="12"/>
-        <v>1064.7512678400001</v>
+        <f t="shared" ref="S11:V11" si="8">R11*1.1</f>
+        <v>1314.2433150000004</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="12"/>
-        <v>1107.3413185536001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1445.6676465000005</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="8"/>
+        <v>1590.2344111500006</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="8"/>
+        <v>1749.2578522650008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G12" s="5">
         <v>263</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>270.89</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" ref="I12:J12" si="13">H12*1.03</f>
+        <f t="shared" si="4"/>
         <v>279.01670000000001</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>287.387201</v>
       </c>
-      <c r="L12" s="29"/>
       <c r="M12" s="5">
+        <v>87</v>
+      </c>
+      <c r="N12" s="28">
+        <v>182</v>
+      </c>
+      <c r="O12" s="5">
         <v>364</v>
       </c>
-      <c r="N12" s="5">
+      <c r="P12" s="5">
         <v>747</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="2"/>
         <v>1100.293901</v>
       </c>
-      <c r="P12" s="5">
-        <f t="shared" si="5"/>
-        <v>761.94</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="12"/>
-        <v>792.41760000000011</v>
-      </c>
       <c r="R12" s="5">
-        <f t="shared" si="12"/>
-        <v>824.11430400000017</v>
+        <f t="shared" ref="R10:V19" si="9">Q12*1.03</f>
+        <v>1133.3027180300001</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="12"/>
-        <v>857.07887616000016</v>
+        <f t="shared" ref="S12:V12" si="10">R12*1.03</f>
+        <v>1167.3017995709001</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="12"/>
-        <v>891.36203120640016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1202.3208535580272</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="10"/>
+        <v>1238.3904791647681</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="10"/>
+        <v>1275.5421935397112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5">
         <v>159</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="7"/>
-        <v>163.77000000000001</v>
+        <f>G13*1.2</f>
+        <v>190.79999999999998</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ref="I13:J13" si="14">H13*1.03</f>
-        <v>168.68310000000002</v>
+        <f t="shared" ref="I13:J13" si="11">H13*1.2</f>
+        <v>228.95999999999998</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="14"/>
-        <v>173.74359300000003</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="5">
+        <f t="shared" si="11"/>
+        <v>274.75199999999995</v>
+      </c>
+      <c r="N13" s="28">
+        <v>24</v>
+      </c>
+      <c r="O13" s="5">
         <v>231</v>
       </c>
-      <c r="N13" s="5">
+      <c r="P13" s="5">
         <v>602</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Q13" s="5">
         <f t="shared" si="2"/>
-        <v>665.1966930000001</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="5"/>
-        <v>614.04</v>
-      </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="12"/>
-        <v>638.60159999999996</v>
+        <v>853.51199999999994</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="12"/>
-        <v>664.14566400000001</v>
+        <f>Q13*1.1</f>
+        <v>938.86320000000001</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="12"/>
-        <v>690.71149056000002</v>
+        <f t="shared" ref="S13:V13" si="12">R13*1.1</f>
+        <v>1032.7495200000001</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="12"/>
-        <v>718.3399501824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1136.0244720000003</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="12"/>
+        <v>1249.6269192000004</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="12"/>
+        <v>1374.5896111200007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G14" s="5">
         <v>107</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="7"/>
-        <v>110.21000000000001</v>
+        <f>G14*1.3</f>
+        <v>139.1</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ref="I14:J14" si="15">H14*1.03</f>
-        <v>113.51630000000002</v>
+        <f t="shared" ref="I14:J14" si="13">H14*1.3</f>
+        <v>180.83</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="15"/>
-        <v>116.92178900000002</v>
-      </c>
-      <c r="L14" s="29"/>
+        <f t="shared" si="13"/>
+        <v>235.07900000000004</v>
+      </c>
+      <c r="L14" s="5">
+        <v>12</v>
+      </c>
       <c r="M14" s="5">
+        <v>134</v>
+      </c>
+      <c r="N14" s="5">
+        <v>252</v>
+      </c>
+      <c r="O14" s="5">
         <v>434</v>
       </c>
-      <c r="N14" s="5">
+      <c r="P14" s="5">
         <v>566</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="5">
         <f t="shared" si="2"/>
-        <v>447.64808900000003</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="5"/>
-        <v>577.32000000000005</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="12"/>
-        <v>600.41280000000006</v>
+        <v>662.00900000000001</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="12"/>
-        <v>624.4293120000001</v>
+        <f>Q14*1.1</f>
+        <v>728.20990000000006</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="12"/>
-        <v>649.40648448000013</v>
+        <f t="shared" ref="S14:V14" si="14">R14*1.1</f>
+        <v>801.03089000000011</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="12"/>
-        <v>675.3827438592001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>881.13397900000018</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="14"/>
+        <v>969.24737690000029</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="14"/>
+        <v>1066.1721145900003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1">
         <v>103</v>
@@ -2228,127 +2500,153 @@
         <v>104.03</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15:J15" si="16">H15*1.01</f>
+        <f>H15*1.01</f>
         <v>105.0703</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="16"/>
+        <f>I15*1.01</f>
         <v>106.121003</v>
       </c>
-      <c r="L15" s="6"/>
       <c r="M15" s="1">
+        <v>164</v>
+      </c>
+      <c r="N15" s="6">
+        <v>388</v>
+      </c>
+      <c r="O15" s="1">
         <v>472</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>406</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="2"/>
         <v>418.22130300000003</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="5"/>
-        <v>414.12</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="12"/>
-        <v>430.6848</v>
-      </c>
       <c r="R15" s="1">
-        <f t="shared" si="12"/>
-        <v>447.912192</v>
+        <f>Q15*1.03</f>
+        <v>430.76794209000002</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="12"/>
-        <v>465.82867967999999</v>
+        <f t="shared" ref="S15:V15" si="15">R15*1.03</f>
+        <v>443.69098035270002</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="12"/>
-        <v>484.46182686719999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="1">
+        <f t="shared" si="15"/>
+        <v>457.00170976328104</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="15"/>
+        <v>470.71176105617951</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="15"/>
+        <v>484.8331138878649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="5">
         <v>55</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="1">
+      <c r="H16" s="5">
+        <v>100</v>
+      </c>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+      <c r="J16" s="5">
+        <v>100</v>
+      </c>
+      <c r="N16" s="28">
+        <v>8</v>
+      </c>
+      <c r="O16" s="5">
         <v>170</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="5">
         <v>246</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="5">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="5"/>
-        <v>250.92000000000002</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="12"/>
-        <v>260.95680000000004</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="12"/>
-        <v>271.39507200000003</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="12"/>
-        <v>282.25087488000003</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="12"/>
-        <v>293.54090987520004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="R16" s="5">
+        <f>Q16*1.1</f>
+        <v>390.50000000000006</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" ref="S16:V16" si="16">R16*1.1</f>
+        <v>429.55000000000013</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="16"/>
+        <v>472.50500000000017</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="16"/>
+        <v>519.75550000000021</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="16"/>
+        <v>571.73105000000032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1">
         <v>48</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="H17" s="1">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1">
+        <v>70</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
         <v>126</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="5"/>
-        <v>128.52000000000001</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="12"/>
-        <v>133.66080000000002</v>
+        <v>258</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="12"/>
-        <v>139.00723200000002</v>
+        <f>Q17*1.4</f>
+        <v>361.2</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="12"/>
-        <v>144.56752128000002</v>
+        <f t="shared" ref="S17:V17" si="17">R17*1.4</f>
+        <v>505.67999999999995</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="12"/>
-        <v>150.35022213120004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>707.95199999999988</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="17"/>
+        <v>991.13279999999975</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="17"/>
+        <v>1387.5859199999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H18" s="5">
         <v>25</v>
@@ -2359,42 +2657,42 @@
       <c r="J18" s="5">
         <v>25</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29">
+      <c r="N18" s="28"/>
+      <c r="O18" s="28">
         <v>1</v>
       </c>
-      <c r="N18" s="29">
+      <c r="P18" s="28">
         <v>38</v>
       </c>
-      <c r="O18" s="5">
+      <c r="Q18" s="5">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="P18" s="5">
-        <f t="shared" si="5"/>
-        <v>38.76</v>
-      </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="12"/>
-        <v>40.310400000000001</v>
-      </c>
       <c r="R18" s="5">
-        <f t="shared" si="12"/>
-        <v>41.922816000000005</v>
+        <f>Q18*1.5</f>
+        <v>112.5</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="12"/>
-        <v>43.599728640000009</v>
+        <f t="shared" ref="S18:V18" si="18">R18*1.5</f>
+        <v>168.75</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="12"/>
-        <v>45.343717785600013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>253.125</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="18"/>
+        <v>379.6875</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="18"/>
+        <v>569.53125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G19" s="5">
         <v>27</v>
@@ -2404,401 +2702,441 @@
         <v>27.810000000000002</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ref="I19:J19" si="17">H19*1.03</f>
+        <f>H19*1.03</f>
         <v>28.644300000000005</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="17"/>
+        <f>I19*1.03</f>
         <v>29.503629000000007</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29">
-        <v>0</v>
-      </c>
-      <c r="N19" s="29">
+      <c r="N19" s="28"/>
+      <c r="O19" s="28">
+        <v>0</v>
+      </c>
+      <c r="P19" s="28">
         <v>10</v>
       </c>
-      <c r="O19" s="5">
-        <f>SUM(G19:J19)</f>
+      <c r="Q19" s="5">
+        <f t="shared" si="2"/>
         <v>112.95792900000001</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="5"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="12"/>
-        <v>10.607999999999999</v>
-      </c>
       <c r="R19" s="5">
-        <f t="shared" si="12"/>
-        <v>11.032319999999999</v>
+        <f>Q19*1.5</f>
+        <v>169.4368935</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="12"/>
-        <v>11.4736128</v>
+        <f t="shared" ref="S19:V19" si="19">R19*1.5</f>
+        <v>254.15534024999999</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="12"/>
-        <v>11.932557312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>381.23301037499999</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="19"/>
+        <v>571.84951556249996</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="19"/>
+        <v>857.77427334374988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1">
         <v>403</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H26" si="18">G20*1.01</f>
+        <f t="shared" ref="H20:H26" si="20">G20*1.01</f>
         <v>407.03000000000003</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:J20" si="19">H20*1.01</f>
+        <f t="shared" ref="I20:J20" si="21">H20*1.01</f>
         <v>411.10030000000006</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>415.21130300000004</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="1">
+      <c r="N20" s="6"/>
+      <c r="O20" s="1">
         <v>1211</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>1605</v>
       </c>
-      <c r="O20" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q26" si="22">SUM(G20:J20)</f>
         <v>1636.3416030000001</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" si="5"/>
-        <v>1637.1000000000001</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="12"/>
-        <v>1702.5840000000003</v>
-      </c>
       <c r="R20" s="1">
-        <f t="shared" si="12"/>
-        <v>1770.6873600000004</v>
+        <f>Q20*1.03</f>
+        <v>1685.4318510900002</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="12"/>
-        <v>1841.5148544000003</v>
+        <f t="shared" ref="S20:V20" si="23">R20*1.03</f>
+        <v>1735.9948066227003</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="12"/>
-        <v>1915.1754485760005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="23"/>
+        <v>1788.0746508213813</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="23"/>
+        <v>1841.7168903460229</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="23"/>
+        <v>1896.9683970564035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1">
         <v>3565</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3600.65</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:J21" si="20">H21*1.01</f>
+        <f t="shared" ref="I21:J21" si="24">H21*1.01</f>
         <v>3636.6565000000001</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3673.0230649999999</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="1">
+        <v>9168</v>
+      </c>
       <c r="M21" s="1">
+        <v>10762</v>
+      </c>
+      <c r="N21" s="1">
+        <v>11789</v>
+      </c>
+      <c r="O21" s="1">
         <v>12206</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>13333</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q21" s="1">
+        <f t="shared" si="22"/>
         <v>14475.329564999998</v>
       </c>
-      <c r="P21" s="1">
-        <f>N21*1.04</f>
-        <v>13866.32</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="12"/>
-        <v>14420.9728</v>
-      </c>
       <c r="R21" s="1">
-        <f>Q21*0.4</f>
-        <v>5768.3891199999998</v>
+        <f>Q21*1.03</f>
+        <v>14909.589451949998</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <f>R21*1.03</f>
+        <v>15356.877135508499</v>
       </c>
       <c r="T21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <f>S21*0.2</f>
+        <v>3071.3754271017001</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1">
         <v>936</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>945.36</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:J22" si="21">H22*1.01</f>
+        <f t="shared" ref="I22:J22" si="25">H22*1.01</f>
         <v>954.81360000000006</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>964.36173600000006</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="1">
+        <v>12106</v>
+      </c>
       <c r="M22" s="1">
+        <v>12821</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9978</v>
+      </c>
+      <c r="O22" s="1">
         <v>6097</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>5773</v>
       </c>
-      <c r="O22" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q22" s="1">
+        <f t="shared" si="22"/>
         <v>3800.5353359999999</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="5"/>
-        <v>5888.46</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="12"/>
-        <v>6123.9984000000004</v>
-      </c>
       <c r="R22" s="1">
-        <f t="shared" si="12"/>
-        <v>6368.9583360000006</v>
+        <f>Q22*1</f>
+        <v>3800.5353359999999</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="12"/>
-        <v>6623.7166694400012</v>
+        <f t="shared" ref="S22:V22" si="26">R22*1</f>
+        <v>3800.5353359999999</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="12"/>
-        <v>6888.6653362176012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="26"/>
+        <v>3800.5353359999999</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="26"/>
+        <v>3800.5353359999999</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="26"/>
+        <v>3800.5353359999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1">
         <v>658</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="18"/>
-        <v>664.58</v>
+        <f>G23*1.2</f>
+        <v>789.6</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ref="I23:J23" si="22">H23*1.01</f>
-        <v>671.22580000000005</v>
+        <f t="shared" ref="I23:J23" si="27">H23*1.2</f>
+        <v>947.52</v>
       </c>
       <c r="J23" s="1">
+        <f t="shared" si="27"/>
+        <v>1137.0239999999999</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3070</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3332</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3497</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3441</v>
+      </c>
+      <c r="P23" s="1">
+        <v>3545</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="22"/>
-        <v>677.93805800000007</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="1">
-        <v>3441</v>
-      </c>
-      <c r="N23" s="1">
-        <v>3545</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="2"/>
-        <v>2671.7438580000003</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="5"/>
-        <v>3615.9</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="12"/>
-        <v>3760.5360000000001</v>
+        <v>3532.1439999999998</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="12"/>
-        <v>3910.9574400000001</v>
+        <f>Q23*1.03</f>
+        <v>3638.1083199999998</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="12"/>
-        <v>4067.3957376000003</v>
+        <f t="shared" ref="S23:V23" si="28">R23*1.03</f>
+        <v>3747.2515696</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="12"/>
-        <v>4230.0915671040002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>3859.669116688</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="28"/>
+        <v>3975.4591901886402</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="28"/>
+        <v>4094.7229658942993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G24" s="1">
         <v>175</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>176.75</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24:J24" si="23">H24*1.01</f>
+        <f t="shared" ref="I24:J24" si="29">H24*1.01</f>
         <v>178.51750000000001</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>180.30267500000002</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="1">
+        <v>2140</v>
+      </c>
       <c r="M24" s="1">
+        <v>2117</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2165</v>
+      </c>
+      <c r="O24" s="1">
         <v>1930</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>1286</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q24" s="1">
+        <f t="shared" si="22"/>
         <v>710.57017500000006</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>1311.72</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="12"/>
-        <v>1364.1888000000001</v>
-      </c>
       <c r="R24" s="1">
-        <f t="shared" si="12"/>
-        <v>1418.7563520000001</v>
+        <f>Q24*1.03</f>
+        <v>731.88728025000012</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="12"/>
-        <v>1475.5066060800002</v>
+        <f t="shared" ref="S24:V24" si="30">R24*1.03</f>
+        <v>753.84389865750018</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="12"/>
-        <v>1534.5268703232002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="30"/>
+        <v>776.45921561722525</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="30"/>
+        <v>799.75299208574199</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="30"/>
+        <v>823.74558184831426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1">
         <v>105</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>106.05</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25:J25" si="24">H25*1.01</f>
+        <f t="shared" ref="I25:J25" si="31">H25*1.01</f>
         <v>107.1105</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>108.181605</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="1">
+        <v>1247</v>
+      </c>
       <c r="M25" s="1">
+        <v>1181</v>
+      </c>
+      <c r="N25" s="6">
+        <v>811</v>
+      </c>
+      <c r="O25" s="1">
         <v>1004</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <v>875</v>
       </c>
-      <c r="O25" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q25" s="1">
+        <f t="shared" si="22"/>
         <v>426.342105</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" si="5"/>
-        <v>892.5</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="12"/>
-        <v>928.2</v>
-      </c>
       <c r="R25" s="1">
-        <f t="shared" si="12"/>
-        <v>965.32800000000009</v>
+        <f>Q25*1.03</f>
+        <v>439.13236814999999</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="12"/>
-        <v>1003.9411200000002</v>
+        <f t="shared" ref="S25:V25" si="32">R25*1.03</f>
+        <v>452.30633919450003</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="12"/>
-        <v>1044.0987648000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="32"/>
+        <v>465.87552937033502</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="32"/>
+        <v>479.85179525144508</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="32"/>
+        <v>494.24734910898843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G26" s="1">
         <v>199</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>200.99</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ref="I26:J26" si="25">H26*1.01</f>
+        <f t="shared" ref="I26:J26" si="33">H26*1.01</f>
         <v>202.99990000000003</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>205.02989900000003</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="1">
+      <c r="N26" s="6"/>
+      <c r="O26" s="1">
         <v>962</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
         <v>925</v>
       </c>
-      <c r="O26" s="1">
-        <f t="shared" si="2"/>
+      <c r="Q26" s="1">
+        <f t="shared" si="22"/>
         <v>808.01979900000003</v>
       </c>
-      <c r="P26" s="1">
-        <f t="shared" si="5"/>
-        <v>943.5</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="12"/>
-        <v>981.24</v>
-      </c>
       <c r="R26" s="1">
-        <f t="shared" si="12"/>
-        <v>1020.4896</v>
+        <f>Q26*1.03</f>
+        <v>832.26039297000011</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="12"/>
-        <v>1061.309184</v>
+        <f t="shared" ref="S26:V26" si="34">R26*1.03</f>
+        <v>857.22820475910009</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="12"/>
-        <v>1103.7615513599999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="34"/>
+        <v>882.94505090187317</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="34"/>
+        <v>909.43340242892941</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="34"/>
+        <v>936.71640450179734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2809,23 +3147,23 @@
       <c r="G27" s="1">
         <v>10886</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <f>44671</f>
         <v>44671</v>
       </c>
-      <c r="M27" s="1">
+      <c r="O27" s="1">
         <f>43778</f>
         <v>43778</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
         <v>46778</v>
       </c>
-      <c r="O27" s="1">
-        <f t="shared" ref="O27:O42" si="26">SUM(G27:J27)</f>
+      <c r="Q27" s="1">
+        <f t="shared" ref="Q27:Q42" si="35">SUM(G27:J27)</f>
         <v>10886</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2836,23 +3174,23 @@
       <c r="G28" s="1">
         <v>315</v>
       </c>
-      <c r="L28" s="1">
+      <c r="N28" s="1">
         <f>1488</f>
         <v>1488</v>
       </c>
-      <c r="M28" s="1">
+      <c r="O28" s="1">
         <f>1228</f>
         <v>1228</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>1522</v>
       </c>
-      <c r="O28" s="1">
-        <f t="shared" si="26"/>
+      <c r="Q28" s="1">
+        <f t="shared" si="35"/>
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
         <v>17</v>
@@ -2862,71 +3200,74 @@
         <v>11865</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:L29" si="27">SUM(D27:D28)</f>
+        <f t="shared" ref="D29:N29" si="36">SUM(D27:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>11201</v>
       </c>
       <c r="H29" s="5">
         <f>SUM(H7:H26)</f>
-        <v>11263.090000000002</v>
+        <v>11619.070000000002</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29:J29" si="28">SUM(I7:I26)</f>
-        <v>11414.816900000002</v>
+        <f t="shared" ref="I29:J29" si="37">SUM(I7:I26)</f>
+        <v>11999.1849</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="28"/>
-        <v>11569.241449000001</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
+        <v>12433.847305000001</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="5">
+        <f t="shared" si="36"/>
         <v>46159</v>
       </c>
-      <c r="M29" s="5">
-        <f t="shared" ref="M29" si="29">SUM(M27:M28)</f>
+      <c r="O29" s="5">
+        <f t="shared" ref="O29" si="38">SUM(O27:O28)</f>
         <v>45006</v>
       </c>
-      <c r="N29" s="5">
-        <f t="shared" ref="N29" si="30">SUM(N27:N28)</f>
+      <c r="P29" s="5">
+        <f t="shared" ref="P29" si="39">SUM(P27:P28)</f>
         <v>48300</v>
       </c>
-      <c r="O29" s="5">
-        <f t="shared" si="26"/>
-        <v>45448.148349000003</v>
-      </c>
-      <c r="P29" s="5">
-        <f>SUM(P7:P26)</f>
-        <v>49625.7</v>
-      </c>
       <c r="Q29" s="5">
-        <f t="shared" ref="Q29:T29" si="31">SUM(Q7:Q26)</f>
-        <v>51836.066399999996</v>
+        <f>SUM(G29:J29)</f>
+        <v>47253.102205000003</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="31"/>
-        <v>38549.434031999997</v>
+        <f>SUM(R7:R26)</f>
+        <v>49130.37233708</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="31"/>
-        <v>30218.905135680005</v>
+        <f t="shared" ref="S29:V29" si="40">SUM(S7:S26)</f>
+        <v>51192.890393127404</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="31"/>
-        <v>31727.586751507206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>32633.472559232316</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="40"/>
+        <v>29407.347971555395</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="40"/>
+        <v>31560.928791332539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2939,54 +3280,54 @@
       </c>
       <c r="H30" s="1">
         <f>H29*0.25</f>
-        <v>2815.7725000000005</v>
+        <v>2904.7675000000004</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ref="I30:J30" si="32">I29*0.25</f>
-        <v>2853.7042250000004</v>
+        <f t="shared" ref="I30:J30" si="41">I29*0.25</f>
+        <v>2999.796225</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="32"/>
-        <v>2892.3103622500003</v>
-      </c>
-      <c r="L30" s="1">
+        <f t="shared" si="41"/>
+        <v>3108.4618262500003</v>
+      </c>
+      <c r="N30" s="1">
         <f>10137</f>
         <v>10137</v>
       </c>
-      <c r="M30" s="1">
+      <c r="O30" s="1">
         <f>10693</f>
         <v>10693</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
         <f>13968</f>
         <v>13968</v>
       </c>
-      <c r="O30" s="1">
-        <f t="shared" si="26"/>
-        <v>11594.787087250001</v>
-      </c>
-      <c r="P30" s="1">
-        <f>P29*0.25</f>
-        <v>12406.424999999999</v>
-      </c>
       <c r="Q30" s="1">
-        <f t="shared" ref="Q30:T30" si="33">Q29*0.25</f>
-        <v>12959.016599999999</v>
+        <f t="shared" si="35"/>
+        <v>12046.025551250001</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="33"/>
-        <v>9637.3585079999993</v>
+        <f>R29*0.25</f>
+        <v>12282.59308427</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="33"/>
-        <v>7554.7262839200012</v>
+        <f t="shared" ref="S30:V30" si="42">S29*0.25</f>
+        <v>12798.222598281851</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="33"/>
-        <v>7931.8966878768015</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>8158.3681398080789</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="42"/>
+        <v>7351.8369928888487</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="42"/>
+        <v>7890.2321978331347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2995,71 +3336,71 @@
         <v>8933</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:L31" si="34">D29-D30</f>
+        <f t="shared" ref="D31:N31" si="43">D29-D30</f>
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>8168</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="34"/>
-        <v>8447.317500000001</v>
+        <f t="shared" si="43"/>
+        <v>8714.3025000000016</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ref="I31" si="35">I29-I30</f>
-        <v>8561.1126750000003</v>
+        <f t="shared" ref="I31" si="44">I29-I30</f>
+        <v>8999.3886750000001</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31" si="36">J29-J30</f>
-        <v>8676.9310867500008</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="J31" si="45">J29-J30</f>
+        <v>9325.3854787500004</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="43"/>
         <v>36022</v>
       </c>
-      <c r="M31" s="1">
-        <f t="shared" ref="M31" si="37">M29-M30</f>
+      <c r="O31" s="1">
+        <f t="shared" ref="O31" si="46">O29-O30</f>
         <v>34313</v>
       </c>
-      <c r="N31" s="1">
-        <f t="shared" ref="N31" si="38">N29-N30</f>
+      <c r="P31" s="1">
+        <f t="shared" ref="P31" si="47">P29-P30</f>
         <v>34332</v>
       </c>
-      <c r="O31" s="1">
-        <f t="shared" si="26"/>
-        <v>33853.361261750004</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" ref="P31" si="39">P29-P30</f>
-        <v>37219.274999999994</v>
-      </c>
       <c r="Q31" s="1">
-        <f t="shared" ref="Q31" si="40">Q29-Q30</f>
-        <v>38877.049799999993</v>
+        <f t="shared" si="35"/>
+        <v>35207.076653750002</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ref="R31" si="41">R29-R30</f>
-        <v>28912.075524</v>
+        <f t="shared" ref="R31" si="48">R29-R30</f>
+        <v>36847.779252809996</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" ref="S31:T31" si="42">S29-S30</f>
-        <v>22664.178851760003</v>
+        <f t="shared" ref="S31" si="49">S29-S30</f>
+        <v>38394.667794845554</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="42"/>
-        <v>23795.690063630405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" ref="T31" si="50">T29-T30</f>
+        <v>24475.104419424235</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" ref="U31:V31" si="51">U29-U30</f>
+        <v>22055.510978666545</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="51"/>
+        <v>23670.696593499404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -3071,55 +3412,55 @@
         <v>1584</v>
       </c>
       <c r="H32" s="1">
-        <f>G32*1.01</f>
-        <v>1599.84</v>
+        <f>G32*1.2</f>
+        <v>1900.8</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ref="I32:J32" si="43">H32*1.01</f>
-        <v>1615.8383999999999</v>
+        <f t="shared" ref="I32:J32" si="52">H32*1.2</f>
+        <v>2280.96</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="43"/>
-        <v>1631.9967839999999</v>
-      </c>
-      <c r="L32" s="1">
+        <f t="shared" si="52"/>
+        <v>2737.152</v>
+      </c>
+      <c r="N32" s="1">
         <f>7814</f>
         <v>7814</v>
       </c>
-      <c r="M32" s="1">
+      <c r="O32" s="1">
         <f>7772</f>
         <v>7772</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32" s="1">
         <f>8414</f>
         <v>8414</v>
       </c>
-      <c r="O32" s="1">
-        <f t="shared" si="26"/>
-        <v>6431.6751839999997</v>
-      </c>
-      <c r="P32" s="1">
-        <f>N32*1.04</f>
-        <v>8750.56</v>
-      </c>
       <c r="Q32" s="1">
-        <f t="shared" ref="Q32:T32" si="44">P32*1.04</f>
-        <v>9100.5823999999993</v>
+        <f t="shared" si="35"/>
+        <v>8502.9120000000003</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="44"/>
-        <v>9464.6056959999987</v>
+        <f>Q32*1.04</f>
+        <v>8843.0284800000009</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="44"/>
-        <v>9843.1899238399983</v>
+        <f t="shared" ref="S32:V32" si="53">R32*1.04</f>
+        <v>9196.7496192000017</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="44"/>
-        <v>10236.917520793599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" si="53"/>
+        <v>9564.6196039680017</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="53"/>
+        <v>9947.2043881267218</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="53"/>
+        <v>10345.092563651791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3130,24 +3471,24 @@
       <c r="G33" s="1">
         <v>2257</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <f>9509</f>
         <v>9509</v>
       </c>
-      <c r="M33" s="1">
+      <c r="O33" s="1">
         <f>9299</f>
         <v>9299</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
         <f>11159</f>
         <v>11159</v>
       </c>
-      <c r="O33" s="1">
-        <f t="shared" si="26"/>
+      <c r="Q33" s="1">
+        <f t="shared" si="35"/>
         <v>2257</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -3158,24 +3499,24 @@
       <c r="G34" s="1">
         <v>188</v>
       </c>
-      <c r="L34" s="1">
+      <c r="N34" s="1">
         <f>815</f>
         <v>815</v>
       </c>
-      <c r="M34" s="1">
+      <c r="O34" s="1">
         <f>913</f>
         <v>913</v>
       </c>
-      <c r="N34" s="1">
+      <c r="P34" s="1">
         <f>13363</f>
         <v>13363</v>
       </c>
-      <c r="O34" s="1">
-        <f t="shared" si="26"/>
+      <c r="Q34" s="1">
+        <f t="shared" si="35"/>
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3186,24 +3527,24 @@
       <c r="G35" s="1">
         <v>830</v>
       </c>
-      <c r="L35" s="1">
+      <c r="N35" s="1">
         <f>9595</f>
         <v>9595</v>
       </c>
-      <c r="M35" s="1">
+      <c r="O35" s="1">
         <f>9047</f>
         <v>9047</v>
       </c>
-      <c r="N35" s="1">
+      <c r="P35" s="1">
         <f>8872</f>
         <v>8872</v>
       </c>
-      <c r="O35" s="1">
-        <f t="shared" si="26"/>
+      <c r="Q35" s="1">
+        <f t="shared" si="35"/>
         <v>830</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -3214,24 +3555,24 @@
       <c r="G36" s="1">
         <v>339</v>
       </c>
-      <c r="L36" s="1">
+      <c r="N36" s="1">
         <f>576</f>
         <v>576</v>
       </c>
-      <c r="M36" s="1">
+      <c r="O36" s="1">
         <f>-1158</f>
         <v>-1158</v>
       </c>
-      <c r="N36" s="1">
+      <c r="P36" s="1">
         <f>893</f>
         <v>893</v>
       </c>
-      <c r="O36" s="1">
-        <f t="shared" si="26"/>
+      <c r="Q36" s="1">
+        <f t="shared" si="35"/>
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3240,71 +3581,71 @@
         <v>20449</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:L37" si="45">SUM(D32:D36)</f>
+        <f t="shared" ref="D37:N37" si="54">SUM(D32:D36)</f>
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>5198</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="45"/>
-        <v>1599.84</v>
+        <f t="shared" si="54"/>
+        <v>1900.8</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ref="I37" si="46">SUM(I32:I36)</f>
-        <v>1615.8383999999999</v>
+        <f t="shared" ref="I37" si="55">SUM(I32:I36)</f>
+        <v>2280.96</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37" si="47">SUM(J32:J36)</f>
-        <v>1631.9967839999999</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="J37" si="56">SUM(J32:J36)</f>
+        <v>2737.152</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="54"/>
         <v>28309</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" ref="M37" si="48">SUM(M32:M36)</f>
+      <c r="O37" s="1">
+        <f t="shared" ref="O37" si="57">SUM(O32:O36)</f>
         <v>25873</v>
       </c>
-      <c r="N37" s="1">
-        <f t="shared" ref="N37" si="49">SUM(N32:N36)</f>
+      <c r="P37" s="1">
+        <f t="shared" ref="P37" si="58">SUM(P32:P36)</f>
         <v>42701</v>
       </c>
-      <c r="O37" s="1">
-        <f t="shared" si="26"/>
-        <v>10045.675184</v>
-      </c>
-      <c r="P37" s="1">
-        <f t="shared" ref="P37" si="50">SUM(P32:P36)</f>
-        <v>8750.56</v>
-      </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37" si="51">SUM(Q32:Q36)</f>
-        <v>9100.5823999999993</v>
+        <f t="shared" si="35"/>
+        <v>12116.912</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" ref="R37" si="52">SUM(R32:R36)</f>
-        <v>9464.6056959999987</v>
+        <f t="shared" ref="R37" si="59">SUM(R32:R36)</f>
+        <v>8843.0284800000009</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" ref="S37" si="53">SUM(S32:S36)</f>
-        <v>9843.1899238399983</v>
+        <f t="shared" ref="S37" si="60">SUM(S32:S36)</f>
+        <v>9196.7496192000017</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" ref="T37" si="54">SUM(T32:T36)</f>
-        <v>10236.917520793599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" ref="T37" si="61">SUM(T32:T36)</f>
+        <v>9564.6196039680017</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" ref="U37" si="62">SUM(U32:U36)</f>
+        <v>9947.2043881267218</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" ref="V37" si="63">SUM(V32:V36)</f>
+        <v>10345.092563651791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3313,71 +3654,71 @@
         <v>-11516</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38:L38" si="55">D31-D37</f>
+        <f t="shared" ref="D38:N38" si="64">D31-D37</f>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>2970</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="55"/>
-        <v>6847.4775000000009</v>
+        <f t="shared" si="64"/>
+        <v>6813.5025000000014</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" ref="I38" si="56">I31-I37</f>
-        <v>6945.2742750000007</v>
+        <f t="shared" ref="I38" si="65">I31-I37</f>
+        <v>6718.4286750000001</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" ref="J38" si="57">J31-J37</f>
-        <v>7044.9343027500008</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="J38" si="66">J31-J37</f>
+        <v>6588.2334787500004</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="64"/>
         <v>7713</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" ref="M38" si="58">M31-M37</f>
+      <c r="O38" s="1">
+        <f t="shared" ref="O38" si="67">O31-O37</f>
         <v>8440</v>
       </c>
-      <c r="N38" s="1">
-        <f t="shared" ref="N38" si="59">N31-N37</f>
+      <c r="P38" s="1">
+        <f t="shared" ref="P38" si="68">P31-P37</f>
         <v>-8369</v>
       </c>
-      <c r="O38" s="1">
-        <f t="shared" si="26"/>
-        <v>23807.686077750001</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" ref="P38" si="60">P31-P37</f>
-        <v>28468.714999999997</v>
-      </c>
       <c r="Q38" s="1">
-        <f t="shared" ref="Q38" si="61">Q31-Q37</f>
-        <v>29776.467399999994</v>
+        <f t="shared" si="35"/>
+        <v>23090.164653750002</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ref="R38" si="62">R31-R37</f>
-        <v>19447.469828000001</v>
+        <f t="shared" ref="R38" si="69">R31-R37</f>
+        <v>28004.750772809995</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" ref="S38" si="63">S31-S37</f>
-        <v>12820.988927920005</v>
+        <f t="shared" ref="S38" si="70">S31-S37</f>
+        <v>29197.918175645551</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" ref="T38" si="64">T31-T37</f>
-        <v>13558.772542836807</v>
-      </c>
-    </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" ref="T38" si="71">T31-T37</f>
+        <v>14910.484815456233</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" ref="U38" si="72">U31-U37</f>
+        <v>12108.306590539823</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" ref="V38" si="73">V31-V37</f>
+        <v>13325.604029847613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3388,43 +3729,43 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>G50*$W$47/4</f>
+        <f>G50*$Y$47/4</f>
         <v>-195.63499999999999</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" ref="I39:J39" si="65">H50*$W$47/4</f>
-        <v>-165.70170874999999</v>
+        <f>H50*$Y$47/4</f>
+        <v>-165.85459624999999</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="65"/>
-        <v>-135.193632201875</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="26"/>
-        <v>-496.53034095187496</v>
-      </c>
-      <c r="P39" s="1">
-        <f>O50*$W$47</f>
-        <v>-416.3991967376337</v>
+        <f>I50*$Y$47/4</f>
+        <v>-136.36801289562499</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" ref="Q39:T39" si="66">P50*$W$47</f>
-        <v>32.437856114564127</v>
+        <f t="shared" si="35"/>
+        <v>-497.85760914562496</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="66"/>
-        <v>509.38034021239707</v>
+        <f>Q50*$Y$47</f>
+        <v>-429.33847319712123</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="66"/>
-        <v>828.68994290379544</v>
+        <f t="shared" ref="S39:V39" si="74">R50*$Y$47</f>
+        <v>11.868123596684818</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="66"/>
-        <v>1047.0848048369762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" si="74"/>
+        <v>479.22470438456054</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="74"/>
+        <v>725.46005670201328</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="74"/>
+        <v>930.80032305788268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
@@ -3433,71 +3774,71 @@
         <v>-11516</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ref="D40:L40" si="67">D38+D39</f>
+        <f t="shared" ref="D40:N40" si="75">D38+D39</f>
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>2970</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="67"/>
-        <v>6651.8425000000007</v>
+        <f t="shared" si="75"/>
+        <v>6617.8675000000012</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40" si="68">I38+I39</f>
-        <v>6779.5725662500008</v>
+        <f t="shared" ref="I40" si="76">I38+I39</f>
+        <v>6552.5740787499999</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" ref="J40" si="69">J38+J39</f>
-        <v>6909.7406705481262</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="J40" si="77">J38+J39</f>
+        <v>6451.8654658543755</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="75"/>
         <v>7713</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" ref="M40" si="70">M38+M39</f>
+      <c r="O40" s="1">
+        <f t="shared" ref="O40" si="78">O38+O39</f>
         <v>8440</v>
       </c>
-      <c r="N40" s="1">
-        <f t="shared" ref="N40" si="71">N38+N39</f>
+      <c r="P40" s="1">
+        <f t="shared" ref="P40" si="79">P38+P39</f>
         <v>-8369</v>
       </c>
-      <c r="O40" s="1">
-        <f t="shared" si="26"/>
-        <v>23311.15573679813</v>
-      </c>
-      <c r="P40" s="1">
-        <f t="shared" ref="P40" si="72">P38+P39</f>
-        <v>28052.315803262361</v>
-      </c>
       <c r="Q40" s="1">
-        <f t="shared" ref="Q40" si="73">Q38+Q39</f>
-        <v>29808.905256114558</v>
+        <f t="shared" si="35"/>
+        <v>22592.307044604375</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" ref="R40" si="74">R38+R39</f>
-        <v>19956.850168212397</v>
+        <f t="shared" ref="R40" si="80">R38+R39</f>
+        <v>27575.412299612875</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" ref="S40" si="75">S38+S39</f>
-        <v>13649.6788708238</v>
+        <f t="shared" ref="S40" si="81">S38+S39</f>
+        <v>29209.786299242234</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" ref="T40" si="76">T38+T39</f>
-        <v>14605.857347673784</v>
-      </c>
-    </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" ref="T40" si="82">T38+T39</f>
+        <v>15389.709519840793</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" ref="U40" si="83">U38+U39</f>
+        <v>12833.766647241837</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" ref="V40" si="84">V38+V39</f>
+        <v>14256.404352905496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
@@ -3506,53 +3847,53 @@
       </c>
       <c r="H41" s="1">
         <f>H40*0.1</f>
-        <v>665.18425000000013</v>
+        <v>661.78675000000021</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41:J41" si="77">I40*0.1</f>
-        <v>677.95725662500013</v>
+        <f t="shared" ref="I41:J41" si="85">I40*0.1</f>
+        <v>655.25740787500001</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="77"/>
-        <v>690.97406705481262</v>
-      </c>
-      <c r="L41" s="1">
+        <f t="shared" si="85"/>
+        <v>645.18654658543755</v>
+      </c>
+      <c r="N41" s="1">
         <f>1368</f>
         <v>1368</v>
       </c>
-      <c r="M41" s="1">
+      <c r="O41" s="1">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="N41" s="1">
+      <c r="P41" s="1">
         <v>554</v>
       </c>
-      <c r="O41" s="1">
-        <f t="shared" si="26"/>
-        <v>2543.1155736798128</v>
-      </c>
-      <c r="P41" s="1">
-        <f>P40*0.2</f>
-        <v>5610.4631606524727</v>
-      </c>
       <c r="Q41" s="1">
-        <f t="shared" ref="Q41:T41" si="78">Q40*0.2</f>
-        <v>5961.7810512229116</v>
+        <f t="shared" si="35"/>
+        <v>2471.2307044604377</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="78"/>
-        <v>3991.3700336424795</v>
+        <f>R40*0.2</f>
+        <v>5515.0824599225753</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="78"/>
-        <v>2729.93577416476</v>
+        <f t="shared" ref="S41:V41" si="86">S40*0.2</f>
+        <v>5841.9572598484474</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="78"/>
-        <v>2921.1714695347569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" si="86"/>
+        <v>3077.9419039681588</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="86"/>
+        <v>2566.7533294483674</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="86"/>
+        <v>2851.2808705810994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
@@ -3561,503 +3902,503 @@
         <v>-11516</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:L42" si="79">D40-D41</f>
+        <f t="shared" ref="D42:N42" si="87">D40-D41</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>2461</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="79"/>
-        <v>5986.6582500000004</v>
+        <f t="shared" si="87"/>
+        <v>5956.080750000001</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42" si="80">I40-I41</f>
-        <v>6101.6153096250009</v>
+        <f t="shared" ref="I42" si="88">I40-I41</f>
+        <v>5897.3166708749995</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ref="J42" si="81">J40-J41</f>
-        <v>6218.7666034933136</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="J42" si="89">J40-J41</f>
+        <v>5806.6789192689375</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="87"/>
         <v>6345</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" ref="M42" si="82">M40-M41</f>
+      <c r="O42" s="1">
+        <f t="shared" ref="O42" si="90">O40-O41</f>
         <v>8040</v>
       </c>
-      <c r="N42" s="1">
-        <f t="shared" ref="N42" si="83">N40-N41</f>
+      <c r="P42" s="1">
+        <f t="shared" ref="P42" si="91">P40-P41</f>
         <v>-8923</v>
       </c>
-      <c r="O42" s="1">
-        <f t="shared" si="26"/>
-        <v>20768.040163118316</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" ref="P42" si="84">P40-P41</f>
-        <v>22441.852642609891</v>
-      </c>
       <c r="Q42" s="1">
-        <f t="shared" ref="Q42" si="85">Q40-Q41</f>
-        <v>23847.124204891647</v>
+        <f t="shared" si="35"/>
+        <v>20121.07634014394</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" ref="R42" si="86">R40-R41</f>
-        <v>15965.480134569918</v>
+        <f t="shared" ref="R42" si="92">R40-R41</f>
+        <v>22060.329839690301</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" ref="S42" si="87">S40-S41</f>
-        <v>10919.74309665904</v>
+        <f t="shared" ref="S42" si="93">S40-S41</f>
+        <v>23367.829039393786</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" ref="T42" si="88">T40-T41</f>
-        <v>11684.685878139027</v>
+        <f t="shared" ref="T42" si="94">T40-T41</f>
+        <v>12311.767615872635</v>
       </c>
       <c r="U42" s="1">
-        <f>T42*(1+$W$48)</f>
-        <v>11567.839019357638</v>
+        <f t="shared" ref="U42" si="95">U40-U41</f>
+        <v>10267.013317793469</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" ref="V42:CG42" si="89">U42*(1+$W$48)</f>
-        <v>11452.160629164062</v>
+        <f t="shared" ref="V42" si="96">V40-V41</f>
+        <v>11405.123482324398</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" si="89"/>
-        <v>11337.639022872421</v>
+        <f>V42*(1+$Y$48)</f>
+        <v>11291.072247501153</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="89"/>
-        <v>11224.262632643697</v>
+        <f t="shared" ref="X42:CI42" si="97">W42*(1+$Y$48)</f>
+        <v>11178.161525026142</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="89"/>
-        <v>11112.02000631726</v>
+        <f t="shared" si="97"/>
+        <v>11066.37990977588</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="89"/>
-        <v>11000.899806254087</v>
+        <f t="shared" si="97"/>
+        <v>10955.71611067812</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" si="89"/>
-        <v>10890.890808191545</v>
+        <f t="shared" si="97"/>
+        <v>10846.15894957134</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="89"/>
-        <v>10781.981900109629</v>
+        <f t="shared" si="97"/>
+        <v>10737.697360075626</v>
       </c>
       <c r="AC42" s="1">
-        <f t="shared" si="89"/>
-        <v>10674.162081108532</v>
+        <f t="shared" si="97"/>
+        <v>10630.32038647487</v>
       </c>
       <c r="AD42" s="1">
-        <f t="shared" si="89"/>
-        <v>10567.420460297446</v>
+        <f t="shared" si="97"/>
+        <v>10524.017182610121</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" si="89"/>
-        <v>10461.746255694472</v>
+        <f t="shared" si="97"/>
+        <v>10418.777010784021</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="89"/>
-        <v>10357.128793137526</v>
+        <f t="shared" si="97"/>
+        <v>10314.58924067618</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="89"/>
-        <v>10253.55750520615</v>
+        <f t="shared" si="97"/>
+        <v>10211.443348269418</v>
       </c>
       <c r="AH42" s="1">
-        <f t="shared" si="89"/>
-        <v>10151.021930154089</v>
+        <f t="shared" si="97"/>
+        <v>10109.328914786724</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" si="89"/>
-        <v>10049.511710852548</v>
+        <f t="shared" si="97"/>
+        <v>10008.235625638856</v>
       </c>
       <c r="AJ42" s="1">
-        <f t="shared" si="89"/>
-        <v>9949.0165937440233</v>
+        <f t="shared" si="97"/>
+        <v>9908.1532693824665</v>
       </c>
       <c r="AK42" s="1">
-        <f t="shared" si="89"/>
-        <v>9849.5264278065824</v>
+        <f t="shared" si="97"/>
+        <v>9809.071736688642</v>
       </c>
       <c r="AL42" s="1">
-        <f t="shared" si="89"/>
-        <v>9751.0311635285161</v>
+        <f t="shared" si="97"/>
+        <v>9710.9810193217563</v>
       </c>
       <c r="AM42" s="1">
-        <f t="shared" si="89"/>
-        <v>9653.5208518932304</v>
+        <f t="shared" si="97"/>
+        <v>9613.8712091285379</v>
       </c>
       <c r="AN42" s="1">
-        <f t="shared" si="89"/>
-        <v>9556.9856433742989</v>
+        <f t="shared" si="97"/>
+        <v>9517.732497037252</v>
       </c>
       <c r="AO42" s="1">
-        <f t="shared" si="89"/>
-        <v>9461.4157869405553</v>
+        <f t="shared" si="97"/>
+        <v>9422.5551720668791</v>
       </c>
       <c r="AP42" s="1">
-        <f t="shared" si="89"/>
-        <v>9366.8016290711494</v>
+        <f t="shared" si="97"/>
+        <v>9328.3296203462105</v>
       </c>
       <c r="AQ42" s="1">
-        <f t="shared" si="89"/>
-        <v>9273.133612780437</v>
+        <f t="shared" si="97"/>
+        <v>9235.0463241427478</v>
       </c>
       <c r="AR42" s="1">
-        <f t="shared" si="89"/>
-        <v>9180.4022766526323</v>
+        <f t="shared" si="97"/>
+        <v>9142.69586090132</v>
       </c>
       <c r="AS42" s="1">
-        <f t="shared" si="89"/>
-        <v>9088.5982538861062</v>
+        <f t="shared" si="97"/>
+        <v>9051.2689022923059</v>
       </c>
       <c r="AT42" s="1">
-        <f t="shared" si="89"/>
-        <v>8997.7122713472454</v>
+        <f t="shared" si="97"/>
+        <v>8960.756213269382</v>
       </c>
       <c r="AU42" s="1">
-        <f t="shared" si="89"/>
-        <v>8907.735148633772</v>
+        <f t="shared" si="97"/>
+        <v>8871.1486511366875</v>
       </c>
       <c r="AV42" s="1">
-        <f t="shared" si="89"/>
-        <v>8818.6577971474344</v>
+        <f t="shared" si="97"/>
+        <v>8782.4371646253203</v>
       </c>
       <c r="AW42" s="1">
-        <f t="shared" si="89"/>
-        <v>8730.4712191759609</v>
+        <f t="shared" si="97"/>
+        <v>8694.6127929790673</v>
       </c>
       <c r="AX42" s="1">
-        <f t="shared" si="89"/>
-        <v>8643.166506984202</v>
+        <f t="shared" si="97"/>
+        <v>8607.6666650492771</v>
       </c>
       <c r="AY42" s="1">
-        <f t="shared" si="89"/>
-        <v>8556.73484191436</v>
+        <f t="shared" si="97"/>
+        <v>8521.5899983987838</v>
       </c>
       <c r="AZ42" s="1">
-        <f t="shared" si="89"/>
-        <v>8471.1674934952171</v>
+        <f t="shared" si="97"/>
+        <v>8436.3740984147953</v>
       </c>
       <c r="BA42" s="1">
-        <f t="shared" si="89"/>
-        <v>8386.4558185602655</v>
+        <f t="shared" si="97"/>
+        <v>8352.0103574306468</v>
       </c>
       <c r="BB42" s="1">
-        <f t="shared" si="89"/>
-        <v>8302.5912603746619</v>
+        <f t="shared" si="97"/>
+        <v>8268.4902538563401</v>
       </c>
       <c r="BC42" s="1">
-        <f t="shared" si="89"/>
-        <v>8219.5653477709147</v>
+        <f t="shared" si="97"/>
+        <v>8185.8053513177765</v>
       </c>
       <c r="BD42" s="1">
-        <f t="shared" si="89"/>
-        <v>8137.3696942932056</v>
+        <f t="shared" si="97"/>
+        <v>8103.9472978045987</v>
       </c>
       <c r="BE42" s="1">
-        <f t="shared" si="89"/>
-        <v>8055.9959973502737</v>
+        <f t="shared" si="97"/>
+        <v>8022.9078248265523</v>
       </c>
       <c r="BF42" s="1">
-        <f t="shared" si="89"/>
-        <v>7975.4360373767713</v>
+        <f t="shared" si="97"/>
+        <v>7942.6787465782863</v>
       </c>
       <c r="BG42" s="1">
-        <f t="shared" si="89"/>
-        <v>7895.6816770030036</v>
+        <f t="shared" si="97"/>
+        <v>7863.2519591125038</v>
       </c>
       <c r="BH42" s="1">
-        <f t="shared" si="89"/>
-        <v>7816.7248602329737</v>
+        <f t="shared" si="97"/>
+        <v>7784.6194395213788</v>
       </c>
       <c r="BI42" s="1">
-        <f t="shared" si="89"/>
-        <v>7738.5576116306438</v>
+        <f t="shared" si="97"/>
+        <v>7706.7732451261645</v>
       </c>
       <c r="BJ42" s="1">
-        <f t="shared" si="89"/>
-        <v>7661.172035514337</v>
+        <f t="shared" si="97"/>
+        <v>7629.7055126749028</v>
       </c>
       <c r="BK42" s="1">
-        <f t="shared" si="89"/>
-        <v>7584.560315159194</v>
+        <f t="shared" si="97"/>
+        <v>7553.4084575481538</v>
       </c>
       <c r="BL42" s="1">
-        <f t="shared" si="89"/>
-        <v>7508.7147120076024</v>
+        <f t="shared" si="97"/>
+        <v>7477.8743729726721</v>
       </c>
       <c r="BM42" s="1">
-        <f t="shared" si="89"/>
-        <v>7433.6275648875262</v>
+        <f t="shared" si="97"/>
+        <v>7403.0956292429455</v>
       </c>
       <c r="BN42" s="1">
-        <f t="shared" si="89"/>
-        <v>7359.2912892386512</v>
+        <f t="shared" si="97"/>
+        <v>7329.0646729505161</v>
       </c>
       <c r="BO42" s="1">
-        <f t="shared" si="89"/>
-        <v>7285.6983763462649</v>
+        <f t="shared" si="97"/>
+        <v>7255.7740262210109</v>
       </c>
       <c r="BP42" s="1">
-        <f t="shared" si="89"/>
-        <v>7212.8413925828027</v>
+        <f t="shared" si="97"/>
+        <v>7183.2162859588007</v>
       </c>
       <c r="BQ42" s="1">
-        <f t="shared" si="89"/>
-        <v>7140.7129786569749</v>
+        <f t="shared" si="97"/>
+        <v>7111.384123099213</v>
       </c>
       <c r="BR42" s="1">
-        <f t="shared" si="89"/>
-        <v>7069.3058488704055</v>
+        <f t="shared" si="97"/>
+        <v>7040.270281868221</v>
       </c>
       <c r="BS42" s="1">
-        <f t="shared" si="89"/>
-        <v>6998.6127903817014</v>
+        <f t="shared" si="97"/>
+        <v>6969.867579049539</v>
       </c>
       <c r="BT42" s="1">
-        <f t="shared" si="89"/>
-        <v>6928.6266624778846</v>
+        <f t="shared" si="97"/>
+        <v>6900.1689032590439</v>
       </c>
       <c r="BU42" s="1">
-        <f t="shared" si="89"/>
-        <v>6859.3403958531053</v>
+        <f t="shared" si="97"/>
+        <v>6831.1672142264533</v>
       </c>
       <c r="BV42" s="1">
-        <f t="shared" si="89"/>
-        <v>6790.7469918945744</v>
+        <f t="shared" si="97"/>
+        <v>6762.8555420841885</v>
       </c>
       <c r="BW42" s="1">
-        <f t="shared" si="89"/>
-        <v>6722.8395219756285</v>
+        <f t="shared" si="97"/>
+        <v>6695.2269866633469</v>
       </c>
       <c r="BX42" s="1">
-        <f t="shared" si="89"/>
-        <v>6655.6111267558717</v>
+        <f t="shared" si="97"/>
+        <v>6628.2747167967136</v>
       </c>
       <c r="BY42" s="1">
-        <f t="shared" si="89"/>
-        <v>6589.0550154883131</v>
+        <f t="shared" si="97"/>
+        <v>6561.9919696287461</v>
       </c>
       <c r="BZ42" s="1">
-        <f t="shared" si="89"/>
-        <v>6523.1644653334297</v>
+        <f t="shared" si="97"/>
+        <v>6496.372049932459</v>
       </c>
       <c r="CA42" s="1">
-        <f t="shared" si="89"/>
-        <v>6457.9328206800956</v>
+        <f t="shared" si="97"/>
+        <v>6431.408329433134</v>
       </c>
       <c r="CB42" s="1">
-        <f t="shared" si="89"/>
-        <v>6393.3534924732949</v>
+        <f t="shared" si="97"/>
+        <v>6367.0942461388022</v>
       </c>
       <c r="CC42" s="1">
-        <f t="shared" si="89"/>
-        <v>6329.4199575485618</v>
+        <f t="shared" si="97"/>
+        <v>6303.423303677414</v>
       </c>
       <c r="CD42" s="1">
-        <f t="shared" si="89"/>
-        <v>6266.1257579730764</v>
+        <f t="shared" si="97"/>
+        <v>6240.3890706406401</v>
       </c>
       <c r="CE42" s="1">
-        <f t="shared" si="89"/>
-        <v>6203.4645003933456</v>
+        <f t="shared" si="97"/>
+        <v>6177.9851799342332</v>
       </c>
       <c r="CF42" s="1">
-        <f t="shared" si="89"/>
-        <v>6141.4298553894123</v>
+        <f t="shared" si="97"/>
+        <v>6116.2053281348908</v>
       </c>
       <c r="CG42" s="1">
-        <f t="shared" si="89"/>
-        <v>6080.0155568355185</v>
+        <f t="shared" si="97"/>
+        <v>6055.0432748535422</v>
       </c>
       <c r="CH42" s="1">
-        <f t="shared" ref="CH42:DX42" si="90">CG42*(1+$W$48)</f>
-        <v>6019.2154012671635</v>
+        <f t="shared" si="97"/>
+        <v>5994.4928421050072</v>
       </c>
       <c r="CI42" s="1">
-        <f t="shared" si="90"/>
-        <v>5959.0232472544922</v>
+        <f t="shared" si="97"/>
+        <v>5934.5479136839567</v>
       </c>
       <c r="CJ42" s="1">
-        <f t="shared" si="90"/>
-        <v>5899.4330147819473</v>
+        <f t="shared" ref="CJ42:DZ42" si="98">CI42*(1+$Y$48)</f>
+        <v>5875.2024345471173</v>
       </c>
       <c r="CK42" s="1">
-        <f t="shared" si="90"/>
-        <v>5840.4386846341276</v>
+        <f t="shared" si="98"/>
+        <v>5816.4504102016463</v>
       </c>
       <c r="CL42" s="1">
-        <f t="shared" si="90"/>
-        <v>5782.0342977877863</v>
+        <f t="shared" si="98"/>
+        <v>5758.2859060996298</v>
       </c>
       <c r="CM42" s="1">
-        <f t="shared" si="90"/>
-        <v>5724.2139548099085</v>
+        <f t="shared" si="98"/>
+        <v>5700.7030470386335</v>
       </c>
       <c r="CN42" s="1">
-        <f t="shared" si="90"/>
-        <v>5666.9718152618098</v>
+        <f t="shared" si="98"/>
+        <v>5643.6960165682467</v>
       </c>
       <c r="CO42" s="1">
-        <f t="shared" si="90"/>
-        <v>5610.3020971091919</v>
+        <f t="shared" si="98"/>
+        <v>5587.2590564025641</v>
       </c>
       <c r="CP42" s="1">
-        <f t="shared" si="90"/>
-        <v>5554.1990761381003</v>
+        <f t="shared" si="98"/>
+        <v>5531.3864658385382</v>
       </c>
       <c r="CQ42" s="1">
-        <f t="shared" si="90"/>
-        <v>5498.6570853767189</v>
+        <f t="shared" si="98"/>
+        <v>5476.0726011801526</v>
       </c>
       <c r="CR42" s="1">
-        <f t="shared" si="90"/>
-        <v>5443.6705145229516</v>
+        <f t="shared" si="98"/>
+        <v>5421.3118751683514</v>
       </c>
       <c r="CS42" s="1">
-        <f t="shared" si="90"/>
-        <v>5389.2338093777216</v>
+        <f t="shared" si="98"/>
+        <v>5367.098756416668</v>
       </c>
       <c r="CT42" s="1">
-        <f t="shared" si="90"/>
-        <v>5335.341471283944</v>
+        <f t="shared" si="98"/>
+        <v>5313.4277688525017</v>
       </c>
       <c r="CU42" s="1">
-        <f t="shared" si="90"/>
-        <v>5281.9880565711046</v>
+        <f t="shared" si="98"/>
+        <v>5260.2934911639768</v>
       </c>
       <c r="CV42" s="1">
-        <f t="shared" si="90"/>
-        <v>5229.1681760053934</v>
+        <f t="shared" si="98"/>
+        <v>5207.690556252337</v>
       </c>
       <c r="CW42" s="1">
-        <f t="shared" si="90"/>
-        <v>5176.876494245339</v>
+        <f t="shared" si="98"/>
+        <v>5155.6136506898138</v>
       </c>
       <c r="CX42" s="1">
-        <f t="shared" si="90"/>
-        <v>5125.1077293028857</v>
+        <f t="shared" si="98"/>
+        <v>5104.0575141829158</v>
       </c>
       <c r="CY42" s="1">
-        <f t="shared" si="90"/>
-        <v>5073.8566520098566</v>
+        <f t="shared" si="98"/>
+        <v>5053.0169390410865</v>
       </c>
       <c r="CZ42" s="1">
-        <f t="shared" si="90"/>
-        <v>5023.1180854897584</v>
+        <f t="shared" si="98"/>
+        <v>5002.4867696506753</v>
       </c>
       <c r="DA42" s="1">
-        <f t="shared" si="90"/>
-        <v>4972.8869046348609</v>
+        <f t="shared" si="98"/>
+        <v>4952.4619019541688</v>
       </c>
       <c r="DB42" s="1">
-        <f t="shared" si="90"/>
-        <v>4923.1580355885126</v>
+        <f t="shared" si="98"/>
+        <v>4902.9372829346266</v>
       </c>
       <c r="DC42" s="1">
-        <f t="shared" si="90"/>
-        <v>4873.9264552326276</v>
+        <f t="shared" si="98"/>
+        <v>4853.9079101052803</v>
       </c>
       <c r="DD42" s="1">
-        <f t="shared" si="90"/>
-        <v>4825.1871906803017</v>
+        <f t="shared" si="98"/>
+        <v>4805.3688310042271</v>
       </c>
       <c r="DE42" s="1">
-        <f t="shared" si="90"/>
-        <v>4776.9353187734987</v>
+        <f t="shared" si="98"/>
+        <v>4757.3151426941849</v>
       </c>
       <c r="DF42" s="1">
-        <f t="shared" si="90"/>
-        <v>4729.1659655857638</v>
+        <f t="shared" si="98"/>
+        <v>4709.7419912672431</v>
       </c>
       <c r="DG42" s="1">
-        <f t="shared" si="90"/>
-        <v>4681.8743059299059</v>
+        <f t="shared" si="98"/>
+        <v>4662.6445713545709</v>
       </c>
       <c r="DH42" s="1">
-        <f t="shared" si="90"/>
-        <v>4635.055562870607</v>
+        <f t="shared" si="98"/>
+        <v>4616.0181256410251</v>
       </c>
       <c r="DI42" s="1">
-        <f t="shared" si="90"/>
-        <v>4588.7050072419006</v>
+        <f t="shared" si="98"/>
+        <v>4569.8579443846147</v>
       </c>
       <c r="DJ42" s="1">
-        <f t="shared" si="90"/>
-        <v>4542.8179571694818</v>
+        <f t="shared" si="98"/>
+        <v>4524.1593649407687</v>
       </c>
       <c r="DK42" s="1">
-        <f t="shared" si="90"/>
-        <v>4497.3897775977866</v>
+        <f t="shared" si="98"/>
+        <v>4478.9177712913606</v>
       </c>
       <c r="DL42" s="1">
-        <f t="shared" si="90"/>
-        <v>4452.4158798218086</v>
+        <f t="shared" si="98"/>
+        <v>4434.1285935784472</v>
       </c>
       <c r="DM42" s="1">
-        <f t="shared" si="90"/>
-        <v>4407.8917210235904</v>
+        <f t="shared" si="98"/>
+        <v>4389.7873076426631</v>
       </c>
       <c r="DN42" s="1">
-        <f t="shared" si="90"/>
-        <v>4363.8128038133545</v>
+        <f t="shared" si="98"/>
+        <v>4345.8894345662366</v>
       </c>
       <c r="DO42" s="1">
-        <f t="shared" si="90"/>
-        <v>4320.1746757752207</v>
+        <f t="shared" si="98"/>
+        <v>4302.4305402205746</v>
       </c>
       <c r="DP42" s="1">
-        <f t="shared" si="90"/>
-        <v>4276.9729290174682</v>
+        <f t="shared" si="98"/>
+        <v>4259.4062348183688</v>
       </c>
       <c r="DQ42" s="1">
-        <f t="shared" si="90"/>
-        <v>4234.2031997272934</v>
+        <f t="shared" si="98"/>
+        <v>4216.812172470185</v>
       </c>
       <c r="DR42" s="1">
-        <f t="shared" si="90"/>
-        <v>4191.8611677300205</v>
+        <f t="shared" si="98"/>
+        <v>4174.6440507454836</v>
       </c>
       <c r="DS42" s="1">
-        <f t="shared" si="90"/>
-        <v>4149.9425560527206</v>
+        <f t="shared" si="98"/>
+        <v>4132.8976102380284</v>
       </c>
       <c r="DT42" s="1">
-        <f t="shared" si="90"/>
-        <v>4108.4431304921936</v>
+        <f t="shared" si="98"/>
+        <v>4091.5686341356482</v>
       </c>
       <c r="DU42" s="1">
-        <f t="shared" si="90"/>
-        <v>4067.3586991872717</v>
+        <f t="shared" si="98"/>
+        <v>4050.6529477942918</v>
       </c>
       <c r="DV42" s="1">
-        <f t="shared" si="90"/>
-        <v>4026.6851121953991</v>
+        <f t="shared" si="98"/>
+        <v>4010.1464183163489</v>
       </c>
       <c r="DW42" s="1">
-        <f t="shared" si="90"/>
-        <v>3986.4182610734451</v>
+        <f t="shared" si="98"/>
+        <v>3970.0449541331855</v>
       </c>
       <c r="DX42" s="1">
-        <f t="shared" si="90"/>
-        <v>3946.5540784627105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" si="98"/>
+        <v>3930.3445045918534</v>
+      </c>
+      <c r="DY42" s="1">
+        <f t="shared" si="98"/>
+        <v>3891.0410595459348</v>
+      </c>
+      <c r="DZ42" s="1">
+        <f t="shared" si="98"/>
+        <v>3852.1306489504755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4077,44 +4418,44 @@
       <c r="J43" s="1">
         <v>2035.08</v>
       </c>
-      <c r="L43" s="1">
-        <f>L42/L44</f>
+      <c r="N43" s="1">
+        <f>N42/N44</f>
         <v>2136.363636363636</v>
       </c>
-      <c r="M43" s="1">
-        <f>M42/M44</f>
+      <c r="O43" s="1">
+        <f>O42/O44</f>
         <v>2072.1649484536083</v>
       </c>
-      <c r="N43" s="1">
+      <c r="P43" s="1">
         <f>2029.312</f>
         <v>2029.3119999999999</v>
       </c>
-      <c r="O43" s="1">
+      <c r="Q43" s="1">
         <f>J43</f>
         <v>2035.08</v>
       </c>
-      <c r="P43" s="1">
-        <f>O43</f>
+      <c r="R43" s="1">
+        <f>Q43</f>
         <v>2035.08</v>
       </c>
-      <c r="Q43" s="1">
-        <f t="shared" ref="Q43:T43" si="91">P43</f>
+      <c r="S43" s="1">
+        <f t="shared" ref="S43:V43" si="99">R43</f>
         <v>2035.08</v>
       </c>
-      <c r="R43" s="1">
-        <f t="shared" si="91"/>
+      <c r="T43" s="1">
+        <f t="shared" si="99"/>
         <v>2035.08</v>
       </c>
-      <c r="S43" s="1">
-        <f t="shared" si="91"/>
+      <c r="U43" s="1">
+        <f t="shared" si="99"/>
         <v>2035.08</v>
       </c>
-      <c r="T43" s="1">
-        <f t="shared" si="91"/>
+      <c r="V43" s="1">
+        <f t="shared" si="99"/>
         <v>2035.08</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -4139,52 +4480,57 @@
       </c>
       <c r="H44" s="7">
         <f>H42/H43</f>
-        <v>2.9417311604457814</v>
+        <v>2.9267059525915449</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" ref="I44:J44" si="92">I42/I43</f>
-        <v>2.9982188953874056</v>
+        <f t="shared" ref="I44:J44" si="100">I42/I43</f>
+        <v>2.8978303903900584</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="92"/>
-        <v>3.0557848357279882</v>
-      </c>
-      <c r="L44" s="7">
+        <f t="shared" si="100"/>
+        <v>2.8532927055786197</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="N44" s="7">
         <v>2.97</v>
       </c>
-      <c r="M44" s="7">
+      <c r="O44" s="7">
         <v>3.88</v>
       </c>
-      <c r="N44" s="7">
-        <f t="shared" ref="N44:O44" si="93">N42/N43</f>
+      <c r="P44" s="7">
+        <f t="shared" ref="P44:Q44" si="101">P42/P43</f>
         <v>-4.3970567364702919</v>
       </c>
-      <c r="O44" s="7">
-        <f t="shared" si="93"/>
-        <v>10.205023961278336</v>
-      </c>
-      <c r="P44" s="7">
-        <f t="shared" ref="P44" si="94">P42/P43</f>
-        <v>11.027503902848975</v>
-      </c>
       <c r="Q44" s="7">
-        <f t="shared" ref="Q44" si="95">Q42/Q43</f>
-        <v>11.71802789319911</v>
+        <f t="shared" si="101"/>
+        <v>9.8871181182773853</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" ref="R44" si="96">R42/R43</f>
-        <v>7.8451363752628485</v>
+        <f t="shared" ref="R44" si="102">R42/R43</f>
+        <v>10.840030779964572</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" ref="S44" si="97">S42/S43</f>
-        <v>5.3657561848472985</v>
+        <f t="shared" ref="S44" si="103">S42/S43</f>
+        <v>11.482511271986255</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" ref="T44" si="98">T42/T43</f>
-        <v>5.7416346670101559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:128" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="T44" si="104">T42/T43</f>
+        <v>6.0497708276198656</v>
+      </c>
+      <c r="U44" s="7">
+        <f t="shared" ref="U44" si="105">U42/U43</f>
+        <v>5.0450170596701209</v>
+      </c>
+      <c r="V44" s="7">
+        <f t="shared" ref="V44" si="106">V42/V43</f>
+        <v>5.6042629686913523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:130" x14ac:dyDescent="0.2">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:130" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
         <v>34</v>
@@ -4194,51 +4540,53 @@
         <v>-5.5962916139907337E-2</v>
       </c>
       <c r="H46" s="8" t="e">
-        <f t="shared" ref="H46:J46" si="99">H29/D29-1</f>
+        <f t="shared" ref="H46:J46" si="107">H29/D29-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="8" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J46" s="8" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="8">
-        <f t="shared" ref="M46:T46" si="100">M29/L29-1</f>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="O46" s="8">
+        <f t="shared" ref="O46:V46" si="108">O29/N29-1</f>
         <v>-2.4978877358694973E-2</v>
       </c>
-      <c r="N46" s="8">
-        <f t="shared" si="100"/>
+      <c r="P46" s="8">
+        <f t="shared" si="108"/>
         <v>7.3190241301159809E-2</v>
       </c>
-      <c r="O46" s="8">
-        <f t="shared" si="100"/>
-        <v>-5.9044547639751532E-2</v>
-      </c>
-      <c r="P46" s="8">
-        <f t="shared" si="100"/>
-        <v>9.1919072674209623E-2</v>
-      </c>
       <c r="Q46" s="8">
-        <f t="shared" si="100"/>
-        <v>4.4540760130335588E-2</v>
+        <f t="shared" si="108"/>
+        <v>-2.1674902587991651E-2</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" si="100"/>
-        <v>-0.25632022818768518</v>
+        <f t="shared" si="108"/>
+        <v>3.9727976460376402E-2</v>
       </c>
       <c r="S46" s="8">
-        <f t="shared" si="100"/>
-        <v>-0.21609990147727709</v>
+        <f t="shared" si="108"/>
+        <v>4.1980509365909358E-2</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="100"/>
-        <v>4.9925091893745499E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
+        <f t="shared" si="108"/>
+        <v>-0.36253897155193004</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" si="108"/>
+        <v>-9.8859371518653205E-2</v>
+      </c>
+      <c r="V46" s="8">
+        <f t="shared" si="108"/>
+        <v>7.3232745158122503E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -4263,61 +4611,63 @@
         <v>-0.27077939469690204</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" ref="H47:J47" si="101">H31/H29-1</f>
+        <f t="shared" ref="H47:J47" si="109">H31/H29-1</f>
         <v>-0.25</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="101"/>
-        <v>-0.25000000000000011</v>
+        <f t="shared" si="109"/>
+        <v>-0.25</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>-0.25</v>
       </c>
-      <c r="L47" s="3">
-        <f t="shared" ref="L47:T47" si="102">L31/L29</f>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="N47" s="3">
+        <f t="shared" ref="N47:V47" si="110">N31/N29</f>
         <v>0.78038952316991272</v>
       </c>
-      <c r="M47" s="3">
-        <f t="shared" si="102"/>
+      <c r="O47" s="3">
+        <f t="shared" si="110"/>
         <v>0.76240945651690883</v>
       </c>
-      <c r="N47" s="3">
-        <f t="shared" si="102"/>
+      <c r="P47" s="3">
+        <f t="shared" si="110"/>
         <v>0.71080745341614904</v>
       </c>
-      <c r="O47" s="3">
-        <f t="shared" si="102"/>
-        <v>0.74487877925822865</v>
-      </c>
-      <c r="P47" s="3">
-        <f t="shared" si="102"/>
+      <c r="Q47" s="3">
+        <f t="shared" si="110"/>
+        <v>0.74507439746516002</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="110"/>
         <v>0.74999999999999989</v>
       </c>
-      <c r="Q47" s="3">
-        <f t="shared" si="102"/>
+      <c r="S47" s="3">
+        <f t="shared" si="110"/>
+        <v>0.75</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="110"/>
         <v>0.74999999999999989</v>
       </c>
-      <c r="R47" s="3">
-        <f t="shared" si="102"/>
+      <c r="U47" s="3">
+        <f t="shared" si="110"/>
         <v>0.75</v>
       </c>
-      <c r="S47" s="3">
-        <f t="shared" si="102"/>
+      <c r="V47" s="3">
+        <f t="shared" si="110"/>
         <v>0.75</v>
       </c>
-      <c r="T47" s="3">
-        <f t="shared" si="102"/>
-        <v>0.75</v>
-      </c>
-      <c r="V47" s="1" t="s">
+      <c r="X47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:130" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4326,66 +4676,68 @@
         <v>-0.33079847908745252</v>
       </c>
       <c r="H48" s="3" t="e">
-        <f t="shared" ref="H48:J48" si="103">H32/D32-1</f>
+        <f t="shared" ref="H48:J48" si="111">H32/D32-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="3" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J48" s="3" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="3">
-        <f t="shared" ref="M48:T48" si="104">M32/L32-1</f>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="O48" s="3">
+        <f t="shared" ref="O48:V48" si="112">O32/N32-1</f>
         <v>-5.3749680061427885E-3</v>
       </c>
-      <c r="N48" s="3">
-        <f t="shared" si="104"/>
+      <c r="P48" s="3">
+        <f t="shared" si="112"/>
         <v>8.2604220277920692E-2</v>
       </c>
-      <c r="O48" s="3">
-        <f t="shared" si="104"/>
-        <v>-0.23559838554789636</v>
-      </c>
-      <c r="P48" s="3">
-        <f t="shared" si="104"/>
-        <v>0.36054134415380013</v>
-      </c>
       <c r="Q48" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
+        <v>1.0567149988115032E-2</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="112"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R48" s="3">
-        <f t="shared" si="104"/>
+      <c r="S48" s="3">
+        <f t="shared" si="112"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S48" s="3">
-        <f t="shared" si="104"/>
+      <c r="T48" s="3">
+        <f t="shared" si="112"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T48" s="3">
-        <f t="shared" si="104"/>
+      <c r="U48" s="3">
+        <f t="shared" si="112"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="V48" s="3">
+        <f t="shared" si="112"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="X48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="M49" s="7"/>
-      <c r="V49" s="1" t="s">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O49" s="7"/>
+      <c r="X49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
@@ -4395,61 +4747,61 @@
       </c>
       <c r="H50" s="1">
         <f>G50+H42</f>
-        <v>-33140.34175</v>
+        <v>-33170.919249999999</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" ref="I50:J50" si="105">H50+I42</f>
-        <v>-27038.726440374998</v>
+        <f t="shared" ref="I50:J50" si="113">H50+I42</f>
+        <v>-27273.602579124999</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="105"/>
-        <v>-20819.959836881684</v>
-      </c>
-      <c r="L50" s="1">
-        <f>SUM(L51:L52)-SUM(L66:L68)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <f>SUM(M51:M52)-SUM(M67:M68)</f>
+        <f t="shared" si="113"/>
+        <v>-21466.92365985606</v>
+      </c>
+      <c r="N50" s="1">
+        <f>SUM(N51:N52)-SUM(N66:N68)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f>SUM(O51:O52)-SUM(O67:O68)</f>
         <v>-30794</v>
       </c>
-      <c r="N50" s="1">
-        <f>SUM(N51:N52)-SUM(N67:N68)</f>
+      <c r="P50" s="1">
+        <f>SUM(P51:P52)-SUM(P67:P68)</f>
         <v>-41113</v>
       </c>
-      <c r="O50" s="1">
+      <c r="Q50" s="1">
         <f>J50</f>
-        <v>-20819.959836881684</v>
-      </c>
-      <c r="P50" s="1">
-        <f>O50+P42</f>
-        <v>1621.8928057282064</v>
-      </c>
-      <c r="Q50" s="1">
-        <f>P50+Q42</f>
-        <v>25469.017010619853</v>
+        <v>-21466.92365985606</v>
       </c>
       <c r="R50" s="1">
         <f>Q50+R42</f>
-        <v>41434.497145189773</v>
+        <v>593.4061798342409</v>
       </c>
       <c r="S50" s="1">
         <f>R50+S42</f>
-        <v>52354.240241848813</v>
+        <v>23961.235219228027</v>
       </c>
       <c r="T50" s="1">
         <f>S50+T42</f>
-        <v>64038.926119987838</v>
-      </c>
-      <c r="V50" s="1" t="s">
+        <v>36273.002835100662</v>
+      </c>
+      <c r="U50" s="1">
+        <f>T50+U42</f>
+        <v>46540.016152894132</v>
+      </c>
+      <c r="V50" s="1">
+        <f>U50+V42</f>
+        <v>57945.139635218526</v>
+      </c>
+      <c r="X50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W50" s="1">
-        <f>NPV(W49,O42:XFD42)+Main!L5-Main!L6</f>
-        <v>125792.74322998783</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y50" s="1">
+        <f>NPV(Y49,Q42:XFD42)+Main!L5-Main!L6</f>
+        <v>119242.40368057933</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
@@ -4457,23 +4809,23 @@
         <f>10875</f>
         <v>10875</v>
       </c>
-      <c r="M51" s="1">
+      <c r="O51" s="1">
         <f>11464</f>
         <v>11464</v>
       </c>
-      <c r="N51" s="1">
+      <c r="P51" s="1">
         <f>10346</f>
         <v>10346</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="7">
-        <f>W50/Main!L3</f>
-        <v>61.812185874750789</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y51" s="7">
+        <f>Y50/Main!L3</f>
+        <v>58.593472335524567</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -4481,114 +4833,114 @@
         <f>907</f>
         <v>907</v>
       </c>
-      <c r="M52" s="1">
+      <c r="O52" s="1">
         <f>816</f>
         <v>816</v>
       </c>
-      <c r="N52" s="1">
+      <c r="P52" s="1">
         <f>513</f>
         <v>513</v>
       </c>
-      <c r="W52" s="3">
-        <f>W51/Main!L2-1</f>
-        <v>0.28775387239064143</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <f>Y51/Main!L2-1</f>
+        <v>0.22069734032342847</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="1">
         <v>10801</v>
       </c>
-      <c r="M53" s="1">
+      <c r="O53" s="1">
         <f>10921</f>
         <v>10921</v>
       </c>
-      <c r="N53" s="1">
+      <c r="P53" s="1">
         <f>10747</f>
         <v>10747</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G54" s="1">
         <v>2666</v>
       </c>
-      <c r="M54" s="1">
+      <c r="O54" s="1">
         <f>2662</f>
         <v>2662</v>
       </c>
-      <c r="N54" s="1">
+      <c r="P54" s="1">
         <f>2557</f>
         <v>2557</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G55" s="1">
         <v>7213</v>
       </c>
-      <c r="M55" s="1">
+      <c r="O55" s="1">
         <f>6646</f>
         <v>6646</v>
       </c>
-      <c r="N55" s="1">
+      <c r="P55" s="1">
         <f>7136</f>
         <v>7136</v>
       </c>
-      <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G56" s="1">
         <v>21737</v>
       </c>
-      <c r="M56" s="1">
+      <c r="O56" s="1">
         <f>21169</f>
         <v>21169</v>
       </c>
-      <c r="N56" s="1">
+      <c r="P56" s="1">
         <f>21719</f>
         <v>21719</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G57" s="1">
         <v>22486</v>
       </c>
-      <c r="M57" s="1">
+      <c r="O57" s="1">
         <f>27072</f>
         <v>27072</v>
       </c>
-      <c r="N57" s="1">
+      <c r="P57" s="1">
         <f>23307</f>
         <v>23307</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M58" s="1">
+      <c r="O58" s="1">
         <f>2768</f>
         <v>2768</v>
       </c>
-      <c r="N58" s="1">
+      <c r="P58" s="1">
         <f>4236</f>
         <v>4236</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
@@ -4596,16 +4948,16 @@
         <f>344</f>
         <v>344</v>
       </c>
-      <c r="M59" s="1">
+      <c r="O59" s="1">
         <f>364</f>
         <v>364</v>
       </c>
-      <c r="N59" s="1">
+      <c r="P59" s="1">
         <f>320</f>
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>43</v>
       </c>
@@ -4613,16 +4965,16 @@
         <f>5534+5866</f>
         <v>11400</v>
       </c>
-      <c r="M60" s="1">
+      <c r="O60" s="1">
         <f>5370+5907</f>
         <v>11277</v>
       </c>
-      <c r="N60" s="1">
+      <c r="P60" s="1">
         <f>6105+5617</f>
         <v>11722</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>44</v>
       </c>
@@ -4642,20 +4994,20 @@
         <f>SUM(J51:J60)</f>
         <v>0</v>
       </c>
-      <c r="L61" s="1">
-        <f>SUM(L51:L60)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
-        <f>SUM(M51:M60)</f>
-        <v>95159</v>
-      </c>
       <c r="N61" s="1">
         <f>SUM(N51:N60)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <f>SUM(O51:O60)</f>
+        <v>95159</v>
+      </c>
+      <c r="P61" s="1">
+        <f>SUM(P51:P60)</f>
         <v>92603</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
@@ -4663,16 +5015,16 @@
         <f>3554</f>
         <v>3554</v>
       </c>
-      <c r="M63" s="1">
+      <c r="O63" s="1">
         <f>3119</f>
         <v>3119</v>
       </c>
-      <c r="N63" s="1">
+      <c r="P63" s="1">
         <f>2046</f>
         <v>2046</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>45</v>
       </c>
@@ -4680,16 +5032,16 @@
         <f>4002</f>
         <v>4002</v>
       </c>
-      <c r="M64" s="1">
+      <c r="O64" s="1">
         <f>3259</f>
         <v>3259</v>
       </c>
-      <c r="N64" s="1">
+      <c r="P64" s="1">
         <f>3602</f>
         <v>3602</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
@@ -4697,16 +5049,16 @@
         <f>16514</f>
         <v>16514</v>
       </c>
-      <c r="M65" s="1">
+      <c r="O65" s="1">
         <f>15884</f>
         <v>15884</v>
       </c>
-      <c r="N65" s="1">
+      <c r="P65" s="1">
         <f>18126</f>
         <v>18126</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>46</v>
       </c>
@@ -4714,16 +5066,16 @@
         <f>276</f>
         <v>276</v>
       </c>
-      <c r="M66" s="1">
+      <c r="O66" s="1">
         <f>338</f>
         <v>338</v>
       </c>
-      <c r="N66" s="1">
+      <c r="P66" s="1">
         <f>369</f>
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4731,16 +5083,16 @@
         <f>46156</f>
         <v>46156</v>
       </c>
-      <c r="M67" s="1">
+      <c r="O67" s="1">
         <f>36653</f>
         <v>36653</v>
       </c>
-      <c r="N67" s="1">
+      <c r="P67" s="1">
         <f>47503</f>
         <v>47503</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
@@ -4748,16 +5100,16 @@
         <f>4477</f>
         <v>4477</v>
       </c>
-      <c r="M68" s="1">
+      <c r="O68" s="1">
         <f>6421</f>
         <v>6421</v>
       </c>
-      <c r="N68" s="1">
+      <c r="P68" s="1">
         <f>4469</f>
         <v>4469</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
@@ -4765,16 +5117,16 @@
         <f>SUM(G63:G68)</f>
         <v>74979</v>
       </c>
-      <c r="M69" s="1">
-        <f>SUM(M63:M68)</f>
+      <c r="O69" s="1">
+        <f>SUM(O63:O68)</f>
         <v>65674</v>
       </c>
-      <c r="N69" s="1">
-        <f>SUM(N63:N68)</f>
+      <c r="P69" s="1">
+        <f>SUM(P63:P68)</f>
         <v>76115</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>49</v>
       </c>
@@ -4782,16 +5134,16 @@
         <f>G61-G69</f>
         <v>13450</v>
       </c>
-      <c r="M70" s="1">
-        <f>M61-M69</f>
+      <c r="O70" s="1">
+        <f>O61-O69</f>
         <v>29485</v>
       </c>
-      <c r="N70" s="1">
-        <f>N61-N69</f>
+      <c r="P70" s="1">
+        <f>P61-P69</f>
         <v>16488</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>48</v>
       </c>
@@ -4799,13 +5151,1130 @@
         <f>G69+G70</f>
         <v>88429</v>
       </c>
-      <c r="M71" s="1">
-        <f>M69+M70</f>
+      <c r="O71" s="1">
+        <f>O69+O70</f>
         <v>95159</v>
       </c>
-      <c r="N71" s="1">
-        <f>N69+N70</f>
+      <c r="P71" s="1">
+        <f>P69+P70</f>
         <v>92603</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O73" s="1">
+        <f>O42</f>
+        <v>8040</v>
+      </c>
+      <c r="P73" s="1">
+        <f>P42</f>
+        <v>-8923</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" ref="Q73:V73" si="114">Q42</f>
+        <v>20121.07634014394</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="114"/>
+        <v>22060.329839690301</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="114"/>
+        <v>23367.829039393786</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" si="114"/>
+        <v>12311.767615872635</v>
+      </c>
+      <c r="U73" s="1">
+        <f t="shared" si="114"/>
+        <v>10267.013317793469</v>
+      </c>
+      <c r="V73" s="1">
+        <f t="shared" si="114"/>
+        <v>11405.123482324398</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N74" s="1">
+        <f>6345</f>
+        <v>6345</v>
+      </c>
+      <c r="O74" s="1">
+        <f>8040</f>
+        <v>8040</v>
+      </c>
+      <c r="P74" s="1">
+        <f>-8933</f>
+        <v>-8933</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N75" s="1">
+        <f>10276</f>
+        <v>10276</v>
+      </c>
+      <c r="O75" s="1">
+        <v>9760</v>
+      </c>
+      <c r="P75" s="1">
+        <v>9600</v>
+      </c>
+      <c r="Q75" s="1">
+        <f>P75*1.01</f>
+        <v>9696</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" ref="R75:V75" si="115">Q75*1.01</f>
+        <v>9792.9600000000009</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="115"/>
+        <v>9890.8896000000004</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="115"/>
+        <v>9989.7984960000013</v>
+      </c>
+      <c r="U75" s="1">
+        <f t="shared" si="115"/>
+        <v>10089.696480960001</v>
+      </c>
+      <c r="V75" s="1">
+        <f t="shared" si="115"/>
+        <v>10190.593445769602</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N76" s="1">
+        <v>-2738</v>
+      </c>
+      <c r="O76" s="1">
+        <v>-3288</v>
+      </c>
+      <c r="P76" s="1">
+        <v>-2089</v>
+      </c>
+      <c r="Q76" s="1">
+        <f>P76*1.04</f>
+        <v>-2172.56</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" ref="R75:V76" si="116">Q76*1.04</f>
+        <v>-2259.4623999999999</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="116"/>
+        <v>-2349.8408960000002</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" si="116"/>
+        <v>-2443.8345318400002</v>
+      </c>
+      <c r="U76" s="1">
+        <f t="shared" si="116"/>
+        <v>-2541.5879131136003</v>
+      </c>
+      <c r="V76" s="1">
+        <f t="shared" si="116"/>
+        <v>-2643.2514296381446</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N77" s="1">
+        <v>457</v>
+      </c>
+      <c r="O77" s="1">
+        <v>518</v>
+      </c>
+      <c r="P77" s="1">
+        <v>507</v>
+      </c>
+      <c r="Q77" s="1">
+        <f>P77*1.02</f>
+        <v>517.14</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" ref="R77:V77" si="117">Q77*1.02</f>
+        <v>527.4828</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="117"/>
+        <v>538.03245600000002</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="117"/>
+        <v>548.79310512000006</v>
+      </c>
+      <c r="U77" s="1">
+        <f t="shared" si="117"/>
+        <v>559.76896722240008</v>
+      </c>
+      <c r="V77" s="1">
+        <f t="shared" si="117"/>
+        <v>570.96434656684812</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N78" s="1">
+        <v>179</v>
+      </c>
+      <c r="O78" s="1">
+        <v>255</v>
+      </c>
+      <c r="P78" s="1">
+        <v>2963</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <f t="shared" ref="R77:V84" si="118">Q78*1.01</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N79" s="1">
+        <v>-1063</v>
+      </c>
+      <c r="O79" s="1">
+        <v>-884</v>
+      </c>
+      <c r="P79" s="1">
+        <v>-1119</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="1">
+        <v>815</v>
+      </c>
+      <c r="O80" s="1">
+        <v>913</v>
+      </c>
+      <c r="P80" s="1">
+        <v>13373</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N81" s="1">
+        <v>801</v>
+      </c>
+      <c r="O81" s="1">
+        <v>160</v>
+      </c>
+      <c r="P81" s="1">
+        <v>-16</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="1">
+        <v>-663</v>
+      </c>
+      <c r="O82" s="1">
+        <v>-995</v>
+      </c>
+      <c r="P82" s="1">
+        <v>264</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" s="1">
+        <v>-69</v>
+      </c>
+      <c r="O83" s="1">
+        <v>-751</v>
+      </c>
+      <c r="P83" s="1">
+        <v>-486</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N84" s="1">
+        <v>109</v>
+      </c>
+      <c r="O84" s="1">
+        <v>198</v>
+      </c>
+      <c r="P84" s="1">
+        <v>184</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N85" s="1">
+        <v>427</v>
+      </c>
+      <c r="O85" s="1">
+        <v>904</v>
+      </c>
+      <c r="P85" s="1">
+        <v>1484</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" ref="R85:V85" si="119">Q85*1.04</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N86" s="1">
+        <v>-1423</v>
+      </c>
+      <c r="O86" s="1">
+        <v>-603</v>
+      </c>
+      <c r="P86" s="1">
+        <v>-1260</v>
+      </c>
+      <c r="Q86" s="1">
+        <f>P86*1.01</f>
+        <v>-1272.5999999999999</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" ref="R86:V86" si="120">Q86*1.01</f>
+        <v>-1285.326</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="120"/>
+        <v>-1298.1792600000001</v>
+      </c>
+      <c r="T86" s="1">
+        <f t="shared" si="120"/>
+        <v>-1311.1610526000002</v>
+      </c>
+      <c r="U86" s="1">
+        <f t="shared" si="120"/>
+        <v>-1324.2726631260002</v>
+      </c>
+      <c r="V86" s="1">
+        <f t="shared" si="120"/>
+        <v>-1337.5153897572602</v>
+      </c>
+    </row>
+    <row r="87" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N87" s="1">
+        <f>233-610</f>
+        <v>-377</v>
+      </c>
+      <c r="O87" s="1">
+        <f>300-667</f>
+        <v>-367</v>
+      </c>
+      <c r="P87" s="1">
+        <f>94+624</f>
+        <v>718</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" ref="R87:V87" si="121">Q87*1.01</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="1">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N88" s="1">
+        <f>SUM(N74:N87)</f>
+        <v>13076</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" ref="O88:P88" si="122">SUM(O74:O87)</f>
+        <v>13860</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="122"/>
+        <v>15190</v>
+      </c>
+      <c r="Q88" s="1">
+        <f>SUM(Q73:Q87)</f>
+        <v>26889.056340143939</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" ref="R88:V88" si="123">SUM(R73:R87)</f>
+        <v>28835.984239690304</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="123"/>
+        <v>30148.730939393787</v>
+      </c>
+      <c r="T88" s="1">
+        <f t="shared" si="123"/>
+        <v>19095.363632552635</v>
+      </c>
+      <c r="U88" s="1">
+        <f t="shared" si="123"/>
+        <v>17050.618189736273</v>
+      </c>
+      <c r="V88" s="1">
+        <f t="shared" si="123"/>
+        <v>18185.914455265443</v>
+      </c>
+    </row>
+    <row r="90" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-1118</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-1209</v>
+      </c>
+      <c r="P91" s="1">
+        <v>-1248</v>
+      </c>
+      <c r="Q91" s="1">
+        <f>P91*1.05</f>
+        <v>-1310.4000000000001</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" ref="R91:V91" si="124">Q91*1.05</f>
+        <v>-1375.92</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="124"/>
+        <v>-1444.7160000000001</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="124"/>
+        <v>-1516.9518000000003</v>
+      </c>
+      <c r="U91" s="1">
+        <f t="shared" si="124"/>
+        <v>-1592.7993900000004</v>
+      </c>
+      <c r="V91" s="1">
+        <f t="shared" si="124"/>
+        <v>-1672.4393595000004</v>
+      </c>
+    </row>
+    <row r="92" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="2:121" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N95" s="1">
+        <f>N88+N91</f>
+        <v>11958</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" ref="O95:V95" si="125">O88+O91</f>
+        <v>12651</v>
+      </c>
+      <c r="P95" s="1">
+        <f t="shared" si="125"/>
+        <v>13942</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="125"/>
+        <v>25578.656340143938</v>
+      </c>
+      <c r="R95" s="1">
+        <f t="shared" si="125"/>
+        <v>27460.064239690306</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="125"/>
+        <v>28704.014939393786</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="125"/>
+        <v>17578.411832552636</v>
+      </c>
+      <c r="U95" s="1">
+        <f t="shared" si="125"/>
+        <v>15457.818799736273</v>
+      </c>
+      <c r="V95" s="1">
+        <f t="shared" si="125"/>
+        <v>16513.475095765443</v>
+      </c>
+      <c r="W95" s="1">
+        <f t="shared" ref="W95:BB95" si="126">V95*(1+$X$97)</f>
+        <v>16348.340344807788</v>
+      </c>
+      <c r="X95" s="1">
+        <f t="shared" si="126"/>
+        <v>16184.856941359711</v>
+      </c>
+      <c r="Y95" s="1">
+        <f t="shared" si="126"/>
+        <v>16023.008371946113</v>
+      </c>
+      <c r="Z95" s="1">
+        <f t="shared" si="126"/>
+        <v>15862.778288226651</v>
+      </c>
+      <c r="AA95" s="1">
+        <f t="shared" si="126"/>
+        <v>15704.150505344385</v>
+      </c>
+      <c r="AB95" s="1">
+        <f t="shared" si="126"/>
+        <v>15547.10900029094</v>
+      </c>
+      <c r="AC95" s="1">
+        <f t="shared" si="126"/>
+        <v>15391.637910288031</v>
+      </c>
+      <c r="AD95" s="1">
+        <f t="shared" si="126"/>
+        <v>15237.721531185151</v>
+      </c>
+      <c r="AE95" s="1">
+        <f t="shared" si="126"/>
+        <v>15085.344315873299</v>
+      </c>
+      <c r="AF95" s="1">
+        <f t="shared" si="126"/>
+        <v>14934.490872714567</v>
+      </c>
+      <c r="AG95" s="1">
+        <f t="shared" si="126"/>
+        <v>14785.145963987421</v>
+      </c>
+      <c r="AH95" s="1">
+        <f t="shared" si="126"/>
+        <v>14637.294504347547</v>
+      </c>
+      <c r="AI95" s="1">
+        <f t="shared" si="126"/>
+        <v>14490.921559304072</v>
+      </c>
+      <c r="AJ95" s="1">
+        <f t="shared" si="126"/>
+        <v>14346.012343711031</v>
+      </c>
+      <c r="AK95" s="1">
+        <f t="shared" si="126"/>
+        <v>14202.552220273919</v>
+      </c>
+      <c r="AL95" s="1">
+        <f t="shared" si="126"/>
+        <v>14060.52669807118</v>
+      </c>
+      <c r="AM95" s="1">
+        <f t="shared" si="126"/>
+        <v>13919.921431090468</v>
+      </c>
+      <c r="AN95" s="1">
+        <f t="shared" si="126"/>
+        <v>13780.722216779563</v>
+      </c>
+      <c r="AO95" s="1">
+        <f t="shared" si="126"/>
+        <v>13642.914994611767</v>
+      </c>
+      <c r="AP95" s="1">
+        <f t="shared" si="126"/>
+        <v>13506.485844665649</v>
+      </c>
+      <c r="AQ95" s="1">
+        <f t="shared" si="126"/>
+        <v>13371.420986218993</v>
+      </c>
+      <c r="AR95" s="1">
+        <f t="shared" si="126"/>
+        <v>13237.706776356803</v>
+      </c>
+      <c r="AS95" s="1">
+        <f t="shared" si="126"/>
+        <v>13105.329708593235</v>
+      </c>
+      <c r="AT95" s="1">
+        <f t="shared" si="126"/>
+        <v>12974.276411507302</v>
+      </c>
+      <c r="AU95" s="1">
+        <f t="shared" si="126"/>
+        <v>12844.533647392229</v>
+      </c>
+      <c r="AV95" s="1">
+        <f t="shared" si="126"/>
+        <v>12716.088310918307</v>
+      </c>
+      <c r="AW95" s="1">
+        <f t="shared" si="126"/>
+        <v>12588.927427809123</v>
+      </c>
+      <c r="AX95" s="1">
+        <f t="shared" si="126"/>
+        <v>12463.038153531032</v>
+      </c>
+      <c r="AY95" s="1">
+        <f t="shared" si="126"/>
+        <v>12338.40777199572</v>
+      </c>
+      <c r="AZ95" s="1">
+        <f t="shared" si="126"/>
+        <v>12215.023694275764</v>
+      </c>
+      <c r="BA95" s="1">
+        <f t="shared" si="126"/>
+        <v>12092.873457333006</v>
+      </c>
+      <c r="BB95" s="1">
+        <f t="shared" si="126"/>
+        <v>11971.944722759676</v>
+      </c>
+      <c r="BC95" s="1">
+        <f t="shared" ref="BC95:CH95" si="127">BB95*(1+$X$97)</f>
+        <v>11852.225275532079</v>
+      </c>
+      <c r="BD95" s="1">
+        <f t="shared" si="127"/>
+        <v>11733.703022776757</v>
+      </c>
+      <c r="BE95" s="1">
+        <f t="shared" si="127"/>
+        <v>11616.36599254899</v>
+      </c>
+      <c r="BF95" s="1">
+        <f t="shared" si="127"/>
+        <v>11500.202332623499</v>
+      </c>
+      <c r="BG95" s="1">
+        <f t="shared" si="127"/>
+        <v>11385.200309297265</v>
+      </c>
+      <c r="BH95" s="1">
+        <f t="shared" si="127"/>
+        <v>11271.348306204292</v>
+      </c>
+      <c r="BI95" s="1">
+        <f t="shared" si="127"/>
+        <v>11158.634823142249</v>
+      </c>
+      <c r="BJ95" s="1">
+        <f t="shared" si="127"/>
+        <v>11047.048474910825</v>
+      </c>
+      <c r="BK95" s="1">
+        <f t="shared" si="127"/>
+        <v>10936.577990161717</v>
+      </c>
+      <c r="BL95" s="1">
+        <f t="shared" si="127"/>
+        <v>10827.212210260101</v>
+      </c>
+      <c r="BM95" s="1">
+        <f t="shared" si="127"/>
+        <v>10718.9400881575</v>
+      </c>
+      <c r="BN95" s="1">
+        <f t="shared" si="127"/>
+        <v>10611.750687275926</v>
+      </c>
+      <c r="BO95" s="1">
+        <f t="shared" si="127"/>
+        <v>10505.633180403167</v>
+      </c>
+      <c r="BP95" s="1">
+        <f t="shared" si="127"/>
+        <v>10400.576848599136</v>
+      </c>
+      <c r="BQ95" s="1">
+        <f t="shared" si="127"/>
+        <v>10296.571080113144</v>
+      </c>
+      <c r="BR95" s="1">
+        <f t="shared" si="127"/>
+        <v>10193.605369312012</v>
+      </c>
+      <c r="BS95" s="1">
+        <f t="shared" si="127"/>
+        <v>10091.669315618892</v>
+      </c>
+      <c r="BT95" s="1">
+        <f t="shared" si="127"/>
+        <v>9990.7526224627036</v>
+      </c>
+      <c r="BU95" s="1">
+        <f t="shared" si="127"/>
+        <v>9890.8450962380757</v>
+      </c>
+      <c r="BV95" s="1">
+        <f t="shared" si="127"/>
+        <v>9791.9366452756949</v>
+      </c>
+      <c r="BW95" s="1">
+        <f t="shared" si="127"/>
+        <v>9694.0172788229374</v>
+      </c>
+      <c r="BX95" s="1">
+        <f t="shared" si="127"/>
+        <v>9597.0771060347088</v>
+      </c>
+      <c r="BY95" s="1">
+        <f t="shared" si="127"/>
+        <v>9501.1063349743617</v>
+      </c>
+      <c r="BZ95" s="1">
+        <f t="shared" si="127"/>
+        <v>9406.0952716246175</v>
+      </c>
+      <c r="CA95" s="1">
+        <f t="shared" si="127"/>
+        <v>9312.0343189083706</v>
+      </c>
+      <c r="CB95" s="1">
+        <f t="shared" si="127"/>
+        <v>9218.9139757192861</v>
+      </c>
+      <c r="CC95" s="1">
+        <f t="shared" si="127"/>
+        <v>9126.7248359620935</v>
+      </c>
+      <c r="CD95" s="1">
+        <f t="shared" si="127"/>
+        <v>9035.4575876024719</v>
+      </c>
+      <c r="CE95" s="1">
+        <f t="shared" si="127"/>
+        <v>8945.1030117264472</v>
+      </c>
+      <c r="CF95" s="1">
+        <f t="shared" si="127"/>
+        <v>8855.6519816091823</v>
+      </c>
+      <c r="CG95" s="1">
+        <f t="shared" si="127"/>
+        <v>8767.0954617930911</v>
+      </c>
+      <c r="CH95" s="1">
+        <f t="shared" si="127"/>
+        <v>8679.4245071751593</v>
+      </c>
+      <c r="CI95" s="1">
+        <f t="shared" ref="CI95:DQ95" si="128">CH95*(1+$X$97)</f>
+        <v>8592.6302621034083</v>
+      </c>
+      <c r="CJ95" s="1">
+        <f t="shared" si="128"/>
+        <v>8506.7039594823746</v>
+      </c>
+      <c r="CK95" s="1">
+        <f t="shared" si="128"/>
+        <v>8421.6369198875509</v>
+      </c>
+      <c r="CL95" s="1">
+        <f t="shared" si="128"/>
+        <v>8337.4205506886756</v>
+      </c>
+      <c r="CM95" s="1">
+        <f t="shared" si="128"/>
+        <v>8254.0463451817886</v>
+      </c>
+      <c r="CN95" s="1">
+        <f t="shared" si="128"/>
+        <v>8171.5058817299705</v>
+      </c>
+      <c r="CO95" s="1">
+        <f t="shared" si="128"/>
+        <v>8089.7908229126706</v>
+      </c>
+      <c r="CP95" s="1">
+        <f t="shared" si="128"/>
+        <v>8008.8929146835435</v>
+      </c>
+      <c r="CQ95" s="1">
+        <f t="shared" si="128"/>
+        <v>7928.8039855367078</v>
+      </c>
+      <c r="CR95" s="1">
+        <f t="shared" si="128"/>
+        <v>7849.5159456813408</v>
+      </c>
+      <c r="CS95" s="1">
+        <f t="shared" si="128"/>
+        <v>7771.020786224527</v>
+      </c>
+      <c r="CT95" s="1">
+        <f t="shared" si="128"/>
+        <v>7693.3105783622814</v>
+      </c>
+      <c r="CU95" s="1">
+        <f t="shared" si="128"/>
+        <v>7616.3774725786589</v>
+      </c>
+      <c r="CV95" s="1">
+        <f t="shared" si="128"/>
+        <v>7540.2136978528724</v>
+      </c>
+      <c r="CW95" s="1">
+        <f t="shared" si="128"/>
+        <v>7464.8115608743437</v>
+      </c>
+      <c r="CX95" s="1">
+        <f t="shared" si="128"/>
+        <v>7390.1634452655999</v>
+      </c>
+      <c r="CY95" s="1">
+        <f t="shared" si="128"/>
+        <v>7316.2618108129436</v>
+      </c>
+      <c r="CZ95" s="1">
+        <f t="shared" si="128"/>
+        <v>7243.0991927048144</v>
+      </c>
+      <c r="DA95" s="1">
+        <f t="shared" si="128"/>
+        <v>7170.6682007777663</v>
+      </c>
+      <c r="DB95" s="1">
+        <f t="shared" si="128"/>
+        <v>7098.9615187699883</v>
+      </c>
+      <c r="DC95" s="1">
+        <f t="shared" si="128"/>
+        <v>7027.9719035822882</v>
+      </c>
+      <c r="DD95" s="1">
+        <f t="shared" si="128"/>
+        <v>6957.6921845464649</v>
+      </c>
+      <c r="DE95" s="1">
+        <f t="shared" si="128"/>
+        <v>6888.1152627010006</v>
+      </c>
+      <c r="DF95" s="1">
+        <f t="shared" si="128"/>
+        <v>6819.2341100739905</v>
+      </c>
+      <c r="DG95" s="1">
+        <f t="shared" si="128"/>
+        <v>6751.0417689732503</v>
+      </c>
+      <c r="DH95" s="1">
+        <f t="shared" si="128"/>
+        <v>6683.5313512835173</v>
+      </c>
+      <c r="DI95" s="1">
+        <f t="shared" si="128"/>
+        <v>6616.6960377706819</v>
+      </c>
+      <c r="DJ95" s="1">
+        <f t="shared" si="128"/>
+        <v>6550.5290773929746</v>
+      </c>
+      <c r="DK95" s="1">
+        <f t="shared" si="128"/>
+        <v>6485.0237866190446</v>
+      </c>
+      <c r="DL95" s="1">
+        <f t="shared" si="128"/>
+        <v>6420.173548752854</v>
+      </c>
+      <c r="DM95" s="1">
+        <f t="shared" si="128"/>
+        <v>6355.9718132653252</v>
+      </c>
+      <c r="DN95" s="1">
+        <f t="shared" si="128"/>
+        <v>6292.4120951326722</v>
+      </c>
+      <c r="DO95" s="1">
+        <f t="shared" si="128"/>
+        <v>6229.4879741813456</v>
+      </c>
+      <c r="DP95" s="1">
+        <f t="shared" si="128"/>
+        <v>6167.1930944395317</v>
+      </c>
+      <c r="DQ95" s="1">
+        <f t="shared" si="128"/>
+        <v>6105.5211634951365</v>
+      </c>
+    </row>
+    <row r="97" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O97" s="3"/>
+      <c r="W97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X97" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="W98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="99" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="W99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X99" s="1">
+        <f>NPV(X98,Q95:DQ95)+Main!L5-Main!L6</f>
+        <v>179180.38828676371</v>
+      </c>
+    </row>
+    <row r="100" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="W100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X100" s="7">
+        <f>X99/Main!L3</f>
+        <v>88.045869590759935</v>
+      </c>
+    </row>
+    <row r="101" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <f>X100/Main!L2-1</f>
+        <v>0.83428894980749857</v>
       </c>
     </row>
   </sheetData>
@@ -4813,17 +6282,18 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6D82F414-5457-4E9C-B6E0-97117D87A8AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39BCE6-9601-4370-A605-A8909A3D2703}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C22" sqref="B21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4835,21 +6305,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4857,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4865,408 +6335,419 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C34">
         <v>2024</v>
       </c>
-      <c r="D18">
-        <f>C18+1</f>
+      <c r="D34">
+        <f>C34+1</f>
         <v>2025</v>
       </c>
-      <c r="E18">
-        <f t="shared" ref="E18:M18" si="0">D18+1</f>
+      <c r="E34">
+        <f t="shared" ref="E34:M34" si="0">D34+1</f>
         <v>2026</v>
       </c>
-      <c r="F18">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G18">
+      <c r="G34">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H18">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I18">
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J18">
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K18">
+      <c r="K34">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L18">
+      <c r="L34">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M18">
+      <c r="M34">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N18">
-        <f t="shared" ref="N18" si="1">M18+1</f>
+      <c r="N34">
+        <f t="shared" ref="N34" si="1">M34+1</f>
         <v>2035</v>
       </c>
-      <c r="O18">
-        <f t="shared" ref="O18" si="2">N18+1</f>
+      <c r="O34">
+        <f t="shared" ref="O34" si="2">N34+1</f>
         <v>2036</v>
       </c>
-      <c r="P18">
-        <f t="shared" ref="P18" si="3">O18+1</f>
+      <c r="P34">
+        <f t="shared" ref="P34" si="3">O34+1</f>
         <v>2037</v>
       </c>
-      <c r="Q18">
-        <f t="shared" ref="Q18" si="4">P18+1</f>
+      <c r="Q34">
+        <f t="shared" ref="Q34" si="4">P34+1</f>
         <v>2038</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1">
         <v>18228</v>
       </c>
-      <c r="D19" s="1">
-        <f>C19*1.03</f>
+      <c r="D35" s="1">
+        <f>C35*1.03</f>
         <v>18774.84</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" ref="E19:M19" si="5">D19*1.03</f>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:M35" si="5">D35*1.03</f>
         <v>19338.085200000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F35" s="1">
         <f t="shared" si="5"/>
         <v>19918.227756</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="5"/>
         <v>20515.77458868</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="5"/>
         <v>21131.247826340401</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I35" s="1">
         <f t="shared" si="5"/>
         <v>21765.185261130613</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="5"/>
         <v>22418.140818964534</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K35" s="1">
         <f t="shared" si="5"/>
         <v>23090.685043533471</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L35" s="1">
         <f t="shared" si="5"/>
         <v>23783.405594839474</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M35" s="1">
         <f t="shared" si="5"/>
         <v>24496.907762684659</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" ref="N19" si="6">M19*1.03</f>
+      <c r="N35" s="1">
+        <f t="shared" ref="N35" si="6">M35*1.03</f>
         <v>25231.814995565201</v>
       </c>
-      <c r="O19" s="1">
-        <f t="shared" ref="O19" si="7">N19*1.03</f>
+      <c r="O35" s="1">
+        <f t="shared" ref="O35" si="7">N35*1.03</f>
         <v>25988.769445432157</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" ref="P19" si="8">O19*1.03</f>
+      <c r="P35" s="1">
+        <f t="shared" ref="P35" si="8">O35*1.03</f>
         <v>26768.432528795121</v>
       </c>
-      <c r="Q19" s="1">
-        <f t="shared" ref="Q19" si="9">P19*1.03</f>
+      <c r="Q35" s="1">
+        <f t="shared" ref="Q35" si="9">P35*1.03</f>
         <v>27571.485504658976</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="1">
         <v>18228</v>
       </c>
-      <c r="D20" s="1">
-        <f>D19</f>
+      <c r="D36" s="1">
+        <f>D35</f>
         <v>18774.84</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" ref="E20:M20" si="10">E19</f>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:M36" si="10">E35</f>
         <v>19338.085200000001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="10"/>
         <v>19918.227756</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G36" s="1">
         <f t="shared" si="10"/>
         <v>20515.77458868</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="10"/>
         <v>21131.247826340401</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I36" s="1">
         <f t="shared" si="10"/>
         <v>21765.185261130613</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J36" s="1">
         <f t="shared" si="10"/>
         <v>22418.140818964534</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K36" s="1">
         <f t="shared" si="10"/>
         <v>23090.685043533471</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L36" s="1">
         <f t="shared" si="10"/>
         <v>23783.405594839474</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M36" s="1">
         <f t="shared" si="10"/>
         <v>24496.907762684659</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" ref="N20:Q20" si="11">N19</f>
+      <c r="N36" s="1">
+        <f t="shared" ref="N36:Q36" si="11">N35</f>
         <v>25231.814995565201</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O36" s="1">
         <f t="shared" si="11"/>
         <v>25988.769445432157</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P36" s="1">
         <f t="shared" si="11"/>
         <v>26768.432528795121</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="11"/>
         <v>27571.485504658976</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
         <v>60000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G37" s="1">
         <v>60000</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H37" s="1">
         <v>60000</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I37" s="1">
         <v>60000</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J37" s="1">
         <v>60000</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K37" s="1">
         <v>60000</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L37" s="1">
         <v>60000</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M37" s="1">
         <v>60000</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N37" s="1">
         <v>60000</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O37" s="1">
         <v>60000</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P37" s="1">
         <v>60000</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q37" s="1">
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22" s="27" t="s">
+    <row r="38" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5">
-        <f>C20*C21/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" ref="D22:M22" si="12">D20*D21/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="C38" s="5">
+        <f>C36*C37/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" ref="D38:E38" si="12">D36*D37/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F22" s="5">
-        <f>0.75*F20*F21/1000000</f>
+      <c r="F38" s="5">
+        <f>0.75*F36*F37/1000000</f>
         <v>896.32024902000001</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" ref="G22:Q22" si="13">0.75*G20*G21/1000000</f>
+      <c r="G38" s="5">
+        <f t="shared" ref="G38:Q38" si="13">0.75*G36*G37/1000000</f>
         <v>923.20985649060015</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H38" s="5">
         <f t="shared" si="13"/>
         <v>950.90615218531798</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I38" s="5">
         <f t="shared" si="13"/>
         <v>979.43333675087763</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J38" s="5">
         <f t="shared" si="13"/>
         <v>1008.8163368534041</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K38" s="5">
         <f t="shared" si="13"/>
         <v>1039.0808269590061</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L38" s="5">
         <f t="shared" si="13"/>
         <v>1070.2532517677762</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M38" s="5">
         <f t="shared" si="13"/>
         <v>1102.3608493208096</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N38" s="5">
         <f t="shared" si="13"/>
         <v>1135.4316748004339</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O38" s="5">
         <f t="shared" si="13"/>
         <v>1169.494625044447</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P38" s="5">
         <f t="shared" si="13"/>
         <v>1204.5794637957804</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q38" s="5">
         <f t="shared" si="13"/>
         <v>1240.7168477096538</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f>F22</f>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <f>E38</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f>F38</f>
         <v>896.32024902000001</v>
       </c>
-      <c r="G24" s="1">
-        <f>F24+G22</f>
+      <c r="G40" s="1">
+        <f>F40+G38</f>
         <v>1819.5301055106002</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" ref="H24:M24" si="14">G24+H22</f>
+      <c r="H40" s="1">
+        <f t="shared" ref="H40:M40" si="14">G40+H38</f>
         <v>2770.4362576959184</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I40" s="1">
         <f t="shared" si="14"/>
         <v>3749.8695944467959</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J40" s="1">
         <f t="shared" si="14"/>
         <v>4758.6859313001996</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K40" s="1">
         <f t="shared" si="14"/>
         <v>5797.7667582592057</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L40" s="1">
         <f t="shared" si="14"/>
         <v>6868.0200100269822</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M40" s="1">
         <f t="shared" si="14"/>
         <v>7970.3808593477916</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" ref="N24" si="15">M24+N22</f>
+      <c r="N40" s="1">
+        <f t="shared" ref="N40" si="15">M40+N38</f>
         <v>9105.8125341482264</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" ref="O24" si="16">N24+O22</f>
+      <c r="O40" s="1">
+        <f t="shared" ref="O40" si="16">N40+O38</f>
         <v>10275.307159192673</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" ref="P24" si="17">O24+P22</f>
+      <c r="P40" s="1">
+        <f t="shared" ref="P40" si="17">O40+P38</f>
         <v>11479.886622988453</v>
       </c>
-      <c r="Q24" s="1">
-        <f t="shared" ref="Q24" si="18">P24+Q22</f>
+      <c r="Q40" s="1">
+        <f t="shared" ref="Q40" si="18">P40+Q38</f>
         <v>12720.603470698108</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E41" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="31">
-        <f>NPV(E25,D22:Q22)</f>
+      <c r="E42" s="30">
+        <f>NPV(E41,D38:Q38)</f>
         <v>6667.238447982365</v>
       </c>
     </row>
@@ -5279,6 +6760,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275DD6E9-6B1A-4B83-87D9-0D9C0B0F0575}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D54BFFF-23F7-4250-98E2-0308176EE937}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E08E0-BB39-4BA0-A35F-A5A9823115D6}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89FEC3C-B145-4BEE-9F7F-C8C6164EB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF9470-2CCA-4934-B02F-32C0405B054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="1740" yWindow="315" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="golcadomide" sheetId="3" r:id="rId3"/>
     <sheet name="BMS-986365" sheetId="6" r:id="rId4"/>
     <sheet name="iberdomide" sheetId="5" r:id="rId5"/>
-    <sheet name="Matrix" sheetId="4" r:id="rId6"/>
+    <sheet name="obexlimab" sheetId="7" r:id="rId6"/>
+    <sheet name="milvexian" sheetId="8" r:id="rId7"/>
+    <sheet name="admilparant" sheetId="9" r:id="rId8"/>
+    <sheet name="Matrix" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
   <si>
     <t>Indication</t>
   </si>
@@ -614,15 +617,18 @@
   </si>
   <si>
     <t>GPRC5D</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>capture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -760,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -805,14 +811,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1273,7 +1275,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1314,20 +1316,20 @@
         <v>4</v>
       </c>
       <c r="L2" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="2">
         <v>38359</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>165</v>
       </c>
       <c r="H3" s="23"/>
@@ -1345,13 +1347,13 @@
       <c r="B4" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="2">
         <v>38896</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="23"/>
@@ -1360,20 +1362,20 @@
       </c>
       <c r="L4" s="1">
         <f>L3*L2</f>
-        <v>97683.839999999997</v>
+        <v>101754</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2">
         <v>41313</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H5" s="23"/>
@@ -1392,13 +1394,13 @@
       <c r="B6" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="2">
         <v>38713</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H6" s="23"/>
@@ -1423,7 +1425,7 @@
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="22" t="s">
         <v>166</v>
       </c>
       <c r="H7" s="23"/>
@@ -1432,7 +1434,7 @@
       </c>
       <c r="L7" s="1">
         <f>L4+L6-L5</f>
-        <v>136811.84</v>
+        <v>140882</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1496,12 +1498,12 @@
       <c r="D11" s="2">
         <v>44638</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
@@ -1637,7 +1639,7 @@
       <c r="G20" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
@@ -1660,7 +1662,7 @@
       <c r="D22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" t="s">
         <v>178</v>
       </c>
       <c r="H22" s="10"/>
@@ -1739,7 +1741,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
@@ -1751,7 +1753,7 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C29" t="s">
@@ -1799,7 +1801,7 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -1850,6 +1852,9 @@
     <hyperlink ref="B27" location="golcadomide!A1" display="golcadomide" xr:uid="{CE94D3E4-668B-4EC7-A589-411EBF2CDE51}"/>
     <hyperlink ref="B23" location="'BMS-986365'!A1" display="BMS-986365" xr:uid="{F8ABEC5A-B630-493F-A5E8-4E23266187C8}"/>
     <hyperlink ref="B24" location="iberdomide!A1" display="iberdomide" xr:uid="{EBA13268-CE72-4D74-8E77-9846D0396F4A}"/>
+    <hyperlink ref="B29" location="obexlimab!A1" display="obexelimab" xr:uid="{EDA32FDC-BE46-4FDA-8635-86762BC02DD6}"/>
+    <hyperlink ref="B28" location="admilparant!A1" display="admilparant" xr:uid="{368544B8-F76D-4554-8C3C-A2BE3B689705}"/>
+    <hyperlink ref="B33" location="milvexian!A1" display="milvexian" xr:uid="{C50D9CE3-46B1-49AA-8CD6-AE66D9485286}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1861,10 +1866,10 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
+      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2040,7 @@
         <v>2265</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:J8" si="1">G7*1.01</f>
+        <f t="shared" ref="H7:J7" si="1">G7*1.01</f>
         <v>2287.65</v>
       </c>
       <c r="I7" s="1">
@@ -2092,16 +2097,16 @@
         <v>770</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>777.7</v>
+        <f>G8*1.15</f>
+        <v>885.49999999999989</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>785.47700000000009</v>
+        <f t="shared" ref="I8:J8" si="3">H8*1.15</f>
+        <v>1018.3249999999998</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>793.33177000000012</v>
+        <f t="shared" si="3"/>
+        <v>1171.0737499999998</v>
       </c>
       <c r="L8" s="1">
         <v>3157</v>
@@ -2120,27 +2125,27 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>3126.5087700000004</v>
+        <v>3844.8987499999994</v>
       </c>
       <c r="R8" s="1">
         <f>Q8*1.03</f>
-        <v>3220.3040331000007</v>
+        <v>3960.2457124999996</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" ref="S8:V8" si="3">R8*1.03</f>
-        <v>3316.9131540930007</v>
+        <f t="shared" ref="S8:V8" si="4">R8*1.03</f>
+        <v>4079.0530838749996</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="3"/>
-        <v>3416.4205487157906</v>
+        <f t="shared" si="4"/>
+        <v>4201.4246763912497</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="3"/>
-        <v>3518.9131651772645</v>
+        <f t="shared" si="4"/>
+        <v>4327.4674166829873</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="3"/>
-        <v>3624.4805601325825</v>
+        <f t="shared" si="4"/>
+        <v>4457.2914391834775</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2152,15 +2157,15 @@
         <v>624</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ref="H9:J14" si="4">G9*1.03</f>
+        <f t="shared" ref="H9:J12" si="5">G9*1.03</f>
         <v>642.72</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>662.00160000000005</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>681.86164800000006</v>
       </c>
       <c r="L9" s="5">
@@ -2187,19 +2192,19 @@
         <v>2741.1124104</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" ref="S9:V9" si="5">R9*1.05</f>
+        <f t="shared" ref="S9:V10" si="6">R9*1.05</f>
         <v>2878.1680309200001</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3022.0764324660004</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3173.1802540893004</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3331.8392667937655</v>
       </c>
     </row>
@@ -2212,15 +2217,15 @@
         <v>478</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>492.34000000000003</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>507.11020000000002</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>522.32350600000007</v>
       </c>
       <c r="L10" s="5">
@@ -2243,24 +2248,24 @@
         <v>1999.7737059999999</v>
       </c>
       <c r="R10" s="5">
-        <f>Q10*1.1</f>
-        <v>2199.7510766</v>
+        <f>Q10*1.05</f>
+        <v>2099.7623913000002</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" ref="S10:V10" si="6">R10*1.1</f>
-        <v>2419.7261842600001</v>
+        <f t="shared" si="6"/>
+        <v>2204.7505108650003</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" si="6"/>
-        <v>2661.6988026860004</v>
+        <v>2314.9880364082505</v>
       </c>
       <c r="U10" s="5">
         <f t="shared" si="6"/>
-        <v>2927.8686829546004</v>
+        <v>2430.737438228663</v>
       </c>
       <c r="V10" s="5">
         <f t="shared" si="6"/>
-        <v>3220.6555512500609</v>
+        <v>2552.2743101400961</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2297,24 +2302,24 @@
         <v>1086.1515000000002</v>
       </c>
       <c r="R11" s="5">
-        <f>Q11*1.1</f>
-        <v>1194.7666500000003</v>
+        <f>Q11*1.05</f>
+        <v>1140.4590750000002</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" ref="S11:V11" si="8">R11*1.1</f>
-        <v>1314.2433150000004</v>
+        <f t="shared" ref="S11:V11" si="8">R11*1.05</f>
+        <v>1197.4820287500004</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="8"/>
-        <v>1445.6676465000005</v>
+        <v>1257.3561301875004</v>
       </c>
       <c r="U11" s="5">
         <f t="shared" si="8"/>
-        <v>1590.2344111500006</v>
+        <v>1320.2239366968754</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" si="8"/>
-        <v>1749.2578522650008</v>
+        <v>1386.2351335317192</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2326,15 +2331,15 @@
         <v>263</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270.89</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>279.01670000000001</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>287.387201</v>
       </c>
       <c r="M12" s="5">
@@ -2354,7 +2359,7 @@
         <v>1100.293901</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" ref="R10:V19" si="9">Q12*1.03</f>
+        <f t="shared" ref="R12" si="9">Q12*1.03</f>
         <v>1133.3027180300001</v>
       </c>
       <c r="S12" s="5">
@@ -2575,24 +2580,24 @@
         <v>355</v>
       </c>
       <c r="R16" s="5">
-        <f>Q16*1.1</f>
-        <v>390.50000000000006</v>
+        <f>Q16*1.2</f>
+        <v>426</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" ref="S16:V16" si="16">R16*1.1</f>
-        <v>429.55000000000013</v>
+        <f t="shared" ref="S16:V16" si="16">R16*1.2</f>
+        <v>511.2</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" si="16"/>
-        <v>472.50500000000017</v>
+        <v>613.43999999999994</v>
       </c>
       <c r="U16" s="5">
         <f t="shared" si="16"/>
-        <v>519.75550000000021</v>
+        <v>736.12799999999993</v>
       </c>
       <c r="V16" s="5">
         <f t="shared" si="16"/>
-        <v>571.73105000000032</v>
+        <v>883.35359999999991</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -2749,7 +2754,7 @@
         <v>403</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H26" si="20">G20*1.01</f>
+        <f t="shared" ref="H20:H24" si="20">G20*1.01</f>
         <v>407.03000000000003</v>
       </c>
       <c r="I20" s="1">
@@ -2857,16 +2862,16 @@
         <v>936</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="20"/>
-        <v>945.36</v>
+        <f>G22*1.05</f>
+        <v>982.80000000000007</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:J22" si="25">H22*1.01</f>
-        <v>954.81360000000006</v>
+        <f t="shared" ref="I22:J22" si="25">H22*1.05</f>
+        <v>1031.94</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="25"/>
-        <v>964.36173600000006</v>
+        <v>1083.537</v>
       </c>
       <c r="L22" s="1">
         <v>12106</v>
@@ -2885,27 +2890,27 @@
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="22"/>
-        <v>3800.5353359999999</v>
+        <v>4034.277</v>
       </c>
       <c r="R22" s="1">
-        <f>Q22*1</f>
-        <v>3800.5353359999999</v>
+        <f>Q22*0.95</f>
+        <v>3832.56315</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="S22:V22" si="26">R22*1</f>
-        <v>3800.5353359999999</v>
+        <f t="shared" ref="S22:V22" si="26">R22*0.95</f>
+        <v>3640.9349924999997</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="26"/>
-        <v>3800.5353359999999</v>
+        <v>3458.8882428749994</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="26"/>
-        <v>3800.5353359999999</v>
+        <v>3285.9438307312494</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="26"/>
-        <v>3800.5353359999999</v>
+        <v>3121.6466391946869</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -3034,16 +3039,16 @@
         <v>105</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="20"/>
-        <v>106.05</v>
+        <f>G25*1.4</f>
+        <v>147</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25:J25" si="31">H25*1.01</f>
-        <v>107.1105</v>
+        <f t="shared" ref="I25:J25" si="31">H25*1.4</f>
+        <v>205.79999999999998</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="31"/>
-        <v>108.181605</v>
+        <v>288.11999999999995</v>
       </c>
       <c r="L25" s="1">
         <v>1247</v>
@@ -3062,27 +3067,27 @@
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="22"/>
-        <v>426.342105</v>
+        <v>745.91999999999985</v>
       </c>
       <c r="R25" s="1">
         <f>Q25*1.03</f>
-        <v>439.13236814999999</v>
+        <v>768.29759999999987</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" ref="S25:V25" si="32">R25*1.03</f>
-        <v>452.30633919450003</v>
+        <v>791.34652799999992</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" si="32"/>
-        <v>465.87552937033502</v>
+        <v>815.08692383999994</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="32"/>
-        <v>479.85179525144508</v>
+        <v>839.53953155519991</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="32"/>
-        <v>494.24734910898843</v>
+        <v>864.72571750185591</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -3093,16 +3098,16 @@
         <v>199</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="20"/>
-        <v>200.99</v>
+        <f>G26*1.1</f>
+        <v>218.9</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ref="I26:J26" si="33">H26*1.01</f>
-        <v>202.99990000000003</v>
+        <f t="shared" ref="I26:J26" si="33">H26*1.1</f>
+        <v>240.79000000000002</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="33"/>
-        <v>205.02989900000003</v>
+        <v>264.86900000000003</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="1">
@@ -3113,27 +3118,27 @@
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="22"/>
-        <v>808.01979900000003</v>
+        <v>923.55900000000008</v>
       </c>
       <c r="R26" s="1">
         <f>Q26*1.03</f>
-        <v>832.26039297000011</v>
+        <v>951.26577000000009</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" ref="S26:V26" si="34">R26*1.03</f>
-        <v>857.22820475910009</v>
+        <v>979.80374310000013</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="34"/>
-        <v>882.94505090187317</v>
+        <v>1009.1978553930002</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="34"/>
-        <v>909.43340242892941</v>
+        <v>1039.4737910547901</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="34"/>
-        <v>936.71640450179734</v>
+        <v>1070.6580047864338</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -3217,15 +3222,15 @@
       </c>
       <c r="H29" s="5">
         <f>SUM(H7:H26)</f>
-        <v>11619.070000000002</v>
+        <v>11823.17</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" ref="I29:J29" si="37">SUM(I7:I26)</f>
-        <v>11999.1849</v>
+        <v>12445.638900000002</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="37"/>
-        <v>12433.847305000001</v>
+        <v>13170.542045000002</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -3244,27 +3249,27 @@
       </c>
       <c r="Q29" s="5">
         <f>SUM(G29:J29)</f>
-        <v>47253.102205000003</v>
+        <v>48640.350945000006</v>
       </c>
       <c r="R29" s="5">
         <f>SUM(R7:R26)</f>
-        <v>49130.37233708</v>
+        <v>50231.716179059993</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" ref="S29:V29" si="40">SUM(S7:S26)</f>
-        <v>51192.890393127404</v>
+        <v>52006.958746910801</v>
       </c>
       <c r="T29" s="5">
         <f t="shared" si="40"/>
-        <v>32633.472559232316</v>
+        <v>33158.206510153315</v>
       </c>
       <c r="U29" s="5">
         <f t="shared" si="40"/>
-        <v>29407.347971555395</v>
+        <v>29640.269623542918</v>
       </c>
       <c r="V29" s="5">
         <f t="shared" si="40"/>
-        <v>31560.928791332539</v>
+        <v>31499.489532412379</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -3280,15 +3285,15 @@
       </c>
       <c r="H30" s="1">
         <f>H29*0.25</f>
-        <v>2904.7675000000004</v>
+        <v>2955.7925</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ref="I30:J30" si="41">I29*0.25</f>
-        <v>2999.796225</v>
+        <v>3111.4097250000004</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="41"/>
-        <v>3108.4618262500003</v>
+        <v>3292.6355112500005</v>
       </c>
       <c r="N30" s="1">
         <f>10137</f>
@@ -3304,27 +3309,27 @@
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="35"/>
-        <v>12046.025551250001</v>
+        <v>12392.837736250001</v>
       </c>
       <c r="R30" s="1">
         <f>R29*0.25</f>
-        <v>12282.59308427</v>
+        <v>12557.929044764998</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" ref="S30:V30" si="42">S29*0.25</f>
-        <v>12798.222598281851</v>
+        <v>13001.7396867277</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="42"/>
-        <v>8158.3681398080789</v>
+        <v>8289.5516275383288</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="42"/>
-        <v>7351.8369928888487</v>
+        <v>7410.0674058857294</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="42"/>
-        <v>7890.2321978331347</v>
+        <v>7874.8723831030948</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -3353,15 +3358,15 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="43"/>
-        <v>8714.3025000000016</v>
+        <v>8867.3775000000005</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" ref="I31" si="44">I29-I30</f>
-        <v>8999.3886750000001</v>
+        <v>9334.2291750000004</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ref="J31" si="45">J29-J30</f>
-        <v>9325.3854787500004</v>
+        <v>9877.9065337500015</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="43"/>
@@ -3377,27 +3382,27 @@
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="35"/>
-        <v>35207.076653750002</v>
+        <v>36247.513208750002</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ref="R31" si="48">R29-R30</f>
-        <v>36847.779252809996</v>
+        <v>37673.787134294995</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" ref="S31" si="49">S29-S30</f>
-        <v>38394.667794845554</v>
+        <v>39005.219060183103</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" ref="T31" si="50">T29-T30</f>
-        <v>24475.104419424235</v>
+        <v>24868.654882614988</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" ref="U31:V31" si="51">U29-U30</f>
-        <v>22055.510978666545</v>
+        <v>22230.202217657188</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="51"/>
-        <v>23670.696593499404</v>
+        <v>23624.617149309284</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -3412,16 +3417,16 @@
         <v>1584</v>
       </c>
       <c r="H32" s="1">
-        <f>G32*1.2</f>
-        <v>1900.8</v>
+        <f>G32*1.25</f>
+        <v>1980</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" ref="I32:J32" si="52">H32*1.2</f>
-        <v>2280.96</v>
+        <v>2376</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="52"/>
-        <v>2737.152</v>
+        <v>2851.2</v>
       </c>
       <c r="N32" s="1">
         <f>7814</f>
@@ -3437,27 +3442,27 @@
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="35"/>
-        <v>8502.9120000000003</v>
+        <v>8791.2000000000007</v>
       </c>
       <c r="R32" s="1">
         <f>Q32*1.04</f>
-        <v>8843.0284800000009</v>
+        <v>9142.8480000000018</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" ref="S32:V32" si="53">R32*1.04</f>
-        <v>9196.7496192000017</v>
+        <v>9508.5619200000019</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="53"/>
-        <v>9564.6196039680017</v>
+        <v>9888.9043968000024</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="53"/>
-        <v>9947.2043881267218</v>
+        <v>10284.460572672002</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="53"/>
-        <v>10345.092563651791</v>
+        <v>10695.838995578883</v>
       </c>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.2">
@@ -3598,15 +3603,15 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="54"/>
-        <v>1900.8</v>
+        <v>1980</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" ref="I37" si="55">SUM(I32:I36)</f>
-        <v>2280.96</v>
+        <v>2376</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ref="J37" si="56">SUM(J32:J36)</f>
-        <v>2737.152</v>
+        <v>2851.2</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="54"/>
@@ -3622,27 +3627,27 @@
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="35"/>
-        <v>12116.912</v>
+        <v>12405.2</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" ref="R37" si="59">SUM(R32:R36)</f>
-        <v>8843.0284800000009</v>
+        <v>9142.8480000000018</v>
       </c>
       <c r="S37" s="1">
         <f t="shared" ref="S37" si="60">SUM(S32:S36)</f>
-        <v>9196.7496192000017</v>
+        <v>9508.5619200000019</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" ref="T37" si="61">SUM(T32:T36)</f>
-        <v>9564.6196039680017</v>
+        <v>9888.9043968000024</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" ref="U37" si="62">SUM(U32:U36)</f>
-        <v>9947.2043881267218</v>
+        <v>10284.460572672002</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" ref="V37" si="63">SUM(V32:V36)</f>
-        <v>10345.092563651791</v>
+        <v>10695.838995578883</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.2">
@@ -3671,15 +3676,15 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="64"/>
-        <v>6813.5025000000014</v>
+        <v>6887.3775000000005</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" ref="I38" si="65">I31-I37</f>
-        <v>6718.4286750000001</v>
+        <v>6958.2291750000004</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ref="J38" si="66">J31-J37</f>
-        <v>6588.2334787500004</v>
+        <v>7026.7065337500017</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="64"/>
@@ -3695,27 +3700,27 @@
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="35"/>
-        <v>23090.164653750002</v>
+        <v>23842.313208750005</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" ref="R38" si="69">R31-R37</f>
-        <v>28004.750772809995</v>
+        <v>28530.939134294993</v>
       </c>
       <c r="S38" s="1">
         <f t="shared" ref="S38" si="70">S31-S37</f>
-        <v>29197.918175645551</v>
+        <v>29496.657140183102</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" ref="T38" si="71">T31-T37</f>
-        <v>14910.484815456233</v>
+        <v>14979.750485814986</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" ref="U38" si="72">U31-U37</f>
-        <v>12108.306590539823</v>
+        <v>11945.741644985186</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ref="V38" si="73">V31-V37</f>
-        <v>13325.604029847613</v>
+        <v>12928.778153730402</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.2">
@@ -3729,40 +3734,40 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>G50*$Y$47/4</f>
+        <f>G50*$Y$45/4</f>
         <v>-195.63499999999999</v>
       </c>
       <c r="I39" s="1">
-        <f>H50*$Y$47/4</f>
-        <v>-165.85459624999999</v>
+        <f>H50*$Y$45/4</f>
+        <v>-165.52215875000002</v>
       </c>
       <c r="J39" s="1">
-        <f>I50*$Y$47/4</f>
-        <v>-136.36801289562499</v>
+        <f>I50*$Y$45/4</f>
+        <v>-134.95497717687502</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="35"/>
-        <v>-497.85760914562496</v>
+        <v>-496.112135926875</v>
       </c>
       <c r="R39" s="1">
-        <f>Q50*$Y$47</f>
-        <v>-429.33847319712123</v>
+        <f>Q50*$Y$45</f>
+        <v>-415.76838068918386</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" ref="S39:V39" si="74">R50*$Y$47</f>
-        <v>11.868123596684818</v>
+        <f>R50*$Y$45</f>
+        <v>34.074351368509085</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="74"/>
-        <v>479.22470438456054</v>
+        <f>S50*$Y$45</f>
+        <v>506.56605523333485</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="74"/>
-        <v>725.46005670201328</v>
+        <f>T50*$Y$45</f>
+        <v>754.34711989010805</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="74"/>
-        <v>930.80032305788268</v>
+        <f>U50*$Y$45</f>
+        <v>957.54854012811268</v>
       </c>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.2">
@@ -3774,68 +3779,68 @@
         <v>-11516</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ref="D40:N40" si="75">D38+D39</f>
+        <f t="shared" ref="D40:N40" si="74">D38+D39</f>
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>2970</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="75"/>
-        <v>6617.8675000000012</v>
+        <f t="shared" si="74"/>
+        <v>6691.7425000000003</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40" si="76">I38+I39</f>
-        <v>6552.5740787499999</v>
+        <f t="shared" ref="I40" si="75">I38+I39</f>
+        <v>6792.7070162500004</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" ref="J40" si="77">J38+J39</f>
-        <v>6451.8654658543755</v>
+        <f t="shared" ref="J40" si="76">J38+J39</f>
+        <v>6891.7515565731264</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>7713</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ref="O40" si="78">O38+O39</f>
+        <f t="shared" ref="O40" si="77">O38+O39</f>
         <v>8440</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40" si="79">P38+P39</f>
+        <f t="shared" ref="P40" si="78">P38+P39</f>
         <v>-8369</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="35"/>
-        <v>22592.307044604375</v>
+        <v>23346.201072823129</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" ref="R40" si="80">R38+R39</f>
-        <v>27575.412299612875</v>
+        <f t="shared" ref="R40" si="79">R38+R39</f>
+        <v>28115.170753605809</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" ref="S40" si="81">S38+S39</f>
-        <v>29209.786299242234</v>
+        <f t="shared" ref="S40" si="80">S38+S39</f>
+        <v>29530.731491551611</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" ref="T40" si="82">T38+T39</f>
-        <v>15389.709519840793</v>
+        <f t="shared" ref="T40" si="81">T38+T39</f>
+        <v>15486.316541048322</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" ref="U40" si="83">U38+U39</f>
-        <v>12833.766647241837</v>
+        <f t="shared" ref="U40" si="82">U38+U39</f>
+        <v>12700.088764875294</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" ref="V40" si="84">V38+V39</f>
-        <v>14256.404352905496</v>
+        <f t="shared" ref="V40" si="83">V38+V39</f>
+        <v>13886.326693858515</v>
       </c>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.2">
@@ -3847,15 +3852,15 @@
       </c>
       <c r="H41" s="1">
         <f>H40*0.1</f>
-        <v>661.78675000000021</v>
+        <v>669.17425000000003</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41:J41" si="85">I40*0.1</f>
-        <v>655.25740787500001</v>
+        <f t="shared" ref="I41:J41" si="84">I40*0.1</f>
+        <v>679.27070162500013</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="85"/>
-        <v>645.18654658543755</v>
+        <f t="shared" si="84"/>
+        <v>689.17515565731264</v>
       </c>
       <c r="N41" s="1">
         <f>1368</f>
@@ -3870,27 +3875,27 @@
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="35"/>
-        <v>2471.2307044604377</v>
+        <v>2546.6201072823128</v>
       </c>
       <c r="R41" s="1">
         <f>R40*0.2</f>
-        <v>5515.0824599225753</v>
+        <v>5623.0341507211624</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:V41" si="86">S40*0.2</f>
-        <v>5841.9572598484474</v>
+        <f t="shared" ref="S41:V41" si="85">S40*0.2</f>
+        <v>5906.1462983103229</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="86"/>
-        <v>3077.9419039681588</v>
+        <f t="shared" si="85"/>
+        <v>3097.2633082096645</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="86"/>
-        <v>2566.7533294483674</v>
+        <f t="shared" si="85"/>
+        <v>2540.017752975059</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="86"/>
-        <v>2851.2808705810994</v>
+        <f t="shared" si="85"/>
+        <v>2777.2653387717032</v>
       </c>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.2">
@@ -3902,500 +3907,500 @@
         <v>-11516</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:N42" si="87">D40-D41</f>
+        <f t="shared" ref="D42:N42" si="86">D40-D41</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2461</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="87"/>
-        <v>5956.080750000001</v>
+        <f t="shared" si="86"/>
+        <v>6022.5682500000003</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42" si="88">I40-I41</f>
-        <v>5897.3166708749995</v>
+        <f t="shared" ref="I42" si="87">I40-I41</f>
+        <v>6113.4363146249998</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ref="J42" si="89">J40-J41</f>
-        <v>5806.6789192689375</v>
+        <f t="shared" ref="J42" si="88">J40-J41</f>
+        <v>6202.5764009158138</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6345</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" ref="O42" si="90">O40-O41</f>
+        <f t="shared" ref="O42" si="89">O40-O41</f>
         <v>8040</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" ref="P42" si="91">P40-P41</f>
+        <f t="shared" ref="P42" si="90">P40-P41</f>
         <v>-8923</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="35"/>
-        <v>20121.07634014394</v>
+        <v>20799.580965540816</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" ref="R42" si="92">R40-R41</f>
-        <v>22060.329839690301</v>
+        <f t="shared" ref="R42" si="91">R40-R41</f>
+        <v>22492.136602884646</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" ref="S42" si="93">S40-S41</f>
-        <v>23367.829039393786</v>
+        <f t="shared" ref="S42" si="92">S40-S41</f>
+        <v>23624.585193241288</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" ref="T42" si="94">T40-T41</f>
-        <v>12311.767615872635</v>
+        <f t="shared" ref="T42" si="93">T40-T41</f>
+        <v>12389.053232838658</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ref="U42" si="95">U40-U41</f>
-        <v>10267.013317793469</v>
+        <f t="shared" ref="U42" si="94">U40-U41</f>
+        <v>10160.071011900236</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" ref="V42" si="96">V40-V41</f>
-        <v>11405.123482324398</v>
+        <f t="shared" ref="V42" si="95">V40-V41</f>
+        <v>11109.061355086811</v>
       </c>
       <c r="W42" s="1">
-        <f>V42*(1+$Y$48)</f>
-        <v>11291.072247501153</v>
+        <f t="shared" ref="W42:BB42" si="96">V42*(1+$Y$46)</f>
+        <v>10997.970741535943</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" ref="X42:CI42" si="97">W42*(1+$Y$48)</f>
-        <v>11178.161525026142</v>
+        <f t="shared" si="96"/>
+        <v>10887.991034120583</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="97"/>
-        <v>11066.37990977588</v>
+        <f t="shared" si="96"/>
+        <v>10779.111123779378</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="97"/>
-        <v>10955.71611067812</v>
+        <f t="shared" si="96"/>
+        <v>10671.320012541584</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" si="97"/>
-        <v>10846.15894957134</v>
+        <f t="shared" si="96"/>
+        <v>10564.606812416168</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="97"/>
-        <v>10737.697360075626</v>
+        <f t="shared" si="96"/>
+        <v>10458.960744292006</v>
       </c>
       <c r="AC42" s="1">
-        <f t="shared" si="97"/>
-        <v>10630.32038647487</v>
+        <f t="shared" si="96"/>
+        <v>10354.371136849086</v>
       </c>
       <c r="AD42" s="1">
-        <f t="shared" si="97"/>
-        <v>10524.017182610121</v>
+        <f t="shared" si="96"/>
+        <v>10250.827425480595</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" si="97"/>
-        <v>10418.777010784021</v>
+        <f t="shared" si="96"/>
+        <v>10148.319151225789</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="97"/>
-        <v>10314.58924067618</v>
+        <f t="shared" si="96"/>
+        <v>10046.835959713531</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="97"/>
-        <v>10211.443348269418</v>
+        <f t="shared" si="96"/>
+        <v>9946.3676001163967</v>
       </c>
       <c r="AH42" s="1">
-        <f t="shared" si="97"/>
-        <v>10109.328914786724</v>
+        <f t="shared" si="96"/>
+        <v>9846.9039241152332</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" si="97"/>
-        <v>10008.235625638856</v>
+        <f t="shared" si="96"/>
+        <v>9748.434884874081</v>
       </c>
       <c r="AJ42" s="1">
-        <f t="shared" si="97"/>
-        <v>9908.1532693824665</v>
+        <f t="shared" si="96"/>
+        <v>9650.9505360253406</v>
       </c>
       <c r="AK42" s="1">
-        <f t="shared" si="97"/>
-        <v>9809.071736688642</v>
+        <f t="shared" si="96"/>
+        <v>9554.441030665088</v>
       </c>
       <c r="AL42" s="1">
-        <f t="shared" si="97"/>
-        <v>9710.9810193217563</v>
+        <f t="shared" si="96"/>
+        <v>9458.8966203584368</v>
       </c>
       <c r="AM42" s="1">
-        <f t="shared" si="97"/>
-        <v>9613.8712091285379</v>
+        <f t="shared" si="96"/>
+        <v>9364.3076541548526</v>
       </c>
       <c r="AN42" s="1">
-        <f t="shared" si="97"/>
-        <v>9517.732497037252</v>
+        <f t="shared" si="96"/>
+        <v>9270.6645776133046</v>
       </c>
       <c r="AO42" s="1">
-        <f t="shared" si="97"/>
-        <v>9422.5551720668791</v>
+        <f t="shared" si="96"/>
+        <v>9177.9579318371707</v>
       </c>
       <c r="AP42" s="1">
-        <f t="shared" si="97"/>
-        <v>9328.3296203462105</v>
+        <f t="shared" si="96"/>
+        <v>9086.1783525187984</v>
       </c>
       <c r="AQ42" s="1">
-        <f t="shared" si="97"/>
-        <v>9235.0463241427478</v>
+        <f t="shared" si="96"/>
+        <v>8995.3165689936104</v>
       </c>
       <c r="AR42" s="1">
-        <f t="shared" si="97"/>
-        <v>9142.69586090132</v>
+        <f t="shared" si="96"/>
+        <v>8905.3634033036742</v>
       </c>
       <c r="AS42" s="1">
-        <f t="shared" si="97"/>
-        <v>9051.2689022923059</v>
+        <f t="shared" si="96"/>
+        <v>8816.3097692706378</v>
       </c>
       <c r="AT42" s="1">
-        <f t="shared" si="97"/>
-        <v>8960.756213269382</v>
+        <f t="shared" si="96"/>
+        <v>8728.1466715779316</v>
       </c>
       <c r="AU42" s="1">
-        <f t="shared" si="97"/>
-        <v>8871.1486511366875</v>
+        <f t="shared" si="96"/>
+        <v>8640.8652048621516</v>
       </c>
       <c r="AV42" s="1">
-        <f t="shared" si="97"/>
-        <v>8782.4371646253203</v>
+        <f t="shared" si="96"/>
+        <v>8554.4565528135299</v>
       </c>
       <c r="AW42" s="1">
-        <f t="shared" si="97"/>
-        <v>8694.6127929790673</v>
+        <f t="shared" si="96"/>
+        <v>8468.9119872853953</v>
       </c>
       <c r="AX42" s="1">
-        <f t="shared" si="97"/>
-        <v>8607.6666650492771</v>
+        <f t="shared" si="96"/>
+        <v>8384.2228674125417</v>
       </c>
       <c r="AY42" s="1">
-        <f t="shared" si="97"/>
-        <v>8521.5899983987838</v>
+        <f t="shared" si="96"/>
+        <v>8300.3806387384157</v>
       </c>
       <c r="AZ42" s="1">
-        <f t="shared" si="97"/>
-        <v>8436.3740984147953</v>
+        <f t="shared" si="96"/>
+        <v>8217.3768323510321</v>
       </c>
       <c r="BA42" s="1">
-        <f t="shared" si="97"/>
-        <v>8352.0103574306468</v>
+        <f t="shared" si="96"/>
+        <v>8135.2030640275216</v>
       </c>
       <c r="BB42" s="1">
-        <f t="shared" si="97"/>
-        <v>8268.4902538563401</v>
+        <f t="shared" si="96"/>
+        <v>8053.8510333872464</v>
       </c>
       <c r="BC42" s="1">
-        <f t="shared" si="97"/>
-        <v>8185.8053513177765</v>
+        <f t="shared" ref="BC42:CH42" si="97">BB42*(1+$Y$46)</f>
+        <v>7973.3125230533742</v>
       </c>
       <c r="BD42" s="1">
         <f t="shared" si="97"/>
-        <v>8103.9472978045987</v>
+        <v>7893.5793978228403</v>
       </c>
       <c r="BE42" s="1">
         <f t="shared" si="97"/>
-        <v>8022.9078248265523</v>
+        <v>7814.6436038446118</v>
       </c>
       <c r="BF42" s="1">
         <f t="shared" si="97"/>
-        <v>7942.6787465782863</v>
+        <v>7736.4971678061656</v>
       </c>
       <c r="BG42" s="1">
         <f t="shared" si="97"/>
-        <v>7863.2519591125038</v>
+        <v>7659.1321961281037</v>
       </c>
       <c r="BH42" s="1">
         <f t="shared" si="97"/>
-        <v>7784.6194395213788</v>
+        <v>7582.5408741668225</v>
       </c>
       <c r="BI42" s="1">
         <f t="shared" si="97"/>
-        <v>7706.7732451261645</v>
+        <v>7506.7154654251544</v>
       </c>
       <c r="BJ42" s="1">
         <f t="shared" si="97"/>
-        <v>7629.7055126749028</v>
+        <v>7431.6483107709028</v>
       </c>
       <c r="BK42" s="1">
         <f t="shared" si="97"/>
-        <v>7553.4084575481538</v>
+        <v>7357.3318276631935</v>
       </c>
       <c r="BL42" s="1">
         <f t="shared" si="97"/>
-        <v>7477.8743729726721</v>
+        <v>7283.7585093865619</v>
       </c>
       <c r="BM42" s="1">
         <f t="shared" si="97"/>
-        <v>7403.0956292429455</v>
+        <v>7210.9209242926963</v>
       </c>
       <c r="BN42" s="1">
         <f t="shared" si="97"/>
-        <v>7329.0646729505161</v>
+        <v>7138.8117150497692</v>
       </c>
       <c r="BO42" s="1">
         <f t="shared" si="97"/>
-        <v>7255.7740262210109</v>
+        <v>7067.423597899271</v>
       </c>
       <c r="BP42" s="1">
         <f t="shared" si="97"/>
-        <v>7183.2162859588007</v>
+        <v>6996.7493619202787</v>
       </c>
       <c r="BQ42" s="1">
         <f t="shared" si="97"/>
-        <v>7111.384123099213</v>
+        <v>6926.7818683010755</v>
       </c>
       <c r="BR42" s="1">
         <f t="shared" si="97"/>
-        <v>7040.270281868221</v>
+        <v>6857.5140496180647</v>
       </c>
       <c r="BS42" s="1">
         <f t="shared" si="97"/>
-        <v>6969.867579049539</v>
+        <v>6788.9389091218836</v>
       </c>
       <c r="BT42" s="1">
         <f t="shared" si="97"/>
-        <v>6900.1689032590439</v>
+        <v>6721.049520030665</v>
       </c>
       <c r="BU42" s="1">
         <f t="shared" si="97"/>
-        <v>6831.1672142264533</v>
+        <v>6653.8390248303585</v>
       </c>
       <c r="BV42" s="1">
         <f t="shared" si="97"/>
-        <v>6762.8555420841885</v>
+        <v>6587.300634582055</v>
       </c>
       <c r="BW42" s="1">
         <f t="shared" si="97"/>
-        <v>6695.2269866633469</v>
+        <v>6521.4276282362343</v>
       </c>
       <c r="BX42" s="1">
         <f t="shared" si="97"/>
-        <v>6628.2747167967136</v>
+        <v>6456.213351953872</v>
       </c>
       <c r="BY42" s="1">
         <f t="shared" si="97"/>
-        <v>6561.9919696287461</v>
+        <v>6391.6512184343328</v>
       </c>
       <c r="BZ42" s="1">
         <f t="shared" si="97"/>
-        <v>6496.372049932459</v>
+        <v>6327.7347062499894</v>
       </c>
       <c r="CA42" s="1">
         <f t="shared" si="97"/>
-        <v>6431.408329433134</v>
+        <v>6264.4573591874896</v>
       </c>
       <c r="CB42" s="1">
         <f t="shared" si="97"/>
-        <v>6367.0942461388022</v>
+        <v>6201.8127855956145</v>
       </c>
       <c r="CC42" s="1">
         <f t="shared" si="97"/>
-        <v>6303.423303677414</v>
+        <v>6139.7946577396588</v>
       </c>
       <c r="CD42" s="1">
         <f t="shared" si="97"/>
-        <v>6240.3890706406401</v>
+        <v>6078.3967111622624</v>
       </c>
       <c r="CE42" s="1">
         <f t="shared" si="97"/>
-        <v>6177.9851799342332</v>
+        <v>6017.6127440506398</v>
       </c>
       <c r="CF42" s="1">
         <f t="shared" si="97"/>
-        <v>6116.2053281348908</v>
+        <v>5957.4366166101336</v>
       </c>
       <c r="CG42" s="1">
         <f t="shared" si="97"/>
-        <v>6055.0432748535422</v>
+        <v>5897.8622504440318</v>
       </c>
       <c r="CH42" s="1">
         <f t="shared" si="97"/>
-        <v>5994.4928421050072</v>
+        <v>5838.8836279395919</v>
       </c>
       <c r="CI42" s="1">
-        <f t="shared" si="97"/>
-        <v>5934.5479136839567</v>
+        <f t="shared" ref="CI42:DN42" si="98">CH42*(1+$Y$46)</f>
+        <v>5780.4947916601959</v>
       </c>
       <c r="CJ42" s="1">
-        <f t="shared" ref="CJ42:DZ42" si="98">CI42*(1+$Y$48)</f>
-        <v>5875.2024345471173</v>
+        <f t="shared" si="98"/>
+        <v>5722.6898437435939</v>
       </c>
       <c r="CK42" s="1">
         <f t="shared" si="98"/>
-        <v>5816.4504102016463</v>
+        <v>5665.462945306158</v>
       </c>
       <c r="CL42" s="1">
         <f t="shared" si="98"/>
-        <v>5758.2859060996298</v>
+        <v>5608.8083158530962</v>
       </c>
       <c r="CM42" s="1">
         <f t="shared" si="98"/>
-        <v>5700.7030470386335</v>
+        <v>5552.7202326945653</v>
       </c>
       <c r="CN42" s="1">
         <f t="shared" si="98"/>
-        <v>5643.6960165682467</v>
+        <v>5497.1930303676199</v>
       </c>
       <c r="CO42" s="1">
         <f t="shared" si="98"/>
-        <v>5587.2590564025641</v>
+        <v>5442.2211000639436</v>
       </c>
       <c r="CP42" s="1">
         <f t="shared" si="98"/>
-        <v>5531.3864658385382</v>
+        <v>5387.7988890633042</v>
       </c>
       <c r="CQ42" s="1">
         <f t="shared" si="98"/>
-        <v>5476.0726011801526</v>
+        <v>5333.9209001726713</v>
       </c>
       <c r="CR42" s="1">
         <f t="shared" si="98"/>
-        <v>5421.3118751683514</v>
+        <v>5280.5816911709444</v>
       </c>
       <c r="CS42" s="1">
         <f t="shared" si="98"/>
-        <v>5367.098756416668</v>
+        <v>5227.775874259235</v>
       </c>
       <c r="CT42" s="1">
         <f t="shared" si="98"/>
-        <v>5313.4277688525017</v>
+        <v>5175.4981155166424</v>
       </c>
       <c r="CU42" s="1">
         <f t="shared" si="98"/>
-        <v>5260.2934911639768</v>
+        <v>5123.7431343614762</v>
       </c>
       <c r="CV42" s="1">
         <f t="shared" si="98"/>
-        <v>5207.690556252337</v>
+        <v>5072.5057030178614</v>
       </c>
       <c r="CW42" s="1">
         <f t="shared" si="98"/>
-        <v>5155.6136506898138</v>
+        <v>5021.7806459876829</v>
       </c>
       <c r="CX42" s="1">
         <f t="shared" si="98"/>
-        <v>5104.0575141829158</v>
+        <v>4971.5628395278063</v>
       </c>
       <c r="CY42" s="1">
         <f t="shared" si="98"/>
-        <v>5053.0169390410865</v>
+        <v>4921.8472111325282</v>
       </c>
       <c r="CZ42" s="1">
         <f t="shared" si="98"/>
-        <v>5002.4867696506753</v>
+        <v>4872.6287390212028</v>
       </c>
       <c r="DA42" s="1">
         <f t="shared" si="98"/>
-        <v>4952.4619019541688</v>
+        <v>4823.902451630991</v>
       </c>
       <c r="DB42" s="1">
         <f t="shared" si="98"/>
-        <v>4902.9372829346266</v>
+        <v>4775.6634271146813</v>
       </c>
       <c r="DC42" s="1">
         <f t="shared" si="98"/>
-        <v>4853.9079101052803</v>
+        <v>4727.9067928435343</v>
       </c>
       <c r="DD42" s="1">
         <f t="shared" si="98"/>
-        <v>4805.3688310042271</v>
+        <v>4680.627724915099</v>
       </c>
       <c r="DE42" s="1">
         <f t="shared" si="98"/>
-        <v>4757.3151426941849</v>
+        <v>4633.8214476659477</v>
       </c>
       <c r="DF42" s="1">
         <f t="shared" si="98"/>
-        <v>4709.7419912672431</v>
+        <v>4587.4832331892885</v>
       </c>
       <c r="DG42" s="1">
         <f t="shared" si="98"/>
-        <v>4662.6445713545709</v>
+        <v>4541.6084008573953</v>
       </c>
       <c r="DH42" s="1">
         <f t="shared" si="98"/>
-        <v>4616.0181256410251</v>
+        <v>4496.1923168488211</v>
       </c>
       <c r="DI42" s="1">
         <f t="shared" si="98"/>
-        <v>4569.8579443846147</v>
+        <v>4451.2303936803328</v>
       </c>
       <c r="DJ42" s="1">
         <f t="shared" si="98"/>
-        <v>4524.1593649407687</v>
+        <v>4406.7180897435292</v>
       </c>
       <c r="DK42" s="1">
         <f t="shared" si="98"/>
-        <v>4478.9177712913606</v>
+        <v>4362.6509088460934</v>
       </c>
       <c r="DL42" s="1">
         <f t="shared" si="98"/>
-        <v>4434.1285935784472</v>
+        <v>4319.0243997576326</v>
       </c>
       <c r="DM42" s="1">
         <f t="shared" si="98"/>
-        <v>4389.7873076426631</v>
+        <v>4275.8341557600561</v>
       </c>
       <c r="DN42" s="1">
         <f t="shared" si="98"/>
-        <v>4345.8894345662366</v>
+        <v>4233.0758142024551</v>
       </c>
       <c r="DO42" s="1">
-        <f t="shared" si="98"/>
-        <v>4302.4305402205746</v>
+        <f t="shared" ref="DO42:DZ42" si="99">DN42*(1+$Y$46)</f>
+        <v>4190.7450560604302</v>
       </c>
       <c r="DP42" s="1">
-        <f t="shared" si="98"/>
-        <v>4259.4062348183688</v>
+        <f t="shared" si="99"/>
+        <v>4148.8376054998262</v>
       </c>
       <c r="DQ42" s="1">
-        <f t="shared" si="98"/>
-        <v>4216.812172470185</v>
+        <f t="shared" si="99"/>
+        <v>4107.3492294448279</v>
       </c>
       <c r="DR42" s="1">
-        <f t="shared" si="98"/>
-        <v>4174.6440507454836</v>
+        <f t="shared" si="99"/>
+        <v>4066.2757371503794</v>
       </c>
       <c r="DS42" s="1">
-        <f t="shared" si="98"/>
-        <v>4132.8976102380284</v>
+        <f t="shared" si="99"/>
+        <v>4025.6129797788758</v>
       </c>
       <c r="DT42" s="1">
-        <f t="shared" si="98"/>
-        <v>4091.5686341356482</v>
+        <f t="shared" si="99"/>
+        <v>3985.3568499810872</v>
       </c>
       <c r="DU42" s="1">
-        <f t="shared" si="98"/>
-        <v>4050.6529477942918</v>
+        <f t="shared" si="99"/>
+        <v>3945.5032814812762</v>
       </c>
       <c r="DV42" s="1">
-        <f t="shared" si="98"/>
-        <v>4010.1464183163489</v>
+        <f t="shared" si="99"/>
+        <v>3906.0482486664632</v>
       </c>
       <c r="DW42" s="1">
-        <f t="shared" si="98"/>
-        <v>3970.0449541331855</v>
+        <f t="shared" si="99"/>
+        <v>3866.9877661797987</v>
       </c>
       <c r="DX42" s="1">
-        <f t="shared" si="98"/>
-        <v>3930.3445045918534</v>
+        <f t="shared" si="99"/>
+        <v>3828.3178885180005</v>
       </c>
       <c r="DY42" s="1">
-        <f t="shared" si="98"/>
-        <v>3891.0410595459348</v>
+        <f t="shared" si="99"/>
+        <v>3790.0347096328205</v>
       </c>
       <c r="DZ42" s="1">
-        <f t="shared" si="98"/>
-        <v>3852.1306489504755</v>
+        <f t="shared" si="99"/>
+        <v>3752.1343625364921</v>
       </c>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.2">
@@ -4439,19 +4444,19 @@
         <v>2035.08</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" ref="S43:V43" si="99">R43</f>
+        <f t="shared" ref="S43:V43" si="100">R43</f>
         <v>2035.08</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
     </row>
@@ -4480,15 +4485,15 @@
       </c>
       <c r="H44" s="7">
         <f>H42/H43</f>
-        <v>2.9267059525915449</v>
+        <v>2.9593766584114634</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" ref="I44:J44" si="100">I42/I43</f>
-        <v>2.8978303903900584</v>
+        <f t="shared" ref="I44:J44" si="101">I42/I43</f>
+        <v>3.0040275147045818</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="100"/>
-        <v>2.8532927055786197</v>
+        <f t="shared" si="101"/>
+        <v>3.0478292749748483</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -4499,36 +4504,42 @@
         <v>3.88</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" ref="P44:Q44" si="101">P42/P43</f>
+        <f t="shared" ref="P44:Q44" si="102">P42/P43</f>
         <v>-4.3970567364702919</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="101"/>
-        <v>9.8871181182773853</v>
+        <f t="shared" si="102"/>
+        <v>10.220522517808055</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" ref="R44" si="102">R42/R43</f>
-        <v>10.840030779964572</v>
+        <f t="shared" ref="R44" si="103">R42/R43</f>
+        <v>11.052212494292434</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" ref="S44" si="103">S42/S43</f>
-        <v>11.482511271986255</v>
+        <f t="shared" ref="S44" si="104">S42/S43</f>
+        <v>11.608676412348059</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" ref="T44" si="104">T42/T43</f>
-        <v>6.0497708276198656</v>
+        <f t="shared" ref="T44" si="105">T42/T43</f>
+        <v>6.0877475248337456</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" ref="U44" si="105">U42/U43</f>
-        <v>5.0450170596701209</v>
+        <f t="shared" ref="U44" si="106">U42/U43</f>
+        <v>4.9924676238281718</v>
       </c>
       <c r="V44" s="7">
-        <f t="shared" ref="V44" si="106">V42/V43</f>
-        <v>5.6042629686913523</v>
+        <f t="shared" ref="V44" si="107">V42/V43</f>
+        <v>5.458783612971879</v>
       </c>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.2">
       <c r="R45" s="3"/>
+      <c r="X45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="46" spans="1:130" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -4540,50 +4551,56 @@
         <v>-5.5962916139907337E-2</v>
       </c>
       <c r="H46" s="8" t="e">
-        <f t="shared" ref="H46:J46" si="107">H29/D29-1</f>
+        <f t="shared" ref="H46:J46" si="108">H29/D29-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="8" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J46" s="8" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="O46" s="8">
-        <f t="shared" ref="O46:V46" si="108">O29/N29-1</f>
+        <f t="shared" ref="O46:V46" si="109">O29/N29-1</f>
         <v>-2.4978877358694973E-2</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7.3190241301159809E-2</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" si="108"/>
-        <v>-2.1674902587991651E-2</v>
+        <f t="shared" si="109"/>
+        <v>7.0466034161491553E-3</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" si="108"/>
-        <v>3.9727976460376402E-2</v>
+        <f t="shared" si="109"/>
+        <v>3.2716976813333964E-2</v>
       </c>
       <c r="S46" s="8">
-        <f t="shared" si="108"/>
-        <v>4.1980509365909358E-2</v>
+        <f t="shared" si="109"/>
+        <v>3.53410694056846E-2</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="108"/>
-        <v>-0.36253897155193004</v>
+        <f t="shared" si="109"/>
+        <v>-0.36242750375933286</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="108"/>
-        <v>-9.8859371518653205E-2</v>
+        <f t="shared" si="109"/>
+        <v>-0.10609551169582032</v>
       </c>
       <c r="V46" s="8">
-        <f t="shared" si="108"/>
-        <v>7.3232745158122503E-2</v>
+        <f t="shared" si="109"/>
+        <v>6.2726146977850172E-2</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.2">
@@ -4611,60 +4628,60 @@
         <v>-0.27077939469690204</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" ref="H47:J47" si="109">H31/H29-1</f>
+        <f t="shared" ref="H47:J47" si="110">H31/H29-1</f>
         <v>-0.25</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="109"/>
-        <v>-0.25</v>
+        <f t="shared" si="110"/>
+        <v>-0.25000000000000011</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-0.25</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="N47" s="3">
-        <f t="shared" ref="N47:V47" si="110">N31/N29</f>
+        <f t="shared" ref="N47:V47" si="111">N31/N29</f>
         <v>0.78038952316991272</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.76240945651690883</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.71080745341614904</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="110"/>
-        <v>0.74507439746516002</v>
+        <f t="shared" si="111"/>
+        <v>0.74521487827538124</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="110"/>
-        <v>0.74999999999999989</v>
+        <f t="shared" si="111"/>
+        <v>0.75</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="110"/>
-        <v>0.74999999999999989</v>
+        <f t="shared" si="111"/>
+        <v>0.75</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y47" s="3">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.2">
@@ -4676,65 +4693,68 @@
         <v>-0.33079847908745252</v>
       </c>
       <c r="H48" s="3" t="e">
-        <f t="shared" ref="H48:J48" si="111">H32/D32-1</f>
+        <f t="shared" ref="H48:J48" si="112">H32/D32-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="3" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J48" s="3" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="O48" s="3">
-        <f t="shared" ref="O48:V48" si="112">O32/N32-1</f>
+        <f t="shared" ref="O48:V48" si="113">O32/N32-1</f>
         <v>-5.3749680061427885E-3</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8.2604220277920692E-2</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="112"/>
-        <v>1.0567149988115032E-2</v>
+        <f t="shared" si="113"/>
+        <v>4.4830045162823851E-2</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>-0.01</v>
+        <v>56</v>
+      </c>
+      <c r="Y48" s="1">
+        <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+'BMS-986365'!G21+admilparant!G18+golcadomide!E42</f>
+        <v>133773.0726892364</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
       <c r="X49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0.08</v>
+        <v>57</v>
+      </c>
+      <c r="Y49" s="7">
+        <f>Y48/Main!L3</f>
+        <v>65.733569534974748</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
@@ -4747,15 +4767,15 @@
       </c>
       <c r="H50" s="1">
         <f>G50+H42</f>
-        <v>-33170.919249999999</v>
+        <v>-33104.431750000003</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" ref="I50:J50" si="113">H50+I42</f>
-        <v>-27273.602579124999</v>
+        <f t="shared" ref="I50:J50" si="114">H50+I42</f>
+        <v>-26990.995435375004</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="113"/>
-        <v>-21466.92365985606</v>
+        <f t="shared" si="114"/>
+        <v>-20788.419034459192</v>
       </c>
       <c r="N50" s="1">
         <f>SUM(N51:N52)-SUM(N66:N68)</f>
@@ -4771,34 +4791,31 @@
       </c>
       <c r="Q50" s="1">
         <f>J50</f>
-        <v>-21466.92365985606</v>
+        <v>-20788.419034459192</v>
       </c>
       <c r="R50" s="1">
         <f>Q50+R42</f>
-        <v>593.4061798342409</v>
+        <v>1703.7175684254544</v>
       </c>
       <c r="S50" s="1">
         <f>R50+S42</f>
-        <v>23961.235219228027</v>
+        <v>25328.302761666742</v>
       </c>
       <c r="T50" s="1">
         <f>S50+T42</f>
-        <v>36273.002835100662</v>
+        <v>37717.3559945054</v>
       </c>
       <c r="U50" s="1">
         <f>T50+U42</f>
-        <v>46540.016152894132</v>
+        <v>47877.427006405633</v>
       </c>
       <c r="V50" s="1">
         <f>U50+V42</f>
-        <v>57945.139635218526</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y50" s="1">
-        <f>NPV(Y49,Q42:XFD42)+Main!L5-Main!L6</f>
-        <v>119242.40368057933</v>
+        <v>58986.488361492447</v>
+      </c>
+      <c r="Y50" s="3">
+        <f>Y49/Main!L2-1</f>
+        <v>0.3146713906994949</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
@@ -4817,13 +4834,6 @@
         <f>10346</f>
         <v>10346</v>
       </c>
-      <c r="X51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y51" s="7">
-        <f>Y50/Main!L3</f>
-        <v>58.593472335524567</v>
-      </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
@@ -4841,10 +4851,6 @@
         <f>513</f>
         <v>513</v>
       </c>
-      <c r="Y52" s="3">
-        <f>Y51/Main!L2-1</f>
-        <v>0.22069734032342847</v>
-      </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
@@ -5173,28 +5179,28 @@
         <v>-8923</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" ref="Q73:V73" si="114">Q42</f>
-        <v>20121.07634014394</v>
+        <f t="shared" ref="Q73:V73" si="115">Q42</f>
+        <v>20799.580965540816</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="114"/>
-        <v>22060.329839690301</v>
+        <f t="shared" si="115"/>
+        <v>22492.136602884646</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="114"/>
-        <v>23367.829039393786</v>
+        <f t="shared" si="115"/>
+        <v>23624.585193241288</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="114"/>
-        <v>12311.767615872635</v>
+        <f t="shared" si="115"/>
+        <v>12389.053232838658</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="114"/>
-        <v>10267.013317793469</v>
+        <f t="shared" si="115"/>
+        <v>10160.071011900236</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="114"/>
-        <v>11405.123482324398</v>
+        <f t="shared" si="115"/>
+        <v>11109.061355086811</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
@@ -5233,23 +5239,23 @@
         <v>9696</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" ref="R75:V75" si="115">Q75*1.01</f>
+        <f t="shared" ref="R75:V75" si="116">Q75*1.01</f>
         <v>9792.9600000000009</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>9890.8896000000004</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>9989.7984960000013</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>10089.696480960001</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>10190.593445769602</v>
       </c>
     </row>
@@ -5271,23 +5277,23 @@
         <v>-2172.56</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" ref="R75:V76" si="116">Q76*1.04</f>
+        <f t="shared" ref="R76:V76" si="117">Q76*1.04</f>
         <v>-2259.4623999999999</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>-2349.8408960000002</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>-2443.8345318400002</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>-2541.5879131136003</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>-2643.2514296381446</v>
       </c>
     </row>
@@ -5309,23 +5315,23 @@
         <v>517.14</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" ref="R77:V77" si="117">Q77*1.02</f>
+        <f t="shared" ref="R77:V77" si="118">Q77*1.02</f>
         <v>527.4828</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>538.03245600000002</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>548.79310512000006</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>559.76896722240008</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>570.96434656684812</v>
       </c>
     </row>
@@ -5346,23 +5352,23 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R77:V84" si="118">Q78*1.01</f>
+        <f t="shared" ref="R78:V84" si="119">Q78*1.01</f>
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5383,23 +5389,23 @@
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5420,23 +5426,23 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5457,23 +5463,23 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5494,23 +5500,23 @@
         <v>0</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5531,23 +5537,23 @@
         <v>0</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5568,23 +5574,23 @@
         <v>0</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5605,23 +5611,23 @@
         <v>0</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ref="R85:V85" si="119">Q85*1.04</f>
+        <f t="shared" ref="R85:V85" si="120">Q85*1.04</f>
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -5643,23 +5649,23 @@
         <v>-1272.5999999999999</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" ref="R86:V86" si="120">Q86*1.01</f>
+        <f t="shared" ref="R86:V86" si="121">Q86*1.01</f>
         <v>-1285.326</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-1298.1792600000001</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-1311.1610526000002</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-1324.2726631260002</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-1337.5153897572602</v>
       </c>
     </row>
@@ -5683,23 +5689,23 @@
         <v>0</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87:V87" si="121">Q87*1.01</f>
+        <f t="shared" ref="R87:V87" si="122">Q87*1.01</f>
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
@@ -5712,36 +5718,36 @@
         <v>13076</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" ref="O88:P88" si="122">SUM(O74:O87)</f>
+        <f t="shared" ref="O88:P88" si="123">SUM(O74:O87)</f>
         <v>13860</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>15190</v>
       </c>
       <c r="Q88" s="1">
         <f>SUM(Q73:Q87)</f>
-        <v>26889.056340143939</v>
+        <v>27567.560965540815</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" ref="R88:V88" si="123">SUM(R73:R87)</f>
-        <v>28835.984239690304</v>
+        <f t="shared" ref="R88:V88" si="124">SUM(R73:R87)</f>
+        <v>29267.791002884645</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="123"/>
-        <v>30148.730939393787</v>
+        <f t="shared" si="124"/>
+        <v>30405.487093241285</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="123"/>
-        <v>19095.363632552635</v>
+        <f t="shared" si="124"/>
+        <v>19172.649249518658</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="123"/>
-        <v>17050.618189736273</v>
+        <f t="shared" si="124"/>
+        <v>16943.675883843036</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="123"/>
-        <v>18185.914455265443</v>
+        <f t="shared" si="124"/>
+        <v>17889.852328027857</v>
       </c>
     </row>
     <row r="90" spans="2:121" x14ac:dyDescent="0.2">
@@ -5767,23 +5773,23 @@
         <v>-1310.4000000000001</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" ref="R91:V91" si="124">Q91*1.05</f>
+        <f t="shared" ref="R91:V91" si="125">Q91*1.05</f>
         <v>-1375.92</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-1444.7160000000001</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-1516.9518000000003</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-1592.7993900000004</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-1672.4393595000004</v>
       </c>
     </row>
@@ -5808,432 +5814,432 @@
         <v>11958</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:V95" si="125">O88+O91</f>
+        <f t="shared" ref="O95:V95" si="126">O88+O91</f>
         <v>12651</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>13942</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="125"/>
-        <v>25578.656340143938</v>
+        <f t="shared" si="126"/>
+        <v>26257.160965540814</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="125"/>
-        <v>27460.064239690306</v>
+        <f t="shared" si="126"/>
+        <v>27891.871002884647</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="125"/>
-        <v>28704.014939393786</v>
+        <f t="shared" si="126"/>
+        <v>28960.771093241285</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="125"/>
-        <v>17578.411832552636</v>
+        <f t="shared" si="126"/>
+        <v>17655.697449518659</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="125"/>
-        <v>15457.818799736273</v>
+        <f t="shared" si="126"/>
+        <v>15350.876493843036</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="125"/>
-        <v>16513.475095765443</v>
+        <f t="shared" si="126"/>
+        <v>16217.412968527857</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" ref="W95:BB95" si="126">V95*(1+$X$97)</f>
-        <v>16348.340344807788</v>
+        <f t="shared" ref="W95:BB95" si="127">V95*(1+$X$97)</f>
+        <v>16055.238838842579</v>
       </c>
       <c r="X95" s="1">
-        <f t="shared" si="126"/>
-        <v>16184.856941359711</v>
+        <f t="shared" si="127"/>
+        <v>15894.686450454154</v>
       </c>
       <c r="Y95" s="1">
-        <f t="shared" si="126"/>
-        <v>16023.008371946113</v>
+        <f t="shared" si="127"/>
+        <v>15735.739585949612</v>
       </c>
       <c r="Z95" s="1">
-        <f t="shared" si="126"/>
-        <v>15862.778288226651</v>
+        <f t="shared" si="127"/>
+        <v>15578.382190090115</v>
       </c>
       <c r="AA95" s="1">
-        <f t="shared" si="126"/>
-        <v>15704.150505344385</v>
+        <f t="shared" si="127"/>
+        <v>15422.598368189214</v>
       </c>
       <c r="AB95" s="1">
-        <f t="shared" si="126"/>
-        <v>15547.10900029094</v>
+        <f t="shared" si="127"/>
+        <v>15268.372384507322</v>
       </c>
       <c r="AC95" s="1">
-        <f t="shared" si="126"/>
-        <v>15391.637910288031</v>
+        <f t="shared" si="127"/>
+        <v>15115.688660662248</v>
       </c>
       <c r="AD95" s="1">
-        <f t="shared" si="126"/>
-        <v>15237.721531185151</v>
+        <f t="shared" si="127"/>
+        <v>14964.531774055626</v>
       </c>
       <c r="AE95" s="1">
-        <f t="shared" si="126"/>
-        <v>15085.344315873299</v>
+        <f t="shared" si="127"/>
+        <v>14814.886456315069</v>
       </c>
       <c r="AF95" s="1">
-        <f t="shared" si="126"/>
-        <v>14934.490872714567</v>
+        <f t="shared" si="127"/>
+        <v>14666.737591751918</v>
       </c>
       <c r="AG95" s="1">
-        <f t="shared" si="126"/>
-        <v>14785.145963987421</v>
+        <f t="shared" si="127"/>
+        <v>14520.070215834399</v>
       </c>
       <c r="AH95" s="1">
-        <f t="shared" si="126"/>
-        <v>14637.294504347547</v>
+        <f t="shared" si="127"/>
+        <v>14374.869513676054</v>
       </c>
       <c r="AI95" s="1">
-        <f t="shared" si="126"/>
-        <v>14490.921559304072</v>
+        <f t="shared" si="127"/>
+        <v>14231.120818539293</v>
       </c>
       <c r="AJ95" s="1">
-        <f t="shared" si="126"/>
-        <v>14346.012343711031</v>
+        <f t="shared" si="127"/>
+        <v>14088.809610353901</v>
       </c>
       <c r="AK95" s="1">
-        <f t="shared" si="126"/>
-        <v>14202.552220273919</v>
+        <f t="shared" si="127"/>
+        <v>13947.921514250362</v>
       </c>
       <c r="AL95" s="1">
-        <f t="shared" si="126"/>
-        <v>14060.52669807118</v>
+        <f t="shared" si="127"/>
+        <v>13808.442299107857</v>
       </c>
       <c r="AM95" s="1">
-        <f t="shared" si="126"/>
-        <v>13919.921431090468</v>
+        <f t="shared" si="127"/>
+        <v>13670.357876116779</v>
       </c>
       <c r="AN95" s="1">
-        <f t="shared" si="126"/>
-        <v>13780.722216779563</v>
+        <f t="shared" si="127"/>
+        <v>13533.654297355612</v>
       </c>
       <c r="AO95" s="1">
-        <f t="shared" si="126"/>
-        <v>13642.914994611767</v>
+        <f t="shared" si="127"/>
+        <v>13398.317754382055</v>
       </c>
       <c r="AP95" s="1">
-        <f t="shared" si="126"/>
-        <v>13506.485844665649</v>
+        <f t="shared" si="127"/>
+        <v>13264.334576838233</v>
       </c>
       <c r="AQ95" s="1">
-        <f t="shared" si="126"/>
-        <v>13371.420986218993</v>
+        <f t="shared" si="127"/>
+        <v>13131.691231069852</v>
       </c>
       <c r="AR95" s="1">
-        <f t="shared" si="126"/>
-        <v>13237.706776356803</v>
+        <f t="shared" si="127"/>
+        <v>13000.374318759154</v>
       </c>
       <c r="AS95" s="1">
-        <f t="shared" si="126"/>
-        <v>13105.329708593235</v>
+        <f t="shared" si="127"/>
+        <v>12870.370575571562</v>
       </c>
       <c r="AT95" s="1">
-        <f t="shared" si="126"/>
-        <v>12974.276411507302</v>
+        <f t="shared" si="127"/>
+        <v>12741.666869815846</v>
       </c>
       <c r="AU95" s="1">
-        <f t="shared" si="126"/>
-        <v>12844.533647392229</v>
+        <f t="shared" si="127"/>
+        <v>12614.250201117688</v>
       </c>
       <c r="AV95" s="1">
-        <f t="shared" si="126"/>
-        <v>12716.088310918307</v>
+        <f t="shared" si="127"/>
+        <v>12488.107699106511</v>
       </c>
       <c r="AW95" s="1">
-        <f t="shared" si="126"/>
-        <v>12588.927427809123</v>
+        <f t="shared" si="127"/>
+        <v>12363.226622115446</v>
       </c>
       <c r="AX95" s="1">
-        <f t="shared" si="126"/>
-        <v>12463.038153531032</v>
+        <f t="shared" si="127"/>
+        <v>12239.594355894291</v>
       </c>
       <c r="AY95" s="1">
-        <f t="shared" si="126"/>
-        <v>12338.40777199572</v>
+        <f t="shared" si="127"/>
+        <v>12117.198412335349</v>
       </c>
       <c r="AZ95" s="1">
-        <f t="shared" si="126"/>
-        <v>12215.023694275764</v>
+        <f t="shared" si="127"/>
+        <v>11996.026428211995</v>
       </c>
       <c r="BA95" s="1">
-        <f t="shared" si="126"/>
-        <v>12092.873457333006</v>
+        <f t="shared" si="127"/>
+        <v>11876.066163929876</v>
       </c>
       <c r="BB95" s="1">
-        <f t="shared" si="126"/>
-        <v>11971.944722759676</v>
+        <f t="shared" si="127"/>
+        <v>11757.305502290577</v>
       </c>
       <c r="BC95" s="1">
-        <f t="shared" ref="BC95:CH95" si="127">BB95*(1+$X$97)</f>
-        <v>11852.225275532079</v>
+        <f t="shared" ref="BC95:CH95" si="128">BB95*(1+$X$97)</f>
+        <v>11639.732447267672</v>
       </c>
       <c r="BD95" s="1">
-        <f t="shared" si="127"/>
-        <v>11733.703022776757</v>
+        <f t="shared" si="128"/>
+        <v>11523.335122794995</v>
       </c>
       <c r="BE95" s="1">
-        <f t="shared" si="127"/>
-        <v>11616.36599254899</v>
+        <f t="shared" si="128"/>
+        <v>11408.101771567046</v>
       </c>
       <c r="BF95" s="1">
-        <f t="shared" si="127"/>
-        <v>11500.202332623499</v>
+        <f t="shared" si="128"/>
+        <v>11294.020753851375</v>
       </c>
       <c r="BG95" s="1">
-        <f t="shared" si="127"/>
-        <v>11385.200309297265</v>
+        <f t="shared" si="128"/>
+        <v>11181.080546312862</v>
       </c>
       <c r="BH95" s="1">
-        <f t="shared" si="127"/>
-        <v>11271.348306204292</v>
+        <f t="shared" si="128"/>
+        <v>11069.269740849733</v>
       </c>
       <c r="BI95" s="1">
-        <f t="shared" si="127"/>
-        <v>11158.634823142249</v>
+        <f t="shared" si="128"/>
+        <v>10958.577043441235</v>
       </c>
       <c r="BJ95" s="1">
-        <f t="shared" si="127"/>
-        <v>11047.048474910825</v>
+        <f t="shared" si="128"/>
+        <v>10848.991273006823</v>
       </c>
       <c r="BK95" s="1">
-        <f t="shared" si="127"/>
-        <v>10936.577990161717</v>
+        <f t="shared" si="128"/>
+        <v>10740.501360276754</v>
       </c>
       <c r="BL95" s="1">
-        <f t="shared" si="127"/>
-        <v>10827.212210260101</v>
+        <f t="shared" si="128"/>
+        <v>10633.096346673987</v>
       </c>
       <c r="BM95" s="1">
-        <f t="shared" si="127"/>
-        <v>10718.9400881575</v>
+        <f t="shared" si="128"/>
+        <v>10526.765383207246</v>
       </c>
       <c r="BN95" s="1">
-        <f t="shared" si="127"/>
-        <v>10611.750687275926</v>
+        <f t="shared" si="128"/>
+        <v>10421.497729375174</v>
       </c>
       <c r="BO95" s="1">
-        <f t="shared" si="127"/>
-        <v>10505.633180403167</v>
+        <f t="shared" si="128"/>
+        <v>10317.282752081423</v>
       </c>
       <c r="BP95" s="1">
-        <f t="shared" si="127"/>
-        <v>10400.576848599136</v>
+        <f t="shared" si="128"/>
+        <v>10214.109924560607</v>
       </c>
       <c r="BQ95" s="1">
-        <f t="shared" si="127"/>
-        <v>10296.571080113144</v>
+        <f t="shared" si="128"/>
+        <v>10111.968825315002</v>
       </c>
       <c r="BR95" s="1">
-        <f t="shared" si="127"/>
-        <v>10193.605369312012</v>
+        <f t="shared" si="128"/>
+        <v>10010.849137061852</v>
       </c>
       <c r="BS95" s="1">
-        <f t="shared" si="127"/>
-        <v>10091.669315618892</v>
+        <f t="shared" si="128"/>
+        <v>9910.740645691234</v>
       </c>
       <c r="BT95" s="1">
-        <f t="shared" si="127"/>
-        <v>9990.7526224627036</v>
+        <f t="shared" si="128"/>
+        <v>9811.6332392343211</v>
       </c>
       <c r="BU95" s="1">
-        <f t="shared" si="127"/>
-        <v>9890.8450962380757</v>
+        <f t="shared" si="128"/>
+        <v>9713.5169068419782</v>
       </c>
       <c r="BV95" s="1">
-        <f t="shared" si="127"/>
-        <v>9791.9366452756949</v>
+        <f t="shared" si="128"/>
+        <v>9616.3817377735577</v>
       </c>
       <c r="BW95" s="1">
-        <f t="shared" si="127"/>
-        <v>9694.0172788229374</v>
+        <f t="shared" si="128"/>
+        <v>9520.2179203958221</v>
       </c>
       <c r="BX95" s="1">
-        <f t="shared" si="127"/>
-        <v>9597.0771060347088</v>
+        <f t="shared" si="128"/>
+        <v>9425.0157411918644</v>
       </c>
       <c r="BY95" s="1">
-        <f t="shared" si="127"/>
-        <v>9501.1063349743617</v>
+        <f t="shared" si="128"/>
+        <v>9330.7655837799466</v>
       </c>
       <c r="BZ95" s="1">
-        <f t="shared" si="127"/>
-        <v>9406.0952716246175</v>
+        <f t="shared" si="128"/>
+        <v>9237.4579279421469</v>
       </c>
       <c r="CA95" s="1">
-        <f t="shared" si="127"/>
-        <v>9312.0343189083706</v>
+        <f t="shared" si="128"/>
+        <v>9145.0833486627253</v>
       </c>
       <c r="CB95" s="1">
-        <f t="shared" si="127"/>
-        <v>9218.9139757192861</v>
+        <f t="shared" si="128"/>
+        <v>9053.6325151760975</v>
       </c>
       <c r="CC95" s="1">
-        <f t="shared" si="127"/>
-        <v>9126.7248359620935</v>
+        <f t="shared" si="128"/>
+        <v>8963.0961900243365</v>
       </c>
       <c r="CD95" s="1">
-        <f t="shared" si="127"/>
-        <v>9035.4575876024719</v>
+        <f t="shared" si="128"/>
+        <v>8873.4652281240924</v>
       </c>
       <c r="CE95" s="1">
-        <f t="shared" si="127"/>
-        <v>8945.1030117264472</v>
+        <f t="shared" si="128"/>
+        <v>8784.730575842852</v>
       </c>
       <c r="CF95" s="1">
-        <f t="shared" si="127"/>
-        <v>8855.6519816091823</v>
+        <f t="shared" si="128"/>
+        <v>8696.8832700844232</v>
       </c>
       <c r="CG95" s="1">
-        <f t="shared" si="127"/>
-        <v>8767.0954617930911</v>
+        <f t="shared" si="128"/>
+        <v>8609.9144373835788</v>
       </c>
       <c r="CH95" s="1">
-        <f t="shared" si="127"/>
-        <v>8679.4245071751593</v>
+        <f t="shared" si="128"/>
+        <v>8523.8152930097422</v>
       </c>
       <c r="CI95" s="1">
-        <f t="shared" ref="CI95:DQ95" si="128">CH95*(1+$X$97)</f>
-        <v>8592.6302621034083</v>
+        <f t="shared" ref="CI95:DQ95" si="129">CH95*(1+$X$97)</f>
+        <v>8438.5771400796439</v>
       </c>
       <c r="CJ95" s="1">
-        <f t="shared" si="128"/>
-        <v>8506.7039594823746</v>
+        <f t="shared" si="129"/>
+        <v>8354.1913686788466</v>
       </c>
       <c r="CK95" s="1">
-        <f t="shared" si="128"/>
-        <v>8421.6369198875509</v>
+        <f t="shared" si="129"/>
+        <v>8270.649454992059</v>
       </c>
       <c r="CL95" s="1">
-        <f t="shared" si="128"/>
-        <v>8337.4205506886756</v>
+        <f t="shared" si="129"/>
+        <v>8187.9429604421384</v>
       </c>
       <c r="CM95" s="1">
-        <f t="shared" si="128"/>
-        <v>8254.0463451817886</v>
+        <f t="shared" si="129"/>
+        <v>8106.0635308377168</v>
       </c>
       <c r="CN95" s="1">
-        <f t="shared" si="128"/>
-        <v>8171.5058817299705</v>
+        <f t="shared" si="129"/>
+        <v>8025.0028955293392</v>
       </c>
       <c r="CO95" s="1">
-        <f t="shared" si="128"/>
-        <v>8089.7908229126706</v>
+        <f t="shared" si="129"/>
+        <v>7944.7528665740456</v>
       </c>
       <c r="CP95" s="1">
-        <f t="shared" si="128"/>
-        <v>8008.8929146835435</v>
+        <f t="shared" si="129"/>
+        <v>7865.3053379083049</v>
       </c>
       <c r="CQ95" s="1">
-        <f t="shared" si="128"/>
-        <v>7928.8039855367078</v>
+        <f t="shared" si="129"/>
+        <v>7786.652284529222</v>
       </c>
       <c r="CR95" s="1">
-        <f t="shared" si="128"/>
-        <v>7849.5159456813408</v>
+        <f t="shared" si="129"/>
+        <v>7708.7857616839301</v>
       </c>
       <c r="CS95" s="1">
-        <f t="shared" si="128"/>
-        <v>7771.020786224527</v>
+        <f t="shared" si="129"/>
+        <v>7631.6979040670903</v>
       </c>
       <c r="CT95" s="1">
-        <f t="shared" si="128"/>
-        <v>7693.3105783622814</v>
+        <f t="shared" si="129"/>
+        <v>7555.3809250264194</v>
       </c>
       <c r="CU95" s="1">
-        <f t="shared" si="128"/>
-        <v>7616.3774725786589</v>
+        <f t="shared" si="129"/>
+        <v>7479.8271157761556</v>
       </c>
       <c r="CV95" s="1">
-        <f t="shared" si="128"/>
-        <v>7540.2136978528724</v>
+        <f t="shared" si="129"/>
+        <v>7405.028844618394</v>
       </c>
       <c r="CW95" s="1">
-        <f t="shared" si="128"/>
-        <v>7464.8115608743437</v>
+        <f t="shared" si="129"/>
+        <v>7330.9785561722101</v>
       </c>
       <c r="CX95" s="1">
-        <f t="shared" si="128"/>
-        <v>7390.1634452655999</v>
+        <f t="shared" si="129"/>
+        <v>7257.6687706104876</v>
       </c>
       <c r="CY95" s="1">
-        <f t="shared" si="128"/>
-        <v>7316.2618108129436</v>
+        <f t="shared" si="129"/>
+        <v>7185.0920829043826</v>
       </c>
       <c r="CZ95" s="1">
-        <f t="shared" si="128"/>
-        <v>7243.0991927048144</v>
+        <f t="shared" si="129"/>
+        <v>7113.2411620753383</v>
       </c>
       <c r="DA95" s="1">
-        <f t="shared" si="128"/>
-        <v>7170.6682007777663</v>
+        <f t="shared" si="129"/>
+        <v>7042.1087504545849</v>
       </c>
       <c r="DB95" s="1">
-        <f t="shared" si="128"/>
-        <v>7098.9615187699883</v>
+        <f t="shared" si="129"/>
+        <v>6971.6876629500393</v>
       </c>
       <c r="DC95" s="1">
-        <f t="shared" si="128"/>
-        <v>7027.9719035822882</v>
+        <f t="shared" si="129"/>
+        <v>6901.9707863205385</v>
       </c>
       <c r="DD95" s="1">
-        <f t="shared" si="128"/>
-        <v>6957.6921845464649</v>
+        <f t="shared" si="129"/>
+        <v>6832.9510784573331</v>
       </c>
       <c r="DE95" s="1">
-        <f t="shared" si="128"/>
-        <v>6888.1152627010006</v>
+        <f t="shared" si="129"/>
+        <v>6764.6215676727597</v>
       </c>
       <c r="DF95" s="1">
-        <f t="shared" si="128"/>
-        <v>6819.2341100739905</v>
+        <f t="shared" si="129"/>
+        <v>6696.9753519960323</v>
       </c>
       <c r="DG95" s="1">
-        <f t="shared" si="128"/>
-        <v>6751.0417689732503</v>
+        <f t="shared" si="129"/>
+        <v>6630.005598476072</v>
       </c>
       <c r="DH95" s="1">
-        <f t="shared" si="128"/>
-        <v>6683.5313512835173</v>
+        <f t="shared" si="129"/>
+        <v>6563.7055424913115</v>
       </c>
       <c r="DI95" s="1">
-        <f t="shared" si="128"/>
-        <v>6616.6960377706819</v>
+        <f t="shared" si="129"/>
+        <v>6498.0684870663981</v>
       </c>
       <c r="DJ95" s="1">
-        <f t="shared" si="128"/>
-        <v>6550.5290773929746</v>
+        <f t="shared" si="129"/>
+        <v>6433.0878021957342</v>
       </c>
       <c r="DK95" s="1">
-        <f t="shared" si="128"/>
-        <v>6485.0237866190446</v>
+        <f t="shared" si="129"/>
+        <v>6368.7569241737765</v>
       </c>
       <c r="DL95" s="1">
-        <f t="shared" si="128"/>
-        <v>6420.173548752854</v>
+        <f t="shared" si="129"/>
+        <v>6305.0693549320386</v>
       </c>
       <c r="DM95" s="1">
-        <f t="shared" si="128"/>
-        <v>6355.9718132653252</v>
+        <f t="shared" si="129"/>
+        <v>6242.0186613827182</v>
       </c>
       <c r="DN95" s="1">
-        <f t="shared" si="128"/>
-        <v>6292.4120951326722</v>
+        <f t="shared" si="129"/>
+        <v>6179.5984747688908</v>
       </c>
       <c r="DO95" s="1">
-        <f t="shared" si="128"/>
-        <v>6229.4879741813456</v>
+        <f t="shared" si="129"/>
+        <v>6117.8024900212022</v>
       </c>
       <c r="DP95" s="1">
-        <f t="shared" si="128"/>
-        <v>6167.1930944395317</v>
+        <f t="shared" si="129"/>
+        <v>6056.62446512099</v>
       </c>
       <c r="DQ95" s="1">
-        <f t="shared" si="128"/>
-        <v>6105.5211634951365</v>
+        <f t="shared" si="129"/>
+        <v>5996.0582204697803</v>
       </c>
     </row>
     <row r="97" spans="15:24" x14ac:dyDescent="0.2">
@@ -6259,7 +6265,7 @@
       </c>
       <c r="X99" s="1">
         <f>NPV(X98,Q95:DQ95)+Main!L5-Main!L6</f>
-        <v>179180.38828676371</v>
+        <v>178128.22363401778</v>
       </c>
     </row>
     <row r="100" spans="15:24" x14ac:dyDescent="0.2">
@@ -6268,13 +6274,13 @@
       </c>
       <c r="X100" s="7">
         <f>X99/Main!L3</f>
-        <v>88.045869590759935</v>
+        <v>87.528855688237215</v>
       </c>
     </row>
     <row r="101" spans="15:24" x14ac:dyDescent="0.2">
       <c r="X101" s="3">
         <f>X100/Main!L2-1</f>
-        <v>0.83428894980749857</v>
+        <v>0.75057711376474434</v>
       </c>
     </row>
   </sheetData>
@@ -6292,8 +6298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39BCE6-9601-4370-A605-A8909A3D2703}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="B21:C22"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6628,52 +6634,52 @@
         <v>0</v>
       </c>
       <c r="F38" s="5">
-        <f>0.75*F36*F37/1000000</f>
-        <v>896.32024902000001</v>
+        <f>0.45*F36*F37/1000000</f>
+        <v>537.79214941200007</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:Q38" si="13">0.75*G36*G37/1000000</f>
-        <v>923.20985649060015</v>
+        <f t="shared" ref="G38:Q38" si="13">0.45*G36*G37/1000000</f>
+        <v>553.92591389436006</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="13"/>
-        <v>950.90615218531798</v>
+        <v>570.54369131119086</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="13"/>
-        <v>979.43333675087763</v>
+        <v>587.6600020505266</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="13"/>
-        <v>1008.8163368534041</v>
+        <v>605.28980211204248</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="13"/>
-        <v>1039.0808269590061</v>
+        <v>623.44849617540387</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="13"/>
-        <v>1070.2532517677762</v>
+        <v>642.15195106066585</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="13"/>
-        <v>1102.3608493208096</v>
+        <v>661.41650959248591</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="13"/>
-        <v>1135.4316748004339</v>
+        <v>681.25900488026048</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="13"/>
-        <v>1169.494625044447</v>
+        <v>701.69677502666832</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="13"/>
-        <v>1204.5794637957804</v>
+        <v>722.74767827746825</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="13"/>
-        <v>1240.7168477096538</v>
+        <v>744.4301086257924</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -6687,51 +6693,51 @@
       </c>
       <c r="F40" s="1">
         <f>F38</f>
-        <v>896.32024902000001</v>
+        <v>537.79214941200007</v>
       </c>
       <c r="G40" s="1">
         <f>F40+G38</f>
-        <v>1819.5301055106002</v>
+        <v>1091.7180633063601</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" ref="H40:M40" si="14">G40+H38</f>
-        <v>2770.4362576959184</v>
+        <v>1662.2617546175511</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="14"/>
-        <v>3749.8695944467959</v>
+        <v>2249.9217566680777</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="14"/>
-        <v>4758.6859313001996</v>
+        <v>2855.21155878012</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="14"/>
-        <v>5797.7667582592057</v>
+        <v>3478.6600549555237</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="14"/>
-        <v>6868.0200100269822</v>
+        <v>4120.8120060161891</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="14"/>
-        <v>7970.3808593477916</v>
+        <v>4782.2285156086746</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ref="N40" si="15">M40+N38</f>
-        <v>9105.8125341482264</v>
+        <v>5463.4875204889349</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" ref="O40" si="16">N40+O38</f>
-        <v>10275.307159192673</v>
+        <v>6165.1842955156035</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ref="P40" si="17">O40+P38</f>
-        <v>11479.886622988453</v>
+        <v>6887.9319737930718</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" ref="Q40" si="18">P40+Q38</f>
-        <v>12720.603470698108</v>
+        <v>7632.3620824188638</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -6746,9 +6752,9 @@
       <c r="D42" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="7">
         <f>NPV(E41,D38:Q38)</f>
-        <v>6667.238447982365</v>
+        <v>4000.3430687894197</v>
       </c>
     </row>
   </sheetData>
@@ -6761,29 +6767,470 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275DD6E9-6B1A-4B83-87D9-0D9C0B0F0575}">
-  <dimension ref="A1"/>
+  <dimension ref="D15:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>2025</v>
+      </c>
+      <c r="G15">
+        <f>F15+1</f>
+        <v>2026</v>
+      </c>
+      <c r="H15">
+        <f>G15+1</f>
+        <v>2027</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:R15" si="0">H15+1</f>
+        <v>2028</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6800</v>
+      </c>
+      <c r="G16">
+        <f>F16*1.03</f>
+        <v>7004</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:R16" si="1">G16*1.03</f>
+        <v>7214.12</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>7430.5436</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>7653.4599079999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>7883.0637052399998</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>8119.5556163971996</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>8363.1422848891161</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8614.0365534357898</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>8872.457650038863</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>9138.6313795400292</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>9412.7903209262295</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>9695.174030554017</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>H17*1.05</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" ref="J17:R17" si="2">I17*1.05</f>
+        <v>0.22050000000000003</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23152500000000004</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24310125000000005</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25525631250000008</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26801912812500012</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28142008453125011</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29549108875781266</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31026564319570332</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32577892535548852</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f>H17*0.65*H16</f>
+        <v>937.8356</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:R18" si="3">I17*0.65*I16</f>
+        <v>1014.2692014</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1096.9321413141001</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>1186.3321108311993</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1283.0181778639421</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>1387.5841593598536</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1500.6722683476819</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>1622.9770582180179</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1755.2496884627867</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>1898.3025380725037</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>2053.0141949254134</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="7">
+        <f>NPV(G20,H18:R18)</f>
+        <v>9618.6399547615893</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D54BFFF-23F7-4250-98E2-0308176EE937}">
-  <dimension ref="A1"/>
+  <dimension ref="D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467832A0-B85E-4CF7-9679-06AA2A9472C3}">
+  <dimension ref="E18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BED6C4-18A0-4F0B-B397-6850CA37EFFA}">
+  <dimension ref="D17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FD5244-3F4B-4488-9088-22017DC86882}">
+  <dimension ref="D12:R18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>2025</v>
+      </c>
+      <c r="G12">
+        <f>F12+1</f>
+        <v>2026</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:R12" si="0">G12+1</f>
+        <v>2027</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>750</v>
+      </c>
+      <c r="J14">
+        <f>I14*1.05</f>
+        <v>787.5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:R14" si="1">J14*1.05</f>
+        <v>826.875</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>868.21875</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>911.62968750000005</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>957.2111718750001</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1005.0717304687502</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1055.3253169921877</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1108.0915828417972</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>1163.4961619838871</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f>I14*0.32</f>
+        <v>240</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:R15" si="2">J14*0.32</f>
+        <v>252</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>264.60000000000002</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>277.83</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>291.72150000000005</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>306.30757500000004</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>321.62295375000008</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>337.70410143750007</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>354.58930650937509</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>372.31877183484386</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="7">
+        <f>NPV(G17,I15:R15)</f>
+        <v>1964.0529288044527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E08E0-BB39-4BA0-A35F-A5A9823115D6}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF9470-2CCA-4934-B02F-32C0405B054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07759346-89D2-4411-848C-13E53FC306A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="315" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="2385" yWindow="945" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="184">
   <si>
     <t>Indication</t>
   </si>
@@ -629,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -653,6 +653,12 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -766,14 +772,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -815,6 +819,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1275,7 +1285,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,48 +1301,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7">
-        <v>50</v>
+      <c r="L2" s="5">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2">
         <v>38359</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="21"/>
       <c r="K3" t="s">
         <v>5</v>
       </c>
@@ -1344,41 +1354,41 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2">
         <v>38896</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="21"/>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="1">
         <f>L3*L2</f>
-        <v>101754</v>
+        <v>95648.76</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2">
         <v>41313</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="21"/>
       <c r="K5" t="s">
         <v>7</v>
       </c>
@@ -1391,19 +1401,19 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2">
         <v>38713</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="21"/>
       <c r="K6" t="s">
         <v>8</v>
       </c>
@@ -1416,112 +1426,112 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2">
         <v>45561</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="21"/>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="1">
         <f>L4+L6-L5</f>
-        <v>140882</v>
+        <v>134776.76</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2">
         <v>44258</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2">
         <v>43915</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="21"/>
       <c r="K9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="2">
         <v>44679</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="21"/>
       <c r="K10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2">
         <v>44638</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2">
         <v>38709</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C13" t="s">
@@ -1530,13 +1540,13 @@
       <c r="D13" s="2">
         <v>41271</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="2">
@@ -1545,27 +1555,27 @@
       <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D15" s="2">
         <v>44813</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="2">
@@ -1574,13 +1584,13 @@
       <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="2">
@@ -1589,13 +1599,13 @@
       <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="2">
@@ -1604,13 +1614,13 @@
       <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="2">
@@ -1619,201 +1629,201 @@
       <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="21">
+      <c r="C20" s="10"/>
+      <c r="D20" s="19">
         <v>45456</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="30"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C36">
@@ -1866,4422 +1876,4398 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
+      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="1"/>
-    <col min="14" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="31" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="31"/>
+    <col min="12" max="13" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="130" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="131" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="G1" s="2">
+      <c r="C1" s="32"/>
+      <c r="G1" s="32">
         <v>45747</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="32">
         <v>45863</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32">
         <v>45291</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="32">
         <v>45657</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="33">
         <v>2020</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="33">
         <f>L2+1</f>
         <v>2021</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="33">
         <f>M2+1</f>
         <v>2022</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="33">
         <f>N2+1</f>
         <v>2023</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="33">
         <f t="shared" ref="P2:V2" si="0">O2+1</f>
         <v>2024</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="33">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="33">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="33">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="33">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="33">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="33">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="1">
+      <c r="N3" s="33"/>
+      <c r="O3" s="31">
         <v>31210</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="31">
         <v>34105</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="1">
+      <c r="N4" s="33"/>
+      <c r="O4" s="31">
         <v>13097</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="31">
         <v>13199</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="1">
+      <c r="N5" s="33"/>
+      <c r="O5" s="31">
         <v>699</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="31">
         <v>996</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="N6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="31">
         <v>2265</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="31">
         <f t="shared" ref="H7:J7" si="1">G7*1.01</f>
         <v>2287.65</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="31">
         <f t="shared" si="1"/>
         <v>2310.5264999999999</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="31">
         <f t="shared" si="1"/>
         <v>2333.6317650000001</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="31">
         <v>6992</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="31">
         <v>7523</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="31">
         <v>8249</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="31">
         <v>9009</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="31">
         <v>9304</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="31">
         <f t="shared" ref="Q7:Q19" si="2">SUM(G7:J7)</f>
         <v>9196.8082649999997</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="31">
         <f>Q7*1.03</f>
         <v>9472.71251295</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="31">
         <f>R7*1.03</f>
         <v>9756.8938883384999</v>
       </c>
-      <c r="T7" s="1">
-        <f>S7*0.2</f>
-        <v>1951.3787776677</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="T7" s="31">
+        <v>0</v>
+      </c>
+      <c r="U7" s="31">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="31">
         <v>770</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="31">
         <f>G8*1.15</f>
         <v>885.49999999999989</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="31">
         <f t="shared" ref="I8:J8" si="3">H8*1.15</f>
         <v>1018.3249999999998</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="31">
         <f t="shared" si="3"/>
         <v>1171.0737499999998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="31">
         <v>3157</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="31">
         <v>3306</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="31">
         <v>3464</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="31">
         <v>3601</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="31">
         <v>3682</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="31">
         <f t="shared" si="2"/>
         <v>3844.8987499999994</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="31">
         <f>Q8*1.03</f>
         <v>3960.2457124999996</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="31">
         <f t="shared" ref="S8:V8" si="4">R8*1.03</f>
         <v>4079.0530838749996</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="31">
         <f t="shared" si="4"/>
         <v>4201.4246763912497</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="31">
         <f t="shared" si="4"/>
         <v>4327.4674166829873</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="31">
         <f t="shared" si="4"/>
         <v>4457.2914391834775</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>624</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" ref="H9:J12" si="5">G9*1.03</f>
         <v>642.72</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="5"/>
         <v>662.00160000000005</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="5"/>
         <v>681.86164800000006</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>1682</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>2026</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>2131</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>2238</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>2530</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <f t="shared" si="2"/>
         <v>2610.5832479999999</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <f>Q9*1.05</f>
         <v>2741.1124104</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <f t="shared" ref="S9:V10" si="6">R9*1.05</f>
         <v>2878.1680309200001</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <f t="shared" si="6"/>
         <v>3022.0764324660004</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <f t="shared" si="6"/>
         <v>3173.1802540893004</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <f t="shared" si="6"/>
         <v>3331.8392667937655</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>478</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="5"/>
         <v>492.34000000000003</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="5"/>
         <v>507.11020000000002</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f t="shared" si="5"/>
         <v>522.32350600000007</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>274</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>551</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="26">
         <v>717</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>1008</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>1773</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <f t="shared" si="2"/>
         <v>1999.7737059999999</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <f>Q10*1.05</f>
         <v>2099.7623913000002</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <f t="shared" si="6"/>
         <v>2204.7505108650003</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <f t="shared" si="6"/>
         <v>2314.9880364082505</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <f t="shared" si="6"/>
         <v>2430.737438228663</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <f t="shared" si="6"/>
         <v>2552.2743101400961</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>252</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f>G11*1.05</f>
         <v>264.60000000000002</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" ref="I11:J11" si="7">H11*1.05</f>
         <v>277.83000000000004</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="7"/>
         <v>291.72150000000005</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="26">
         <v>252</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>627</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>928</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <f t="shared" si="2"/>
         <v>1086.1515000000002</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <f>Q11*1.05</f>
         <v>1140.4590750000002</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <f t="shared" ref="S11:V11" si="8">R11*1.05</f>
         <v>1197.4820287500004</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <f t="shared" si="8"/>
         <v>1257.3561301875004</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <f t="shared" si="8"/>
         <v>1320.2239366968754</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <f t="shared" si="8"/>
         <v>1386.2351335317192</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>263</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="5"/>
         <v>270.89</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="5"/>
         <v>279.01670000000001</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="5"/>
         <v>287.387201</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>87</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="26">
         <v>182</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>364</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>747</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <f t="shared" si="2"/>
         <v>1100.293901</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <f t="shared" ref="R12" si="9">Q12*1.03</f>
         <v>1133.3027180300001</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <f t="shared" ref="S12:V12" si="10">R12*1.03</f>
         <v>1167.3017995709001</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
         <f t="shared" si="10"/>
         <v>1202.3208535580272</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <f t="shared" si="10"/>
         <v>1238.3904791647681</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <f t="shared" si="10"/>
         <v>1275.5421935397112</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>159</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f>G13*1.2</f>
         <v>190.79999999999998</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" ref="I13:J13" si="11">H13*1.2</f>
         <v>228.95999999999998</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" si="11"/>
         <v>274.75199999999995</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="26">
         <v>24</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>231</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>602</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <f t="shared" si="2"/>
         <v>853.51199999999994</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <f>Q13*1.1</f>
         <v>938.86320000000001</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <f t="shared" ref="S13:V13" si="12">R13*1.1</f>
         <v>1032.7495200000001</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="4">
         <f t="shared" si="12"/>
         <v>1136.0244720000003</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="4">
         <f t="shared" si="12"/>
         <v>1249.6269192000004</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="4">
         <f t="shared" si="12"/>
         <v>1374.5896111200007</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>107</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f>G14*1.3</f>
         <v>139.1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" ref="I14:J14" si="13">H14*1.3</f>
         <v>180.83</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f t="shared" si="13"/>
         <v>235.07900000000004</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>134</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>252</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>434</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>566</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <f t="shared" si="2"/>
         <v>662.00900000000001</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <f>Q14*1.1</f>
         <v>728.20990000000006</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <f t="shared" ref="S14:V14" si="14">R14*1.1</f>
         <v>801.03089000000011</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="4">
         <f t="shared" si="14"/>
         <v>881.13397900000018</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <f t="shared" si="14"/>
         <v>969.24737690000029</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="4">
         <f t="shared" si="14"/>
         <v>1066.1721145900003</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="31">
         <v>103</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="31">
         <f>G15*1.01</f>
         <v>104.03</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="31">
         <f>H15*1.01</f>
         <v>105.0703</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="31">
         <f>I15*1.01</f>
         <v>106.121003</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="31">
         <v>164</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="33">
         <v>388</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="31">
         <v>472</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="31">
         <v>406</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="31">
         <f t="shared" si="2"/>
         <v>418.22130300000003</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="31">
         <f>Q15*1.03</f>
         <v>430.76794209000002</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="31">
         <f t="shared" ref="S15:V15" si="15">R15*1.03</f>
         <v>443.69098035270002</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="31">
         <f t="shared" si="15"/>
         <v>457.00170976328104</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="31">
         <f t="shared" si="15"/>
         <v>470.71176105617951</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="31">
         <f t="shared" si="15"/>
         <v>484.8331138878649</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>55</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>100</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>100</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>100</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="26">
         <v>8</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>170</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>246</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <f t="shared" si="2"/>
         <v>355</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <f>Q16*1.2</f>
         <v>426</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <f t="shared" ref="S16:V16" si="16">R16*1.2</f>
         <v>511.2</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="4">
         <f t="shared" si="16"/>
         <v>613.43999999999994</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="4">
         <f t="shared" si="16"/>
         <v>736.12799999999993</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="4">
         <f t="shared" si="16"/>
         <v>883.35359999999991</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="31">
         <v>48</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="31">
         <v>70</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="31">
         <v>70</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="31">
         <v>70</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="N17" s="33"/>
+      <c r="O17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
         <v>126</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="31">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="31">
         <f>Q17*1.4</f>
         <v>361.2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="31">
         <f t="shared" ref="S17:V17" si="17">R17*1.4</f>
         <v>505.67999999999995</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="31">
         <f t="shared" si="17"/>
         <v>707.95199999999988</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="31">
         <f t="shared" si="17"/>
         <v>991.13279999999975</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="31">
         <f t="shared" si="17"/>
         <v>1387.5859199999995</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>25</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>25</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>25</v>
       </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28">
+      <c r="N18" s="26"/>
+      <c r="O18" s="26">
         <v>1</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="26">
         <v>38</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f>Q18*1.5</f>
         <v>112.5</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <f t="shared" ref="S18:V18" si="18">R18*1.5</f>
         <v>168.75</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <f t="shared" si="18"/>
         <v>253.125</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <f t="shared" si="18"/>
         <v>379.6875</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <f t="shared" si="18"/>
         <v>569.53125</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>27</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f>G19*1.03</f>
         <v>27.810000000000002</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f>H19*1.03</f>
         <v>28.644300000000005</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f>I19*1.03</f>
         <v>29.503629000000007</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28">
-        <v>0</v>
-      </c>
-      <c r="P19" s="28">
+      <c r="N19" s="26"/>
+      <c r="O19" s="26">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
         <v>10</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <f t="shared" si="2"/>
         <v>112.95792900000001</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <f>Q19*1.5</f>
         <v>169.4368935</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
         <f t="shared" ref="S19:V19" si="19">R19*1.5</f>
         <v>254.15534024999999</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="4">
         <f t="shared" si="19"/>
         <v>381.23301037499999</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="4">
         <f t="shared" si="19"/>
         <v>571.84951556249996</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <f t="shared" si="19"/>
         <v>857.77427334374988</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="31">
         <v>403</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="31">
         <f t="shared" ref="H20:H24" si="20">G20*1.01</f>
         <v>407.03000000000003</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="31">
         <f t="shared" ref="I20:J20" si="21">H20*1.01</f>
         <v>411.10030000000006</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="31">
         <f t="shared" si="21"/>
         <v>415.21130300000004</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="1">
+      <c r="N20" s="33"/>
+      <c r="O20" s="31">
         <v>1211</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="31">
         <v>1605</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="31">
         <f t="shared" ref="Q20:Q26" si="22">SUM(G20:J20)</f>
         <v>1636.3416030000001</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="31">
         <f>Q20*1.03</f>
         <v>1685.4318510900002</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="31">
         <f t="shared" ref="S20:V20" si="23">R20*1.03</f>
         <v>1735.9948066227003</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="31">
         <f t="shared" si="23"/>
         <v>1788.0746508213813</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="31">
         <f t="shared" si="23"/>
         <v>1841.7168903460229</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="31">
         <f t="shared" si="23"/>
         <v>1896.9683970564035</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="31">
         <v>3565</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="31">
         <f t="shared" si="20"/>
         <v>3600.65</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="31">
         <f t="shared" ref="I21:J21" si="24">H21*1.01</f>
         <v>3636.6565000000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="31">
         <f t="shared" si="24"/>
         <v>3673.0230649999999</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="31">
         <v>9168</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="31">
         <v>10762</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="31">
         <v>11789</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="31">
         <v>12206</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="31">
         <v>13333</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="31">
         <f t="shared" si="22"/>
         <v>14475.329564999998</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="31">
         <f>Q21*1.03</f>
         <v>14909.589451949998</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="31">
         <f>R21*1.03</f>
         <v>15356.877135508499</v>
       </c>
-      <c r="T21" s="1">
-        <f>S21*0.2</f>
-        <v>3071.3754271017001</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
+      <c r="T21" s="31">
+        <v>0</v>
+      </c>
+      <c r="U21" s="31">
+        <v>0</v>
+      </c>
+      <c r="V21" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="31">
         <v>936</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="31">
         <f>G22*1.05</f>
         <v>982.80000000000007</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="31">
         <f t="shared" ref="I22:J22" si="25">H22*1.05</f>
         <v>1031.94</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="31">
         <f t="shared" si="25"/>
         <v>1083.537</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="31">
         <v>12106</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="31">
         <v>12821</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="31">
         <v>9978</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="31">
         <v>6097</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="31">
         <v>5773</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="31">
         <f t="shared" si="22"/>
         <v>4034.277</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="31">
         <f>Q22*0.95</f>
         <v>3832.56315</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="31">
         <f t="shared" ref="S22:V22" si="26">R22*0.95</f>
         <v>3640.9349924999997</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="31">
         <f t="shared" si="26"/>
         <v>3458.8882428749994</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="31">
         <f t="shared" si="26"/>
         <v>3285.9438307312494</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="31">
         <f t="shared" si="26"/>
         <v>3121.6466391946869</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="31">
         <v>658</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="31">
         <f>G23*1.2</f>
         <v>789.6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="31">
         <f t="shared" ref="I23:J23" si="27">H23*1.2</f>
         <v>947.52</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="31">
         <f t="shared" si="27"/>
         <v>1137.0239999999999</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="31">
         <v>3070</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="31">
         <v>3332</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="31">
         <v>3497</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="31">
         <v>3441</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="31">
         <v>3545</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="31">
         <f t="shared" si="22"/>
         <v>3532.1439999999998</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="31">
         <f>Q23*1.03</f>
         <v>3638.1083199999998</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="31">
         <f t="shared" ref="S23:V23" si="28">R23*1.03</f>
         <v>3747.2515696</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="31">
         <f t="shared" si="28"/>
         <v>3859.669116688</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="31">
         <f t="shared" si="28"/>
         <v>3975.4591901886402</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="31">
         <f t="shared" si="28"/>
         <v>4094.7229658942993</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="31">
         <v>175</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="31">
         <f t="shared" si="20"/>
         <v>176.75</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="31">
         <f t="shared" ref="I24:J24" si="29">H24*1.01</f>
         <v>178.51750000000001</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="31">
         <f t="shared" si="29"/>
         <v>180.30267500000002</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="31">
         <v>2140</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="31">
         <v>2117</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="31">
         <v>2165</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="31">
         <v>1930</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="31">
         <v>1286</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="31">
         <f t="shared" si="22"/>
         <v>710.57017500000006</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="31">
         <f>Q24*1.03</f>
         <v>731.88728025000012</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="31">
         <f t="shared" ref="S24:V24" si="30">R24*1.03</f>
         <v>753.84389865750018</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="31">
         <f t="shared" si="30"/>
         <v>776.45921561722525</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="31">
         <f t="shared" si="30"/>
         <v>799.75299208574199</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="31">
         <f t="shared" si="30"/>
         <v>823.74558184831426</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="31">
         <v>105</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="31">
         <f>G25*1.4</f>
         <v>147</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="31">
         <f t="shared" ref="I25:J25" si="31">H25*1.4</f>
         <v>205.79999999999998</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="31">
         <f t="shared" si="31"/>
         <v>288.11999999999995</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="31">
         <v>1247</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="31">
         <v>1181</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="33">
         <v>811</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="31">
         <v>1004</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="31">
         <v>875</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="31">
         <f t="shared" si="22"/>
         <v>745.91999999999985</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="31">
         <f>Q25*1.03</f>
         <v>768.29759999999987</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="31">
         <f t="shared" ref="S25:V25" si="32">R25*1.03</f>
         <v>791.34652799999992</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="31">
         <f t="shared" si="32"/>
         <v>815.08692383999994</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="31">
         <f t="shared" si="32"/>
         <v>839.53953155519991</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="31">
         <f t="shared" si="32"/>
         <v>864.72571750185591</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="31">
         <v>199</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="31">
         <f>G26*1.1</f>
         <v>218.9</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="31">
         <f t="shared" ref="I26:J26" si="33">H26*1.1</f>
         <v>240.79000000000002</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="31">
         <f t="shared" si="33"/>
         <v>264.86900000000003</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="1">
+      <c r="N26" s="33"/>
+      <c r="O26" s="31">
         <v>962</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="31">
         <v>925</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="31">
         <f t="shared" si="22"/>
         <v>923.55900000000008</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="31">
         <f>Q26*1.03</f>
         <v>951.26577000000009</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="31">
         <f t="shared" ref="S26:V26" si="34">R26*1.03</f>
         <v>979.80374310000013</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="31">
         <f t="shared" si="34"/>
         <v>1009.1978553930002</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="31">
         <f t="shared" si="34"/>
         <v>1039.4737910547901</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="31">
         <f t="shared" si="34"/>
         <v>1070.6580047864338</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="31">
         <f>11559</f>
         <v>11559</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="31">
         <v>10886</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="31">
         <f>44671</f>
         <v>44671</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="31">
         <f>43778</f>
         <v>43778</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="31">
         <v>46778</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="31">
         <f t="shared" ref="Q27:Q42" si="35">SUM(G27:J27)</f>
         <v>10886</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="31">
         <f>306</f>
         <v>306</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="31">
         <v>315</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="31">
         <f>1488</f>
         <v>1488</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="31">
         <f>1228</f>
         <v>1228</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="31">
         <v>1522</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="31">
         <f t="shared" si="35"/>
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f>SUM(C27:C28)</f>
         <v>11865</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" ref="D29:N29" si="36">SUM(D27:D28)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="36"/>
         <v>11201</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <f>SUM(H7:H26)</f>
         <v>11823.17</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" ref="I29:J29" si="37">SUM(I7:I26)</f>
         <v>12445.638900000002</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <f t="shared" si="37"/>
         <v>13170.542045000002</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="5">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="4">
         <f t="shared" si="36"/>
         <v>46159</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <f t="shared" ref="O29" si="38">SUM(O27:O28)</f>
         <v>45006</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
         <f t="shared" ref="P29" si="39">SUM(P27:P28)</f>
         <v>48300</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <f>SUM(G29:J29)</f>
         <v>48640.350945000006</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <f>SUM(R7:R26)</f>
         <v>50231.716179059993</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="4">
         <f t="shared" ref="S29:V29" si="40">SUM(S7:S26)</f>
         <v>52006.958746910801</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="4">
         <f t="shared" si="40"/>
-        <v>33158.206510153315</v>
-      </c>
-      <c r="U29" s="5">
+        <v>28135.452305383918</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="40"/>
         <v>29640.269623542918</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="4">
         <f t="shared" si="40"/>
         <v>31499.489532412379</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="31">
         <f>2932</f>
         <v>2932</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="31">
         <v>3033</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="31">
         <f>H29*0.25</f>
         <v>2955.7925</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="31">
         <f t="shared" ref="I30:J30" si="41">I29*0.25</f>
         <v>3111.4097250000004</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="31">
         <f t="shared" si="41"/>
         <v>3292.6355112500005</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="31">
         <f>10137</f>
         <v>10137</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="31">
         <f>10693</f>
         <v>10693</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="31">
         <f>13968</f>
         <v>13968</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="31">
         <f t="shared" si="35"/>
         <v>12392.837736250001</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="31">
         <f>R29*0.25</f>
         <v>12557.929044764998</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="31">
         <f t="shared" ref="S30:V30" si="42">S29*0.25</f>
         <v>13001.7396867277</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="31">
         <f t="shared" si="42"/>
-        <v>8289.5516275383288</v>
-      </c>
-      <c r="U30" s="1">
+        <v>7033.8630763459796</v>
+      </c>
+      <c r="U30" s="31">
         <f t="shared" si="42"/>
         <v>7410.0674058857294</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30" s="31">
         <f t="shared" si="42"/>
         <v>7874.8723831030948</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="31">
         <f>C29-C30</f>
         <v>8933</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="31">
         <f t="shared" ref="D31:N31" si="43">D29-D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="31">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="31">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="31">
         <f t="shared" si="43"/>
         <v>8168</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="31">
         <f t="shared" si="43"/>
         <v>8867.3775000000005</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="31">
         <f t="shared" ref="I31" si="44">I29-I30</f>
         <v>9334.2291750000004</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="31">
         <f t="shared" ref="J31" si="45">J29-J30</f>
         <v>9877.9065337500015</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="31">
         <f t="shared" si="43"/>
         <v>36022</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="31">
         <f t="shared" ref="O31" si="46">O29-O30</f>
         <v>34313</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="31">
         <f t="shared" ref="P31" si="47">P29-P30</f>
         <v>34332</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="31">
         <f t="shared" si="35"/>
         <v>36247.513208750002</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="31">
         <f t="shared" ref="R31" si="48">R29-R30</f>
         <v>37673.787134294995</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="31">
         <f t="shared" ref="S31" si="49">S29-S30</f>
         <v>39005.219060183103</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31" s="31">
         <f t="shared" ref="T31" si="50">T29-T30</f>
-        <v>24868.654882614988</v>
-      </c>
-      <c r="U31" s="1">
+        <v>21101.589229037938</v>
+      </c>
+      <c r="U31" s="31">
         <f t="shared" ref="U31:V31" si="51">U29-U30</f>
         <v>22230.202217657188</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31" s="31">
         <f t="shared" si="51"/>
         <v>23624.617149309284</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="31">
         <f>2367</f>
         <v>2367</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="31">
         <v>1584</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="31">
         <f>G32*1.25</f>
         <v>1980</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="31">
         <f t="shared" ref="I32:J32" si="52">H32*1.2</f>
         <v>2376</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="31">
         <f t="shared" si="52"/>
         <v>2851.2</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="31">
         <f>7814</f>
         <v>7814</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="31">
         <f>7772</f>
         <v>7772</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="31">
         <f>8414</f>
         <v>8414</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="31">
         <f t="shared" si="35"/>
         <v>8791.2000000000007</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="31">
         <f>Q32*1.04</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="31">
         <f t="shared" ref="S32:V32" si="53">R32*1.04</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="31">
         <f t="shared" si="53"/>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="31">
         <f t="shared" si="53"/>
         <v>10284.460572672002</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="31">
         <f t="shared" si="53"/>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="31">
         <f>2695</f>
         <v>2695</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="31">
         <v>2257</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="31">
         <f>9509</f>
         <v>9509</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="31">
         <f>9299</f>
         <v>9299</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="31">
         <f>11159</f>
         <v>11159</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="31">
         <f t="shared" si="35"/>
         <v>2257</v>
       </c>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="31">
         <f>12949</f>
         <v>12949</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="31">
         <v>188</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="31">
         <f>815</f>
         <v>815</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="31">
         <f>913</f>
         <v>913</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="31">
         <f>13363</f>
         <v>13363</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="31">
         <f t="shared" si="35"/>
         <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="31">
         <f>2357</f>
         <v>2357</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="31">
         <v>830</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="31">
         <f>9595</f>
         <v>9595</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="31">
         <f>9047</f>
         <v>9047</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="31">
         <f>8872</f>
         <v>8872</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="31">
         <f t="shared" si="35"/>
         <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="31">
         <f>81</f>
         <v>81</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="31">
         <v>339</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="31">
         <f>576</f>
         <v>576</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="31">
         <f>-1158</f>
         <v>-1158</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="31">
         <f>893</f>
         <v>893</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="31">
         <f t="shared" si="35"/>
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="31">
         <f>SUM(C32:C36)</f>
         <v>20449</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="31">
         <f t="shared" ref="D37:N37" si="54">SUM(D32:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="31">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="31">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="31">
         <f t="shared" si="54"/>
         <v>5198</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="31">
         <f t="shared" si="54"/>
         <v>1980</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="31">
         <f t="shared" ref="I37" si="55">SUM(I32:I36)</f>
         <v>2376</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="31">
         <f t="shared" ref="J37" si="56">SUM(J32:J36)</f>
         <v>2851.2</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="31">
         <f t="shared" si="54"/>
         <v>28309</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="31">
         <f t="shared" ref="O37" si="57">SUM(O32:O36)</f>
         <v>25873</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="31">
         <f t="shared" ref="P37" si="58">SUM(P32:P36)</f>
         <v>42701</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="31">
         <f t="shared" si="35"/>
         <v>12405.2</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="31">
         <f t="shared" ref="R37" si="59">SUM(R32:R36)</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="31">
         <f t="shared" ref="S37" si="60">SUM(S32:S36)</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37" s="31">
         <f t="shared" ref="T37" si="61">SUM(T32:T36)</f>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U37" s="31">
         <f t="shared" ref="U37" si="62">SUM(U32:U36)</f>
         <v>10284.460572672002</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V37" s="31">
         <f t="shared" ref="V37" si="63">SUM(V32:V36)</f>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="31">
         <f>C31-C37</f>
         <v>-11516</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="31">
         <f t="shared" ref="D38:N38" si="64">D31-D37</f>
         <v>0</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="31">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="31">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="31">
         <f t="shared" si="64"/>
         <v>2970</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="31">
         <f t="shared" si="64"/>
         <v>6887.3775000000005</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="31">
         <f t="shared" ref="I38" si="65">I31-I37</f>
         <v>6958.2291750000004</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="31">
         <f t="shared" ref="J38" si="66">J31-J37</f>
         <v>7026.7065337500017</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="31">
         <f t="shared" si="64"/>
         <v>7713</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="31">
         <f t="shared" ref="O38" si="67">O31-O37</f>
         <v>8440</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="31">
         <f t="shared" ref="P38" si="68">P31-P37</f>
         <v>-8369</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="31">
         <f t="shared" si="35"/>
         <v>23842.313208750005</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="31">
         <f t="shared" ref="R38" si="69">R31-R37</f>
         <v>28530.939134294993</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="31">
         <f t="shared" ref="S38" si="70">S31-S37</f>
         <v>29496.657140183102</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="31">
         <f t="shared" ref="T38" si="71">T31-T37</f>
-        <v>14979.750485814986</v>
-      </c>
-      <c r="U38" s="1">
+        <v>11212.684832237936</v>
+      </c>
+      <c r="U38" s="31">
         <f t="shared" ref="U38" si="72">U31-U37</f>
         <v>11945.741644985186</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V38" s="31">
         <f t="shared" ref="V38" si="73">V31-V37</f>
         <v>12928.778153730402</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="C39" s="31">
+        <v>0</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
         <f>G50*$Y$45/4</f>
         <v>-195.63499999999999</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="31">
         <f>H50*$Y$45/4</f>
         <v>-165.52215875000002</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="31">
         <f>I50*$Y$45/4</f>
         <v>-134.95497717687502</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="31">
         <f t="shared" si="35"/>
         <v>-496.112135926875</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="31">
         <f>Q50*$Y$45</f>
         <v>-415.76838068918386</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="31">
         <f>R50*$Y$45</f>
         <v>34.074351368509085</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39" s="31">
         <f>S50*$Y$45</f>
         <v>506.56605523333485</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="31">
         <f>T50*$Y$45</f>
-        <v>754.34711989010805</v>
-      </c>
-      <c r="V39" s="1">
+        <v>694.07406943287526</v>
+      </c>
+      <c r="V39" s="31">
         <f>U50*$Y$45</f>
-        <v>957.54854012811268</v>
+        <v>896.31112086356427</v>
       </c>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="31">
         <f>C38+C39</f>
         <v>-11516</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="31">
         <f t="shared" ref="D40:N40" si="74">D38+D39</f>
         <v>0</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="31">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="31">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="31">
         <f t="shared" si="74"/>
         <v>2970</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="31">
         <f t="shared" si="74"/>
         <v>6691.7425000000003</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="31">
         <f t="shared" ref="I40" si="75">I38+I39</f>
         <v>6792.7070162500004</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="31">
         <f t="shared" ref="J40" si="76">J38+J39</f>
         <v>6891.7515565731264</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="31">
         <f t="shared" si="74"/>
         <v>7713</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="31">
         <f t="shared" ref="O40" si="77">O38+O39</f>
         <v>8440</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="31">
         <f t="shared" ref="P40" si="78">P38+P39</f>
         <v>-8369</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="31">
         <f t="shared" si="35"/>
         <v>23346.201072823129</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="31">
         <f t="shared" ref="R40" si="79">R38+R39</f>
         <v>28115.170753605809</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="31">
         <f t="shared" ref="S40" si="80">S38+S39</f>
         <v>29530.731491551611</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40" s="31">
         <f t="shared" ref="T40" si="81">T38+T39</f>
-        <v>15486.316541048322</v>
-      </c>
-      <c r="U40" s="1">
+        <v>11719.250887471271</v>
+      </c>
+      <c r="U40" s="31">
         <f t="shared" ref="U40" si="82">U38+U39</f>
-        <v>12700.088764875294</v>
-      </c>
-      <c r="V40" s="1">
+        <v>12639.815714418062</v>
+      </c>
+      <c r="V40" s="31">
         <f t="shared" ref="V40" si="83">V38+V39</f>
-        <v>13886.326693858515</v>
+        <v>13825.089274593965</v>
       </c>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="31">
         <v>509</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="31">
         <f>H40*0.1</f>
         <v>669.17425000000003</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="31">
         <f t="shared" ref="I41:J41" si="84">I40*0.1</f>
         <v>679.27070162500013</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="31">
         <f t="shared" si="84"/>
         <v>689.17515565731264</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="31">
         <f>1368</f>
         <v>1368</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="31">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="31">
         <v>554</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="31">
         <f t="shared" si="35"/>
         <v>2546.6201072823128</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="31">
         <f>R40*0.2</f>
         <v>5623.0341507211624</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="31">
         <f t="shared" ref="S41:V41" si="85">S40*0.2</f>
         <v>5906.1462983103229</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="31">
         <f t="shared" si="85"/>
-        <v>3097.2633082096645</v>
-      </c>
-      <c r="U41" s="1">
+        <v>2343.8501774942542</v>
+      </c>
+      <c r="U41" s="31">
         <f t="shared" si="85"/>
-        <v>2540.017752975059</v>
-      </c>
-      <c r="V41" s="1">
+        <v>2527.9631428836128</v>
+      </c>
+      <c r="V41" s="31">
         <f t="shared" si="85"/>
-        <v>2777.2653387717032</v>
+        <v>2765.0178549187931</v>
       </c>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="31">
         <f>C40-C41</f>
         <v>-11516</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="31">
         <f t="shared" ref="D42:N42" si="86">D40-D41</f>
         <v>0</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="31">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="31">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="31">
         <f t="shared" si="86"/>
         <v>2461</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="31">
         <f t="shared" si="86"/>
         <v>6022.5682500000003</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="31">
         <f t="shared" ref="I42" si="87">I40-I41</f>
         <v>6113.4363146249998</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="31">
         <f t="shared" ref="J42" si="88">J40-J41</f>
         <v>6202.5764009158138</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="31">
         <f t="shared" si="86"/>
         <v>6345</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="31">
         <f t="shared" ref="O42" si="89">O40-O41</f>
         <v>8040</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="31">
         <f t="shared" ref="P42" si="90">P40-P41</f>
         <v>-8923</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="31">
         <f t="shared" si="35"/>
         <v>20799.580965540816</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="31">
         <f t="shared" ref="R42" si="91">R40-R41</f>
         <v>22492.136602884646</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="31">
         <f t="shared" ref="S42" si="92">S40-S41</f>
         <v>23624.585193241288</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42" s="31">
         <f t="shared" ref="T42" si="93">T40-T41</f>
-        <v>12389.053232838658</v>
-      </c>
-      <c r="U42" s="1">
+        <v>9375.400709977017</v>
+      </c>
+      <c r="U42" s="31">
         <f t="shared" ref="U42" si="94">U40-U41</f>
-        <v>10160.071011900236</v>
-      </c>
-      <c r="V42" s="1">
+        <v>10111.852571534449</v>
+      </c>
+      <c r="V42" s="31">
         <f t="shared" ref="V42" si="95">V40-V41</f>
-        <v>11109.061355086811</v>
-      </c>
-      <c r="W42" s="1">
+        <v>11060.071419675172</v>
+      </c>
+      <c r="W42" s="31">
         <f t="shared" ref="W42:BB42" si="96">V42*(1+$Y$46)</f>
-        <v>10997.970741535943</v>
-      </c>
-      <c r="X42" s="1">
+        <v>10949.470705478421</v>
+      </c>
+      <c r="X42" s="31">
         <f t="shared" si="96"/>
-        <v>10887.991034120583</v>
-      </c>
-      <c r="Y42" s="1">
+        <v>10839.975998423637</v>
+      </c>
+      <c r="Y42" s="31">
         <f t="shared" si="96"/>
-        <v>10779.111123779378</v>
-      </c>
-      <c r="Z42" s="1">
+        <v>10731.5762384394</v>
+      </c>
+      <c r="Z42" s="31">
         <f t="shared" si="96"/>
-        <v>10671.320012541584</v>
-      </c>
-      <c r="AA42" s="1">
+        <v>10624.260476055006</v>
+      </c>
+      <c r="AA42" s="31">
         <f t="shared" si="96"/>
-        <v>10564.606812416168</v>
-      </c>
-      <c r="AB42" s="1">
+        <v>10518.017871294456</v>
+      </c>
+      <c r="AB42" s="31">
         <f t="shared" si="96"/>
-        <v>10458.960744292006</v>
-      </c>
-      <c r="AC42" s="1">
+        <v>10412.837692581512</v>
+      </c>
+      <c r="AC42" s="31">
         <f t="shared" si="96"/>
-        <v>10354.371136849086</v>
-      </c>
-      <c r="AD42" s="1">
+        <v>10308.709315655697</v>
+      </c>
+      <c r="AD42" s="31">
         <f t="shared" si="96"/>
-        <v>10250.827425480595</v>
-      </c>
-      <c r="AE42" s="1">
+        <v>10205.62222249914</v>
+      </c>
+      <c r="AE42" s="31">
         <f t="shared" si="96"/>
-        <v>10148.319151225789</v>
-      </c>
-      <c r="AF42" s="1">
+        <v>10103.566000274148</v>
+      </c>
+      <c r="AF42" s="31">
         <f t="shared" si="96"/>
-        <v>10046.835959713531</v>
-      </c>
-      <c r="AG42" s="1">
+        <v>10002.530340271407</v>
+      </c>
+      <c r="AG42" s="31">
         <f t="shared" si="96"/>
-        <v>9946.3676001163967</v>
-      </c>
-      <c r="AH42" s="1">
+        <v>9902.5050368686934</v>
+      </c>
+      <c r="AH42" s="31">
         <f t="shared" si="96"/>
-        <v>9846.9039241152332</v>
-      </c>
-      <c r="AI42" s="1">
+        <v>9803.4799865000059</v>
+      </c>
+      <c r="AI42" s="31">
         <f t="shared" si="96"/>
-        <v>9748.434884874081</v>
-      </c>
-      <c r="AJ42" s="1">
+        <v>9705.4451866350064</v>
+      </c>
+      <c r="AJ42" s="31">
         <f t="shared" si="96"/>
-        <v>9650.9505360253406</v>
-      </c>
-      <c r="AK42" s="1">
+        <v>9608.3907347686563</v>
+      </c>
+      <c r="AK42" s="31">
         <f t="shared" si="96"/>
-        <v>9554.441030665088</v>
-      </c>
-      <c r="AL42" s="1">
+        <v>9512.3068274209691</v>
+      </c>
+      <c r="AL42" s="31">
         <f t="shared" si="96"/>
-        <v>9458.8966203584368</v>
-      </c>
-      <c r="AM42" s="1">
+        <v>9417.1837591467593</v>
+      </c>
+      <c r="AM42" s="31">
         <f t="shared" si="96"/>
-        <v>9364.3076541548526</v>
-      </c>
-      <c r="AN42" s="1">
+        <v>9323.0119215552913</v>
+      </c>
+      <c r="AN42" s="31">
         <f t="shared" si="96"/>
-        <v>9270.6645776133046</v>
-      </c>
-      <c r="AO42" s="1">
+        <v>9229.7818023397376</v>
+      </c>
+      <c r="AO42" s="31">
         <f t="shared" si="96"/>
-        <v>9177.9579318371707</v>
-      </c>
-      <c r="AP42" s="1">
+        <v>9137.4839843163409</v>
+      </c>
+      <c r="AP42" s="31">
         <f t="shared" si="96"/>
-        <v>9086.1783525187984</v>
-      </c>
-      <c r="AQ42" s="1">
+        <v>9046.1091444731774</v>
+      </c>
+      <c r="AQ42" s="31">
         <f t="shared" si="96"/>
-        <v>8995.3165689936104</v>
-      </c>
-      <c r="AR42" s="1">
+        <v>8955.6480530284462</v>
+      </c>
+      <c r="AR42" s="31">
         <f t="shared" si="96"/>
-        <v>8905.3634033036742</v>
-      </c>
-      <c r="AS42" s="1">
+        <v>8866.0915724981623</v>
+      </c>
+      <c r="AS42" s="31">
         <f t="shared" si="96"/>
-        <v>8816.3097692706378</v>
-      </c>
-      <c r="AT42" s="1">
+        <v>8777.4306567731801</v>
+      </c>
+      <c r="AT42" s="31">
         <f t="shared" si="96"/>
-        <v>8728.1466715779316</v>
-      </c>
-      <c r="AU42" s="1">
+        <v>8689.6563502054487</v>
+      </c>
+      <c r="AU42" s="31">
         <f t="shared" si="96"/>
-        <v>8640.8652048621516</v>
-      </c>
-      <c r="AV42" s="1">
+        <v>8602.7597867033946</v>
+      </c>
+      <c r="AV42" s="31">
         <f t="shared" si="96"/>
-        <v>8554.4565528135299</v>
-      </c>
-      <c r="AW42" s="1">
+        <v>8516.7321888363604</v>
+      </c>
+      <c r="AW42" s="31">
         <f t="shared" si="96"/>
-        <v>8468.9119872853953</v>
-      </c>
-      <c r="AX42" s="1">
+        <v>8431.5648669479961</v>
+      </c>
+      <c r="AX42" s="31">
         <f t="shared" si="96"/>
-        <v>8384.2228674125417</v>
-      </c>
-      <c r="AY42" s="1">
+        <v>8347.2492182785154</v>
+      </c>
+      <c r="AY42" s="31">
         <f t="shared" si="96"/>
-        <v>8300.3806387384157</v>
-      </c>
-      <c r="AZ42" s="1">
+        <v>8263.7767260957298</v>
+      </c>
+      <c r="AZ42" s="31">
         <f t="shared" si="96"/>
-        <v>8217.3768323510321</v>
-      </c>
-      <c r="BA42" s="1">
+        <v>8181.1389588347729</v>
+      </c>
+      <c r="BA42" s="31">
         <f t="shared" si="96"/>
-        <v>8135.2030640275216</v>
-      </c>
-      <c r="BB42" s="1">
+        <v>8099.3275692464249</v>
+      </c>
+      <c r="BB42" s="31">
         <f t="shared" si="96"/>
-        <v>8053.8510333872464</v>
-      </c>
-      <c r="BC42" s="1">
+        <v>8018.3342935539604</v>
+      </c>
+      <c r="BC42" s="31">
         <f t="shared" ref="BC42:CH42" si="97">BB42*(1+$Y$46)</f>
-        <v>7973.3125230533742</v>
-      </c>
-      <c r="BD42" s="1">
+        <v>7938.1509506184211</v>
+      </c>
+      <c r="BD42" s="31">
         <f t="shared" si="97"/>
-        <v>7893.5793978228403</v>
-      </c>
-      <c r="BE42" s="1">
+        <v>7858.7694411122366</v>
+      </c>
+      <c r="BE42" s="31">
         <f t="shared" si="97"/>
-        <v>7814.6436038446118</v>
-      </c>
-      <c r="BF42" s="1">
+        <v>7780.1817467011142</v>
+      </c>
+      <c r="BF42" s="31">
         <f t="shared" si="97"/>
-        <v>7736.4971678061656</v>
-      </c>
-      <c r="BG42" s="1">
+        <v>7702.3799292341027</v>
+      </c>
+      <c r="BG42" s="31">
         <f t="shared" si="97"/>
-        <v>7659.1321961281037</v>
-      </c>
-      <c r="BH42" s="1">
+        <v>7625.3561299417615</v>
+      </c>
+      <c r="BH42" s="31">
         <f t="shared" si="97"/>
-        <v>7582.5408741668225</v>
-      </c>
-      <c r="BI42" s="1">
+        <v>7549.1025686423436</v>
+      </c>
+      <c r="BI42" s="31">
         <f t="shared" si="97"/>
-        <v>7506.7154654251544</v>
-      </c>
-      <c r="BJ42" s="1">
+        <v>7473.6115429559204</v>
+      </c>
+      <c r="BJ42" s="31">
         <f t="shared" si="97"/>
-        <v>7431.6483107709028</v>
-      </c>
-      <c r="BK42" s="1">
+        <v>7398.8754275263609</v>
+      </c>
+      <c r="BK42" s="31">
         <f t="shared" si="97"/>
-        <v>7357.3318276631935</v>
-      </c>
-      <c r="BL42" s="1">
+        <v>7324.8866732510969</v>
+      </c>
+      <c r="BL42" s="31">
         <f t="shared" si="97"/>
-        <v>7283.7585093865619</v>
-      </c>
-      <c r="BM42" s="1">
+        <v>7251.6378065185854</v>
+      </c>
+      <c r="BM42" s="31">
         <f t="shared" si="97"/>
-        <v>7210.9209242926963</v>
-      </c>
-      <c r="BN42" s="1">
+        <v>7179.1214284533999</v>
+      </c>
+      <c r="BN42" s="31">
         <f t="shared" si="97"/>
-        <v>7138.8117150497692</v>
-      </c>
-      <c r="BO42" s="1">
+        <v>7107.3302141688655</v>
+      </c>
+      <c r="BO42" s="31">
         <f t="shared" si="97"/>
-        <v>7067.423597899271</v>
-      </c>
-      <c r="BP42" s="1">
+        <v>7036.2569120271764</v>
+      </c>
+      <c r="BP42" s="31">
         <f t="shared" si="97"/>
-        <v>6996.7493619202787</v>
-      </c>
-      <c r="BQ42" s="1">
+        <v>6965.894342906905</v>
+      </c>
+      <c r="BQ42" s="31">
         <f t="shared" si="97"/>
-        <v>6926.7818683010755</v>
-      </c>
-      <c r="BR42" s="1">
+        <v>6896.2353994778359</v>
+      </c>
+      <c r="BR42" s="31">
         <f t="shared" si="97"/>
-        <v>6857.5140496180647</v>
-      </c>
-      <c r="BS42" s="1">
+        <v>6827.2730454830571</v>
+      </c>
+      <c r="BS42" s="31">
         <f t="shared" si="97"/>
-        <v>6788.9389091218836</v>
-      </c>
-      <c r="BT42" s="1">
+        <v>6759.0003150282264</v>
+      </c>
+      <c r="BT42" s="31">
         <f t="shared" si="97"/>
-        <v>6721.049520030665</v>
-      </c>
-      <c r="BU42" s="1">
+        <v>6691.410311877944</v>
+      </c>
+      <c r="BU42" s="31">
         <f t="shared" si="97"/>
-        <v>6653.8390248303585</v>
-      </c>
-      <c r="BV42" s="1">
+        <v>6624.4962087591648</v>
+      </c>
+      <c r="BV42" s="31">
         <f t="shared" si="97"/>
-        <v>6587.300634582055</v>
-      </c>
-      <c r="BW42" s="1">
+        <v>6558.2512466715734</v>
+      </c>
+      <c r="BW42" s="31">
         <f t="shared" si="97"/>
-        <v>6521.4276282362343</v>
-      </c>
-      <c r="BX42" s="1">
+        <v>6492.6687342048581</v>
+      </c>
+      <c r="BX42" s="31">
         <f t="shared" si="97"/>
-        <v>6456.213351953872</v>
-      </c>
-      <c r="BY42" s="1">
+        <v>6427.7420468628097</v>
+      </c>
+      <c r="BY42" s="31">
         <f t="shared" si="97"/>
-        <v>6391.6512184343328</v>
-      </c>
-      <c r="BZ42" s="1">
+        <v>6363.4646263941813</v>
+      </c>
+      <c r="BZ42" s="31">
         <f t="shared" si="97"/>
-        <v>6327.7347062499894</v>
-      </c>
-      <c r="CA42" s="1">
+        <v>6299.8299801302392</v>
+      </c>
+      <c r="CA42" s="31">
         <f t="shared" si="97"/>
-        <v>6264.4573591874896</v>
-      </c>
-      <c r="CB42" s="1">
+        <v>6236.8316803289363</v>
+      </c>
+      <c r="CB42" s="31">
         <f t="shared" si="97"/>
-        <v>6201.8127855956145</v>
-      </c>
-      <c r="CC42" s="1">
+        <v>6174.4633635256469</v>
+      </c>
+      <c r="CC42" s="31">
         <f t="shared" si="97"/>
-        <v>6139.7946577396588</v>
-      </c>
-      <c r="CD42" s="1">
+        <v>6112.71872989039</v>
+      </c>
+      <c r="CD42" s="31">
         <f t="shared" si="97"/>
-        <v>6078.3967111622624</v>
-      </c>
-      <c r="CE42" s="1">
+        <v>6051.5915425914864</v>
+      </c>
+      <c r="CE42" s="31">
         <f t="shared" si="97"/>
-        <v>6017.6127440506398</v>
-      </c>
-      <c r="CF42" s="1">
+        <v>5991.0756271655719</v>
+      </c>
+      <c r="CF42" s="31">
         <f t="shared" si="97"/>
-        <v>5957.4366166101336</v>
-      </c>
-      <c r="CG42" s="1">
+        <v>5931.1648708939165</v>
+      </c>
+      <c r="CG42" s="31">
         <f t="shared" si="97"/>
-        <v>5897.8622504440318</v>
-      </c>
-      <c r="CH42" s="1">
+        <v>5871.8532221849773</v>
+      </c>
+      <c r="CH42" s="31">
         <f t="shared" si="97"/>
-        <v>5838.8836279395919</v>
-      </c>
-      <c r="CI42" s="1">
+        <v>5813.1346899631271</v>
+      </c>
+      <c r="CI42" s="31">
         <f t="shared" ref="CI42:DN42" si="98">CH42*(1+$Y$46)</f>
-        <v>5780.4947916601959</v>
-      </c>
-      <c r="CJ42" s="1">
+        <v>5755.0033430634958</v>
+      </c>
+      <c r="CJ42" s="31">
         <f t="shared" si="98"/>
-        <v>5722.6898437435939</v>
-      </c>
-      <c r="CK42" s="1">
+        <v>5697.4533096328605</v>
+      </c>
+      <c r="CK42" s="31">
         <f t="shared" si="98"/>
-        <v>5665.462945306158</v>
-      </c>
-      <c r="CL42" s="1">
+        <v>5640.4787765365318</v>
+      </c>
+      <c r="CL42" s="31">
         <f t="shared" si="98"/>
-        <v>5608.8083158530962</v>
-      </c>
-      <c r="CM42" s="1">
+        <v>5584.0739887711661</v>
+      </c>
+      <c r="CM42" s="31">
         <f t="shared" si="98"/>
-        <v>5552.7202326945653</v>
-      </c>
-      <c r="CN42" s="1">
+        <v>5528.2332488834545</v>
+      </c>
+      <c r="CN42" s="31">
         <f t="shared" si="98"/>
-        <v>5497.1930303676199</v>
-      </c>
-      <c r="CO42" s="1">
+        <v>5472.9509163946195</v>
+      </c>
+      <c r="CO42" s="31">
         <f t="shared" si="98"/>
-        <v>5442.2211000639436</v>
-      </c>
-      <c r="CP42" s="1">
+        <v>5418.2214072306733</v>
+      </c>
+      <c r="CP42" s="31">
         <f t="shared" si="98"/>
-        <v>5387.7988890633042</v>
-      </c>
-      <c r="CQ42" s="1">
+        <v>5364.0391931583663</v>
+      </c>
+      <c r="CQ42" s="31">
         <f t="shared" si="98"/>
-        <v>5333.9209001726713</v>
-      </c>
-      <c r="CR42" s="1">
+        <v>5310.3988012267828</v>
+      </c>
+      <c r="CR42" s="31">
         <f t="shared" si="98"/>
-        <v>5280.5816911709444</v>
-      </c>
-      <c r="CS42" s="1">
+        <v>5257.2948132145148</v>
+      </c>
+      <c r="CS42" s="31">
         <f t="shared" si="98"/>
-        <v>5227.775874259235</v>
-      </c>
-      <c r="CT42" s="1">
+        <v>5204.7218650823697</v>
+      </c>
+      <c r="CT42" s="31">
         <f t="shared" si="98"/>
-        <v>5175.4981155166424</v>
-      </c>
-      <c r="CU42" s="1">
+        <v>5152.6746464315456</v>
+      </c>
+      <c r="CU42" s="31">
         <f t="shared" si="98"/>
-        <v>5123.7431343614762</v>
-      </c>
-      <c r="CV42" s="1">
+        <v>5101.1478999672299</v>
+      </c>
+      <c r="CV42" s="31">
         <f t="shared" si="98"/>
-        <v>5072.5057030178614</v>
-      </c>
-      <c r="CW42" s="1">
+        <v>5050.1364209675576</v>
+      </c>
+      <c r="CW42" s="31">
         <f t="shared" si="98"/>
-        <v>5021.7806459876829</v>
-      </c>
-      <c r="CX42" s="1">
+        <v>4999.635056757882</v>
+      </c>
+      <c r="CX42" s="31">
         <f t="shared" si="98"/>
-        <v>4971.5628395278063</v>
-      </c>
-      <c r="CY42" s="1">
+        <v>4949.6387061903033</v>
+      </c>
+      <c r="CY42" s="31">
         <f t="shared" si="98"/>
-        <v>4921.8472111325282</v>
-      </c>
-      <c r="CZ42" s="1">
+        <v>4900.1423191284002</v>
+      </c>
+      <c r="CZ42" s="31">
         <f t="shared" si="98"/>
-        <v>4872.6287390212028</v>
-      </c>
-      <c r="DA42" s="1">
+        <v>4851.1408959371165</v>
+      </c>
+      <c r="DA42" s="31">
         <f t="shared" si="98"/>
-        <v>4823.902451630991</v>
-      </c>
-      <c r="DB42" s="1">
+        <v>4802.6294869777457</v>
+      </c>
+      <c r="DB42" s="31">
         <f t="shared" si="98"/>
-        <v>4775.6634271146813</v>
-      </c>
-      <c r="DC42" s="1">
+        <v>4754.6031921079684</v>
+      </c>
+      <c r="DC42" s="31">
         <f t="shared" si="98"/>
-        <v>4727.9067928435343</v>
-      </c>
-      <c r="DD42" s="1">
+        <v>4707.0571601868887</v>
+      </c>
+      <c r="DD42" s="31">
         <f t="shared" si="98"/>
-        <v>4680.627724915099</v>
-      </c>
-      <c r="DE42" s="1">
+        <v>4659.9865885850195</v>
+      </c>
+      <c r="DE42" s="31">
         <f t="shared" si="98"/>
-        <v>4633.8214476659477</v>
-      </c>
-      <c r="DF42" s="1">
+        <v>4613.3867226991697</v>
+      </c>
+      <c r="DF42" s="31">
         <f t="shared" si="98"/>
-        <v>4587.4832331892885</v>
-      </c>
-      <c r="DG42" s="1">
+        <v>4567.2528554721775</v>
+      </c>
+      <c r="DG42" s="31">
         <f t="shared" si="98"/>
-        <v>4541.6084008573953</v>
-      </c>
-      <c r="DH42" s="1">
+        <v>4521.5803269174557</v>
+      </c>
+      <c r="DH42" s="31">
         <f t="shared" si="98"/>
-        <v>4496.1923168488211</v>
-      </c>
-      <c r="DI42" s="1">
+        <v>4476.3645236482807</v>
+      </c>
+      <c r="DI42" s="31">
         <f t="shared" si="98"/>
-        <v>4451.2303936803328</v>
-      </c>
-      <c r="DJ42" s="1">
+        <v>4431.6008784117976</v>
+      </c>
+      <c r="DJ42" s="31">
         <f t="shared" si="98"/>
-        <v>4406.7180897435292</v>
-      </c>
-      <c r="DK42" s="1">
+        <v>4387.2848696276797</v>
+      </c>
+      <c r="DK42" s="31">
         <f t="shared" si="98"/>
-        <v>4362.6509088460934</v>
-      </c>
-      <c r="DL42" s="1">
+        <v>4343.4120209314024</v>
+      </c>
+      <c r="DL42" s="31">
         <f t="shared" si="98"/>
-        <v>4319.0243997576326</v>
-      </c>
-      <c r="DM42" s="1">
+        <v>4299.9779007220886</v>
+      </c>
+      <c r="DM42" s="31">
         <f t="shared" si="98"/>
-        <v>4275.8341557600561</v>
-      </c>
-      <c r="DN42" s="1">
+        <v>4256.9781217148675</v>
+      </c>
+      <c r="DN42" s="31">
         <f t="shared" si="98"/>
-        <v>4233.0758142024551</v>
-      </c>
-      <c r="DO42" s="1">
+        <v>4214.4083404977191</v>
+      </c>
+      <c r="DO42" s="31">
         <f t="shared" ref="DO42:DZ42" si="99">DN42*(1+$Y$46)</f>
-        <v>4190.7450560604302</v>
-      </c>
-      <c r="DP42" s="1">
+        <v>4172.2642570927419</v>
+      </c>
+      <c r="DP42" s="31">
         <f t="shared" si="99"/>
-        <v>4148.8376054998262</v>
-      </c>
-      <c r="DQ42" s="1">
+        <v>4130.5416145218142</v>
+      </c>
+      <c r="DQ42" s="31">
         <f t="shared" si="99"/>
-        <v>4107.3492294448279</v>
-      </c>
-      <c r="DR42" s="1">
+        <v>4089.2361983765959</v>
+      </c>
+      <c r="DR42" s="31">
         <f t="shared" si="99"/>
-        <v>4066.2757371503794</v>
-      </c>
-      <c r="DS42" s="1">
+        <v>4048.3438363928299</v>
+      </c>
+      <c r="DS42" s="31">
         <f t="shared" si="99"/>
-        <v>4025.6129797788758</v>
-      </c>
-      <c r="DT42" s="1">
+        <v>4007.8603980289017</v>
+      </c>
+      <c r="DT42" s="31">
         <f t="shared" si="99"/>
-        <v>3985.3568499810872</v>
-      </c>
-      <c r="DU42" s="1">
+        <v>3967.7817940486125</v>
+      </c>
+      <c r="DU42" s="31">
         <f t="shared" si="99"/>
-        <v>3945.5032814812762</v>
-      </c>
-      <c r="DV42" s="1">
+        <v>3928.1039761081265</v>
+      </c>
+      <c r="DV42" s="31">
         <f t="shared" si="99"/>
-        <v>3906.0482486664632</v>
-      </c>
-      <c r="DW42" s="1">
+        <v>3888.822936347045</v>
+      </c>
+      <c r="DW42" s="31">
         <f t="shared" si="99"/>
-        <v>3866.9877661797987</v>
-      </c>
-      <c r="DX42" s="1">
+        <v>3849.9347069835744</v>
+      </c>
+      <c r="DX42" s="31">
         <f t="shared" si="99"/>
-        <v>3828.3178885180005</v>
-      </c>
-      <c r="DY42" s="1">
+        <v>3811.4353599137385</v>
+      </c>
+      <c r="DY42" s="31">
         <f t="shared" si="99"/>
-        <v>3790.0347096328205</v>
-      </c>
-      <c r="DZ42" s="1">
+        <v>3773.3210063146012</v>
+      </c>
+      <c r="DZ42" s="31">
         <f t="shared" si="99"/>
-        <v>3752.1343625364921</v>
+        <v>3735.5877962514551</v>
       </c>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="31">
         <f>C42/C44</f>
         <v>1955.1782682512735</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="31">
         <v>2035.08</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="31">
         <v>2035.08</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="31">
         <v>2035.08</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="31">
         <v>2035.08</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="31">
         <f>N42/N44</f>
         <v>2136.363636363636</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="31">
         <f>O42/O44</f>
         <v>2072.1649484536083</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="31">
         <f>2029.312</f>
         <v>2029.3119999999999</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="31">
         <f>J43</f>
         <v>2035.08</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="31">
         <f>Q43</f>
         <v>2035.08</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="31">
         <f t="shared" ref="S43:V43" si="100">R43</f>
         <v>2035.08</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43" s="31">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43" s="31">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V43" s="31">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="34">
         <v>-5.89</v>
       </c>
-      <c r="D44" s="1" t="e">
+      <c r="D44" s="31" t="e">
         <f>D42/D43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="1" t="e">
+      <c r="E44" s="31" t="e">
         <f>E42/E43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="1" t="e">
+      <c r="F44" s="31" t="e">
         <f>F42/F43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="34">
         <f>G42/G43</f>
         <v>1.209289069717161</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="34">
         <f>H42/H43</f>
         <v>2.9593766584114634</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="34">
         <f t="shared" ref="I44:J44" si="101">I42/I43</f>
         <v>3.0040275147045818</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="34">
         <f t="shared" si="101"/>
         <v>3.0478292749748483</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="N44" s="7">
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="N44" s="34">
         <v>2.97</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="34">
         <v>3.88</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="34">
         <f t="shared" ref="P44:Q44" si="102">P42/P43</f>
         <v>-4.3970567364702919</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="34">
         <f t="shared" si="102"/>
         <v>10.220522517808055</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="34">
         <f t="shared" ref="R44" si="103">R42/R43</f>
         <v>11.052212494292434</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="34">
         <f t="shared" ref="S44" si="104">S42/S43</f>
         <v>11.608676412348059</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="34">
         <f t="shared" ref="T44" si="105">T42/T43</f>
-        <v>6.0877475248337456</v>
-      </c>
-      <c r="U44" s="7">
+        <v>4.6068954095057775</v>
+      </c>
+      <c r="U44" s="34">
         <f t="shared" ref="U44" si="106">U42/U43</f>
-        <v>4.9924676238281718</v>
-      </c>
-      <c r="V44" s="7">
+        <v>4.9687739899829246</v>
+      </c>
+      <c r="V44" s="34">
         <f t="shared" ref="V44" si="107">V42/V43</f>
-        <v>5.458783612971879</v>
+        <v>5.4347108809851079</v>
       </c>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="R45" s="3"/>
-      <c r="X45" s="1" t="s">
+      <c r="R45" s="35"/>
+      <c r="X45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="35">
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:130" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <f>G29/C29-1</f>
         <v>-5.5962916139907337E-2</v>
       </c>
-      <c r="H46" s="8" t="e">
+      <c r="H46" s="6" t="e">
         <f t="shared" ref="H46:J46" si="108">H29/D29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="8" t="e">
+      <c r="I46" s="6" t="e">
         <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="8" t="e">
+      <c r="J46" s="6" t="e">
         <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="O46" s="8">
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="O46" s="6">
         <f t="shared" ref="O46:V46" si="109">O29/N29-1</f>
         <v>-2.4978877358694973E-2</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="6">
         <f t="shared" si="109"/>
         <v>7.3190241301159809E-2</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="6">
         <f t="shared" si="109"/>
         <v>7.0466034161491553E-3</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="6">
         <f t="shared" si="109"/>
         <v>3.2716976813333964E-2</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="6">
         <f t="shared" si="109"/>
         <v>3.53410694056846E-2</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="6">
         <f t="shared" si="109"/>
-        <v>-0.36242750375933286</v>
-      </c>
-      <c r="U46" s="8">
+        <v>-0.45900600644033707</v>
+      </c>
+      <c r="U46" s="6">
         <f t="shared" si="109"/>
-        <v>-0.10609551169582032</v>
-      </c>
-      <c r="V46" s="8">
+        <v>5.3484738820816613E-2</v>
+      </c>
+      <c r="V46" s="6">
         <f t="shared" si="109"/>
         <v>6.2726146977850172E-2</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="X46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="35">
         <v>-0.01</v>
       </c>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="35">
         <f>C31/C29-1</f>
         <v>-0.24711335861778339</v>
       </c>
-      <c r="D47" s="3" t="e">
+      <c r="D47" s="35" t="e">
         <f>D31/D29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="3" t="e">
+      <c r="E47" s="35" t="e">
         <f>E31/E29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="3" t="e">
+      <c r="F47" s="35" t="e">
         <f>F31/F29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="35">
         <f>G31/G29-1</f>
         <v>-0.27077939469690204</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="35">
         <f t="shared" ref="H47:J47" si="110">H31/H29-1</f>
         <v>-0.25</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="35">
         <f t="shared" si="110"/>
         <v>-0.25000000000000011</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="35">
         <f t="shared" si="110"/>
         <v>-0.25</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="N47" s="3">
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="N47" s="35">
         <f t="shared" ref="N47:V47" si="111">N31/N29</f>
         <v>0.78038952316991272</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="35">
         <f t="shared" si="111"/>
         <v>0.76240945651690883</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="35">
         <f t="shared" si="111"/>
         <v>0.71080745341614904</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="35">
         <f t="shared" si="111"/>
         <v>0.74521487827538124</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="35">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="35">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="35">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="35">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="35">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="X47" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="35">
         <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="35">
         <f>G32/C32-1</f>
         <v>-0.33079847908745252</v>
       </c>
-      <c r="H48" s="3" t="e">
+      <c r="H48" s="35" t="e">
         <f t="shared" ref="H48:J48" si="112">H32/D32-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="3" t="e">
+      <c r="I48" s="35" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="3" t="e">
+      <c r="J48" s="35" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="O48" s="3">
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="O48" s="35">
         <f t="shared" ref="O48:V48" si="113">O32/N32-1</f>
         <v>-5.3749680061427885E-3</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="35">
         <f t="shared" si="113"/>
         <v>8.2604220277920692E-2</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="35">
         <f t="shared" si="113"/>
         <v>4.4830045162823851E-2</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="35">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="35">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="35">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="35">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="35">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="X48" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="31">
         <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+'BMS-986365'!G21+admilparant!G18+golcadomide!E42</f>
-        <v>133773.0726892364</v>
+        <v>137099.22877559502</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="X49" s="1" t="s">
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="X49" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="7">
+      <c r="Y49" s="34">
         <f>Y48/Main!L3</f>
-        <v>65.733569534974748</v>
+        <v>67.367980018276938</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="31">
         <f>SUM(G51:G52)-SUM(G66:G68)</f>
         <v>-39127</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="31">
         <f>G50+H42</f>
         <v>-33104.431750000003</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="31">
         <f t="shared" ref="I50:J50" si="114">H50+I42</f>
         <v>-26990.995435375004</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="31">
         <f t="shared" si="114"/>
         <v>-20788.419034459192</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="31">
         <f>SUM(N51:N52)-SUM(N66:N68)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="31">
         <f>SUM(O51:O52)-SUM(O67:O68)</f>
         <v>-30794</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="31">
         <f>SUM(P51:P52)-SUM(P67:P68)</f>
         <v>-41113</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="31">
         <f>J50</f>
         <v>-20788.419034459192</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="31">
         <f>Q50+R42</f>
         <v>1703.7175684254544</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50" s="31">
         <f>R50+S42</f>
         <v>25328.302761666742</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T50" s="31">
         <f>S50+T42</f>
-        <v>37717.3559945054</v>
-      </c>
-      <c r="U50" s="1">
+        <v>34703.703471643763</v>
+      </c>
+      <c r="U50" s="31">
         <f>T50+U42</f>
-        <v>47877.427006405633</v>
-      </c>
-      <c r="V50" s="1">
+        <v>44815.556043178214</v>
+      </c>
+      <c r="V50" s="31">
         <f>U50+V42</f>
-        <v>58986.488361492447</v>
-      </c>
-      <c r="Y50" s="3">
+        <v>55875.627462853387</v>
+      </c>
+      <c r="Y50" s="35">
         <f>Y49/Main!L2-1</f>
-        <v>0.3146713906994949</v>
+        <v>0.4333612769846158</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="31">
         <f>10875</f>
         <v>10875</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="31">
         <f>11464</f>
         <v>11464</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="31">
         <f>10346</f>
         <v>10346</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="31">
         <f>907</f>
         <v>907</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="31">
         <f>816</f>
         <v>816</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="31">
         <f>513</f>
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="31">
         <v>10801</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="31">
         <f>10921</f>
         <v>10921</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="31">
         <f>10747</f>
         <v>10747</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="31">
         <v>2666</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="31">
         <f>2662</f>
         <v>2662</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="31">
         <f>2557</f>
         <v>2557</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="31">
         <v>7213</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="31">
         <f>6646</f>
         <v>6646</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="31">
         <f>7136</f>
         <v>7136</v>
       </c>
-      <c r="W55" s="3"/>
+      <c r="W55" s="35"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="31">
         <v>21737</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="31">
         <f>21169</f>
         <v>21169</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="31">
         <f>21719</f>
         <v>21719</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="31">
         <v>22486</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="31">
         <f>27072</f>
         <v>27072</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="31">
         <f>23307</f>
         <v>23307</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="31">
         <f>2768</f>
         <v>2768</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="31">
         <f>4236</f>
         <v>4236</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="31">
         <f>344</f>
         <v>344</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="31">
         <f>364</f>
         <v>364</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="31">
         <f>320</f>
         <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="31">
         <f>5534+5866</f>
         <v>11400</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="31">
         <f>5370+5907</f>
         <v>11277</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="31">
         <f>6105+5617</f>
         <v>11722</v>
       </c>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="31">
         <f>SUM(G51:G60)</f>
         <v>88429</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="31">
         <f>SUM(H51:H60)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="31">
         <f>SUM(I51:I60)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="31">
         <f>SUM(J51:J60)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61" s="31">
         <f>SUM(N51:N60)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="31">
         <f>SUM(O51:O60)</f>
         <v>95159</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="31">
         <f>SUM(P51:P60)</f>
         <v>92603</v>
       </c>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="31">
         <f>3554</f>
         <v>3554</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="31">
         <f>3119</f>
         <v>3119</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="31">
         <f>2046</f>
         <v>2046</v>
       </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="31">
         <f>4002</f>
         <v>4002</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="31">
         <f>3259</f>
         <v>3259</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="31">
         <f>3602</f>
         <v>3602</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="31">
         <f>16514</f>
         <v>16514</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="31">
         <f>15884</f>
         <v>15884</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="31">
         <f>18126</f>
         <v>18126</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="31">
         <f>276</f>
         <v>276</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="31">
         <f>338</f>
         <v>338</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="31">
         <f>369</f>
         <v>369</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="31">
         <f>46156</f>
         <v>46156</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="31">
         <f>36653</f>
         <v>36653</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="31">
         <f>47503</f>
         <v>47503</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="31">
         <f>4477</f>
         <v>4477</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="31">
         <f>6421</f>
         <v>6421</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="31">
         <f>4469</f>
         <v>4469</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="31">
         <f>SUM(G63:G68)</f>
         <v>74979</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="31">
         <f>SUM(O63:O68)</f>
         <v>65674</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="31">
         <f>SUM(P63:P68)</f>
         <v>76115</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="31">
         <f>G61-G69</f>
         <v>13450</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="31">
         <f>O61-O69</f>
         <v>29485</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="31">
         <f>P61-P69</f>
         <v>16488</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="31">
         <f>G69+G70</f>
         <v>88429</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="31">
         <f>O69+O70</f>
         <v>95159</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71" s="31">
         <f>P69+P70</f>
         <v>92603</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="31">
         <f>O42</f>
         <v>8040</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="31">
         <f>P42</f>
         <v>-8923</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="31">
         <f t="shared" ref="Q73:V73" si="115">Q42</f>
         <v>20799.580965540816</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73" s="31">
         <f t="shared" si="115"/>
         <v>22492.136602884646</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="31">
         <f t="shared" si="115"/>
         <v>23624.585193241288</v>
       </c>
-      <c r="T73" s="1">
+      <c r="T73" s="31">
         <f t="shared" si="115"/>
-        <v>12389.053232838658</v>
-      </c>
-      <c r="U73" s="1">
+        <v>9375.400709977017</v>
+      </c>
+      <c r="U73" s="31">
         <f t="shared" si="115"/>
-        <v>10160.071011900236</v>
-      </c>
-      <c r="V73" s="1">
+        <v>10111.852571534449</v>
+      </c>
+      <c r="V73" s="31">
         <f t="shared" si="115"/>
-        <v>11109.061355086811</v>
+        <v>11060.071419675172</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74" s="31">
         <f>6345</f>
         <v>6345</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="31">
         <f>8040</f>
         <v>8040</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="31">
         <f>-8933</f>
         <v>-8933</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75" s="31">
         <f>10276</f>
         <v>10276</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="31">
         <v>9760</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="31">
         <v>9600</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="31">
         <f>P75*1.01</f>
         <v>9696</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75" s="31">
         <f t="shared" ref="R75:V75" si="116">Q75*1.01</f>
         <v>9792.9600000000009</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="31">
         <f t="shared" si="116"/>
         <v>9890.8896000000004</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T75" s="31">
         <f t="shared" si="116"/>
         <v>9989.7984960000013</v>
       </c>
-      <c r="U75" s="1">
+      <c r="U75" s="31">
         <f t="shared" si="116"/>
         <v>10089.696480960001</v>
       </c>
-      <c r="V75" s="1">
+      <c r="V75" s="31">
         <f t="shared" si="116"/>
         <v>10190.593445769602</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76" s="31">
         <v>-2738</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="31">
         <v>-3288</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="31">
         <v>-2089</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76" s="31">
         <f>P76*1.04</f>
         <v>-2172.56</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76" s="31">
         <f t="shared" ref="R76:V76" si="117">Q76*1.04</f>
         <v>-2259.4623999999999</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="31">
         <f t="shared" si="117"/>
         <v>-2349.8408960000002</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T76" s="31">
         <f t="shared" si="117"/>
         <v>-2443.8345318400002</v>
       </c>
-      <c r="U76" s="1">
+      <c r="U76" s="31">
         <f t="shared" si="117"/>
         <v>-2541.5879131136003</v>
       </c>
-      <c r="V76" s="1">
+      <c r="V76" s="31">
         <f t="shared" si="117"/>
         <v>-2643.2514296381446</v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77" s="31">
         <v>457</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="31">
         <v>518</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="31">
         <v>507</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77" s="31">
         <f>P77*1.02</f>
         <v>517.14</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77" s="31">
         <f t="shared" ref="R77:V77" si="118">Q77*1.02</f>
         <v>527.4828</v>
       </c>
-      <c r="S77" s="1">
+      <c r="S77" s="31">
         <f t="shared" si="118"/>
         <v>538.03245600000002</v>
       </c>
-      <c r="T77" s="1">
+      <c r="T77" s="31">
         <f t="shared" si="118"/>
         <v>548.79310512000006</v>
       </c>
-      <c r="U77" s="1">
+      <c r="U77" s="31">
         <f t="shared" si="118"/>
         <v>559.76896722240008</v>
       </c>
-      <c r="V77" s="1">
+      <c r="V77" s="31">
         <f t="shared" si="118"/>
         <v>570.96434656684812</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78" s="31">
         <v>179</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="31">
         <v>255</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="31">
         <v>2963</v>
       </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
-      <c r="R78" s="1">
+      <c r="Q78" s="31">
+        <v>0</v>
+      </c>
+      <c r="R78" s="31">
         <f t="shared" ref="R78:V84" si="119">Q78*1.01</f>
         <v>0</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S78" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T78" s="1">
+      <c r="T78" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U78" s="1">
+      <c r="U78" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V78" s="1">
+      <c r="V78" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="N79" s="1">
+      <c r="N79" s="31">
         <v>-1063</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="31">
         <v>-884</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="31">
         <v>-1119</v>
       </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
+      <c r="Q79" s="31">
+        <v>0</v>
+      </c>
+      <c r="R79" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S79" s="1">
+      <c r="S79" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T79" s="1">
+      <c r="T79" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U79" s="1">
+      <c r="U79" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V79" s="1">
+      <c r="V79" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N80" s="31">
         <v>815</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="31">
         <v>913</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="31">
         <v>13373</v>
       </c>
-      <c r="Q80" s="1">
-        <v>0</v>
-      </c>
-      <c r="R80" s="1">
+      <c r="Q80" s="31">
+        <v>0</v>
+      </c>
+      <c r="R80" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T80" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U80" s="1">
+      <c r="U80" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V80" s="1">
+      <c r="V80" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N81" s="31">
         <v>801</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="31">
         <v>160</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="31">
         <v>-16</v>
       </c>
-      <c r="Q81" s="1">
-        <v>0</v>
-      </c>
-      <c r="R81" s="1">
+      <c r="Q81" s="31">
+        <v>0</v>
+      </c>
+      <c r="R81" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S81" s="1">
+      <c r="S81" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T81" s="1">
+      <c r="T81" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U81" s="1">
+      <c r="U81" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V81" s="1">
+      <c r="V81" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="1">
+      <c r="N82" s="31">
         <v>-663</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="31">
         <v>-995</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P82" s="31">
         <v>264</v>
       </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
+      <c r="Q82" s="31">
+        <v>0</v>
+      </c>
+      <c r="R82" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T82" s="1">
+      <c r="T82" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U82" s="1">
+      <c r="U82" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V82" s="1">
+      <c r="V82" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N83" s="31">
         <v>-69</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="31">
         <v>-751</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="31">
         <v>-486</v>
       </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83" s="1">
+      <c r="Q83" s="31">
+        <v>0</v>
+      </c>
+      <c r="R83" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T83" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U83" s="1">
+      <c r="U83" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V83" s="1">
+      <c r="V83" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N84" s="1">
+      <c r="N84" s="31">
         <v>109</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="31">
         <v>198</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="31">
         <v>184</v>
       </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
+      <c r="Q84" s="31">
+        <v>0</v>
+      </c>
+      <c r="R84" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T84" s="1">
+      <c r="T84" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U84" s="1">
+      <c r="U84" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V84" s="1">
+      <c r="V84" s="31">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N85" s="31">
         <v>427</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="31">
         <v>904</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="31">
         <v>1484</v>
       </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
+      <c r="Q85" s="31">
+        <v>0</v>
+      </c>
+      <c r="R85" s="31">
         <f t="shared" ref="R85:V85" si="120">Q85*1.04</f>
         <v>0</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85" s="31">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="T85" s="1">
+      <c r="T85" s="31">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="U85" s="1">
+      <c r="U85" s="31">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="V85" s="1">
+      <c r="V85" s="31">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N86" s="31">
         <v>-1423</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="31">
         <v>-603</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="31">
         <v>-1260</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q86" s="31">
         <f>P86*1.01</f>
         <v>-1272.5999999999999</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R86" s="31">
         <f t="shared" ref="R86:V86" si="121">Q86*1.01</f>
         <v>-1285.326</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86" s="31">
         <f t="shared" si="121"/>
         <v>-1298.1792600000001</v>
       </c>
-      <c r="T86" s="1">
+      <c r="T86" s="31">
         <f t="shared" si="121"/>
         <v>-1311.1610526000002</v>
       </c>
-      <c r="U86" s="1">
+      <c r="U86" s="31">
         <f t="shared" si="121"/>
         <v>-1324.2726631260002</v>
       </c>
-      <c r="V86" s="1">
+      <c r="V86" s="31">
         <f t="shared" si="121"/>
         <v>-1337.5153897572602</v>
       </c>
     </row>
     <row r="87" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N87" s="31">
         <f>233-610</f>
         <v>-377</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="31">
         <f>300-667</f>
         <v>-367</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P87" s="31">
         <f>94+624</f>
         <v>718</v>
       </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
-      <c r="R87" s="1">
+      <c r="Q87" s="31">
+        <v>0</v>
+      </c>
+      <c r="R87" s="31">
         <f t="shared" ref="R87:V87" si="122">Q87*1.01</f>
         <v>0</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="31">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="T87" s="1">
+      <c r="T87" s="31">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="U87" s="1">
+      <c r="U87" s="31">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="V87" s="1">
+      <c r="V87" s="31">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N88" s="31">
         <f>SUM(N74:N87)</f>
         <v>13076</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O88" s="31">
         <f t="shared" ref="O88:P88" si="123">SUM(O74:O87)</f>
         <v>13860</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P88" s="31">
         <f t="shared" si="123"/>
         <v>15190</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88" s="31">
         <f>SUM(Q73:Q87)</f>
         <v>27567.560965540815</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R88" s="31">
         <f t="shared" ref="R88:V88" si="124">SUM(R73:R87)</f>
         <v>29267.791002884645</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="31">
         <f t="shared" si="124"/>
         <v>30405.487093241285</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T88" s="31">
         <f t="shared" si="124"/>
-        <v>19172.649249518658</v>
-      </c>
-      <c r="U88" s="1">
+        <v>16158.99672665702</v>
+      </c>
+      <c r="U88" s="31">
         <f t="shared" si="124"/>
-        <v>16943.675883843036</v>
-      </c>
-      <c r="V88" s="1">
+        <v>16895.457443477251</v>
+      </c>
+      <c r="V88" s="31">
         <f t="shared" si="124"/>
-        <v>17889.852328027857</v>
+        <v>17840.862392616218</v>
       </c>
     </row>
     <row r="90" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="91" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="N91" s="1">
+      <c r="N91" s="31">
         <v>-1118</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="31">
         <v>-1209</v>
       </c>
-      <c r="P91" s="1">
+      <c r="P91" s="31">
         <v>-1248</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q91" s="31">
         <f>P91*1.05</f>
         <v>-1310.4000000000001</v>
       </c>
-      <c r="R91" s="1">
+      <c r="R91" s="31">
         <f t="shared" ref="R91:V91" si="125">Q91*1.05</f>
         <v>-1375.92</v>
       </c>
-      <c r="S91" s="1">
+      <c r="S91" s="31">
         <f t="shared" si="125"/>
         <v>-1444.7160000000001</v>
       </c>
-      <c r="T91" s="1">
+      <c r="T91" s="31">
         <f t="shared" si="125"/>
         <v>-1516.9518000000003</v>
       </c>
-      <c r="U91" s="1">
+      <c r="U91" s="31">
         <f t="shared" si="125"/>
         <v>-1592.7993900000004</v>
       </c>
-      <c r="V91" s="1">
+      <c r="V91" s="31">
         <f t="shared" si="125"/>
         <v>-1672.4393595000004</v>
       </c>
     </row>
     <row r="92" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
     </row>
     <row r="93" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="95" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="1">
+      <c r="N95" s="31">
         <f>N88+N91</f>
         <v>11958</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="31">
         <f t="shared" ref="O95:V95" si="126">O88+O91</f>
         <v>12651</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P95" s="31">
         <f t="shared" si="126"/>
         <v>13942</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="Q95" s="31">
         <f t="shared" si="126"/>
         <v>26257.160965540814</v>
       </c>
-      <c r="R95" s="1">
+      <c r="R95" s="31">
         <f t="shared" si="126"/>
         <v>27891.871002884647</v>
       </c>
-      <c r="S95" s="1">
+      <c r="S95" s="31">
         <f t="shared" si="126"/>
         <v>28960.771093241285</v>
       </c>
-      <c r="T95" s="1">
+      <c r="T95" s="31">
         <f t="shared" si="126"/>
-        <v>17655.697449518659</v>
-      </c>
-      <c r="U95" s="1">
+        <v>14642.044926657019</v>
+      </c>
+      <c r="U95" s="31">
         <f t="shared" si="126"/>
-        <v>15350.876493843036</v>
-      </c>
-      <c r="V95" s="1">
+        <v>15302.658053477251</v>
+      </c>
+      <c r="V95" s="31">
         <f t="shared" si="126"/>
-        <v>16217.412968527857</v>
-      </c>
-      <c r="W95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="W95" s="31">
         <f t="shared" ref="W95:BB95" si="127">V95*(1+$X$97)</f>
-        <v>16055.238838842579</v>
-      </c>
-      <c r="X95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="X95" s="31">
         <f t="shared" si="127"/>
-        <v>15894.686450454154</v>
-      </c>
-      <c r="Y95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="Y95" s="31">
         <f t="shared" si="127"/>
-        <v>15735.739585949612</v>
-      </c>
-      <c r="Z95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="Z95" s="31">
         <f t="shared" si="127"/>
-        <v>15578.382190090115</v>
-      </c>
-      <c r="AA95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AA95" s="31">
         <f t="shared" si="127"/>
-        <v>15422.598368189214</v>
-      </c>
-      <c r="AB95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AB95" s="31">
         <f t="shared" si="127"/>
-        <v>15268.372384507322</v>
-      </c>
-      <c r="AC95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AC95" s="31">
         <f t="shared" si="127"/>
-        <v>15115.688660662248</v>
-      </c>
-      <c r="AD95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AD95" s="31">
         <f t="shared" si="127"/>
-        <v>14964.531774055626</v>
-      </c>
-      <c r="AE95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AE95" s="31">
         <f t="shared" si="127"/>
-        <v>14814.886456315069</v>
-      </c>
-      <c r="AF95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AF95" s="31">
         <f t="shared" si="127"/>
-        <v>14666.737591751918</v>
-      </c>
-      <c r="AG95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AG95" s="31">
         <f t="shared" si="127"/>
-        <v>14520.070215834399</v>
-      </c>
-      <c r="AH95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AH95" s="31">
         <f t="shared" si="127"/>
-        <v>14374.869513676054</v>
-      </c>
-      <c r="AI95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AI95" s="31">
         <f t="shared" si="127"/>
-        <v>14231.120818539293</v>
-      </c>
-      <c r="AJ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AJ95" s="31">
         <f t="shared" si="127"/>
-        <v>14088.809610353901</v>
-      </c>
-      <c r="AK95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AK95" s="31">
         <f t="shared" si="127"/>
-        <v>13947.921514250362</v>
-      </c>
-      <c r="AL95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AL95" s="31">
         <f t="shared" si="127"/>
-        <v>13808.442299107857</v>
-      </c>
-      <c r="AM95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AM95" s="31">
         <f t="shared" si="127"/>
-        <v>13670.357876116779</v>
-      </c>
-      <c r="AN95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AN95" s="31">
         <f t="shared" si="127"/>
-        <v>13533.654297355612</v>
-      </c>
-      <c r="AO95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AO95" s="31">
         <f t="shared" si="127"/>
-        <v>13398.317754382055</v>
-      </c>
-      <c r="AP95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AP95" s="31">
         <f t="shared" si="127"/>
-        <v>13264.334576838233</v>
-      </c>
-      <c r="AQ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AQ95" s="31">
         <f t="shared" si="127"/>
-        <v>13131.691231069852</v>
-      </c>
-      <c r="AR95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AR95" s="31">
         <f t="shared" si="127"/>
-        <v>13000.374318759154</v>
-      </c>
-      <c r="AS95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AS95" s="31">
         <f t="shared" si="127"/>
-        <v>12870.370575571562</v>
-      </c>
-      <c r="AT95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AT95" s="31">
         <f t="shared" si="127"/>
-        <v>12741.666869815846</v>
-      </c>
-      <c r="AU95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AU95" s="31">
         <f t="shared" si="127"/>
-        <v>12614.250201117688</v>
-      </c>
-      <c r="AV95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AV95" s="31">
         <f t="shared" si="127"/>
-        <v>12488.107699106511</v>
-      </c>
-      <c r="AW95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AW95" s="31">
         <f t="shared" si="127"/>
-        <v>12363.226622115446</v>
-      </c>
-      <c r="AX95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AX95" s="31">
         <f t="shared" si="127"/>
-        <v>12239.594355894291</v>
-      </c>
-      <c r="AY95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AY95" s="31">
         <f t="shared" si="127"/>
-        <v>12117.198412335349</v>
-      </c>
-      <c r="AZ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="AZ95" s="31">
         <f t="shared" si="127"/>
-        <v>11996.026428211995</v>
-      </c>
-      <c r="BA95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BA95" s="31">
         <f t="shared" si="127"/>
-        <v>11876.066163929876</v>
-      </c>
-      <c r="BB95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BB95" s="31">
         <f t="shared" si="127"/>
-        <v>11757.305502290577</v>
-      </c>
-      <c r="BC95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BC95" s="31">
         <f t="shared" ref="BC95:CH95" si="128">BB95*(1+$X$97)</f>
-        <v>11639.732447267672</v>
-      </c>
-      <c r="BD95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BD95" s="31">
         <f t="shared" si="128"/>
-        <v>11523.335122794995</v>
-      </c>
-      <c r="BE95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BE95" s="31">
         <f t="shared" si="128"/>
-        <v>11408.101771567046</v>
-      </c>
-      <c r="BF95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BF95" s="31">
         <f t="shared" si="128"/>
-        <v>11294.020753851375</v>
-      </c>
-      <c r="BG95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BG95" s="31">
         <f t="shared" si="128"/>
-        <v>11181.080546312862</v>
-      </c>
-      <c r="BH95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BH95" s="31">
         <f t="shared" si="128"/>
-        <v>11069.269740849733</v>
-      </c>
-      <c r="BI95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BI95" s="31">
         <f t="shared" si="128"/>
-        <v>10958.577043441235</v>
-      </c>
-      <c r="BJ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BJ95" s="31">
         <f t="shared" si="128"/>
-        <v>10848.991273006823</v>
-      </c>
-      <c r="BK95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BK95" s="31">
         <f t="shared" si="128"/>
-        <v>10740.501360276754</v>
-      </c>
-      <c r="BL95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BL95" s="31">
         <f t="shared" si="128"/>
-        <v>10633.096346673987</v>
-      </c>
-      <c r="BM95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BM95" s="31">
         <f t="shared" si="128"/>
-        <v>10526.765383207246</v>
-      </c>
-      <c r="BN95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BN95" s="31">
         <f t="shared" si="128"/>
-        <v>10421.497729375174</v>
-      </c>
-      <c r="BO95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BO95" s="31">
         <f t="shared" si="128"/>
-        <v>10317.282752081423</v>
-      </c>
-      <c r="BP95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BP95" s="31">
         <f t="shared" si="128"/>
-        <v>10214.109924560607</v>
-      </c>
-      <c r="BQ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BQ95" s="31">
         <f t="shared" si="128"/>
-        <v>10111.968825315002</v>
-      </c>
-      <c r="BR95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BR95" s="31">
         <f t="shared" si="128"/>
-        <v>10010.849137061852</v>
-      </c>
-      <c r="BS95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BS95" s="31">
         <f t="shared" si="128"/>
-        <v>9910.740645691234</v>
-      </c>
-      <c r="BT95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BT95" s="31">
         <f t="shared" si="128"/>
-        <v>9811.6332392343211</v>
-      </c>
-      <c r="BU95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BU95" s="31">
         <f t="shared" si="128"/>
-        <v>9713.5169068419782</v>
-      </c>
-      <c r="BV95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BV95" s="31">
         <f t="shared" si="128"/>
-        <v>9616.3817377735577</v>
-      </c>
-      <c r="BW95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BW95" s="31">
         <f t="shared" si="128"/>
-        <v>9520.2179203958221</v>
-      </c>
-      <c r="BX95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BX95" s="31">
         <f t="shared" si="128"/>
-        <v>9425.0157411918644</v>
-      </c>
-      <c r="BY95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BY95" s="31">
         <f t="shared" si="128"/>
-        <v>9330.7655837799466</v>
-      </c>
-      <c r="BZ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="BZ95" s="31">
         <f t="shared" si="128"/>
-        <v>9237.4579279421469</v>
-      </c>
-      <c r="CA95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CA95" s="31">
         <f t="shared" si="128"/>
-        <v>9145.0833486627253</v>
-      </c>
-      <c r="CB95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CB95" s="31">
         <f t="shared" si="128"/>
-        <v>9053.6325151760975</v>
-      </c>
-      <c r="CC95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CC95" s="31">
         <f t="shared" si="128"/>
-        <v>8963.0961900243365</v>
-      </c>
-      <c r="CD95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CD95" s="31">
         <f t="shared" si="128"/>
-        <v>8873.4652281240924</v>
-      </c>
-      <c r="CE95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CE95" s="31">
         <f t="shared" si="128"/>
-        <v>8784.730575842852</v>
-      </c>
-      <c r="CF95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CF95" s="31">
         <f t="shared" si="128"/>
-        <v>8696.8832700844232</v>
-      </c>
-      <c r="CG95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CG95" s="31">
         <f t="shared" si="128"/>
-        <v>8609.9144373835788</v>
-      </c>
-      <c r="CH95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CH95" s="31">
         <f t="shared" si="128"/>
-        <v>8523.8152930097422</v>
-      </c>
-      <c r="CI95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CI95" s="31">
         <f t="shared" ref="CI95:DQ95" si="129">CH95*(1+$X$97)</f>
-        <v>8438.5771400796439</v>
-      </c>
-      <c r="CJ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CJ95" s="31">
         <f t="shared" si="129"/>
-        <v>8354.1913686788466</v>
-      </c>
-      <c r="CK95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CK95" s="31">
         <f t="shared" si="129"/>
-        <v>8270.649454992059</v>
-      </c>
-      <c r="CL95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CL95" s="31">
         <f t="shared" si="129"/>
-        <v>8187.9429604421384</v>
-      </c>
-      <c r="CM95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CM95" s="31">
         <f t="shared" si="129"/>
-        <v>8106.0635308377168</v>
-      </c>
-      <c r="CN95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CN95" s="31">
         <f t="shared" si="129"/>
-        <v>8025.0028955293392</v>
-      </c>
-      <c r="CO95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CO95" s="31">
         <f t="shared" si="129"/>
-        <v>7944.7528665740456</v>
-      </c>
-      <c r="CP95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CP95" s="31">
         <f t="shared" si="129"/>
-        <v>7865.3053379083049</v>
-      </c>
-      <c r="CQ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CQ95" s="31">
         <f t="shared" si="129"/>
-        <v>7786.652284529222</v>
-      </c>
-      <c r="CR95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CR95" s="31">
         <f t="shared" si="129"/>
-        <v>7708.7857616839301</v>
-      </c>
-      <c r="CS95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CS95" s="31">
         <f t="shared" si="129"/>
-        <v>7631.6979040670903</v>
-      </c>
-      <c r="CT95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CT95" s="31">
         <f t="shared" si="129"/>
-        <v>7555.3809250264194</v>
-      </c>
-      <c r="CU95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CU95" s="31">
         <f t="shared" si="129"/>
-        <v>7479.8271157761556</v>
-      </c>
-      <c r="CV95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CV95" s="31">
         <f t="shared" si="129"/>
-        <v>7405.028844618394</v>
-      </c>
-      <c r="CW95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CW95" s="31">
         <f t="shared" si="129"/>
-        <v>7330.9785561722101</v>
-      </c>
-      <c r="CX95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CX95" s="31">
         <f t="shared" si="129"/>
-        <v>7257.6687706104876</v>
-      </c>
-      <c r="CY95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CY95" s="31">
         <f t="shared" si="129"/>
-        <v>7185.0920829043826</v>
-      </c>
-      <c r="CZ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="CZ95" s="31">
         <f t="shared" si="129"/>
-        <v>7113.2411620753383</v>
-      </c>
-      <c r="DA95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DA95" s="31">
         <f t="shared" si="129"/>
-        <v>7042.1087504545849</v>
-      </c>
-      <c r="DB95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DB95" s="31">
         <f t="shared" si="129"/>
-        <v>6971.6876629500393</v>
-      </c>
-      <c r="DC95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DC95" s="31">
         <f t="shared" si="129"/>
-        <v>6901.9707863205385</v>
-      </c>
-      <c r="DD95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DD95" s="31">
         <f t="shared" si="129"/>
-        <v>6832.9510784573331</v>
-      </c>
-      <c r="DE95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DE95" s="31">
         <f t="shared" si="129"/>
-        <v>6764.6215676727597</v>
-      </c>
-      <c r="DF95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DF95" s="31">
         <f t="shared" si="129"/>
-        <v>6696.9753519960323</v>
-      </c>
-      <c r="DG95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DG95" s="31">
         <f t="shared" si="129"/>
-        <v>6630.005598476072</v>
-      </c>
-      <c r="DH95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DH95" s="31">
         <f t="shared" si="129"/>
-        <v>6563.7055424913115</v>
-      </c>
-      <c r="DI95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DI95" s="31">
         <f t="shared" si="129"/>
-        <v>6498.0684870663981</v>
-      </c>
-      <c r="DJ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DJ95" s="31">
         <f t="shared" si="129"/>
-        <v>6433.0878021957342</v>
-      </c>
-      <c r="DK95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DK95" s="31">
         <f t="shared" si="129"/>
-        <v>6368.7569241737765</v>
-      </c>
-      <c r="DL95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DL95" s="31">
         <f t="shared" si="129"/>
-        <v>6305.0693549320386</v>
-      </c>
-      <c r="DM95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DM95" s="31">
         <f t="shared" si="129"/>
-        <v>6242.0186613827182</v>
-      </c>
-      <c r="DN95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DN95" s="31">
         <f t="shared" si="129"/>
-        <v>6179.5984747688908</v>
-      </c>
-      <c r="DO95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DO95" s="31">
         <f t="shared" si="129"/>
-        <v>6117.8024900212022</v>
-      </c>
-      <c r="DP95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DP95" s="31">
         <f t="shared" si="129"/>
-        <v>6056.62446512099</v>
-      </c>
-      <c r="DQ95" s="1">
+        <v>16168.423033116218</v>
+      </c>
+      <c r="DQ95" s="31">
         <f t="shared" si="129"/>
-        <v>5996.0582204697803</v>
+        <v>16168.423033116218</v>
       </c>
     </row>
     <row r="97" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="O97" s="3"/>
-      <c r="W97" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X97" s="3">
-        <v>-0.01</v>
-      </c>
+      <c r="O97" s="35"/>
+      <c r="X97" s="35"/>
     </row>
     <row r="98" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="W98" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X98" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="99" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="W99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X99" s="1">
-        <f>NPV(X98,Q95:DQ95)+Main!L5-Main!L6</f>
-        <v>178128.22363401778</v>
-      </c>
+      <c r="X98" s="35"/>
     </row>
     <row r="100" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="W100" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X100" s="7">
-        <f>X99/Main!L3</f>
-        <v>87.528855688237215</v>
-      </c>
+      <c r="X100" s="34"/>
     </row>
     <row r="101" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X101" s="3">
-        <f>X100/Main!L2-1</f>
-        <v>0.75057711376474434</v>
-      </c>
+      <c r="X101" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6296,10 +6282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39BCE6-9601-4370-A605-A8909A3D2703}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6311,7 +6297,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6348,7 +6334,7 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6371,19 +6357,19 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>2024</v>
       </c>
@@ -6443,8 +6429,24 @@
         <f t="shared" ref="Q34" si="4">P34+1</f>
         <v>2038</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <f t="shared" ref="R34" si="5">Q34+1</f>
+        <v>2039</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34" si="6">R34+1</f>
+        <v>2040</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:U34" si="7">S34+1</f>
+        <v>2041</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="7"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>140</v>
       </c>
@@ -6456,59 +6458,75 @@
         <v>18774.84</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ref="E35:M35" si="5">D35*1.03</f>
+        <f t="shared" ref="E35:M35" si="8">D35*1.03</f>
         <v>19338.085200000001</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19918.227756</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20515.77458868</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21131.247826340401</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21765.185261130613</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22418.140818964534</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23090.685043533471</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23783.405594839474</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24496.907762684659</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ref="N35" si="6">M35*1.03</f>
+        <f t="shared" ref="N35" si="9">M35*1.03</f>
         <v>25231.814995565201</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35" si="7">N35*1.03</f>
+        <f t="shared" ref="O35" si="10">N35*1.03</f>
         <v>25988.769445432157</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" ref="P35" si="8">O35*1.03</f>
+        <f t="shared" ref="P35" si="11">O35*1.03</f>
         <v>26768.432528795121</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" ref="Q35" si="9">P35*1.03</f>
+        <f t="shared" ref="Q35" si="12">P35*1.03</f>
         <v>27571.485504658976</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1">
+        <f t="shared" ref="R35" si="13">Q35*1.03</f>
+        <v>28398.630069798746</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" ref="S35" si="14">R35*1.03</f>
+        <v>29250.58897189271</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" ref="T35" si="15">S35*1.03</f>
+        <v>30128.106641049493</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" ref="U35" si="16">T35*1.03</f>
+        <v>31031.94984028098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>141</v>
       </c>
@@ -6520,68 +6538,82 @@
         <v>18774.84</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:M36" si="10">E35</f>
+        <f t="shared" ref="E36:M36" si="17">E35</f>
         <v>19338.085200000001</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>19918.227756</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>20515.77458868</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>21131.247826340401</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>21765.185261130613</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>22418.140818964534</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23090.685043533471</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>23783.405594839474</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>24496.907762684659</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ref="N36:Q36" si="11">N35</f>
+        <f t="shared" ref="N36:Q36" si="18">N35</f>
         <v>25231.814995565201</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>25988.769445432157</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>26768.432528795121</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>27571.485504658976</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="1">
+        <f t="shared" ref="R36:U36" si="19">R35</f>
+        <v>28398.630069798746</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="19"/>
+        <v>29250.58897189271</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="19"/>
+        <v>30128.106641049493</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="19"/>
+        <v>31031.94984028098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <v>60000</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1">
         <v>60000</v>
       </c>
@@ -6615,74 +6647,102 @@
       <c r="Q37" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="1">
+        <v>60000</v>
+      </c>
+      <c r="S37" s="1">
+        <v>60000</v>
+      </c>
+      <c r="T37" s="1">
+        <v>60000</v>
+      </c>
+      <c r="U37" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f>C36*C37/1000000</f>
         <v>0</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" ref="D38:E38" si="12">D36*D37/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <f>0.45*F36*F37/1000000</f>
-        <v>537.79214941200007</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:Q38" si="13">0.45*G36*G37/1000000</f>
-        <v>553.92591389436006</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="13"/>
-        <v>570.54369131119086</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="13"/>
-        <v>587.6600020505266</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="13"/>
-        <v>605.28980211204248</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="13"/>
-        <v>623.44849617540387</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="13"/>
-        <v>642.15195106066585</v>
-      </c>
-      <c r="M38" s="5">
-        <f t="shared" si="13"/>
-        <v>661.41650959248591</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="13"/>
-        <v>681.25900488026048</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="13"/>
-        <v>701.69677502666832</v>
-      </c>
-      <c r="P38" s="5">
-        <f t="shared" si="13"/>
-        <v>722.74767827746825</v>
-      </c>
-      <c r="Q38" s="5">
-        <f t="shared" si="13"/>
-        <v>744.4301086257924</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:E38" si="20">D36*D37/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <f>F36*F37/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" ref="G38:Q38" si="21">G36*G37/1000000</f>
+        <v>1230.9464753208001</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="21"/>
+        <v>1267.874869580424</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="21"/>
+        <v>1305.9111156678366</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="21"/>
+        <v>1345.088449137872</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="21"/>
+        <v>1385.4411026120083</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="21"/>
+        <v>1427.0043356903684</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="21"/>
+        <v>1469.8144657610796</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="21"/>
+        <v>1513.908899733912</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="21"/>
+        <v>1559.3261667259294</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="21"/>
+        <v>1606.1059517277074</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="21"/>
+        <v>1654.2891302795385</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" ref="R38" si="22">R36*R37/1000000</f>
+        <v>1703.917804187925</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" ref="S38" si="23">S36*S37/1000000</f>
+        <v>1755.0353383135625</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" ref="T38" si="24">T36*T37/1000000</f>
+        <v>1807.6863984629695</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" ref="U38" si="25">U36*U37/1000000</f>
+        <v>1861.9169904168589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>143</v>
       </c>
@@ -6693,54 +6753,70 @@
       </c>
       <c r="F40" s="1">
         <f>F38</f>
-        <v>537.79214941200007</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <f>F40+G38</f>
-        <v>1091.7180633063601</v>
+        <v>1230.9464753208001</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ref="H40:M40" si="14">G40+H38</f>
-        <v>1662.2617546175511</v>
+        <f t="shared" ref="H40:M40" si="26">G40+H38</f>
+        <v>2498.8213449012242</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="14"/>
-        <v>2249.9217566680777</v>
+        <f t="shared" si="26"/>
+        <v>3804.732460569061</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="14"/>
-        <v>2855.21155878012</v>
+        <f t="shared" si="26"/>
+        <v>5149.820909706933</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="14"/>
-        <v>3478.6600549555237</v>
+        <f t="shared" si="26"/>
+        <v>6535.2620123189408</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="14"/>
-        <v>4120.8120060161891</v>
+        <f t="shared" si="26"/>
+        <v>7962.2663480093088</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="14"/>
-        <v>4782.2285156086746</v>
+        <f t="shared" si="26"/>
+        <v>9432.080813770388</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40" si="15">M40+N38</f>
-        <v>5463.4875204889349</v>
+        <f t="shared" ref="N40" si="27">M40+N38</f>
+        <v>10945.989713504299</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ref="O40" si="16">N40+O38</f>
-        <v>6165.1842955156035</v>
+        <f t="shared" ref="O40" si="28">N40+O38</f>
+        <v>12505.315880230228</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40" si="17">O40+P38</f>
-        <v>6887.9319737930718</v>
+        <f t="shared" ref="P40" si="29">O40+P38</f>
+        <v>14111.421831957936</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" ref="Q40" si="18">P40+Q38</f>
-        <v>7632.3620824188638</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q40" si="30">P40+Q38</f>
+        <v>15765.710962237474</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" ref="R40" si="31">Q40+R38</f>
+        <v>17469.628766425398</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" ref="S40" si="32">R40+S38</f>
+        <v>19224.66410473896</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" ref="T40" si="33">S40+T38</f>
+        <v>21032.350503201931</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" ref="U40" si="34">T40+U38</f>
+        <v>22894.26749361879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>55</v>
       </c>
@@ -6748,13 +6824,13 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="7">
-        <f>NPV(E41,D38:Q38)</f>
-        <v>4000.3430687894197</v>
+      <c r="E42" s="5">
+        <f>NPV(E41,D38:U38)</f>
+        <v>9944.8758471763576</v>
       </c>
     </row>
   </sheetData>
@@ -6769,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275DD6E9-6B1A-4B83-87D9-0D9C0B0F0575}">
   <dimension ref="D15:R21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6990,7 +7066,7 @@
       <c r="D21">
         <v>0.65</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <f>NPV(G20,H18:R18)</f>
         <v>9618.6399547615893</v>
       </c>
@@ -7220,7 +7296,7 @@
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <f>NPV(G17,I15:R15)</f>
         <v>1964.0529288044527</v>
       </c>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07759346-89D2-4411-848C-13E53FC306A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5ACDB7-7F7B-4A45-BBB3-33037AED3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="945" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="690" yWindow="945" windowWidth="23385" windowHeight="13110" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1876,10 +1876,10 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
+      <selection pane="bottomRight" activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="Y48" s="31">
         <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+'BMS-986365'!G21+admilparant!G18+golcadomide!E42</f>
-        <v>137099.22877559502</v>
+        <v>126103.16297241041</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="Y49" s="34">
         <f>Y48/Main!L3</f>
-        <v>67.367980018276938</v>
+        <v>61.964720292278642</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="Y50" s="35">
         <f>Y49/Main!L2-1</f>
-        <v>0.4333612769846158</v>
+        <v>0.31839830409103498</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
@@ -6284,8 +6284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39BCE6-9601-4370-A605-A8909A3D2703}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6682,64 +6682,63 @@
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" ref="G38:Q38" si="21">G36*G37/1000000</f>
-        <v>1230.9464753208001</v>
+        <v>32</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="21"/>
-        <v>1267.874869580424</v>
+        <f>G38*1.06</f>
+        <v>33.92</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="21"/>
-        <v>1305.9111156678366</v>
+        <f t="shared" ref="I38:U38" si="21">H38*1.06</f>
+        <v>35.955200000000005</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="21"/>
-        <v>1345.088449137872</v>
+        <v>38.112512000000009</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="21"/>
-        <v>1385.4411026120083</v>
+        <v>40.39926272000001</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="21"/>
-        <v>1427.0043356903684</v>
+        <v>42.823218483200016</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" si="21"/>
-        <v>1469.8144657610796</v>
+        <v>45.392611592192019</v>
       </c>
       <c r="N38" s="4">
         <f t="shared" si="21"/>
-        <v>1513.908899733912</v>
+        <v>48.116168287723539</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="21"/>
-        <v>1559.3261667259294</v>
+        <v>51.003138384986954</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="21"/>
-        <v>1606.1059517277074</v>
+        <v>54.063326688086171</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="21"/>
-        <v>1654.2891302795385</v>
+        <v>57.307126289371347</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" ref="R38" si="22">R36*R37/1000000</f>
-        <v>1703.917804187925</v>
+        <f t="shared" si="21"/>
+        <v>60.74555386673363</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" ref="S38" si="23">S36*S37/1000000</f>
-        <v>1755.0353383135625</v>
+        <f t="shared" si="21"/>
+        <v>64.390287098737645</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" ref="T38" si="24">T36*T37/1000000</f>
-        <v>1807.6863984629695</v>
+        <f t="shared" si="21"/>
+        <v>68.253704324661911</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" ref="U38" si="25">U36*U37/1000000</f>
-        <v>1861.9169904168589</v>
+        <f t="shared" si="21"/>
+        <v>72.348926584141623</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -6757,63 +6756,63 @@
       </c>
       <c r="G40" s="1">
         <f>F40+G38</f>
-        <v>1230.9464753208001</v>
+        <v>32</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ref="H40:M40" si="26">G40+H38</f>
-        <v>2498.8213449012242</v>
+        <f t="shared" ref="H40:M40" si="22">G40+H38</f>
+        <v>65.92</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="26"/>
-        <v>3804.732460569061</v>
+        <f t="shared" si="22"/>
+        <v>101.87520000000001</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="26"/>
-        <v>5149.820909706933</v>
+        <f t="shared" si="22"/>
+        <v>139.98771200000002</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="26"/>
-        <v>6535.2620123189408</v>
+        <f t="shared" si="22"/>
+        <v>180.38697472000001</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="26"/>
-        <v>7962.2663480093088</v>
+        <f t="shared" si="22"/>
+        <v>223.21019320320002</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="26"/>
-        <v>9432.080813770388</v>
+        <f t="shared" si="22"/>
+        <v>268.60280479539205</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40" si="27">M40+N38</f>
-        <v>10945.989713504299</v>
+        <f t="shared" ref="N40" si="23">M40+N38</f>
+        <v>316.7189730831156</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ref="O40" si="28">N40+O38</f>
-        <v>12505.315880230228</v>
+        <f t="shared" ref="O40" si="24">N40+O38</f>
+        <v>367.72211146810253</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40" si="29">O40+P38</f>
-        <v>14111.421831957936</v>
+        <f t="shared" ref="P40" si="25">O40+P38</f>
+        <v>421.78543815618872</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" ref="Q40" si="30">P40+Q38</f>
-        <v>15765.710962237474</v>
+        <f t="shared" ref="Q40" si="26">P40+Q38</f>
+        <v>479.09256444556007</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" ref="R40" si="31">Q40+R38</f>
-        <v>17469.628766425398</v>
+        <f t="shared" ref="R40" si="27">Q40+R38</f>
+        <v>539.83811831229366</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" ref="S40" si="32">R40+S38</f>
-        <v>19224.66410473896</v>
+        <f t="shared" ref="S40" si="28">R40+S38</f>
+        <v>604.2284054110313</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" ref="T40" si="33">S40+T38</f>
-        <v>21032.350503201931</v>
+        <f t="shared" ref="T40" si="29">S40+T38</f>
+        <v>672.48210973569326</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" ref="U40" si="34">T40+U38</f>
-        <v>22894.26749361879</v>
+        <f t="shared" ref="U40" si="30">T40+U38</f>
+        <v>744.83103631983488</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -6830,7 +6829,7 @@
       </c>
       <c r="E42" s="5">
         <f>NPV(E41,D38:U38)</f>
-        <v>9944.8758471763576</v>
+        <v>310.55340796281132</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +6845,7 @@
   <dimension ref="D15:R21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7141,7 +7140,7 @@
   <dimension ref="D12:R18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7204,85 +7203,85 @@
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.2">
       <c r="I14">
-        <v>750</v>
+        <v>230</v>
       </c>
       <c r="J14">
         <f>I14*1.05</f>
-        <v>787.5</v>
+        <v>241.5</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:R14" si="1">J14*1.05</f>
-        <v>826.875</v>
+        <v>253.57500000000002</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>868.21875</v>
+        <v>266.25375000000003</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>911.62968750000005</v>
+        <v>279.56643750000006</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>957.2111718750001</v>
+        <v>293.54475937500007</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>1005.0717304687502</v>
+        <v>308.2219973437501</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>1055.3253169921877</v>
+        <v>323.63309721093765</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>1108.0915828417972</v>
+        <v>339.81475207148452</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>1163.4961619838871</v>
+        <v>356.80548967505877</v>
       </c>
     </row>
     <row r="15" spans="4:18" x14ac:dyDescent="0.2">
       <c r="I15">
         <f>I14*0.32</f>
-        <v>240</v>
+        <v>73.600000000000009</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:R15" si="2">J14*0.32</f>
-        <v>252</v>
+        <v>77.28</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>264.60000000000002</v>
+        <v>81.144000000000005</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>277.83</v>
+        <v>85.201200000000014</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>291.72150000000005</v>
+        <v>89.461260000000024</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>306.30757500000004</v>
+        <v>93.93432300000002</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>321.62295375000008</v>
+        <v>98.631039150000035</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>337.70410143750007</v>
+        <v>103.56259110750005</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>354.58930650937509</v>
+        <v>108.74072066287505</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>372.31877183484386</v>
+        <v>114.1777566960188</v>
       </c>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.2">
@@ -7298,7 +7297,7 @@
     <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="5">
         <f>NPV(G17,I15:R15)</f>
-        <v>1964.0529288044527</v>
+        <v>602.30956483336547</v>
       </c>
     </row>
   </sheetData>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5ACDB7-7F7B-4A45-BBB3-33037AED3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B26EA4-D64E-44F8-9866-F71AE2365E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="945" windowWidth="23385" windowHeight="13110" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -782,7 +782,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -825,6 +824,8 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1285,7 +1286,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1301,48 +1302,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2">
         <v>38359</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="20"/>
       <c r="K3" t="s">
         <v>5</v>
       </c>
@@ -1354,41 +1355,41 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2">
         <v>38896</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="1">
         <f>L3*L2</f>
-        <v>95648.76</v>
+        <v>89543.51999999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2">
         <v>41313</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="20"/>
       <c r="K5" t="s">
         <v>7</v>
       </c>
@@ -1401,19 +1402,19 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2">
         <v>38713</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="20"/>
       <c r="K6" t="s">
         <v>8</v>
       </c>
@@ -1426,109 +1427,109 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2">
         <v>45561</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="20"/>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="1">
         <f>L4+L6-L5</f>
-        <v>134776.76</v>
+        <v>128671.51999999999</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2">
         <v>44258</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2">
         <v>43915</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="20"/>
       <c r="K9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="2">
         <v>44679</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="20"/>
       <c r="K10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2">
         <v>44638</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2">
         <v>38709</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
@@ -1540,13 +1541,13 @@
       <c r="D13" s="2">
         <v>41271</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="35" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="2">
@@ -1555,27 +1556,27 @@
       <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D15" s="2">
         <v>44813</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="35" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="2">
@@ -1584,13 +1585,13 @@
       <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="2">
@@ -1599,10 +1600,10 @@
       <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
@@ -1614,13 +1615,13 @@
       <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="2">
@@ -1629,38 +1630,38 @@
       <c r="E19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="19">
+      <c r="C20" s="9"/>
+      <c r="D20" s="18">
         <v>45456</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="14" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
@@ -1669,7 +1670,7 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
@@ -1678,13 +1679,13 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="s">
@@ -1695,13 +1696,13 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="8"/>
@@ -1713,7 +1714,7 @@
       <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>69</v>
       </c>
       <c r="H25" s="8"/>
@@ -1725,7 +1726,7 @@
       <c r="C26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
@@ -1734,13 +1735,13 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F27" t="s">
@@ -1751,25 +1752,25 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E29" t="s">
@@ -1784,7 +1785,7 @@
       <c r="C30" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H30" s="8"/>
@@ -1796,7 +1797,7 @@
       <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H31" s="8"/>
@@ -1805,25 +1806,25 @@
       <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C36">
@@ -1876,295 +1877,295 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T53" sqref="T53"/>
+      <selection pane="bottomRight" activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="31" customWidth="1"/>
-    <col min="3" max="6" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="31"/>
-    <col min="12" max="13" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="130" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="131" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="4.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="30" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="30"/>
+    <col min="12" max="13" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="130" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="131" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="G1" s="32">
+      <c r="C1" s="31"/>
+      <c r="G1" s="31">
         <v>45747</v>
       </c>
-      <c r="H1" s="32">
+      <c r="H1" s="31">
         <v>45863</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31">
         <v>45291</v>
       </c>
-      <c r="P1" s="32">
+      <c r="P1" s="31">
         <v>45657</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="32">
         <v>2020</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="32">
         <f>L2+1</f>
         <v>2021</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="32">
         <f>M2+1</f>
         <v>2022</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="32">
         <f>N2+1</f>
         <v>2023</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="32">
         <f t="shared" ref="P2:V2" si="0">O2+1</f>
         <v>2024</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="32">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="32">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="32">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="32">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="32">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="32">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="31">
+      <c r="N3" s="32"/>
+      <c r="O3" s="30">
         <v>31210</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="30">
         <v>34105</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="31">
+      <c r="N4" s="32"/>
+      <c r="O4" s="30">
         <v>13097</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="30">
         <v>13199</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="31">
+      <c r="N5" s="32"/>
+      <c r="O5" s="30">
         <v>699</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="30">
         <v>996</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
+      <c r="N6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>2265</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <f t="shared" ref="H7:J7" si="1">G7*1.01</f>
         <v>2287.65</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <f t="shared" si="1"/>
         <v>2310.5264999999999</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="30">
         <f t="shared" si="1"/>
         <v>2333.6317650000001</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>6992</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>7523</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <v>8249</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="30">
         <v>9009</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="30">
         <v>9304</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q19" si="2">SUM(G7:J7)</f>
         <v>9196.8082649999997</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="30">
         <f>Q7*1.03</f>
         <v>9472.71251295</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="30">
         <f>R7*1.03</f>
         <v>9756.8938883384999</v>
       </c>
-      <c r="T7" s="31">
-        <v>0</v>
-      </c>
-      <c r="U7" s="31">
-        <v>0</v>
-      </c>
-      <c r="V7" s="31">
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>770</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <f>G8*1.15</f>
         <v>885.49999999999989</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <f t="shared" ref="I8:J8" si="3">H8*1.15</f>
         <v>1018.3249999999998</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <f t="shared" si="3"/>
         <v>1171.0737499999998</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <v>3157</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <v>3306</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <v>3464</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="30">
         <v>3601</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="30">
         <v>3682</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <f t="shared" si="2"/>
         <v>3844.8987499999994</v>
       </c>
-      <c r="R8" s="31">
-        <f>Q8*1.03</f>
-        <v>3960.2457124999996</v>
-      </c>
-      <c r="S8" s="31">
-        <f t="shared" ref="S8:V8" si="4">R8*1.03</f>
-        <v>4079.0530838749996</v>
-      </c>
-      <c r="T8" s="31">
+      <c r="R8" s="30">
+        <f>Q8*0.9</f>
+        <v>3460.4088749999996</v>
+      </c>
+      <c r="S8" s="30">
+        <f t="shared" ref="S8:V8" si="4">R8*0.9</f>
+        <v>3114.3679874999998</v>
+      </c>
+      <c r="T8" s="30">
         <f t="shared" si="4"/>
-        <v>4201.4246763912497</v>
-      </c>
-      <c r="U8" s="31">
+        <v>2802.9311887499998</v>
+      </c>
+      <c r="U8" s="30">
         <f t="shared" si="4"/>
-        <v>4327.4674166829873</v>
-      </c>
-      <c r="V8" s="31">
+        <v>2522.6380698749999</v>
+      </c>
+      <c r="V8" s="30">
         <f t="shared" si="4"/>
-        <v>4457.2914391834775</v>
+        <v>2270.3742628875002</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="4" t="s">
         <v>99</v>
       </c>
@@ -2224,7 +2225,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
         <v>100</v>
       </c>
@@ -2249,7 +2250,7 @@
       <c r="M10" s="4">
         <v>551</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <v>717</v>
       </c>
       <c r="O10" s="4">
@@ -2284,7 +2285,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
         <v>101</v>
       </c>
@@ -2303,7 +2304,7 @@
         <f t="shared" si="7"/>
         <v>291.72150000000005</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>252</v>
       </c>
       <c r="O11" s="4">
@@ -2338,7 +2339,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
         <v>102</v>
       </c>
@@ -2360,7 +2361,7 @@
       <c r="M12" s="4">
         <v>87</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <v>182</v>
       </c>
       <c r="O12" s="4">
@@ -2395,7 +2396,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
@@ -2414,7 +2415,7 @@
         <f t="shared" si="11"/>
         <v>274.75199999999995</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <v>24</v>
       </c>
       <c r="O13" s="4">
@@ -2449,7 +2450,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
@@ -2509,63 +2510,63 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <v>103</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <f>G15*1.01</f>
         <v>104.03</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <f>H15*1.01</f>
         <v>105.0703</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="30">
         <f>I15*1.01</f>
         <v>106.121003</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>164</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="32">
         <v>388</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <v>472</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <v>406</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f t="shared" si="2"/>
         <v>418.22130300000003</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="30">
         <f>Q15*1.03</f>
         <v>430.76794209000002</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <f t="shared" ref="S15:V15" si="15">R15*1.03</f>
         <v>443.69098035270002</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="30">
         <f t="shared" si="15"/>
         <v>457.00170976328104</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="30">
         <f t="shared" si="15"/>
         <v>470.71176105617951</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="30">
         <f t="shared" si="15"/>
         <v>484.8331138878649</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
@@ -2581,7 +2582,7 @@
       <c r="J16" s="4">
         <v>100</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <v>8</v>
       </c>
       <c r="O16" s="4">
@@ -2616,55 +2617,55 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="30">
         <v>48</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>70</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="30">
         <v>70</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="30">
         <v>70</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="33">
+      <c r="N17" s="32"/>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
         <v>126</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="30">
         <f>Q17*1.4</f>
         <v>361.2</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <f t="shared" ref="S17:V17" si="17">R17*1.4</f>
         <v>505.67999999999995</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="30">
         <f t="shared" si="17"/>
         <v>707.95199999999988</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="30">
         <f t="shared" si="17"/>
         <v>991.13279999999975</v>
       </c>
-      <c r="V17" s="31">
+      <c r="V17" s="30">
         <f t="shared" si="17"/>
         <v>1387.5859199999995</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
         <v>108</v>
       </c>
@@ -2677,11 +2678,11 @@
       <c r="J18" s="4">
         <v>25</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25">
         <v>1</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="25">
         <v>38</v>
       </c>
       <c r="Q18" s="4">
@@ -2710,7 +2711,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
@@ -2729,11 +2730,11 @@
         <f>I19*1.03</f>
         <v>29.503629000000007</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26">
-        <v>0</v>
-      </c>
-      <c r="P19" s="26">
+      <c r="N19" s="25"/>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
         <v>10</v>
       </c>
       <c r="Q19" s="4">
@@ -2762,455 +2763,455 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="30">
         <v>403</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <f t="shared" ref="H20:H24" si="20">G20*1.01</f>
         <v>407.03000000000003</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="30">
         <f t="shared" ref="I20:J20" si="21">H20*1.01</f>
         <v>411.10030000000006</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="30">
         <f t="shared" si="21"/>
         <v>415.21130300000004</v>
       </c>
-      <c r="N20" s="33"/>
-      <c r="O20" s="31">
+      <c r="N20" s="32"/>
+      <c r="O20" s="30">
         <v>1211</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="30">
         <v>1605</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="30">
         <f t="shared" ref="Q20:Q26" si="22">SUM(G20:J20)</f>
         <v>1636.3416030000001</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="30">
         <f>Q20*1.03</f>
         <v>1685.4318510900002</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="30">
         <f t="shared" ref="S20:V20" si="23">R20*1.03</f>
         <v>1735.9948066227003</v>
       </c>
-      <c r="T20" s="31">
+      <c r="T20" s="30">
         <f t="shared" si="23"/>
         <v>1788.0746508213813</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="30">
         <f t="shared" si="23"/>
         <v>1841.7168903460229</v>
       </c>
-      <c r="V20" s="31">
+      <c r="V20" s="30">
         <f t="shared" si="23"/>
         <v>1896.9683970564035</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <v>3565</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="30">
         <f t="shared" si="20"/>
         <v>3600.65</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="30">
         <f t="shared" ref="I21:J21" si="24">H21*1.01</f>
         <v>3636.6565000000001</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <f t="shared" si="24"/>
         <v>3673.0230649999999</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="30">
         <v>9168</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="30">
         <v>10762</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="30">
         <v>11789</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="30">
         <v>12206</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="30">
         <v>13333</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="30">
         <f t="shared" si="22"/>
         <v>14475.329564999998</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="30">
         <f>Q21*1.03</f>
         <v>14909.589451949998</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="30">
         <f>R21*1.03</f>
         <v>15356.877135508499</v>
       </c>
-      <c r="T21" s="31">
-        <v>0</v>
-      </c>
-      <c r="U21" s="31">
-        <v>0</v>
-      </c>
-      <c r="V21" s="31">
+      <c r="T21" s="30">
+        <v>0</v>
+      </c>
+      <c r="U21" s="30">
+        <v>0</v>
+      </c>
+      <c r="V21" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <v>936</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="30">
         <f>G22*1.05</f>
         <v>982.80000000000007</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="30">
         <f t="shared" ref="I22:J22" si="25">H22*1.05</f>
         <v>1031.94</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="30">
         <f t="shared" si="25"/>
         <v>1083.537</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="30">
         <v>12106</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <v>12821</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="30">
         <v>9978</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="30">
         <v>6097</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="30">
         <v>5773</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="30">
         <f t="shared" si="22"/>
         <v>4034.277</v>
       </c>
-      <c r="R22" s="31">
+      <c r="R22" s="30">
         <f>Q22*0.95</f>
         <v>3832.56315</v>
       </c>
-      <c r="S22" s="31">
+      <c r="S22" s="30">
         <f t="shared" ref="S22:V22" si="26">R22*0.95</f>
         <v>3640.9349924999997</v>
       </c>
-      <c r="T22" s="31">
+      <c r="T22" s="30">
         <f t="shared" si="26"/>
         <v>3458.8882428749994</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="30">
         <f t="shared" si="26"/>
         <v>3285.9438307312494</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="30">
         <f t="shared" si="26"/>
         <v>3121.6466391946869</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <v>658</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="30">
         <f>G23*1.2</f>
         <v>789.6</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="30">
         <f t="shared" ref="I23:J23" si="27">H23*1.2</f>
         <v>947.52</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="30">
         <f t="shared" si="27"/>
         <v>1137.0239999999999</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="30">
         <v>3070</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <v>3332</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="30">
         <v>3497</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="30">
         <v>3441</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="30">
         <v>3545</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="30">
         <f t="shared" si="22"/>
         <v>3532.1439999999998</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="30">
         <f>Q23*1.03</f>
         <v>3638.1083199999998</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="30">
         <f t="shared" ref="S23:V23" si="28">R23*1.03</f>
         <v>3747.2515696</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="30">
         <f t="shared" si="28"/>
         <v>3859.669116688</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="30">
         <f t="shared" si="28"/>
         <v>3975.4591901886402</v>
       </c>
-      <c r="V23" s="31">
+      <c r="V23" s="30">
         <f t="shared" si="28"/>
         <v>4094.7229658942993</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>175</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <f t="shared" si="20"/>
         <v>176.75</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <f t="shared" ref="I24:J24" si="29">H24*1.01</f>
         <v>178.51750000000001</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <f t="shared" si="29"/>
         <v>180.30267500000002</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="30">
         <v>2140</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="30">
         <v>2117</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="30">
         <v>2165</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="30">
         <v>1930</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="30">
         <v>1286</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="30">
         <f t="shared" si="22"/>
         <v>710.57017500000006</v>
       </c>
-      <c r="R24" s="31">
-        <f>Q24*1.03</f>
-        <v>731.88728025000012</v>
-      </c>
-      <c r="S24" s="31">
-        <f t="shared" ref="S24:V24" si="30">R24*1.03</f>
-        <v>753.84389865750018</v>
-      </c>
-      <c r="T24" s="31">
+      <c r="R24" s="30">
+        <f>Q24*0.8</f>
+        <v>568.45614000000012</v>
+      </c>
+      <c r="S24" s="30">
+        <f t="shared" ref="S24:V24" si="30">R24*0.8</f>
+        <v>454.76491200000009</v>
+      </c>
+      <c r="T24" s="30">
         <f t="shared" si="30"/>
-        <v>776.45921561722525</v>
-      </c>
-      <c r="U24" s="31">
+        <v>363.8119296000001</v>
+      </c>
+      <c r="U24" s="30">
         <f t="shared" si="30"/>
-        <v>799.75299208574199</v>
-      </c>
-      <c r="V24" s="31">
+        <v>291.04954368000011</v>
+      </c>
+      <c r="V24" s="30">
         <f t="shared" si="30"/>
-        <v>823.74558184831426</v>
+        <v>232.8396349440001</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <v>105</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="30">
         <f>G25*1.4</f>
         <v>147</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="30">
         <f t="shared" ref="I25:J25" si="31">H25*1.4</f>
         <v>205.79999999999998</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <f t="shared" si="31"/>
         <v>288.11999999999995</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="30">
         <v>1247</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="30">
         <v>1181</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="32">
         <v>811</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="30">
         <v>1004</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="30">
         <v>875</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="30">
         <f t="shared" si="22"/>
         <v>745.91999999999985</v>
       </c>
-      <c r="R25" s="31">
-        <f>Q25*1.03</f>
-        <v>768.29759999999987</v>
-      </c>
-      <c r="S25" s="31">
-        <f t="shared" ref="S25:V25" si="32">R25*1.03</f>
-        <v>791.34652799999992</v>
-      </c>
-      <c r="T25" s="31">
+      <c r="R25" s="30">
+        <f>Q25*0.9</f>
+        <v>671.32799999999986</v>
+      </c>
+      <c r="S25" s="30">
+        <f t="shared" ref="S25:V25" si="32">R25*0.9</f>
+        <v>604.19519999999989</v>
+      </c>
+      <c r="T25" s="30">
         <f t="shared" si="32"/>
-        <v>815.08692383999994</v>
-      </c>
-      <c r="U25" s="31">
+        <v>543.77567999999997</v>
+      </c>
+      <c r="U25" s="30">
         <f t="shared" si="32"/>
-        <v>839.53953155519991</v>
-      </c>
-      <c r="V25" s="31">
+        <v>489.39811199999997</v>
+      </c>
+      <c r="V25" s="30">
         <f t="shared" si="32"/>
-        <v>864.72571750185591</v>
+        <v>440.45830079999996</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <v>199</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="30">
         <f>G26*1.1</f>
         <v>218.9</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="30">
         <f t="shared" ref="I26:J26" si="33">H26*1.1</f>
         <v>240.79000000000002</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="30">
         <f t="shared" si="33"/>
         <v>264.86900000000003</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="31">
+      <c r="N26" s="32"/>
+      <c r="O26" s="30">
         <v>962</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="30">
         <v>925</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="30">
         <f t="shared" si="22"/>
         <v>923.55900000000008</v>
       </c>
-      <c r="R26" s="31">
-        <f>Q26*1.03</f>
-        <v>951.26577000000009</v>
-      </c>
-      <c r="S26" s="31">
-        <f t="shared" ref="S26:V26" si="34">R26*1.03</f>
-        <v>979.80374310000013</v>
-      </c>
-      <c r="T26" s="31">
+      <c r="R26" s="30">
+        <f>Q26*0.9</f>
+        <v>831.20310000000006</v>
+      </c>
+      <c r="S26" s="30">
+        <f t="shared" ref="S26:V26" si="34">R26*0.9</f>
+        <v>748.08279000000005</v>
+      </c>
+      <c r="T26" s="30">
         <f t="shared" si="34"/>
-        <v>1009.1978553930002</v>
-      </c>
-      <c r="U26" s="31">
+        <v>673.27451100000008</v>
+      </c>
+      <c r="U26" s="30">
         <f t="shared" si="34"/>
-        <v>1039.4737910547901</v>
-      </c>
-      <c r="V26" s="31">
+        <v>605.94705990000011</v>
+      </c>
+      <c r="V26" s="30">
         <f t="shared" si="34"/>
-        <v>1070.6580047864338</v>
+        <v>545.35235391000015</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <f>11559</f>
         <v>11559</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>10886</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="30">
         <f>44671</f>
         <v>44671</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="30">
         <f>43778</f>
         <v>43778</v>
       </c>
-      <c r="P27" s="31">
+      <c r="P27" s="30">
         <v>46778</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="30">
         <f t="shared" ref="Q27:Q42" si="35">SUM(G27:J27)</f>
         <v>10886</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <f>306</f>
         <v>306</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>315</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="30">
         <f>1488</f>
         <v>1488</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="30">
         <f>1228</f>
         <v>1228</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="30">
         <v>1522</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="30">
         <f t="shared" si="35"/>
         <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
@@ -3267,1296 +3268,1296 @@
       </c>
       <c r="R29" s="4">
         <f>SUM(R7:R26)</f>
-        <v>50231.716179059993</v>
+        <v>49351.415931310003</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" ref="S29:V29" si="40">SUM(S7:S26)</f>
-        <v>52006.958746910801</v>
+        <v>50324.322382778308</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="40"/>
-        <v>28135.452305383918</v>
+        <v>25717.07694349244</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="40"/>
-        <v>29640.269623542918</v>
+        <v>26543.068677619201</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="40"/>
-        <v>31499.489532412379</v>
+        <v>27772.093341633801</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <f>2932</f>
         <v>2932</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <v>3033</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <f>H29*0.25</f>
         <v>2955.7925</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <f t="shared" ref="I30:J30" si="41">I29*0.25</f>
         <v>3111.4097250000004</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <f t="shared" si="41"/>
         <v>3292.6355112500005</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="30">
         <f>10137</f>
         <v>10137</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="30">
         <f>10693</f>
         <v>10693</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="30">
         <f>13968</f>
         <v>13968</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="30">
         <f t="shared" si="35"/>
         <v>12392.837736250001</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="30">
         <f>R29*0.25</f>
-        <v>12557.929044764998</v>
-      </c>
-      <c r="S30" s="31">
+        <v>12337.853982827501</v>
+      </c>
+      <c r="S30" s="30">
         <f t="shared" ref="S30:V30" si="42">S29*0.25</f>
-        <v>13001.7396867277</v>
-      </c>
-      <c r="T30" s="31">
+        <v>12581.080595694577</v>
+      </c>
+      <c r="T30" s="30">
         <f t="shared" si="42"/>
-        <v>7033.8630763459796</v>
-      </c>
-      <c r="U30" s="31">
+        <v>6429.2692358731101</v>
+      </c>
+      <c r="U30" s="30">
         <f t="shared" si="42"/>
-        <v>7410.0674058857294</v>
-      </c>
-      <c r="V30" s="31">
+        <v>6635.7671694048004</v>
+      </c>
+      <c r="V30" s="30">
         <f t="shared" si="42"/>
-        <v>7874.8723831030948</v>
+        <v>6943.0233354084503</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <f>C29-C30</f>
         <v>8933</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <f t="shared" ref="D31:N31" si="43">D29-D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <f t="shared" si="43"/>
         <v>8168</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="30">
         <f t="shared" si="43"/>
         <v>8867.3775000000005</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="30">
         <f t="shared" ref="I31" si="44">I29-I30</f>
         <v>9334.2291750000004</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="30">
         <f t="shared" ref="J31" si="45">J29-J30</f>
         <v>9877.9065337500015</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="30">
         <f t="shared" si="43"/>
         <v>36022</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="30">
         <f t="shared" ref="O31" si="46">O29-O30</f>
         <v>34313</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P31" s="30">
         <f t="shared" ref="P31" si="47">P29-P30</f>
         <v>34332</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="30">
         <f t="shared" si="35"/>
         <v>36247.513208750002</v>
       </c>
-      <c r="R31" s="31">
+      <c r="R31" s="30">
         <f t="shared" ref="R31" si="48">R29-R30</f>
-        <v>37673.787134294995</v>
-      </c>
-      <c r="S31" s="31">
+        <v>37013.5619484825</v>
+      </c>
+      <c r="S31" s="30">
         <f t="shared" ref="S31" si="49">S29-S30</f>
-        <v>39005.219060183103</v>
-      </c>
-      <c r="T31" s="31">
+        <v>37743.241787083731</v>
+      </c>
+      <c r="T31" s="30">
         <f t="shared" ref="T31" si="50">T29-T30</f>
-        <v>21101.589229037938</v>
-      </c>
-      <c r="U31" s="31">
+        <v>19287.807707619329</v>
+      </c>
+      <c r="U31" s="30">
         <f t="shared" ref="U31:V31" si="51">U29-U30</f>
-        <v>22230.202217657188</v>
-      </c>
-      <c r="V31" s="31">
+        <v>19907.301508214401</v>
+      </c>
+      <c r="V31" s="30">
         <f t="shared" si="51"/>
-        <v>23624.617149309284</v>
+        <v>20829.070006225353</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <f>2367</f>
         <v>2367</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>1584</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <f>G32*1.25</f>
         <v>1980</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="30">
         <f t="shared" ref="I32:J32" si="52">H32*1.2</f>
         <v>2376</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="30">
         <f t="shared" si="52"/>
         <v>2851.2</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="30">
         <f>7814</f>
         <v>7814</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="30">
         <f>7772</f>
         <v>7772</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="30">
         <f>8414</f>
         <v>8414</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="30">
         <f t="shared" si="35"/>
         <v>8791.2000000000007</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="30">
         <f>Q32*1.04</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="30">
         <f t="shared" ref="S32:V32" si="53">R32*1.04</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T32" s="31">
+      <c r="T32" s="30">
         <f t="shared" si="53"/>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U32" s="31">
+      <c r="U32" s="30">
         <f t="shared" si="53"/>
         <v>10284.460572672002</v>
       </c>
-      <c r="V32" s="31">
+      <c r="V32" s="30">
         <f t="shared" si="53"/>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <f>2695</f>
         <v>2695</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <v>2257</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="30">
         <f>9509</f>
         <v>9509</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="30">
         <f>9299</f>
         <v>9299</v>
       </c>
-      <c r="P33" s="31">
+      <c r="P33" s="30">
         <f>11159</f>
         <v>11159</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="30">
         <f t="shared" si="35"/>
         <v>2257</v>
       </c>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <f>12949</f>
         <v>12949</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="30">
         <v>188</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="30">
         <f>815</f>
         <v>815</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O34" s="30">
         <f>913</f>
         <v>913</v>
       </c>
-      <c r="P34" s="31">
+      <c r="P34" s="30">
         <f>13363</f>
         <v>13363</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="30">
         <f t="shared" si="35"/>
         <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <f>2357</f>
         <v>2357</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="30">
         <v>830</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="30">
         <f>9595</f>
         <v>9595</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="30">
         <f>9047</f>
         <v>9047</v>
       </c>
-      <c r="P35" s="31">
+      <c r="P35" s="30">
         <f>8872</f>
         <v>8872</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="30">
         <f t="shared" si="35"/>
         <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <f>81</f>
         <v>81</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <v>339</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="30">
         <f>576</f>
         <v>576</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="30">
         <f>-1158</f>
         <v>-1158</v>
       </c>
-      <c r="P36" s="31">
+      <c r="P36" s="30">
         <f>893</f>
         <v>893</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="Q36" s="30">
         <f t="shared" si="35"/>
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <f>SUM(C32:C36)</f>
         <v>20449</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <f t="shared" ref="D37:N37" si="54">SUM(D32:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="30">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="30">
         <f t="shared" si="54"/>
         <v>5198</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="30">
         <f t="shared" si="54"/>
         <v>1980</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="30">
         <f t="shared" ref="I37" si="55">SUM(I32:I36)</f>
         <v>2376</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="30">
         <f t="shared" ref="J37" si="56">SUM(J32:J36)</f>
         <v>2851.2</v>
       </c>
-      <c r="N37" s="31">
+      <c r="N37" s="30">
         <f t="shared" si="54"/>
         <v>28309</v>
       </c>
-      <c r="O37" s="31">
+      <c r="O37" s="30">
         <f t="shared" ref="O37" si="57">SUM(O32:O36)</f>
         <v>25873</v>
       </c>
-      <c r="P37" s="31">
+      <c r="P37" s="30">
         <f t="shared" ref="P37" si="58">SUM(P32:P36)</f>
         <v>42701</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="Q37" s="30">
         <f t="shared" si="35"/>
         <v>12405.2</v>
       </c>
-      <c r="R37" s="31">
+      <c r="R37" s="30">
         <f t="shared" ref="R37" si="59">SUM(R32:R36)</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S37" s="31">
+      <c r="S37" s="30">
         <f t="shared" ref="S37" si="60">SUM(S32:S36)</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T37" s="31">
+      <c r="T37" s="30">
         <f t="shared" ref="T37" si="61">SUM(T32:T36)</f>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U37" s="31">
+      <c r="U37" s="30">
         <f t="shared" ref="U37" si="62">SUM(U32:U36)</f>
         <v>10284.460572672002</v>
       </c>
-      <c r="V37" s="31">
+      <c r="V37" s="30">
         <f t="shared" ref="V37" si="63">SUM(V32:V36)</f>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <f>C31-C37</f>
         <v>-11516</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <f t="shared" ref="D38:N38" si="64">D31-D37</f>
         <v>0</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="30">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="30">
         <f t="shared" si="64"/>
         <v>2970</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="30">
         <f t="shared" si="64"/>
         <v>6887.3775000000005</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="30">
         <f t="shared" ref="I38" si="65">I31-I37</f>
         <v>6958.2291750000004</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="30">
         <f t="shared" ref="J38" si="66">J31-J37</f>
         <v>7026.7065337500017</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="30">
         <f t="shared" si="64"/>
         <v>7713</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="30">
         <f t="shared" ref="O38" si="67">O31-O37</f>
         <v>8440</v>
       </c>
-      <c r="P38" s="31">
+      <c r="P38" s="30">
         <f t="shared" ref="P38" si="68">P31-P37</f>
         <v>-8369</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="30">
         <f t="shared" si="35"/>
         <v>23842.313208750005</v>
       </c>
-      <c r="R38" s="31">
+      <c r="R38" s="30">
         <f t="shared" ref="R38" si="69">R31-R37</f>
-        <v>28530.939134294993</v>
-      </c>
-      <c r="S38" s="31">
+        <v>27870.713948482498</v>
+      </c>
+      <c r="S38" s="30">
         <f t="shared" ref="S38" si="70">S31-S37</f>
-        <v>29496.657140183102</v>
-      </c>
-      <c r="T38" s="31">
+        <v>28234.679867083731</v>
+      </c>
+      <c r="T38" s="30">
         <f t="shared" ref="T38" si="71">T31-T37</f>
-        <v>11212.684832237936</v>
-      </c>
-      <c r="U38" s="31">
+        <v>9398.9033108193271</v>
+      </c>
+      <c r="U38" s="30">
         <f t="shared" ref="U38" si="72">U31-U37</f>
-        <v>11945.741644985186</v>
-      </c>
-      <c r="V38" s="31">
+        <v>9622.8409355423992</v>
+      </c>
+      <c r="V38" s="30">
         <f t="shared" ref="V38" si="73">V31-V37</f>
-        <v>12928.778153730402</v>
+        <v>10133.23101064647</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="31">
-        <v>0</v>
-      </c>
-      <c r="G39" s="31">
-        <v>0</v>
-      </c>
-      <c r="H39" s="31">
+      <c r="C39" s="30">
+        <v>0</v>
+      </c>
+      <c r="G39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30">
         <f>G50*$Y$45/4</f>
         <v>-195.63499999999999</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="30">
         <f>H50*$Y$45/4</f>
         <v>-165.52215875000002</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="30">
         <f>I50*$Y$45/4</f>
         <v>-134.95497717687502</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="30">
         <f t="shared" si="35"/>
         <v>-496.112135926875</v>
       </c>
-      <c r="R39" s="31">
+      <c r="R39" s="30">
         <f>Q50*$Y$45</f>
         <v>-415.76838068918386</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="30">
         <f>R50*$Y$45</f>
-        <v>34.074351368509085</v>
-      </c>
-      <c r="T39" s="31">
+        <v>23.510748395509218</v>
+      </c>
+      <c r="T39" s="30">
         <f>S50*$Y$45</f>
-        <v>506.56605523333485</v>
-      </c>
-      <c r="U39" s="31">
+        <v>475.64179824317711</v>
+      </c>
+      <c r="U39" s="30">
         <f>T50*$Y$45</f>
-        <v>694.07406943287526</v>
-      </c>
-      <c r="V39" s="31">
+        <v>633.6345199881772</v>
+      </c>
+      <c r="V39" s="30">
         <f>U50*$Y$45</f>
-        <v>896.31112086356427</v>
+        <v>797.73812727666632</v>
       </c>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <f>C38+C39</f>
         <v>-11516</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <f t="shared" ref="D40:N40" si="74">D38+D39</f>
         <v>0</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="30">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="30">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="30">
         <f t="shared" si="74"/>
         <v>2970</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="30">
         <f t="shared" si="74"/>
         <v>6691.7425000000003</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="30">
         <f t="shared" ref="I40" si="75">I38+I39</f>
         <v>6792.7070162500004</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="30">
         <f t="shared" ref="J40" si="76">J38+J39</f>
         <v>6891.7515565731264</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N40" s="30">
         <f t="shared" si="74"/>
         <v>7713</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="30">
         <f t="shared" ref="O40" si="77">O38+O39</f>
         <v>8440</v>
       </c>
-      <c r="P40" s="31">
+      <c r="P40" s="30">
         <f t="shared" ref="P40" si="78">P38+P39</f>
         <v>-8369</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="30">
         <f t="shared" si="35"/>
         <v>23346.201072823129</v>
       </c>
-      <c r="R40" s="31">
+      <c r="R40" s="30">
         <f t="shared" ref="R40" si="79">R38+R39</f>
-        <v>28115.170753605809</v>
-      </c>
-      <c r="S40" s="31">
+        <v>27454.945567793315</v>
+      </c>
+      <c r="S40" s="30">
         <f t="shared" ref="S40" si="80">S38+S39</f>
-        <v>29530.731491551611</v>
-      </c>
-      <c r="T40" s="31">
+        <v>28258.190615479241</v>
+      </c>
+      <c r="T40" s="30">
         <f t="shared" ref="T40" si="81">T38+T39</f>
-        <v>11719.250887471271</v>
-      </c>
-      <c r="U40" s="31">
+        <v>9874.5451090625047</v>
+      </c>
+      <c r="U40" s="30">
         <f t="shared" ref="U40" si="82">U38+U39</f>
-        <v>12639.815714418062</v>
-      </c>
-      <c r="V40" s="31">
+        <v>10256.475455530577</v>
+      </c>
+      <c r="V40" s="30">
         <f t="shared" ref="V40" si="83">V38+V39</f>
-        <v>13825.089274593965</v>
+        <v>10930.969137923137</v>
       </c>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <v>509</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="30">
         <f>H40*0.1</f>
         <v>669.17425000000003</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="30">
         <f t="shared" ref="I41:J41" si="84">I40*0.1</f>
         <v>679.27070162500013</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="30">
         <f t="shared" si="84"/>
         <v>689.17515565731264</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="30">
         <f>1368</f>
         <v>1368</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="30">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="P41" s="31">
+      <c r="P41" s="30">
         <v>554</v>
       </c>
-      <c r="Q41" s="31">
+      <c r="Q41" s="30">
         <f t="shared" si="35"/>
         <v>2546.6201072823128</v>
       </c>
-      <c r="R41" s="31">
+      <c r="R41" s="30">
         <f>R40*0.2</f>
-        <v>5623.0341507211624</v>
-      </c>
-      <c r="S41" s="31">
+        <v>5490.9891135586631</v>
+      </c>
+      <c r="S41" s="30">
         <f t="shared" ref="S41:V41" si="85">S40*0.2</f>
-        <v>5906.1462983103229</v>
-      </c>
-      <c r="T41" s="31">
+        <v>5651.6381230958486</v>
+      </c>
+      <c r="T41" s="30">
         <f t="shared" si="85"/>
-        <v>2343.8501774942542</v>
-      </c>
-      <c r="U41" s="31">
+        <v>1974.9090218125011</v>
+      </c>
+      <c r="U41" s="30">
         <f t="shared" si="85"/>
-        <v>2527.9631428836128</v>
-      </c>
-      <c r="V41" s="31">
+        <v>2051.2950911061157</v>
+      </c>
+      <c r="V41" s="30">
         <f t="shared" si="85"/>
-        <v>2765.0178549187931</v>
+        <v>2186.1938275846273</v>
       </c>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="30">
         <f>C40-C41</f>
         <v>-11516</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <f t="shared" ref="D42:N42" si="86">D40-D41</f>
         <v>0</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="30">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="30">
         <f t="shared" si="86"/>
         <v>2461</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="30">
         <f t="shared" si="86"/>
         <v>6022.5682500000003</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="30">
         <f t="shared" ref="I42" si="87">I40-I41</f>
         <v>6113.4363146249998</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="30">
         <f t="shared" ref="J42" si="88">J40-J41</f>
         <v>6202.5764009158138</v>
       </c>
-      <c r="N42" s="31">
+      <c r="N42" s="30">
         <f t="shared" si="86"/>
         <v>6345</v>
       </c>
-      <c r="O42" s="31">
+      <c r="O42" s="30">
         <f t="shared" ref="O42" si="89">O40-O41</f>
         <v>8040</v>
       </c>
-      <c r="P42" s="31">
+      <c r="P42" s="30">
         <f t="shared" ref="P42" si="90">P40-P41</f>
         <v>-8923</v>
       </c>
-      <c r="Q42" s="31">
+      <c r="Q42" s="30">
         <f t="shared" si="35"/>
         <v>20799.580965540816</v>
       </c>
-      <c r="R42" s="31">
+      <c r="R42" s="30">
         <f t="shared" ref="R42" si="91">R40-R41</f>
-        <v>22492.136602884646</v>
-      </c>
-      <c r="S42" s="31">
+        <v>21963.956454234652</v>
+      </c>
+      <c r="S42" s="30">
         <f t="shared" ref="S42" si="92">S40-S41</f>
-        <v>23624.585193241288</v>
-      </c>
-      <c r="T42" s="31">
+        <v>22606.552492383395</v>
+      </c>
+      <c r="T42" s="30">
         <f t="shared" ref="T42" si="93">T40-T41</f>
-        <v>9375.400709977017</v>
-      </c>
-      <c r="U42" s="31">
+        <v>7899.6360872500036</v>
+      </c>
+      <c r="U42" s="30">
         <f t="shared" ref="U42" si="94">U40-U41</f>
-        <v>10111.852571534449</v>
-      </c>
-      <c r="V42" s="31">
+        <v>8205.180364424461</v>
+      </c>
+      <c r="V42" s="30">
         <f t="shared" ref="V42" si="95">V40-V41</f>
-        <v>11060.071419675172</v>
-      </c>
-      <c r="W42" s="31">
+        <v>8744.7753103385094</v>
+      </c>
+      <c r="W42" s="30">
         <f t="shared" ref="W42:BB42" si="96">V42*(1+$Y$46)</f>
-        <v>10949.470705478421</v>
-      </c>
-      <c r="X42" s="31">
+        <v>8657.3275572351249</v>
+      </c>
+      <c r="X42" s="30">
         <f t="shared" si="96"/>
-        <v>10839.975998423637</v>
-      </c>
-      <c r="Y42" s="31">
+        <v>8570.7542816627738</v>
+      </c>
+      <c r="Y42" s="30">
         <f t="shared" si="96"/>
-        <v>10731.5762384394</v>
-      </c>
-      <c r="Z42" s="31">
+        <v>8485.0467388461457</v>
+      </c>
+      <c r="Z42" s="30">
         <f t="shared" si="96"/>
-        <v>10624.260476055006</v>
-      </c>
-      <c r="AA42" s="31">
+        <v>8400.1962714576839</v>
+      </c>
+      <c r="AA42" s="30">
         <f t="shared" si="96"/>
-        <v>10518.017871294456</v>
-      </c>
-      <c r="AB42" s="31">
+        <v>8316.1943087431064</v>
+      </c>
+      <c r="AB42" s="30">
         <f t="shared" si="96"/>
-        <v>10412.837692581512</v>
-      </c>
-      <c r="AC42" s="31">
+        <v>8233.0323656556757</v>
+      </c>
+      <c r="AC42" s="30">
         <f t="shared" si="96"/>
-        <v>10308.709315655697</v>
-      </c>
-      <c r="AD42" s="31">
+        <v>8150.7020419991186</v>
+      </c>
+      <c r="AD42" s="30">
         <f t="shared" si="96"/>
-        <v>10205.62222249914</v>
-      </c>
-      <c r="AE42" s="31">
+        <v>8069.1950215791276</v>
+      </c>
+      <c r="AE42" s="30">
         <f t="shared" si="96"/>
-        <v>10103.566000274148</v>
-      </c>
-      <c r="AF42" s="31">
+        <v>7988.5030713633359</v>
+      </c>
+      <c r="AF42" s="30">
         <f t="shared" si="96"/>
-        <v>10002.530340271407</v>
-      </c>
-      <c r="AG42" s="31">
+        <v>7908.6180406497024</v>
+      </c>
+      <c r="AG42" s="30">
         <f t="shared" si="96"/>
-        <v>9902.5050368686934</v>
-      </c>
-      <c r="AH42" s="31">
+        <v>7829.5318602432053</v>
+      </c>
+      <c r="AH42" s="30">
         <f t="shared" si="96"/>
-        <v>9803.4799865000059</v>
-      </c>
-      <c r="AI42" s="31">
+        <v>7751.2365416407729</v>
+      </c>
+      <c r="AI42" s="30">
         <f t="shared" si="96"/>
-        <v>9705.4451866350064</v>
-      </c>
-      <c r="AJ42" s="31">
+        <v>7673.7241762243648</v>
+      </c>
+      <c r="AJ42" s="30">
         <f t="shared" si="96"/>
-        <v>9608.3907347686563</v>
-      </c>
-      <c r="AK42" s="31">
+        <v>7596.9869344621211</v>
+      </c>
+      <c r="AK42" s="30">
         <f t="shared" si="96"/>
-        <v>9512.3068274209691</v>
-      </c>
-      <c r="AL42" s="31">
+        <v>7521.0170651174994</v>
+      </c>
+      <c r="AL42" s="30">
         <f t="shared" si="96"/>
-        <v>9417.1837591467593</v>
-      </c>
-      <c r="AM42" s="31">
+        <v>7445.8068944663246</v>
+      </c>
+      <c r="AM42" s="30">
         <f t="shared" si="96"/>
-        <v>9323.0119215552913</v>
-      </c>
-      <c r="AN42" s="31">
+        <v>7371.3488255216616</v>
+      </c>
+      <c r="AN42" s="30">
         <f t="shared" si="96"/>
-        <v>9229.7818023397376</v>
-      </c>
-      <c r="AO42" s="31">
+        <v>7297.6353372664453</v>
+      </c>
+      <c r="AO42" s="30">
         <f t="shared" si="96"/>
-        <v>9137.4839843163409</v>
-      </c>
-      <c r="AP42" s="31">
+        <v>7224.6589838937807</v>
+      </c>
+      <c r="AP42" s="30">
         <f t="shared" si="96"/>
-        <v>9046.1091444731774</v>
-      </c>
-      <c r="AQ42" s="31">
+        <v>7152.4123940548425</v>
+      </c>
+      <c r="AQ42" s="30">
         <f t="shared" si="96"/>
-        <v>8955.6480530284462</v>
-      </c>
-      <c r="AR42" s="31">
+        <v>7080.8882701142938</v>
+      </c>
+      <c r="AR42" s="30">
         <f t="shared" si="96"/>
-        <v>8866.0915724981623</v>
-      </c>
-      <c r="AS42" s="31">
+        <v>7010.0793874131505</v>
+      </c>
+      <c r="AS42" s="30">
         <f t="shared" si="96"/>
-        <v>8777.4306567731801</v>
-      </c>
-      <c r="AT42" s="31">
+        <v>6939.9785935390191</v>
+      </c>
+      <c r="AT42" s="30">
         <f t="shared" si="96"/>
-        <v>8689.6563502054487</v>
-      </c>
-      <c r="AU42" s="31">
+        <v>6870.5788076036288</v>
+      </c>
+      <c r="AU42" s="30">
         <f t="shared" si="96"/>
-        <v>8602.7597867033946</v>
-      </c>
-      <c r="AV42" s="31">
+        <v>6801.8730195275921</v>
+      </c>
+      <c r="AV42" s="30">
         <f t="shared" si="96"/>
-        <v>8516.7321888363604</v>
-      </c>
-      <c r="AW42" s="31">
+        <v>6733.8542893323165</v>
+      </c>
+      <c r="AW42" s="30">
         <f t="shared" si="96"/>
-        <v>8431.5648669479961</v>
-      </c>
-      <c r="AX42" s="31">
+        <v>6666.5157464389931</v>
+      </c>
+      <c r="AX42" s="30">
         <f t="shared" si="96"/>
-        <v>8347.2492182785154</v>
-      </c>
-      <c r="AY42" s="31">
+        <v>6599.8505889746029</v>
+      </c>
+      <c r="AY42" s="30">
         <f t="shared" si="96"/>
-        <v>8263.7767260957298</v>
-      </c>
-      <c r="AZ42" s="31">
+        <v>6533.8520830848565</v>
+      </c>
+      <c r="AZ42" s="30">
         <f t="shared" si="96"/>
-        <v>8181.1389588347729</v>
-      </c>
-      <c r="BA42" s="31">
+        <v>6468.5135622540083</v>
+      </c>
+      <c r="BA42" s="30">
         <f t="shared" si="96"/>
-        <v>8099.3275692464249</v>
-      </c>
-      <c r="BB42" s="31">
+        <v>6403.8284266314686</v>
+      </c>
+      <c r="BB42" s="30">
         <f t="shared" si="96"/>
-        <v>8018.3342935539604</v>
-      </c>
-      <c r="BC42" s="31">
+        <v>6339.7901423651538</v>
+      </c>
+      <c r="BC42" s="30">
         <f t="shared" ref="BC42:CH42" si="97">BB42*(1+$Y$46)</f>
-        <v>7938.1509506184211</v>
-      </c>
-      <c r="BD42" s="31">
+        <v>6276.3922409415018</v>
+      </c>
+      <c r="BD42" s="30">
         <f t="shared" si="97"/>
-        <v>7858.7694411122366</v>
-      </c>
-      <c r="BE42" s="31">
+        <v>6213.6283185320863</v>
+      </c>
+      <c r="BE42" s="30">
         <f t="shared" si="97"/>
-        <v>7780.1817467011142</v>
-      </c>
-      <c r="BF42" s="31">
+        <v>6151.4920353467651</v>
+      </c>
+      <c r="BF42" s="30">
         <f t="shared" si="97"/>
-        <v>7702.3799292341027</v>
-      </c>
-      <c r="BG42" s="31">
+        <v>6089.9771149932976</v>
+      </c>
+      <c r="BG42" s="30">
         <f t="shared" si="97"/>
-        <v>7625.3561299417615</v>
-      </c>
-      <c r="BH42" s="31">
+        <v>6029.0773438433644</v>
+      </c>
+      <c r="BH42" s="30">
         <f t="shared" si="97"/>
-        <v>7549.1025686423436</v>
-      </c>
-      <c r="BI42" s="31">
+        <v>5968.7865704049309</v>
+      </c>
+      <c r="BI42" s="30">
         <f t="shared" si="97"/>
-        <v>7473.6115429559204</v>
-      </c>
-      <c r="BJ42" s="31">
+        <v>5909.0987047008812</v>
+      </c>
+      <c r="BJ42" s="30">
         <f t="shared" si="97"/>
-        <v>7398.8754275263609</v>
-      </c>
-      <c r="BK42" s="31">
+        <v>5850.0077176538725</v>
+      </c>
+      <c r="BK42" s="30">
         <f t="shared" si="97"/>
-        <v>7324.8866732510969</v>
-      </c>
-      <c r="BL42" s="31">
+        <v>5791.5076404773336</v>
+      </c>
+      <c r="BL42" s="30">
         <f t="shared" si="97"/>
-        <v>7251.6378065185854</v>
-      </c>
-      <c r="BM42" s="31">
+        <v>5733.59256407256</v>
+      </c>
+      <c r="BM42" s="30">
         <f t="shared" si="97"/>
-        <v>7179.1214284533999</v>
-      </c>
-      <c r="BN42" s="31">
+        <v>5676.2566384318343</v>
+      </c>
+      <c r="BN42" s="30">
         <f t="shared" si="97"/>
-        <v>7107.3302141688655</v>
-      </c>
-      <c r="BO42" s="31">
+        <v>5619.4940720475161</v>
+      </c>
+      <c r="BO42" s="30">
         <f t="shared" si="97"/>
-        <v>7036.2569120271764</v>
-      </c>
-      <c r="BP42" s="31">
+        <v>5563.2991313270404</v>
+      </c>
+      <c r="BP42" s="30">
         <f t="shared" si="97"/>
-        <v>6965.894342906905</v>
-      </c>
-      <c r="BQ42" s="31">
+        <v>5507.66614001377</v>
+      </c>
+      <c r="BQ42" s="30">
         <f t="shared" si="97"/>
-        <v>6896.2353994778359</v>
-      </c>
-      <c r="BR42" s="31">
+        <v>5452.5894786136323</v>
+      </c>
+      <c r="BR42" s="30">
         <f t="shared" si="97"/>
-        <v>6827.2730454830571</v>
-      </c>
-      <c r="BS42" s="31">
+        <v>5398.0635838274957</v>
+      </c>
+      <c r="BS42" s="30">
         <f t="shared" si="97"/>
-        <v>6759.0003150282264</v>
-      </c>
-      <c r="BT42" s="31">
+        <v>5344.0829479892209</v>
+      </c>
+      <c r="BT42" s="30">
         <f t="shared" si="97"/>
-        <v>6691.410311877944</v>
-      </c>
-      <c r="BU42" s="31">
+        <v>5290.6421185093286</v>
+      </c>
+      <c r="BU42" s="30">
         <f t="shared" si="97"/>
-        <v>6624.4962087591648</v>
-      </c>
-      <c r="BV42" s="31">
+        <v>5237.7356973242349</v>
+      </c>
+      <c r="BV42" s="30">
         <f t="shared" si="97"/>
-        <v>6558.2512466715734</v>
-      </c>
-      <c r="BW42" s="31">
+        <v>5185.3583403509929</v>
+      </c>
+      <c r="BW42" s="30">
         <f t="shared" si="97"/>
-        <v>6492.6687342048581</v>
-      </c>
-      <c r="BX42" s="31">
+        <v>5133.5047569474827</v>
+      </c>
+      <c r="BX42" s="30">
         <f t="shared" si="97"/>
-        <v>6427.7420468628097</v>
-      </c>
-      <c r="BY42" s="31">
+        <v>5082.1697093780076</v>
+      </c>
+      <c r="BY42" s="30">
         <f t="shared" si="97"/>
-        <v>6363.4646263941813</v>
-      </c>
-      <c r="BZ42" s="31">
+        <v>5031.3480122842275</v>
+      </c>
+      <c r="BZ42" s="30">
         <f t="shared" si="97"/>
-        <v>6299.8299801302392</v>
-      </c>
-      <c r="CA42" s="31">
+        <v>4981.034532161385</v>
+      </c>
+      <c r="CA42" s="30">
         <f t="shared" si="97"/>
-        <v>6236.8316803289363</v>
-      </c>
-      <c r="CB42" s="31">
+        <v>4931.2241868397714</v>
+      </c>
+      <c r="CB42" s="30">
         <f t="shared" si="97"/>
-        <v>6174.4633635256469</v>
-      </c>
-      <c r="CC42" s="31">
+        <v>4881.9119449713735</v>
+      </c>
+      <c r="CC42" s="30">
         <f t="shared" si="97"/>
-        <v>6112.71872989039</v>
-      </c>
-      <c r="CD42" s="31">
+        <v>4833.0928255216595</v>
+      </c>
+      <c r="CD42" s="30">
         <f t="shared" si="97"/>
-        <v>6051.5915425914864</v>
-      </c>
-      <c r="CE42" s="31">
+        <v>4784.7618972664432</v>
+      </c>
+      <c r="CE42" s="30">
         <f t="shared" si="97"/>
-        <v>5991.0756271655719</v>
-      </c>
-      <c r="CF42" s="31">
+        <v>4736.9142782937788</v>
+      </c>
+      <c r="CF42" s="30">
         <f t="shared" si="97"/>
-        <v>5931.1648708939165</v>
-      </c>
-      <c r="CG42" s="31">
+        <v>4689.5451355108407</v>
+      </c>
+      <c r="CG42" s="30">
         <f t="shared" si="97"/>
-        <v>5871.8532221849773</v>
-      </c>
-      <c r="CH42" s="31">
+        <v>4642.6496841557318</v>
+      </c>
+      <c r="CH42" s="30">
         <f t="shared" si="97"/>
-        <v>5813.1346899631271</v>
-      </c>
-      <c r="CI42" s="31">
+        <v>4596.2231873141745</v>
+      </c>
+      <c r="CI42" s="30">
         <f t="shared" ref="CI42:DN42" si="98">CH42*(1+$Y$46)</f>
-        <v>5755.0033430634958</v>
-      </c>
-      <c r="CJ42" s="31">
+        <v>4550.2609554410328</v>
+      </c>
+      <c r="CJ42" s="30">
         <f t="shared" si="98"/>
-        <v>5697.4533096328605</v>
-      </c>
-      <c r="CK42" s="31">
+        <v>4504.758345886622</v>
+      </c>
+      <c r="CK42" s="30">
         <f t="shared" si="98"/>
-        <v>5640.4787765365318</v>
-      </c>
-      <c r="CL42" s="31">
+        <v>4459.710762427756</v>
+      </c>
+      <c r="CL42" s="30">
         <f t="shared" si="98"/>
-        <v>5584.0739887711661</v>
-      </c>
-      <c r="CM42" s="31">
+        <v>4415.1136548034783</v>
+      </c>
+      <c r="CM42" s="30">
         <f t="shared" si="98"/>
-        <v>5528.2332488834545</v>
-      </c>
-      <c r="CN42" s="31">
+        <v>4370.9625182554437</v>
+      </c>
+      <c r="CN42" s="30">
         <f t="shared" si="98"/>
-        <v>5472.9509163946195</v>
-      </c>
-      <c r="CO42" s="31">
+        <v>4327.2528930728895</v>
+      </c>
+      <c r="CO42" s="30">
         <f t="shared" si="98"/>
-        <v>5418.2214072306733</v>
-      </c>
-      <c r="CP42" s="31">
+        <v>4283.9803641421604</v>
+      </c>
+      <c r="CP42" s="30">
         <f t="shared" si="98"/>
-        <v>5364.0391931583663</v>
-      </c>
-      <c r="CQ42" s="31">
+        <v>4241.1405605007385</v>
+      </c>
+      <c r="CQ42" s="30">
         <f t="shared" si="98"/>
-        <v>5310.3988012267828</v>
-      </c>
-      <c r="CR42" s="31">
+        <v>4198.729154895731</v>
+      </c>
+      <c r="CR42" s="30">
         <f t="shared" si="98"/>
-        <v>5257.2948132145148</v>
-      </c>
-      <c r="CS42" s="31">
+        <v>4156.7418633467732</v>
+      </c>
+      <c r="CS42" s="30">
         <f t="shared" si="98"/>
-        <v>5204.7218650823697</v>
-      </c>
-      <c r="CT42" s="31">
+        <v>4115.1744447133051</v>
+      </c>
+      <c r="CT42" s="30">
         <f t="shared" si="98"/>
-        <v>5152.6746464315456</v>
-      </c>
-      <c r="CU42" s="31">
+        <v>4074.0227002661718</v>
+      </c>
+      <c r="CU42" s="30">
         <f t="shared" si="98"/>
-        <v>5101.1478999672299</v>
-      </c>
-      <c r="CV42" s="31">
+        <v>4033.2824732635099</v>
+      </c>
+      <c r="CV42" s="30">
         <f t="shared" si="98"/>
-        <v>5050.1364209675576</v>
-      </c>
-      <c r="CW42" s="31">
+        <v>3992.9496485308746</v>
+      </c>
+      <c r="CW42" s="30">
         <f t="shared" si="98"/>
-        <v>4999.635056757882</v>
-      </c>
-      <c r="CX42" s="31">
+        <v>3953.0201520455657</v>
+      </c>
+      <c r="CX42" s="30">
         <f t="shared" si="98"/>
-        <v>4949.6387061903033</v>
-      </c>
-      <c r="CY42" s="31">
+        <v>3913.4899505251101</v>
+      </c>
+      <c r="CY42" s="30">
         <f t="shared" si="98"/>
-        <v>4900.1423191284002</v>
-      </c>
-      <c r="CZ42" s="31">
+        <v>3874.3550510198588</v>
+      </c>
+      <c r="CZ42" s="30">
         <f t="shared" si="98"/>
-        <v>4851.1408959371165</v>
-      </c>
-      <c r="DA42" s="31">
+        <v>3835.6115005096603</v>
+      </c>
+      <c r="DA42" s="30">
         <f t="shared" si="98"/>
-        <v>4802.6294869777457</v>
-      </c>
-      <c r="DB42" s="31">
+        <v>3797.2553855045635</v>
+      </c>
+      <c r="DB42" s="30">
         <f t="shared" si="98"/>
-        <v>4754.6031921079684</v>
-      </c>
-      <c r="DC42" s="31">
+        <v>3759.2828316495179</v>
+      </c>
+      <c r="DC42" s="30">
         <f t="shared" si="98"/>
-        <v>4707.0571601868887</v>
-      </c>
-      <c r="DD42" s="31">
+        <v>3721.6900033330226</v>
+      </c>
+      <c r="DD42" s="30">
         <f t="shared" si="98"/>
-        <v>4659.9865885850195</v>
-      </c>
-      <c r="DE42" s="31">
+        <v>3684.4731032996924</v>
+      </c>
+      <c r="DE42" s="30">
         <f t="shared" si="98"/>
-        <v>4613.3867226991697</v>
-      </c>
-      <c r="DF42" s="31">
+        <v>3647.6283722666954</v>
+      </c>
+      <c r="DF42" s="30">
         <f t="shared" si="98"/>
-        <v>4567.2528554721775</v>
-      </c>
-      <c r="DG42" s="31">
+        <v>3611.1520885440282</v>
+      </c>
+      <c r="DG42" s="30">
         <f t="shared" si="98"/>
-        <v>4521.5803269174557</v>
-      </c>
-      <c r="DH42" s="31">
+        <v>3575.0405676585879</v>
+      </c>
+      <c r="DH42" s="30">
         <f t="shared" si="98"/>
-        <v>4476.3645236482807</v>
-      </c>
-      <c r="DI42" s="31">
+        <v>3539.2901619820018</v>
+      </c>
+      <c r="DI42" s="30">
         <f t="shared" si="98"/>
-        <v>4431.6008784117976</v>
-      </c>
-      <c r="DJ42" s="31">
+        <v>3503.8972603621819</v>
+      </c>
+      <c r="DJ42" s="30">
         <f t="shared" si="98"/>
-        <v>4387.2848696276797</v>
-      </c>
-      <c r="DK42" s="31">
+        <v>3468.85828775856</v>
+      </c>
+      <c r="DK42" s="30">
         <f t="shared" si="98"/>
-        <v>4343.4120209314024</v>
-      </c>
-      <c r="DL42" s="31">
+        <v>3434.1697048809742</v>
+      </c>
+      <c r="DL42" s="30">
         <f t="shared" si="98"/>
-        <v>4299.9779007220886</v>
-      </c>
-      <c r="DM42" s="31">
+        <v>3399.8280078321645</v>
+      </c>
+      <c r="DM42" s="30">
         <f t="shared" si="98"/>
-        <v>4256.9781217148675</v>
-      </c>
-      <c r="DN42" s="31">
+        <v>3365.8297277538427</v>
+      </c>
+      <c r="DN42" s="30">
         <f t="shared" si="98"/>
-        <v>4214.4083404977191</v>
-      </c>
-      <c r="DO42" s="31">
+        <v>3332.1714304763041</v>
+      </c>
+      <c r="DO42" s="30">
         <f t="shared" ref="DO42:DZ42" si="99">DN42*(1+$Y$46)</f>
-        <v>4172.2642570927419</v>
-      </c>
-      <c r="DP42" s="31">
+        <v>3298.8497161715409</v>
+      </c>
+      <c r="DP42" s="30">
         <f t="shared" si="99"/>
-        <v>4130.5416145218142</v>
-      </c>
-      <c r="DQ42" s="31">
+        <v>3265.8612190098256</v>
+      </c>
+      <c r="DQ42" s="30">
         <f t="shared" si="99"/>
-        <v>4089.2361983765959</v>
-      </c>
-      <c r="DR42" s="31">
+        <v>3233.2026068197274</v>
+      </c>
+      <c r="DR42" s="30">
         <f t="shared" si="99"/>
-        <v>4048.3438363928299</v>
-      </c>
-      <c r="DS42" s="31">
+        <v>3200.8705807515303</v>
+      </c>
+      <c r="DS42" s="30">
         <f t="shared" si="99"/>
-        <v>4007.8603980289017</v>
-      </c>
-      <c r="DT42" s="31">
+        <v>3168.8618749440147</v>
+      </c>
+      <c r="DT42" s="30">
         <f t="shared" si="99"/>
-        <v>3967.7817940486125</v>
-      </c>
-      <c r="DU42" s="31">
+        <v>3137.1732561945746</v>
+      </c>
+      <c r="DU42" s="30">
         <f t="shared" si="99"/>
-        <v>3928.1039761081265</v>
-      </c>
-      <c r="DV42" s="31">
+        <v>3105.8015236326287</v>
+      </c>
+      <c r="DV42" s="30">
         <f t="shared" si="99"/>
-        <v>3888.822936347045</v>
-      </c>
-      <c r="DW42" s="31">
+        <v>3074.7435083963023</v>
+      </c>
+      <c r="DW42" s="30">
         <f t="shared" si="99"/>
-        <v>3849.9347069835744</v>
-      </c>
-      <c r="DX42" s="31">
+        <v>3043.9960733123394</v>
+      </c>
+      <c r="DX42" s="30">
         <f t="shared" si="99"/>
-        <v>3811.4353599137385</v>
-      </c>
-      <c r="DY42" s="31">
+        <v>3013.556112579216</v>
+      </c>
+      <c r="DY42" s="30">
         <f t="shared" si="99"/>
-        <v>3773.3210063146012</v>
-      </c>
-      <c r="DZ42" s="31">
+        <v>2983.4205514534237</v>
+      </c>
+      <c r="DZ42" s="30">
         <f t="shared" si="99"/>
-        <v>3735.5877962514551</v>
+        <v>2953.5863459388893</v>
       </c>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <f>C42/C44</f>
         <v>1955.1782682512735</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="30">
         <v>2035.08</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="30">
         <v>2035.08</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="30">
         <v>2035.08</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="30">
         <v>2035.08</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="30">
         <f>N42/N44</f>
         <v>2136.363636363636</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="30">
         <f>O42/O44</f>
         <v>2072.1649484536083</v>
       </c>
-      <c r="P43" s="31">
+      <c r="P43" s="30">
         <f>2029.312</f>
         <v>2029.3119999999999</v>
       </c>
-      <c r="Q43" s="31">
+      <c r="Q43" s="30">
         <f>J43</f>
         <v>2035.08</v>
       </c>
-      <c r="R43" s="31">
+      <c r="R43" s="30">
         <f>Q43</f>
         <v>2035.08</v>
       </c>
-      <c r="S43" s="31">
+      <c r="S43" s="30">
         <f t="shared" ref="S43:V43" si="100">R43</f>
         <v>2035.08</v>
       </c>
-      <c r="T43" s="31">
+      <c r="T43" s="30">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="U43" s="31">
+      <c r="U43" s="30">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="V43" s="31">
+      <c r="V43" s="30">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="33">
         <v>-5.89</v>
       </c>
-      <c r="D44" s="31" t="e">
+      <c r="D44" s="30" t="e">
         <f>D42/D43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="31" t="e">
+      <c r="E44" s="30" t="e">
         <f>E42/E43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="31" t="e">
+      <c r="F44" s="30" t="e">
         <f>F42/F43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="33">
         <f>G42/G43</f>
         <v>1.209289069717161</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="33">
         <f>H42/H43</f>
         <v>2.9593766584114634</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="33">
         <f t="shared" ref="I44:J44" si="101">I42/I43</f>
         <v>3.0040275147045818</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="33">
         <f t="shared" si="101"/>
         <v>3.0478292749748483</v>
       </c>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="N44" s="34">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="N44" s="33">
         <v>2.97</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="33">
         <v>3.88</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="33">
         <f t="shared" ref="P44:Q44" si="102">P42/P43</f>
         <v>-4.3970567364702919</v>
       </c>
-      <c r="Q44" s="34">
+      <c r="Q44" s="33">
         <f t="shared" si="102"/>
         <v>10.220522517808055</v>
       </c>
-      <c r="R44" s="34">
+      <c r="R44" s="33">
         <f t="shared" ref="R44" si="103">R42/R43</f>
-        <v>11.052212494292434</v>
-      </c>
-      <c r="S44" s="34">
+        <v>10.792674712657318</v>
+      </c>
+      <c r="S44" s="33">
         <f t="shared" ref="S44" si="104">S42/S43</f>
-        <v>11.608676412348059</v>
-      </c>
-      <c r="T44" s="34">
+        <v>11.108434308421977</v>
+      </c>
+      <c r="T44" s="33">
         <f t="shared" ref="T44" si="105">T42/T43</f>
-        <v>4.6068954095057775</v>
-      </c>
-      <c r="U44" s="34">
+        <v>3.8817324563407847</v>
+      </c>
+      <c r="U44" s="33">
         <f t="shared" ref="U44" si="106">U42/U43</f>
-        <v>4.9687739899829246</v>
-      </c>
-      <c r="V44" s="34">
+        <v>4.031871162030221</v>
+      </c>
+      <c r="V44" s="33">
         <f t="shared" ref="V44" si="107">V42/V43</f>
-        <v>5.4347108809851079</v>
+        <v>4.2970179601482545</v>
       </c>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="R45" s="35"/>
-      <c r="X45" s="31" t="s">
+      <c r="R45" s="34"/>
+      <c r="X45" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Y45" s="35">
+      <c r="Y45" s="34">
         <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
@@ -4592,1682 +4593,1682 @@
       </c>
       <c r="R46" s="6">
         <f t="shared" si="109"/>
-        <v>3.2716976813333964E-2</v>
+        <v>1.4618829274361866E-2</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="109"/>
-        <v>3.53410694056846E-2</v>
+        <v>1.9713850820864964E-2</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="109"/>
-        <v>-0.45900600644033707</v>
+        <v>-0.48897320965630753</v>
       </c>
       <c r="U46" s="6">
         <f t="shared" si="109"/>
-        <v>5.3484738820816613E-2</v>
+        <v>3.2118414388295102E-2</v>
       </c>
       <c r="V46" s="6">
         <f t="shared" si="109"/>
-        <v>6.2726146977850172E-2</v>
-      </c>
-      <c r="X46" s="31" t="s">
+        <v>4.630303598057206E-2</v>
+      </c>
+      <c r="X46" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="35">
+      <c r="Y46" s="34">
         <v>-0.01</v>
       </c>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="34">
         <f>C31/C29-1</f>
         <v>-0.24711335861778339</v>
       </c>
-      <c r="D47" s="35" t="e">
+      <c r="D47" s="34" t="e">
         <f>D31/D29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="35" t="e">
+      <c r="E47" s="34" t="e">
         <f>E31/E29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="35" t="e">
+      <c r="F47" s="34" t="e">
         <f>F31/F29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="34">
         <f>G31/G29-1</f>
         <v>-0.27077939469690204</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="34">
         <f t="shared" ref="H47:J47" si="110">H31/H29-1</f>
         <v>-0.25</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="34">
         <f t="shared" si="110"/>
         <v>-0.25000000000000011</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="34">
         <f t="shared" si="110"/>
         <v>-0.25</v>
       </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="N47" s="35">
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="N47" s="34">
         <f t="shared" ref="N47:V47" si="111">N31/N29</f>
         <v>0.78038952316991272</v>
       </c>
-      <c r="O47" s="35">
+      <c r="O47" s="34">
         <f t="shared" si="111"/>
         <v>0.76240945651690883</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P47" s="34">
         <f t="shared" si="111"/>
         <v>0.71080745341614904</v>
       </c>
-      <c r="Q47" s="35">
+      <c r="Q47" s="34">
         <f t="shared" si="111"/>
         <v>0.74521487827538124</v>
       </c>
-      <c r="R47" s="35">
+      <c r="R47" s="34">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="S47" s="35">
+      <c r="S47" s="34">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="T47" s="35">
+      <c r="T47" s="34">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="U47" s="35">
+      <c r="U47" s="34">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="V47" s="35">
+      <c r="V47" s="34">
         <f t="shared" si="111"/>
-        <v>0.75</v>
-      </c>
-      <c r="X47" s="31" t="s">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="X47" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Y47" s="35">
+      <c r="Y47" s="34">
         <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="34">
         <f>G32/C32-1</f>
         <v>-0.33079847908745252</v>
       </c>
-      <c r="H48" s="35" t="e">
+      <c r="H48" s="34" t="e">
         <f t="shared" ref="H48:J48" si="112">H32/D32-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="35" t="e">
+      <c r="I48" s="34" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="35" t="e">
+      <c r="J48" s="34" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="O48" s="35">
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="O48" s="34">
         <f t="shared" ref="O48:V48" si="113">O32/N32-1</f>
         <v>-5.3749680061427885E-3</v>
       </c>
-      <c r="P48" s="35">
+      <c r="P48" s="34">
         <f t="shared" si="113"/>
         <v>8.2604220277920692E-2</v>
       </c>
-      <c r="Q48" s="35">
+      <c r="Q48" s="34">
         <f t="shared" si="113"/>
         <v>4.4830045162823851E-2</v>
       </c>
-      <c r="R48" s="35">
+      <c r="R48" s="34">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S48" s="35">
+      <c r="S48" s="34">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T48" s="35">
+      <c r="T48" s="34">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="U48" s="35">
+      <c r="U48" s="34">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V48" s="35">
+      <c r="V48" s="34">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="X48" s="31" t="s">
+      <c r="X48" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="Y48" s="31">
-        <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+'BMS-986365'!G21+admilparant!G18+golcadomide!E42</f>
-        <v>126103.16297241041</v>
+      <c r="Y48" s="30">
+        <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+golcadomide!E42+'BMS-986365'!G21+admilparant!G18</f>
+        <v>104952.78625217403</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="X49" s="31" t="s">
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="X49" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="34">
+      <c r="Y49" s="33">
         <f>Y48/Main!L3</f>
-        <v>61.964720292278642</v>
+        <v>51.571823344622345</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="30">
         <f>SUM(G51:G52)-SUM(G66:G68)</f>
         <v>-39127</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="30">
         <f>G50+H42</f>
         <v>-33104.431750000003</v>
       </c>
-      <c r="I50" s="31">
+      <c r="I50" s="30">
         <f t="shared" ref="I50:J50" si="114">H50+I42</f>
         <v>-26990.995435375004</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="30">
         <f t="shared" si="114"/>
         <v>-20788.419034459192</v>
       </c>
-      <c r="N50" s="31">
+      <c r="N50" s="30">
         <f>SUM(N51:N52)-SUM(N66:N68)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="31">
+      <c r="O50" s="30">
         <f>SUM(O51:O52)-SUM(O67:O68)</f>
         <v>-30794</v>
       </c>
-      <c r="P50" s="31">
+      <c r="P50" s="30">
         <f>SUM(P51:P52)-SUM(P67:P68)</f>
         <v>-41113</v>
       </c>
-      <c r="Q50" s="31">
+      <c r="Q50" s="30">
         <f>J50</f>
         <v>-20788.419034459192</v>
       </c>
-      <c r="R50" s="31">
+      <c r="R50" s="30">
         <f>Q50+R42</f>
-        <v>1703.7175684254544</v>
-      </c>
-      <c r="S50" s="31">
+        <v>1175.5374197754609</v>
+      </c>
+      <c r="S50" s="30">
         <f>R50+S42</f>
-        <v>25328.302761666742</v>
-      </c>
-      <c r="T50" s="31">
+        <v>23782.089912158855</v>
+      </c>
+      <c r="T50" s="30">
         <f>S50+T42</f>
-        <v>34703.703471643763</v>
-      </c>
-      <c r="U50" s="31">
+        <v>31681.72599940886</v>
+      </c>
+      <c r="U50" s="30">
         <f>T50+U42</f>
-        <v>44815.556043178214</v>
-      </c>
-      <c r="V50" s="31">
+        <v>39886.906363833317</v>
+      </c>
+      <c r="V50" s="30">
         <f>U50+V42</f>
-        <v>55875.627462853387</v>
-      </c>
-      <c r="Y50" s="35">
+        <v>48631.681674171828</v>
+      </c>
+      <c r="Y50" s="34">
         <f>Y49/Main!L2-1</f>
-        <v>0.31839830409103498</v>
+        <v>0.17208689419596235</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="30">
         <f>10875</f>
         <v>10875</v>
       </c>
-      <c r="O51" s="31">
+      <c r="O51" s="30">
         <f>11464</f>
         <v>11464</v>
       </c>
-      <c r="P51" s="31">
+      <c r="P51" s="30">
         <f>10346</f>
         <v>10346</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="30">
         <f>907</f>
         <v>907</v>
       </c>
-      <c r="O52" s="31">
+      <c r="O52" s="30">
         <f>816</f>
         <v>816</v>
       </c>
-      <c r="P52" s="31">
+      <c r="P52" s="30">
         <f>513</f>
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="30">
         <v>10801</v>
       </c>
-      <c r="O53" s="31">
+      <c r="O53" s="30">
         <f>10921</f>
         <v>10921</v>
       </c>
-      <c r="P53" s="31">
+      <c r="P53" s="30">
         <f>10747</f>
         <v>10747</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="30">
         <v>2666</v>
       </c>
-      <c r="O54" s="31">
+      <c r="O54" s="30">
         <f>2662</f>
         <v>2662</v>
       </c>
-      <c r="P54" s="31">
+      <c r="P54" s="30">
         <f>2557</f>
         <v>2557</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="30">
         <v>7213</v>
       </c>
-      <c r="O55" s="31">
+      <c r="O55" s="30">
         <f>6646</f>
         <v>6646</v>
       </c>
-      <c r="P55" s="31">
+      <c r="P55" s="30">
         <f>7136</f>
         <v>7136</v>
       </c>
-      <c r="W55" s="35"/>
+      <c r="W55" s="34"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="30">
         <v>21737</v>
       </c>
-      <c r="O56" s="31">
+      <c r="O56" s="30">
         <f>21169</f>
         <v>21169</v>
       </c>
-      <c r="P56" s="31">
+      <c r="P56" s="30">
         <f>21719</f>
         <v>21719</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="30">
         <v>22486</v>
       </c>
-      <c r="O57" s="31">
+      <c r="O57" s="30">
         <f>27072</f>
         <v>27072</v>
       </c>
-      <c r="P57" s="31">
+      <c r="P57" s="30">
         <f>23307</f>
         <v>23307</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="31">
+      <c r="O58" s="30">
         <f>2768</f>
         <v>2768</v>
       </c>
-      <c r="P58" s="31">
+      <c r="P58" s="30">
         <f>4236</f>
         <v>4236</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="30">
         <f>344</f>
         <v>344</v>
       </c>
-      <c r="O59" s="31">
+      <c r="O59" s="30">
         <f>364</f>
         <v>364</v>
       </c>
-      <c r="P59" s="31">
+      <c r="P59" s="30">
         <f>320</f>
         <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="30">
         <f>5534+5866</f>
         <v>11400</v>
       </c>
-      <c r="O60" s="31">
+      <c r="O60" s="30">
         <f>5370+5907</f>
         <v>11277</v>
       </c>
-      <c r="P60" s="31">
+      <c r="P60" s="30">
         <f>6105+5617</f>
         <v>11722</v>
       </c>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="30">
         <f>SUM(G51:G60)</f>
         <v>88429</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="30">
         <f>SUM(H51:H60)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="31">
+      <c r="I61" s="30">
         <f>SUM(I51:I60)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="30">
         <f>SUM(J51:J60)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="31">
+      <c r="N61" s="30">
         <f>SUM(N51:N60)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="31">
+      <c r="O61" s="30">
         <f>SUM(O51:O60)</f>
         <v>95159</v>
       </c>
-      <c r="P61" s="31">
+      <c r="P61" s="30">
         <f>SUM(P51:P60)</f>
         <v>92603</v>
       </c>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="30">
         <f>3554</f>
         <v>3554</v>
       </c>
-      <c r="O63" s="31">
+      <c r="O63" s="30">
         <f>3119</f>
         <v>3119</v>
       </c>
-      <c r="P63" s="31">
+      <c r="P63" s="30">
         <f>2046</f>
         <v>2046</v>
       </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="30">
         <f>4002</f>
         <v>4002</v>
       </c>
-      <c r="O64" s="31">
+      <c r="O64" s="30">
         <f>3259</f>
         <v>3259</v>
       </c>
-      <c r="P64" s="31">
+      <c r="P64" s="30">
         <f>3602</f>
         <v>3602</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="30">
         <f>16514</f>
         <v>16514</v>
       </c>
-      <c r="O65" s="31">
+      <c r="O65" s="30">
         <f>15884</f>
         <v>15884</v>
       </c>
-      <c r="P65" s="31">
+      <c r="P65" s="30">
         <f>18126</f>
         <v>18126</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="31">
+      <c r="G66" s="30">
         <f>276</f>
         <v>276</v>
       </c>
-      <c r="O66" s="31">
+      <c r="O66" s="30">
         <f>338</f>
         <v>338</v>
       </c>
-      <c r="P66" s="31">
+      <c r="P66" s="30">
         <f>369</f>
         <v>369</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="31">
+      <c r="G67" s="30">
         <f>46156</f>
         <v>46156</v>
       </c>
-      <c r="O67" s="31">
+      <c r="O67" s="30">
         <f>36653</f>
         <v>36653</v>
       </c>
-      <c r="P67" s="31">
+      <c r="P67" s="30">
         <f>47503</f>
         <v>47503</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="31">
+      <c r="G68" s="30">
         <f>4477</f>
         <v>4477</v>
       </c>
-      <c r="O68" s="31">
+      <c r="O68" s="30">
         <f>6421</f>
         <v>6421</v>
       </c>
-      <c r="P68" s="31">
+      <c r="P68" s="30">
         <f>4469</f>
         <v>4469</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G69" s="30">
         <f>SUM(G63:G68)</f>
         <v>74979</v>
       </c>
-      <c r="O69" s="31">
+      <c r="O69" s="30">
         <f>SUM(O63:O68)</f>
         <v>65674</v>
       </c>
-      <c r="P69" s="31">
+      <c r="P69" s="30">
         <f>SUM(P63:P68)</f>
         <v>76115</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="31">
+      <c r="G70" s="30">
         <f>G61-G69</f>
         <v>13450</v>
       </c>
-      <c r="O70" s="31">
+      <c r="O70" s="30">
         <f>O61-O69</f>
         <v>29485</v>
       </c>
-      <c r="P70" s="31">
+      <c r="P70" s="30">
         <f>P61-P69</f>
         <v>16488</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="30">
         <f>G69+G70</f>
         <v>88429</v>
       </c>
-      <c r="O71" s="31">
+      <c r="O71" s="30">
         <f>O69+O70</f>
         <v>95159</v>
       </c>
-      <c r="P71" s="31">
+      <c r="P71" s="30">
         <f>P69+P70</f>
         <v>92603</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="O73" s="31">
+      <c r="O73" s="30">
         <f>O42</f>
         <v>8040</v>
       </c>
-      <c r="P73" s="31">
+      <c r="P73" s="30">
         <f>P42</f>
         <v>-8923</v>
       </c>
-      <c r="Q73" s="31">
+      <c r="Q73" s="30">
         <f t="shared" ref="Q73:V73" si="115">Q42</f>
         <v>20799.580965540816</v>
       </c>
-      <c r="R73" s="31">
+      <c r="R73" s="30">
         <f t="shared" si="115"/>
-        <v>22492.136602884646</v>
-      </c>
-      <c r="S73" s="31">
+        <v>21963.956454234652</v>
+      </c>
+      <c r="S73" s="30">
         <f t="shared" si="115"/>
-        <v>23624.585193241288</v>
-      </c>
-      <c r="T73" s="31">
+        <v>22606.552492383395</v>
+      </c>
+      <c r="T73" s="30">
         <f t="shared" si="115"/>
-        <v>9375.400709977017</v>
-      </c>
-      <c r="U73" s="31">
+        <v>7899.6360872500036</v>
+      </c>
+      <c r="U73" s="30">
         <f t="shared" si="115"/>
-        <v>10111.852571534449</v>
-      </c>
-      <c r="V73" s="31">
+        <v>8205.180364424461</v>
+      </c>
+      <c r="V73" s="30">
         <f t="shared" si="115"/>
-        <v>11060.071419675172</v>
+        <v>8744.7753103385094</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="N74" s="31">
+      <c r="N74" s="30">
         <f>6345</f>
         <v>6345</v>
       </c>
-      <c r="O74" s="31">
+      <c r="O74" s="30">
         <f>8040</f>
         <v>8040</v>
       </c>
-      <c r="P74" s="31">
+      <c r="P74" s="30">
         <f>-8933</f>
         <v>-8933</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="N75" s="31">
+      <c r="N75" s="30">
         <f>10276</f>
         <v>10276</v>
       </c>
-      <c r="O75" s="31">
+      <c r="O75" s="30">
         <v>9760</v>
       </c>
-      <c r="P75" s="31">
+      <c r="P75" s="30">
         <v>9600</v>
       </c>
-      <c r="Q75" s="31">
+      <c r="Q75" s="30">
         <f>P75*1.01</f>
         <v>9696</v>
       </c>
-      <c r="R75" s="31">
+      <c r="R75" s="30">
         <f t="shared" ref="R75:V75" si="116">Q75*1.01</f>
         <v>9792.9600000000009</v>
       </c>
-      <c r="S75" s="31">
+      <c r="S75" s="30">
         <f t="shared" si="116"/>
         <v>9890.8896000000004</v>
       </c>
-      <c r="T75" s="31">
+      <c r="T75" s="30">
         <f t="shared" si="116"/>
         <v>9989.7984960000013</v>
       </c>
-      <c r="U75" s="31">
+      <c r="U75" s="30">
         <f t="shared" si="116"/>
         <v>10089.696480960001</v>
       </c>
-      <c r="V75" s="31">
+      <c r="V75" s="30">
         <f t="shared" si="116"/>
         <v>10190.593445769602</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="31">
+      <c r="N76" s="30">
         <v>-2738</v>
       </c>
-      <c r="O76" s="31">
+      <c r="O76" s="30">
         <v>-3288</v>
       </c>
-      <c r="P76" s="31">
+      <c r="P76" s="30">
         <v>-2089</v>
       </c>
-      <c r="Q76" s="31">
+      <c r="Q76" s="30">
         <f>P76*1.04</f>
         <v>-2172.56</v>
       </c>
-      <c r="R76" s="31">
+      <c r="R76" s="30">
         <f t="shared" ref="R76:V76" si="117">Q76*1.04</f>
         <v>-2259.4623999999999</v>
       </c>
-      <c r="S76" s="31">
+      <c r="S76" s="30">
         <f t="shared" si="117"/>
         <v>-2349.8408960000002</v>
       </c>
-      <c r="T76" s="31">
+      <c r="T76" s="30">
         <f t="shared" si="117"/>
         <v>-2443.8345318400002</v>
       </c>
-      <c r="U76" s="31">
+      <c r="U76" s="30">
         <f t="shared" si="117"/>
         <v>-2541.5879131136003</v>
       </c>
-      <c r="V76" s="31">
+      <c r="V76" s="30">
         <f t="shared" si="117"/>
         <v>-2643.2514296381446</v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="N77" s="31">
+      <c r="N77" s="30">
         <v>457</v>
       </c>
-      <c r="O77" s="31">
+      <c r="O77" s="30">
         <v>518</v>
       </c>
-      <c r="P77" s="31">
+      <c r="P77" s="30">
         <v>507</v>
       </c>
-      <c r="Q77" s="31">
+      <c r="Q77" s="30">
         <f>P77*1.02</f>
         <v>517.14</v>
       </c>
-      <c r="R77" s="31">
+      <c r="R77" s="30">
         <f t="shared" ref="R77:V77" si="118">Q77*1.02</f>
         <v>527.4828</v>
       </c>
-      <c r="S77" s="31">
+      <c r="S77" s="30">
         <f t="shared" si="118"/>
         <v>538.03245600000002</v>
       </c>
-      <c r="T77" s="31">
+      <c r="T77" s="30">
         <f t="shared" si="118"/>
         <v>548.79310512000006</v>
       </c>
-      <c r="U77" s="31">
+      <c r="U77" s="30">
         <f t="shared" si="118"/>
         <v>559.76896722240008</v>
       </c>
-      <c r="V77" s="31">
+      <c r="V77" s="30">
         <f t="shared" si="118"/>
         <v>570.96434656684812</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="N78" s="31">
+      <c r="N78" s="30">
         <v>179</v>
       </c>
-      <c r="O78" s="31">
+      <c r="O78" s="30">
         <v>255</v>
       </c>
-      <c r="P78" s="31">
+      <c r="P78" s="30">
         <v>2963</v>
       </c>
-      <c r="Q78" s="31">
-        <v>0</v>
-      </c>
-      <c r="R78" s="31">
+      <c r="Q78" s="30">
+        <v>0</v>
+      </c>
+      <c r="R78" s="30">
         <f t="shared" ref="R78:V84" si="119">Q78*1.01</f>
         <v>0</v>
       </c>
-      <c r="S78" s="31">
+      <c r="S78" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T78" s="31">
+      <c r="T78" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U78" s="31">
+      <c r="U78" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V78" s="31">
+      <c r="V78" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N79" s="31">
+      <c r="N79" s="30">
         <v>-1063</v>
       </c>
-      <c r="O79" s="31">
+      <c r="O79" s="30">
         <v>-884</v>
       </c>
-      <c r="P79" s="31">
+      <c r="P79" s="30">
         <v>-1119</v>
       </c>
-      <c r="Q79" s="31">
-        <v>0</v>
-      </c>
-      <c r="R79" s="31">
+      <c r="Q79" s="30">
+        <v>0</v>
+      </c>
+      <c r="R79" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S79" s="31">
+      <c r="S79" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T79" s="31">
+      <c r="T79" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U79" s="31">
+      <c r="U79" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V79" s="31">
+      <c r="V79" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="31">
+      <c r="N80" s="30">
         <v>815</v>
       </c>
-      <c r="O80" s="31">
+      <c r="O80" s="30">
         <v>913</v>
       </c>
-      <c r="P80" s="31">
+      <c r="P80" s="30">
         <v>13373</v>
       </c>
-      <c r="Q80" s="31">
-        <v>0</v>
-      </c>
-      <c r="R80" s="31">
+      <c r="Q80" s="30">
+        <v>0</v>
+      </c>
+      <c r="R80" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S80" s="31">
+      <c r="S80" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T80" s="31">
+      <c r="T80" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U80" s="31">
+      <c r="U80" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V80" s="31">
+      <c r="V80" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="N81" s="31">
+      <c r="N81" s="30">
         <v>801</v>
       </c>
-      <c r="O81" s="31">
+      <c r="O81" s="30">
         <v>160</v>
       </c>
-      <c r="P81" s="31">
+      <c r="P81" s="30">
         <v>-16</v>
       </c>
-      <c r="Q81" s="31">
-        <v>0</v>
-      </c>
-      <c r="R81" s="31">
+      <c r="Q81" s="30">
+        <v>0</v>
+      </c>
+      <c r="R81" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S81" s="31">
+      <c r="S81" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T81" s="31">
+      <c r="T81" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U81" s="31">
+      <c r="U81" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V81" s="31">
+      <c r="V81" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="31">
+      <c r="N82" s="30">
         <v>-663</v>
       </c>
-      <c r="O82" s="31">
+      <c r="O82" s="30">
         <v>-995</v>
       </c>
-      <c r="P82" s="31">
+      <c r="P82" s="30">
         <v>264</v>
       </c>
-      <c r="Q82" s="31">
-        <v>0</v>
-      </c>
-      <c r="R82" s="31">
+      <c r="Q82" s="30">
+        <v>0</v>
+      </c>
+      <c r="R82" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S82" s="31">
+      <c r="S82" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T82" s="31">
+      <c r="T82" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U82" s="31">
+      <c r="U82" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V82" s="31">
+      <c r="V82" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="31">
+      <c r="N83" s="30">
         <v>-69</v>
       </c>
-      <c r="O83" s="31">
+      <c r="O83" s="30">
         <v>-751</v>
       </c>
-      <c r="P83" s="31">
+      <c r="P83" s="30">
         <v>-486</v>
       </c>
-      <c r="Q83" s="31">
-        <v>0</v>
-      </c>
-      <c r="R83" s="31">
+      <c r="Q83" s="30">
+        <v>0</v>
+      </c>
+      <c r="R83" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S83" s="31">
+      <c r="S83" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T83" s="31">
+      <c r="T83" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U83" s="31">
+      <c r="U83" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V83" s="31">
+      <c r="V83" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N84" s="31">
+      <c r="N84" s="30">
         <v>109</v>
       </c>
-      <c r="O84" s="31">
+      <c r="O84" s="30">
         <v>198</v>
       </c>
-      <c r="P84" s="31">
+      <c r="P84" s="30">
         <v>184</v>
       </c>
-      <c r="Q84" s="31">
-        <v>0</v>
-      </c>
-      <c r="R84" s="31">
+      <c r="Q84" s="30">
+        <v>0</v>
+      </c>
+      <c r="R84" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S84" s="31">
+      <c r="S84" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T84" s="31">
+      <c r="T84" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U84" s="31">
+      <c r="U84" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V84" s="31">
+      <c r="V84" s="30">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="N85" s="31">
+      <c r="N85" s="30">
         <v>427</v>
       </c>
-      <c r="O85" s="31">
+      <c r="O85" s="30">
         <v>904</v>
       </c>
-      <c r="P85" s="31">
+      <c r="P85" s="30">
         <v>1484</v>
       </c>
-      <c r="Q85" s="31">
-        <v>0</v>
-      </c>
-      <c r="R85" s="31">
+      <c r="Q85" s="30">
+        <v>0</v>
+      </c>
+      <c r="R85" s="30">
         <f t="shared" ref="R85:V85" si="120">Q85*1.04</f>
         <v>0</v>
       </c>
-      <c r="S85" s="31">
+      <c r="S85" s="30">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="T85" s="31">
+      <c r="T85" s="30">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="U85" s="31">
+      <c r="U85" s="30">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="V85" s="31">
+      <c r="V85" s="30">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="N86" s="31">
+      <c r="N86" s="30">
         <v>-1423</v>
       </c>
-      <c r="O86" s="31">
+      <c r="O86" s="30">
         <v>-603</v>
       </c>
-      <c r="P86" s="31">
+      <c r="P86" s="30">
         <v>-1260</v>
       </c>
-      <c r="Q86" s="31">
+      <c r="Q86" s="30">
         <f>P86*1.01</f>
         <v>-1272.5999999999999</v>
       </c>
-      <c r="R86" s="31">
+      <c r="R86" s="30">
         <f t="shared" ref="R86:V86" si="121">Q86*1.01</f>
         <v>-1285.326</v>
       </c>
-      <c r="S86" s="31">
+      <c r="S86" s="30">
         <f t="shared" si="121"/>
         <v>-1298.1792600000001</v>
       </c>
-      <c r="T86" s="31">
+      <c r="T86" s="30">
         <f t="shared" si="121"/>
         <v>-1311.1610526000002</v>
       </c>
-      <c r="U86" s="31">
+      <c r="U86" s="30">
         <f t="shared" si="121"/>
         <v>-1324.2726631260002</v>
       </c>
-      <c r="V86" s="31">
+      <c r="V86" s="30">
         <f t="shared" si="121"/>
         <v>-1337.5153897572602</v>
       </c>
     </row>
     <row r="87" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="N87" s="31">
+      <c r="N87" s="30">
         <f>233-610</f>
         <v>-377</v>
       </c>
-      <c r="O87" s="31">
+      <c r="O87" s="30">
         <f>300-667</f>
         <v>-367</v>
       </c>
-      <c r="P87" s="31">
+      <c r="P87" s="30">
         <f>94+624</f>
         <v>718</v>
       </c>
-      <c r="Q87" s="31">
-        <v>0</v>
-      </c>
-      <c r="R87" s="31">
+      <c r="Q87" s="30">
+        <v>0</v>
+      </c>
+      <c r="R87" s="30">
         <f t="shared" ref="R87:V87" si="122">Q87*1.01</f>
         <v>0</v>
       </c>
-      <c r="S87" s="31">
+      <c r="S87" s="30">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="T87" s="31">
+      <c r="T87" s="30">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="U87" s="31">
+      <c r="U87" s="30">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="V87" s="31">
+      <c r="V87" s="30">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="N88" s="31">
+      <c r="N88" s="30">
         <f>SUM(N74:N87)</f>
         <v>13076</v>
       </c>
-      <c r="O88" s="31">
+      <c r="O88" s="30">
         <f t="shared" ref="O88:P88" si="123">SUM(O74:O87)</f>
         <v>13860</v>
       </c>
-      <c r="P88" s="31">
+      <c r="P88" s="30">
         <f t="shared" si="123"/>
         <v>15190</v>
       </c>
-      <c r="Q88" s="31">
+      <c r="Q88" s="30">
         <f>SUM(Q73:Q87)</f>
         <v>27567.560965540815</v>
       </c>
-      <c r="R88" s="31">
+      <c r="R88" s="30">
         <f t="shared" ref="R88:V88" si="124">SUM(R73:R87)</f>
-        <v>29267.791002884645</v>
-      </c>
-      <c r="S88" s="31">
+        <v>28739.610854234656</v>
+      </c>
+      <c r="S88" s="30">
         <f t="shared" si="124"/>
-        <v>30405.487093241285</v>
-      </c>
-      <c r="T88" s="31">
+        <v>29387.454392383395</v>
+      </c>
+      <c r="T88" s="30">
         <f t="shared" si="124"/>
-        <v>16158.99672665702</v>
-      </c>
-      <c r="U88" s="31">
+        <v>14683.232103930002</v>
+      </c>
+      <c r="U88" s="30">
         <f t="shared" si="124"/>
-        <v>16895.457443477251</v>
-      </c>
-      <c r="V88" s="31">
+        <v>14988.785236367261</v>
+      </c>
+      <c r="V88" s="30">
         <f t="shared" si="124"/>
-        <v>17840.862392616218</v>
+        <v>15525.566283279553</v>
       </c>
     </row>
     <row r="90" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="91" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="N91" s="31">
+      <c r="N91" s="30">
         <v>-1118</v>
       </c>
-      <c r="O91" s="31">
+      <c r="O91" s="30">
         <v>-1209</v>
       </c>
-      <c r="P91" s="31">
+      <c r="P91" s="30">
         <v>-1248</v>
       </c>
-      <c r="Q91" s="31">
+      <c r="Q91" s="30">
         <f>P91*1.05</f>
         <v>-1310.4000000000001</v>
       </c>
-      <c r="R91" s="31">
+      <c r="R91" s="30">
         <f t="shared" ref="R91:V91" si="125">Q91*1.05</f>
         <v>-1375.92</v>
       </c>
-      <c r="S91" s="31">
+      <c r="S91" s="30">
         <f t="shared" si="125"/>
         <v>-1444.7160000000001</v>
       </c>
-      <c r="T91" s="31">
+      <c r="T91" s="30">
         <f t="shared" si="125"/>
         <v>-1516.9518000000003</v>
       </c>
-      <c r="U91" s="31">
+      <c r="U91" s="30">
         <f t="shared" si="125"/>
         <v>-1592.7993900000004</v>
       </c>
-      <c r="V91" s="31">
+      <c r="V91" s="30">
         <f t="shared" si="125"/>
         <v>-1672.4393595000004</v>
       </c>
     </row>
     <row r="92" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
     </row>
     <row r="93" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="95" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="31">
+      <c r="N95" s="30">
         <f>N88+N91</f>
         <v>11958</v>
       </c>
-      <c r="O95" s="31">
+      <c r="O95" s="30">
         <f t="shared" ref="O95:V95" si="126">O88+O91</f>
         <v>12651</v>
       </c>
-      <c r="P95" s="31">
+      <c r="P95" s="30">
         <f t="shared" si="126"/>
         <v>13942</v>
       </c>
-      <c r="Q95" s="31">
+      <c r="Q95" s="30">
         <f t="shared" si="126"/>
         <v>26257.160965540814</v>
       </c>
-      <c r="R95" s="31">
+      <c r="R95" s="30">
         <f t="shared" si="126"/>
-        <v>27891.871002884647</v>
-      </c>
-      <c r="S95" s="31">
+        <v>27363.690854234657</v>
+      </c>
+      <c r="S95" s="30">
         <f t="shared" si="126"/>
-        <v>28960.771093241285</v>
-      </c>
-      <c r="T95" s="31">
+        <v>27942.738392383395</v>
+      </c>
+      <c r="T95" s="30">
         <f t="shared" si="126"/>
-        <v>14642.044926657019</v>
-      </c>
-      <c r="U95" s="31">
+        <v>13166.280303930002</v>
+      </c>
+      <c r="U95" s="30">
         <f t="shared" si="126"/>
-        <v>15302.658053477251</v>
-      </c>
-      <c r="V95" s="31">
+        <v>13395.985846367261</v>
+      </c>
+      <c r="V95" s="30">
         <f t="shared" si="126"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="W95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="W95" s="30">
         <f t="shared" ref="W95:BB95" si="127">V95*(1+$X$97)</f>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="X95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="X95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="Y95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="Y95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="Z95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="Z95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AA95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AA95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AB95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AB95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AC95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AC95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AD95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AD95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AE95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AE95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AF95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AF95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AG95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AG95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AH95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AH95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AI95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AI95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AJ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AJ95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AK95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AK95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AL95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AL95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AM95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AM95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AN95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AN95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AO95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AO95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AP95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AP95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AQ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AQ95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AR95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AR95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AS95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AS95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AT95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AT95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AU95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AU95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AV95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AV95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AW95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AW95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AX95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AX95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AY95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AY95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="AZ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="AZ95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BA95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BA95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BB95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BB95" s="30">
         <f t="shared" si="127"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BC95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BC95" s="30">
         <f t="shared" ref="BC95:CH95" si="128">BB95*(1+$X$97)</f>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BD95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BD95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BE95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BE95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BF95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BF95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BG95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BG95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BH95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BH95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BI95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BI95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BJ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BJ95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BK95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BK95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BL95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BL95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BM95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BM95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BN95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BN95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BO95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BO95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BP95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BP95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BQ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BQ95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BR95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BR95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BS95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BS95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BT95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BT95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BU95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BU95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BV95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BV95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BW95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BW95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BX95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BX95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BY95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BY95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="BZ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="BZ95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CA95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CA95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CB95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CB95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CC95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CC95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CD95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CD95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CE95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CE95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CF95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CF95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CG95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CG95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CH95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CH95" s="30">
         <f t="shared" si="128"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CI95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CI95" s="30">
         <f t="shared" ref="CI95:DQ95" si="129">CH95*(1+$X$97)</f>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CJ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CJ95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CK95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CK95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CL95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CL95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CM95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CM95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CN95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CN95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CO95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CO95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CP95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CP95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CQ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CQ95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CR95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CR95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CS95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CS95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CT95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CT95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CU95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CU95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CV95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CV95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CW95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CW95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CX95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CX95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CY95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CY95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="CZ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="CZ95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DA95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DA95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DB95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DB95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DC95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DC95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DD95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DD95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DE95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DE95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DF95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DF95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DG95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DG95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DH95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DH95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DI95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DI95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DJ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DJ95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DK95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DK95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DL95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DL95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DM95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DM95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DN95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DN95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DO95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DO95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DP95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DP95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
-      </c>
-      <c r="DQ95" s="31">
+        <v>13853.126923779553</v>
+      </c>
+      <c r="DQ95" s="30">
         <f t="shared" si="129"/>
-        <v>16168.423033116218</v>
+        <v>13853.126923779553</v>
       </c>
     </row>
     <row r="97" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="O97" s="35"/>
-      <c r="X97" s="35"/>
+      <c r="O97" s="34"/>
+      <c r="X97" s="34"/>
     </row>
     <row r="98" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X98" s="35"/>
+      <c r="X98" s="34"/>
     </row>
     <row r="100" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X100" s="34"/>
+      <c r="X100" s="33"/>
     </row>
     <row r="101" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X101" s="35"/>
+      <c r="X101" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6297,7 +6298,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6334,7 +6335,7 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6357,16 +6358,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -6660,9 +6661,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="4">

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B26EA4-D64E-44F8-9866-F71AE2365E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433D08C-8714-4121-BE60-E3197E4C11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -810,7 +810,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -826,6 +825,8 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1331,7 +1332,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>177</v>
       </c>
       <c r="C3" s="19"/>
@@ -1355,7 +1356,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="19"/>
@@ -1377,7 +1378,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="19"/>
@@ -1402,7 +1403,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>174</v>
       </c>
       <c r="C6" s="19"/>
@@ -1427,7 +1428,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="19"/>
@@ -1449,7 +1450,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>172</v>
       </c>
       <c r="C8" s="19"/>
@@ -1466,7 +1467,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="19"/>
@@ -1484,7 +1485,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="19"/>
@@ -1502,7 +1503,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>169</v>
       </c>
       <c r="C11" s="19"/>
@@ -1517,7 +1518,7 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>136</v>
       </c>
       <c r="C12" s="19"/>
@@ -1547,7 +1548,7 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="2">
@@ -1564,7 +1565,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>118</v>
       </c>
       <c r="D15" s="2">
@@ -1576,7 +1577,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="2">
@@ -1591,7 +1592,7 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="2">
@@ -1621,7 +1622,7 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="2">
@@ -1636,7 +1637,7 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="9"/>
@@ -1650,7 +1651,7 @@
       <c r="G20" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -1812,7 +1813,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1877,1341 +1878,1398 @@
   <dimension ref="A1:DZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z48" sqref="Z48"/>
+      <selection pane="bottomRight" activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="30" customWidth="1"/>
-    <col min="3" max="6" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="30"/>
-    <col min="12" max="13" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="130" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="131" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="29" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="29"/>
+    <col min="12" max="13" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="130" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="131" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="G1" s="31">
+      <c r="C1" s="30"/>
+      <c r="G1" s="30">
         <v>45747</v>
       </c>
-      <c r="H1" s="31">
+      <c r="H1" s="30">
         <v>45863</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30">
         <v>45291</v>
       </c>
-      <c r="P1" s="31">
+      <c r="P1" s="30">
         <v>45657</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="31">
         <v>2020</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="31">
         <f>L2+1</f>
         <v>2021</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="31">
         <f>M2+1</f>
         <v>2022</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="31">
         <f>N2+1</f>
         <v>2023</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="31">
         <f t="shared" ref="P2:V2" si="0">O2+1</f>
         <v>2024</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="31">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="31">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="31">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="31">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="31">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="31">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="30">
+      <c r="N3" s="31"/>
+      <c r="O3" s="29">
         <v>31210</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="29">
         <v>34105</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="30">
+      <c r="N4" s="31"/>
+      <c r="O4" s="29">
         <v>13097</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="29">
         <v>13199</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30">
+      <c r="N5" s="31"/>
+      <c r="O5" s="29">
         <v>699</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="29">
         <v>996</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
+      <c r="N6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>2265</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <f t="shared" ref="H7:J7" si="1">G7*1.01</f>
         <v>2287.65</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <f t="shared" si="1"/>
         <v>2310.5264999999999</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <f t="shared" si="1"/>
         <v>2333.6317650000001</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="29">
         <v>6992</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="29">
         <v>7523</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="29">
         <v>8249</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="29">
         <v>9009</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="29">
         <v>9304</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q19" si="2">SUM(G7:J7)</f>
         <v>9196.8082649999997</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="29">
         <f>Q7*1.03</f>
         <v>9472.71251295</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="29">
         <f>R7*1.03</f>
         <v>9756.8938883384999</v>
       </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
+      <c r="T7" s="29">
+        <v>0</v>
+      </c>
+      <c r="U7" s="29">
+        <v>0</v>
+      </c>
+      <c r="V7" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>770</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <f>G8*1.15</f>
         <v>885.49999999999989</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <f t="shared" ref="I8:J8" si="3">H8*1.15</f>
         <v>1018.3249999999998</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <f t="shared" si="3"/>
         <v>1171.0737499999998</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <v>3157</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <v>3306</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="29">
         <v>3464</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="29">
         <v>3601</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="29">
         <v>3682</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <f t="shared" si="2"/>
         <v>3844.8987499999994</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="29">
         <f>Q8*0.9</f>
         <v>3460.4088749999996</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="29">
         <f t="shared" ref="S8:V8" si="4">R8*0.9</f>
         <v>3114.3679874999998</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="29">
         <f t="shared" si="4"/>
         <v>2802.9311887499998</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="29">
         <f t="shared" si="4"/>
         <v>2522.6380698749999</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="29">
         <f t="shared" si="4"/>
         <v>2270.3742628875002</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="4">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36">
         <v>624</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="36">
         <f t="shared" ref="H9:J12" si="5">G9*1.03</f>
         <v>642.72</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="36">
         <f t="shared" si="5"/>
         <v>662.00160000000005</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="36">
         <f t="shared" si="5"/>
         <v>681.86164800000006</v>
       </c>
-      <c r="L9" s="4">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36">
         <v>1682</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="36">
         <v>2026</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="36">
         <v>2131</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="36">
         <v>2238</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="36">
         <v>2530</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="36">
         <f t="shared" si="2"/>
         <v>2610.5832479999999</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="36">
         <f>Q9*1.05</f>
         <v>2741.1124104</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="36">
         <f t="shared" ref="S9:V10" si="6">R9*1.05</f>
         <v>2878.1680309200001</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="36">
         <f t="shared" si="6"/>
         <v>3022.0764324660004</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="36">
         <f t="shared" si="6"/>
         <v>3173.1802540893004</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="36">
         <f t="shared" si="6"/>
         <v>3331.8392667937655</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="4">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36">
         <v>478</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="36">
         <f t="shared" si="5"/>
         <v>492.34000000000003</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="36">
         <f t="shared" si="5"/>
         <v>507.11020000000002</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="36">
         <f t="shared" si="5"/>
         <v>522.32350600000007</v>
       </c>
-      <c r="L10" s="4">
+      <c r="K10" s="36"/>
+      <c r="L10" s="36">
         <v>274</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="36">
         <v>551</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="37">
         <v>717</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="36">
         <v>1008</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="36">
         <v>1773</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="36">
         <f t="shared" si="2"/>
         <v>1999.7737059999999</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="36">
         <f>Q10*1.05</f>
         <v>2099.7623913000002</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="36">
         <f t="shared" si="6"/>
         <v>2204.7505108650003</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="36">
         <f t="shared" si="6"/>
         <v>2314.9880364082505</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="36">
         <f t="shared" si="6"/>
         <v>2430.737438228663</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="36">
         <f t="shared" si="6"/>
         <v>2552.2743101400961</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="4">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36">
         <v>252</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="36">
         <f>G11*1.05</f>
         <v>264.60000000000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="36">
         <f t="shared" ref="I11:J11" si="7">H11*1.05</f>
         <v>277.83000000000004</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="36">
         <f t="shared" si="7"/>
         <v>291.72150000000005</v>
       </c>
-      <c r="N11" s="25">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37">
         <v>252</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="36">
         <v>627</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="36">
         <v>928</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="36">
         <f t="shared" si="2"/>
         <v>1086.1515000000002</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="36">
         <f>Q11*1.05</f>
         <v>1140.4590750000002</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="36">
         <f t="shared" ref="S11:V11" si="8">R11*1.05</f>
         <v>1197.4820287500004</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="36">
         <f t="shared" si="8"/>
         <v>1257.3561301875004</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="36">
         <f t="shared" si="8"/>
         <v>1320.2239366968754</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="36">
         <f t="shared" si="8"/>
         <v>1386.2351335317192</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="4">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36">
         <v>263</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="36">
         <f t="shared" si="5"/>
         <v>270.89</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="36">
         <f t="shared" si="5"/>
         <v>279.01670000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="36">
         <f t="shared" si="5"/>
         <v>287.387201</v>
       </c>
-      <c r="M12" s="4">
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36">
         <v>87</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="37">
         <v>182</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="36">
         <v>364</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="36">
         <v>747</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="36">
         <f t="shared" si="2"/>
         <v>1100.293901</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="36">
         <f t="shared" ref="R12" si="9">Q12*1.03</f>
         <v>1133.3027180300001</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="36">
         <f t="shared" ref="S12:V12" si="10">R12*1.03</f>
         <v>1167.3017995709001</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="36">
         <f t="shared" si="10"/>
         <v>1202.3208535580272</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="36">
         <f t="shared" si="10"/>
         <v>1238.3904791647681</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="36">
         <f t="shared" si="10"/>
         <v>1275.5421935397112</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="4">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36">
         <v>159</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="36">
         <f>G13*1.2</f>
         <v>190.79999999999998</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="36">
         <f t="shared" ref="I13:J13" si="11">H13*1.2</f>
         <v>228.95999999999998</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="36">
         <f t="shared" si="11"/>
         <v>274.75199999999995</v>
       </c>
-      <c r="N13" s="25">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37">
         <v>24</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="36">
         <v>231</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="36">
         <v>602</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="36">
         <f t="shared" si="2"/>
         <v>853.51199999999994</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="36">
         <f>Q13*1.1</f>
         <v>938.86320000000001</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="36">
         <f t="shared" ref="S13:V13" si="12">R13*1.1</f>
         <v>1032.7495200000001</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="36">
         <f t="shared" si="12"/>
         <v>1136.0244720000003</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="36">
         <f t="shared" si="12"/>
         <v>1249.6269192000004</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="36">
         <f t="shared" si="12"/>
         <v>1374.5896111200007</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="4">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36">
         <v>107</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="36">
         <f>G14*1.3</f>
         <v>139.1</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="36">
         <f t="shared" ref="I14:J14" si="13">H14*1.3</f>
         <v>180.83</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="36">
         <f t="shared" si="13"/>
         <v>235.07900000000004</v>
       </c>
-      <c r="L14" s="4">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
         <v>12</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="36">
         <v>134</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="36">
         <v>252</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="36">
         <v>434</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="36">
         <v>566</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="36">
         <f t="shared" si="2"/>
         <v>662.00900000000001</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="36">
         <f>Q14*1.1</f>
         <v>728.20990000000006</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="36">
         <f t="shared" ref="S14:V14" si="14">R14*1.1</f>
         <v>801.03089000000011</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="36">
         <f t="shared" si="14"/>
         <v>881.13397900000018</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="36">
         <f t="shared" si="14"/>
         <v>969.24737690000029</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="36">
         <f t="shared" si="14"/>
         <v>1066.1721145900003</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>103</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <f>G15*1.01</f>
         <v>104.03</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <f>H15*1.01</f>
         <v>105.0703</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <f>I15*1.01</f>
         <v>106.121003</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="29">
         <v>164</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="31">
         <v>388</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="29">
         <v>472</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <v>406</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="29">
         <f t="shared" si="2"/>
         <v>418.22130300000003</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="29">
         <f>Q15*1.03</f>
         <v>430.76794209000002</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="29">
         <f t="shared" ref="S15:V15" si="15">R15*1.03</f>
         <v>443.69098035270002</v>
       </c>
-      <c r="T15" s="30">
+      <c r="T15" s="29">
         <f t="shared" si="15"/>
         <v>457.00170976328104</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="29">
         <f t="shared" si="15"/>
         <v>470.71176105617951</v>
       </c>
-      <c r="V15" s="30">
+      <c r="V15" s="29">
         <f t="shared" si="15"/>
         <v>484.8331138878649</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="4">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36">
         <v>55</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="36">
         <v>100</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="36">
         <v>100</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="36">
         <v>100</v>
       </c>
-      <c r="N16" s="25">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37">
         <v>8</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="36">
         <v>170</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="36">
         <v>246</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="36">
         <f t="shared" si="2"/>
         <v>355</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="36">
         <f>Q16*1.2</f>
         <v>426</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="36">
         <f t="shared" ref="S16:V16" si="16">R16*1.2</f>
         <v>511.2</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="36">
         <f t="shared" si="16"/>
         <v>613.43999999999994</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="36">
         <f t="shared" si="16"/>
         <v>736.12799999999993</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="36">
         <f t="shared" si="16"/>
         <v>883.35359999999991</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>48</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>70</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>70</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>70</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
+      <c r="N17" s="31"/>
+      <c r="O17" s="31">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
         <v>126</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="29">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="29">
         <f>Q17*1.4</f>
         <v>361.2</v>
       </c>
-      <c r="S17" s="30">
+      <c r="S17" s="29">
         <f t="shared" ref="S17:V17" si="17">R17*1.4</f>
         <v>505.67999999999995</v>
       </c>
-      <c r="T17" s="30">
+      <c r="T17" s="29">
         <f t="shared" si="17"/>
         <v>707.95199999999988</v>
       </c>
-      <c r="U17" s="30">
+      <c r="U17" s="29">
         <f t="shared" si="17"/>
         <v>991.13279999999975</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V17" s="29">
         <f t="shared" si="17"/>
         <v>1387.5859199999995</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="4">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36">
         <v>25</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="36">
         <v>25</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="36">
         <v>25</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37">
         <v>1</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="37">
         <v>38</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="36">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="36">
         <f>Q18*1.5</f>
         <v>112.5</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="36">
         <f t="shared" ref="S18:V18" si="18">R18*1.5</f>
         <v>168.75</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="36">
         <f t="shared" si="18"/>
         <v>253.125</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="36">
         <f t="shared" si="18"/>
         <v>379.6875</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="36">
         <f t="shared" si="18"/>
         <v>569.53125</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="4">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36">
         <v>27</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="36">
         <f>G19*1.03</f>
         <v>27.810000000000002</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="36">
         <f>H19*1.03</f>
         <v>28.644300000000005</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="36">
         <f>I19*1.03</f>
         <v>29.503629000000007</v>
       </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25">
-        <v>0</v>
-      </c>
-      <c r="P19" s="25">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
         <v>10</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="36">
         <f t="shared" si="2"/>
         <v>112.95792900000001</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="36">
         <f>Q19*1.5</f>
         <v>169.4368935</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="36">
         <f t="shared" ref="S19:V19" si="19">R19*1.5</f>
         <v>254.15534024999999</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="36">
         <f t="shared" si="19"/>
         <v>381.23301037499999</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="36">
         <f t="shared" si="19"/>
         <v>571.84951556249996</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="36">
         <f t="shared" si="19"/>
         <v>857.77427334374988</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <v>403</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <f t="shared" ref="H20:H24" si="20">G20*1.01</f>
         <v>407.03000000000003</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <f t="shared" ref="I20:J20" si="21">H20*1.01</f>
         <v>411.10030000000006</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <f t="shared" si="21"/>
         <v>415.21130300000004</v>
       </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="30">
+      <c r="N20" s="31"/>
+      <c r="O20" s="29">
         <v>1211</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="29">
         <v>1605</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="29">
         <f t="shared" ref="Q20:Q26" si="22">SUM(G20:J20)</f>
         <v>1636.3416030000001</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="29">
         <f>Q20*1.03</f>
         <v>1685.4318510900002</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="29">
         <f t="shared" ref="S20:V20" si="23">R20*1.03</f>
         <v>1735.9948066227003</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="29">
         <f t="shared" si="23"/>
         <v>1788.0746508213813</v>
       </c>
-      <c r="U20" s="30">
+      <c r="U20" s="29">
         <f t="shared" si="23"/>
         <v>1841.7168903460229</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="29">
         <f t="shared" si="23"/>
         <v>1896.9683970564035</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>3565</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <f t="shared" si="20"/>
         <v>3600.65</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <f t="shared" ref="I21:J21" si="24">H21*1.01</f>
         <v>3636.6565000000001</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <f t="shared" si="24"/>
         <v>3673.0230649999999</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="29">
         <v>9168</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="29">
         <v>10762</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="29">
         <v>11789</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="29">
         <v>12206</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="29">
         <v>13333</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="29">
         <f t="shared" si="22"/>
         <v>14475.329564999998</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="29">
         <f>Q21*1.03</f>
         <v>14909.589451949998</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21" s="29">
         <f>R21*1.03</f>
         <v>15356.877135508499</v>
       </c>
-      <c r="T21" s="30">
-        <v>0</v>
-      </c>
-      <c r="U21" s="30">
-        <v>0</v>
-      </c>
-      <c r="V21" s="30">
+      <c r="T21" s="29">
+        <v>0</v>
+      </c>
+      <c r="U21" s="29">
+        <v>0</v>
+      </c>
+      <c r="V21" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>936</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <f>G22*1.05</f>
         <v>982.80000000000007</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <f t="shared" ref="I22:J22" si="25">H22*1.05</f>
         <v>1031.94</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <f t="shared" si="25"/>
         <v>1083.537</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="29">
         <v>12106</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="29">
         <v>12821</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="29">
         <v>9978</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="29">
         <v>6097</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="29">
         <v>5773</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="29">
         <f t="shared" si="22"/>
         <v>4034.277</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="29">
         <f>Q22*0.95</f>
         <v>3832.56315</v>
       </c>
-      <c r="S22" s="30">
+      <c r="S22" s="29">
         <f t="shared" ref="S22:V22" si="26">R22*0.95</f>
         <v>3640.9349924999997</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T22" s="29">
         <f t="shared" si="26"/>
         <v>3458.8882428749994</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="29">
         <f t="shared" si="26"/>
         <v>3285.9438307312494</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="29">
         <f t="shared" si="26"/>
         <v>3121.6466391946869</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>658</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <f>G23*1.2</f>
         <v>789.6</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <f t="shared" ref="I23:J23" si="27">H23*1.2</f>
         <v>947.52</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <f t="shared" si="27"/>
         <v>1137.0239999999999</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <v>3070</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="29">
         <v>3332</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="29">
         <v>3497</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="29">
         <v>3441</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="29">
         <v>3545</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="29">
         <f t="shared" si="22"/>
         <v>3532.1439999999998</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="29">
         <f>Q23*1.03</f>
         <v>3638.1083199999998</v>
       </c>
-      <c r="S23" s="30">
+      <c r="S23" s="29">
         <f t="shared" ref="S23:V23" si="28">R23*1.03</f>
         <v>3747.2515696</v>
       </c>
-      <c r="T23" s="30">
+      <c r="T23" s="29">
         <f t="shared" si="28"/>
         <v>3859.669116688</v>
       </c>
-      <c r="U23" s="30">
+      <c r="U23" s="29">
         <f t="shared" si="28"/>
         <v>3975.4591901886402</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="29">
         <f t="shared" si="28"/>
         <v>4094.7229658942993</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>175</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="29">
         <f t="shared" si="20"/>
         <v>176.75</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <f t="shared" ref="I24:J24" si="29">H24*1.01</f>
         <v>178.51750000000001</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <f t="shared" si="29"/>
         <v>180.30267500000002</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="29">
         <v>2140</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="29">
         <v>2117</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="29">
         <v>2165</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="29">
         <v>1930</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="29">
         <v>1286</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="29">
         <f t="shared" si="22"/>
         <v>710.57017500000006</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="29">
         <f>Q24*0.8</f>
         <v>568.45614000000012</v>
       </c>
-      <c r="S24" s="30">
+      <c r="S24" s="29">
         <f t="shared" ref="S24:V24" si="30">R24*0.8</f>
         <v>454.76491200000009</v>
       </c>
-      <c r="T24" s="30">
+      <c r="T24" s="29">
         <f t="shared" si="30"/>
         <v>363.8119296000001</v>
       </c>
-      <c r="U24" s="30">
+      <c r="U24" s="29">
         <f t="shared" si="30"/>
         <v>291.04954368000011</v>
       </c>
-      <c r="V24" s="30">
+      <c r="V24" s="29">
         <f t="shared" si="30"/>
         <v>232.8396349440001</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>105</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="29">
         <f>G25*1.4</f>
         <v>147</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <f t="shared" ref="I25:J25" si="31">H25*1.4</f>
         <v>205.79999999999998</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <f t="shared" si="31"/>
         <v>288.11999999999995</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="29">
         <v>1247</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="29">
         <v>1181</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="31">
         <v>811</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="29">
         <v>1004</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="29">
         <v>875</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="29">
         <f t="shared" si="22"/>
         <v>745.91999999999985</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="29">
         <f>Q25*0.9</f>
         <v>671.32799999999986</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25" s="29">
         <f t="shared" ref="S25:V25" si="32">R25*0.9</f>
         <v>604.19519999999989</v>
       </c>
-      <c r="T25" s="30">
+      <c r="T25" s="29">
         <f t="shared" si="32"/>
         <v>543.77567999999997</v>
       </c>
-      <c r="U25" s="30">
+      <c r="U25" s="29">
         <f t="shared" si="32"/>
         <v>489.39811199999997</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="29">
         <f t="shared" si="32"/>
         <v>440.45830079999996</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>199</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <f>G26*1.1</f>
         <v>218.9</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <f t="shared" ref="I26:J26" si="33">H26*1.1</f>
         <v>240.79000000000002</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <f t="shared" si="33"/>
         <v>264.86900000000003</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="30">
+      <c r="N26" s="31"/>
+      <c r="O26" s="29">
         <v>962</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="29">
         <v>925</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="29">
         <f t="shared" si="22"/>
         <v>923.55900000000008</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="29">
         <f>Q26*0.9</f>
         <v>831.20310000000006</v>
       </c>
-      <c r="S26" s="30">
+      <c r="S26" s="29">
         <f t="shared" ref="S26:V26" si="34">R26*0.9</f>
         <v>748.08279000000005</v>
       </c>
-      <c r="T26" s="30">
+      <c r="T26" s="29">
         <f t="shared" si="34"/>
         <v>673.27451100000008</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="29">
         <f t="shared" si="34"/>
         <v>605.94705990000011</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="29">
         <f t="shared" si="34"/>
         <v>545.35235391000015</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="29">
         <f>11559</f>
         <v>11559</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>10886</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="29">
         <f>44671</f>
         <v>44671</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="29">
         <f>43778</f>
         <v>43778</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="29">
         <v>46778</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="29">
         <f t="shared" ref="Q27:Q42" si="35">SUM(G27:J27)</f>
         <v>10886</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <f>306</f>
         <v>306</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>315</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="29">
         <f>1488</f>
         <v>1488</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="29">
         <f>1228</f>
         <v>1228</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="29">
         <v>1522</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="29">
         <f t="shared" si="35"/>
         <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
@@ -3288,1276 +3346,1276 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <f>2932</f>
         <v>2932</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="29">
         <v>3033</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="29">
         <f>H29*0.25</f>
         <v>2955.7925</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="29">
         <f t="shared" ref="I30:J30" si="41">I29*0.25</f>
         <v>3111.4097250000004</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <f t="shared" si="41"/>
         <v>3292.6355112500005</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="29">
         <f>10137</f>
         <v>10137</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="29">
         <f>10693</f>
         <v>10693</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="29">
         <f>13968</f>
         <v>13968</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="29">
         <f t="shared" si="35"/>
         <v>12392.837736250001</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="29">
         <f>R29*0.25</f>
         <v>12337.853982827501</v>
       </c>
-      <c r="S30" s="30">
+      <c r="S30" s="29">
         <f t="shared" ref="S30:V30" si="42">S29*0.25</f>
         <v>12581.080595694577</v>
       </c>
-      <c r="T30" s="30">
+      <c r="T30" s="29">
         <f t="shared" si="42"/>
         <v>6429.2692358731101</v>
       </c>
-      <c r="U30" s="30">
+      <c r="U30" s="29">
         <f t="shared" si="42"/>
         <v>6635.7671694048004</v>
       </c>
-      <c r="V30" s="30">
+      <c r="V30" s="29">
         <f t="shared" si="42"/>
         <v>6943.0233354084503</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="29">
         <f>C29-C30</f>
         <v>8933</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <f t="shared" ref="D31:N31" si="43">D29-D30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <f t="shared" si="43"/>
         <v>8168</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <f t="shared" si="43"/>
         <v>8867.3775000000005</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <f t="shared" ref="I31" si="44">I29-I30</f>
         <v>9334.2291750000004</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <f t="shared" ref="J31" si="45">J29-J30</f>
         <v>9877.9065337500015</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="29">
         <f t="shared" si="43"/>
         <v>36022</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="29">
         <f t="shared" ref="O31" si="46">O29-O30</f>
         <v>34313</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="29">
         <f t="shared" ref="P31" si="47">P29-P30</f>
         <v>34332</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="29">
         <f t="shared" si="35"/>
         <v>36247.513208750002</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="29">
         <f t="shared" ref="R31" si="48">R29-R30</f>
         <v>37013.5619484825</v>
       </c>
-      <c r="S31" s="30">
+      <c r="S31" s="29">
         <f t="shared" ref="S31" si="49">S29-S30</f>
         <v>37743.241787083731</v>
       </c>
-      <c r="T31" s="30">
+      <c r="T31" s="29">
         <f t="shared" ref="T31" si="50">T29-T30</f>
         <v>19287.807707619329</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="29">
         <f t="shared" ref="U31:V31" si="51">U29-U30</f>
         <v>19907.301508214401</v>
       </c>
-      <c r="V31" s="30">
+      <c r="V31" s="29">
         <f t="shared" si="51"/>
         <v>20829.070006225353</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="29">
         <f>2367</f>
         <v>2367</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <v>1584</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <f>G32*1.25</f>
         <v>1980</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <f t="shared" ref="I32:J32" si="52">H32*1.2</f>
         <v>2376</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <f t="shared" si="52"/>
         <v>2851.2</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="29">
         <f>7814</f>
         <v>7814</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="29">
         <f>7772</f>
         <v>7772</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="29">
         <f>8414</f>
         <v>8414</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="29">
         <f t="shared" si="35"/>
         <v>8791.2000000000007</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="29">
         <f>Q32*1.04</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="29">
         <f t="shared" ref="S32:V32" si="53">R32*1.04</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T32" s="30">
+      <c r="T32" s="29">
         <f t="shared" si="53"/>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U32" s="30">
+      <c r="U32" s="29">
         <f t="shared" si="53"/>
         <v>10284.460572672002</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="29">
         <f t="shared" si="53"/>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="33" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="29">
         <f>2695</f>
         <v>2695</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="29">
         <v>2257</v>
       </c>
-      <c r="N33" s="30">
+      <c r="N33" s="29">
         <f>9509</f>
         <v>9509</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="29">
         <f>9299</f>
         <v>9299</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="29">
         <f>11159</f>
         <v>11159</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="Q33" s="29">
         <f t="shared" si="35"/>
         <v>2257</v>
       </c>
     </row>
     <row r="34" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="29">
         <f>12949</f>
         <v>12949</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="29">
         <v>188</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="29">
         <f>815</f>
         <v>815</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="29">
         <f>913</f>
         <v>913</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="29">
         <f>13363</f>
         <v>13363</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="29">
         <f t="shared" si="35"/>
         <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <f>2357</f>
         <v>2357</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <v>830</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="29">
         <f>9595</f>
         <v>9595</v>
       </c>
-      <c r="O35" s="30">
+      <c r="O35" s="29">
         <f>9047</f>
         <v>9047</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="29">
         <f>8872</f>
         <v>8872</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="29">
         <f t="shared" si="35"/>
         <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="29">
         <f>81</f>
         <v>81</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="29">
         <v>339</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="29">
         <f>576</f>
         <v>576</v>
       </c>
-      <c r="O36" s="30">
+      <c r="O36" s="29">
         <f>-1158</f>
         <v>-1158</v>
       </c>
-      <c r="P36" s="30">
+      <c r="P36" s="29">
         <f>893</f>
         <v>893</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="29">
         <f t="shared" si="35"/>
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <f>SUM(C32:C36)</f>
         <v>20449</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="29">
         <f t="shared" ref="D37:N37" si="54">SUM(D32:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="29">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="29">
         <f t="shared" si="54"/>
         <v>5198</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="29">
         <f t="shared" si="54"/>
         <v>1980</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="29">
         <f t="shared" ref="I37" si="55">SUM(I32:I36)</f>
         <v>2376</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <f t="shared" ref="J37" si="56">SUM(J32:J36)</f>
         <v>2851.2</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="29">
         <f t="shared" si="54"/>
         <v>28309</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37" s="29">
         <f t="shared" ref="O37" si="57">SUM(O32:O36)</f>
         <v>25873</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="29">
         <f t="shared" ref="P37" si="58">SUM(P32:P36)</f>
         <v>42701</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="29">
         <f t="shared" si="35"/>
         <v>12405.2</v>
       </c>
-      <c r="R37" s="30">
+      <c r="R37" s="29">
         <f t="shared" ref="R37" si="59">SUM(R32:R36)</f>
         <v>9142.8480000000018</v>
       </c>
-      <c r="S37" s="30">
+      <c r="S37" s="29">
         <f t="shared" ref="S37" si="60">SUM(S32:S36)</f>
         <v>9508.5619200000019</v>
       </c>
-      <c r="T37" s="30">
+      <c r="T37" s="29">
         <f t="shared" ref="T37" si="61">SUM(T32:T36)</f>
         <v>9888.9043968000024</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37" s="29">
         <f t="shared" ref="U37" si="62">SUM(U32:U36)</f>
         <v>10284.460572672002</v>
       </c>
-      <c r="V37" s="30">
+      <c r="V37" s="29">
         <f t="shared" ref="V37" si="63">SUM(V32:V36)</f>
         <v>10695.838995578883</v>
       </c>
     </row>
     <row r="38" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="29">
         <f>C31-C37</f>
         <v>-11516</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="29">
         <f t="shared" ref="D38:N38" si="64">D31-D37</f>
         <v>0</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="29">
         <f t="shared" si="64"/>
         <v>2970</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="29">
         <f t="shared" si="64"/>
         <v>6887.3775000000005</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="29">
         <f t="shared" ref="I38" si="65">I31-I37</f>
         <v>6958.2291750000004</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <f t="shared" ref="J38" si="66">J31-J37</f>
         <v>7026.7065337500017</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="29">
         <f t="shared" si="64"/>
         <v>7713</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="29">
         <f t="shared" ref="O38" si="67">O31-O37</f>
         <v>8440</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="29">
         <f t="shared" ref="P38" si="68">P31-P37</f>
         <v>-8369</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="29">
         <f t="shared" si="35"/>
         <v>23842.313208750005</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="29">
         <f t="shared" ref="R38" si="69">R31-R37</f>
         <v>27870.713948482498</v>
       </c>
-      <c r="S38" s="30">
+      <c r="S38" s="29">
         <f t="shared" ref="S38" si="70">S31-S37</f>
         <v>28234.679867083731</v>
       </c>
-      <c r="T38" s="30">
+      <c r="T38" s="29">
         <f t="shared" ref="T38" si="71">T31-T37</f>
         <v>9398.9033108193271</v>
       </c>
-      <c r="U38" s="30">
+      <c r="U38" s="29">
         <f t="shared" ref="U38" si="72">U31-U37</f>
         <v>9622.8409355423992</v>
       </c>
-      <c r="V38" s="30">
+      <c r="V38" s="29">
         <f t="shared" ref="V38" si="73">V31-V37</f>
         <v>10133.23101064647</v>
       </c>
     </row>
     <row r="39" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="30">
-        <v>0</v>
-      </c>
-      <c r="G39" s="30">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30">
+      <c r="C39" s="29">
+        <v>0</v>
+      </c>
+      <c r="G39" s="29">
+        <v>0</v>
+      </c>
+      <c r="H39" s="29">
         <f>G50*$Y$45/4</f>
         <v>-195.63499999999999</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="29">
         <f>H50*$Y$45/4</f>
         <v>-165.52215875000002</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <f>I50*$Y$45/4</f>
         <v>-134.95497717687502</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="29">
         <f t="shared" si="35"/>
         <v>-496.112135926875</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="29">
         <f>Q50*$Y$45</f>
         <v>-415.76838068918386</v>
       </c>
-      <c r="S39" s="30">
+      <c r="S39" s="29">
         <f>R50*$Y$45</f>
         <v>23.510748395509218</v>
       </c>
-      <c r="T39" s="30">
+      <c r="T39" s="29">
         <f>S50*$Y$45</f>
         <v>475.64179824317711</v>
       </c>
-      <c r="U39" s="30">
+      <c r="U39" s="29">
         <f>T50*$Y$45</f>
         <v>633.6345199881772</v>
       </c>
-      <c r="V39" s="30">
+      <c r="V39" s="29">
         <f>U50*$Y$45</f>
         <v>797.73812727666632</v>
       </c>
     </row>
     <row r="40" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <f>C38+C39</f>
         <v>-11516</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="29">
         <f t="shared" ref="D40:N40" si="74">D38+D39</f>
         <v>0</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="29">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="29">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="29">
         <f t="shared" si="74"/>
         <v>2970</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="29">
         <f t="shared" si="74"/>
         <v>6691.7425000000003</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="29">
         <f t="shared" ref="I40" si="75">I38+I39</f>
         <v>6792.7070162500004</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <f t="shared" ref="J40" si="76">J38+J39</f>
         <v>6891.7515565731264</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="29">
         <f t="shared" si="74"/>
         <v>7713</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="29">
         <f t="shared" ref="O40" si="77">O38+O39</f>
         <v>8440</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="29">
         <f t="shared" ref="P40" si="78">P38+P39</f>
         <v>-8369</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="29">
         <f t="shared" si="35"/>
         <v>23346.201072823129</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="29">
         <f t="shared" ref="R40" si="79">R38+R39</f>
         <v>27454.945567793315</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="29">
         <f t="shared" ref="S40" si="80">S38+S39</f>
         <v>28258.190615479241</v>
       </c>
-      <c r="T40" s="30">
+      <c r="T40" s="29">
         <f t="shared" ref="T40" si="81">T38+T39</f>
         <v>9874.5451090625047</v>
       </c>
-      <c r="U40" s="30">
+      <c r="U40" s="29">
         <f t="shared" ref="U40" si="82">U38+U39</f>
         <v>10256.475455530577</v>
       </c>
-      <c r="V40" s="30">
+      <c r="V40" s="29">
         <f t="shared" ref="V40" si="83">V38+V39</f>
         <v>10930.969137923137</v>
       </c>
     </row>
     <row r="41" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <v>509</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="29">
         <f>H40*0.1</f>
         <v>669.17425000000003</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="29">
         <f t="shared" ref="I41:J41" si="84">I40*0.1</f>
         <v>679.27070162500013</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <f t="shared" si="84"/>
         <v>689.17515565731264</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="29">
         <f>1368</f>
         <v>1368</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="29">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P41" s="29">
         <v>554</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="29">
         <f t="shared" si="35"/>
         <v>2546.6201072823128</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="29">
         <f>R40*0.2</f>
         <v>5490.9891135586631</v>
       </c>
-      <c r="S41" s="30">
+      <c r="S41" s="29">
         <f t="shared" ref="S41:V41" si="85">S40*0.2</f>
         <v>5651.6381230958486</v>
       </c>
-      <c r="T41" s="30">
+      <c r="T41" s="29">
         <f t="shared" si="85"/>
         <v>1974.9090218125011</v>
       </c>
-      <c r="U41" s="30">
+      <c r="U41" s="29">
         <f t="shared" si="85"/>
         <v>2051.2950911061157</v>
       </c>
-      <c r="V41" s="30">
+      <c r="V41" s="29">
         <f t="shared" si="85"/>
         <v>2186.1938275846273</v>
       </c>
     </row>
     <row r="42" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="29">
         <f>C40-C41</f>
         <v>-11516</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="29">
         <f t="shared" ref="D42:N42" si="86">D40-D41</f>
         <v>0</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="29">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="29">
         <f t="shared" si="86"/>
         <v>2461</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="29">
         <f t="shared" si="86"/>
         <v>6022.5682500000003</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="29">
         <f t="shared" ref="I42" si="87">I40-I41</f>
         <v>6113.4363146249998</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <f t="shared" ref="J42" si="88">J40-J41</f>
         <v>6202.5764009158138</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="29">
         <f t="shared" si="86"/>
         <v>6345</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="29">
         <f t="shared" ref="O42" si="89">O40-O41</f>
         <v>8040</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="29">
         <f t="shared" ref="P42" si="90">P40-P41</f>
         <v>-8923</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="29">
         <f t="shared" si="35"/>
         <v>20799.580965540816</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="29">
         <f t="shared" ref="R42" si="91">R40-R41</f>
         <v>21963.956454234652</v>
       </c>
-      <c r="S42" s="30">
+      <c r="S42" s="29">
         <f t="shared" ref="S42" si="92">S40-S41</f>
         <v>22606.552492383395</v>
       </c>
-      <c r="T42" s="30">
+      <c r="T42" s="29">
         <f t="shared" ref="T42" si="93">T40-T41</f>
         <v>7899.6360872500036</v>
       </c>
-      <c r="U42" s="30">
+      <c r="U42" s="29">
         <f t="shared" ref="U42" si="94">U40-U41</f>
         <v>8205.180364424461</v>
       </c>
-      <c r="V42" s="30">
+      <c r="V42" s="29">
         <f t="shared" ref="V42" si="95">V40-V41</f>
         <v>8744.7753103385094</v>
       </c>
-      <c r="W42" s="30">
+      <c r="W42" s="29">
         <f t="shared" ref="W42:BB42" si="96">V42*(1+$Y$46)</f>
         <v>8657.3275572351249</v>
       </c>
-      <c r="X42" s="30">
+      <c r="X42" s="29">
         <f t="shared" si="96"/>
         <v>8570.7542816627738</v>
       </c>
-      <c r="Y42" s="30">
+      <c r="Y42" s="29">
         <f t="shared" si="96"/>
         <v>8485.0467388461457</v>
       </c>
-      <c r="Z42" s="30">
+      <c r="Z42" s="29">
         <f t="shared" si="96"/>
         <v>8400.1962714576839</v>
       </c>
-      <c r="AA42" s="30">
+      <c r="AA42" s="29">
         <f t="shared" si="96"/>
         <v>8316.1943087431064</v>
       </c>
-      <c r="AB42" s="30">
+      <c r="AB42" s="29">
         <f t="shared" si="96"/>
         <v>8233.0323656556757</v>
       </c>
-      <c r="AC42" s="30">
+      <c r="AC42" s="29">
         <f t="shared" si="96"/>
         <v>8150.7020419991186</v>
       </c>
-      <c r="AD42" s="30">
+      <c r="AD42" s="29">
         <f t="shared" si="96"/>
         <v>8069.1950215791276</v>
       </c>
-      <c r="AE42" s="30">
+      <c r="AE42" s="29">
         <f t="shared" si="96"/>
         <v>7988.5030713633359</v>
       </c>
-      <c r="AF42" s="30">
+      <c r="AF42" s="29">
         <f t="shared" si="96"/>
         <v>7908.6180406497024</v>
       </c>
-      <c r="AG42" s="30">
+      <c r="AG42" s="29">
         <f t="shared" si="96"/>
         <v>7829.5318602432053</v>
       </c>
-      <c r="AH42" s="30">
+      <c r="AH42" s="29">
         <f t="shared" si="96"/>
         <v>7751.2365416407729</v>
       </c>
-      <c r="AI42" s="30">
+      <c r="AI42" s="29">
         <f t="shared" si="96"/>
         <v>7673.7241762243648</v>
       </c>
-      <c r="AJ42" s="30">
+      <c r="AJ42" s="29">
         <f t="shared" si="96"/>
         <v>7596.9869344621211</v>
       </c>
-      <c r="AK42" s="30">
+      <c r="AK42" s="29">
         <f t="shared" si="96"/>
         <v>7521.0170651174994</v>
       </c>
-      <c r="AL42" s="30">
+      <c r="AL42" s="29">
         <f t="shared" si="96"/>
         <v>7445.8068944663246</v>
       </c>
-      <c r="AM42" s="30">
+      <c r="AM42" s="29">
         <f t="shared" si="96"/>
         <v>7371.3488255216616</v>
       </c>
-      <c r="AN42" s="30">
+      <c r="AN42" s="29">
         <f t="shared" si="96"/>
         <v>7297.6353372664453</v>
       </c>
-      <c r="AO42" s="30">
+      <c r="AO42" s="29">
         <f t="shared" si="96"/>
         <v>7224.6589838937807</v>
       </c>
-      <c r="AP42" s="30">
+      <c r="AP42" s="29">
         <f t="shared" si="96"/>
         <v>7152.4123940548425</v>
       </c>
-      <c r="AQ42" s="30">
+      <c r="AQ42" s="29">
         <f t="shared" si="96"/>
         <v>7080.8882701142938</v>
       </c>
-      <c r="AR42" s="30">
+      <c r="AR42" s="29">
         <f t="shared" si="96"/>
         <v>7010.0793874131505</v>
       </c>
-      <c r="AS42" s="30">
+      <c r="AS42" s="29">
         <f t="shared" si="96"/>
         <v>6939.9785935390191</v>
       </c>
-      <c r="AT42" s="30">
+      <c r="AT42" s="29">
         <f t="shared" si="96"/>
         <v>6870.5788076036288</v>
       </c>
-      <c r="AU42" s="30">
+      <c r="AU42" s="29">
         <f t="shared" si="96"/>
         <v>6801.8730195275921</v>
       </c>
-      <c r="AV42" s="30">
+      <c r="AV42" s="29">
         <f t="shared" si="96"/>
         <v>6733.8542893323165</v>
       </c>
-      <c r="AW42" s="30">
+      <c r="AW42" s="29">
         <f t="shared" si="96"/>
         <v>6666.5157464389931</v>
       </c>
-      <c r="AX42" s="30">
+      <c r="AX42" s="29">
         <f t="shared" si="96"/>
         <v>6599.8505889746029</v>
       </c>
-      <c r="AY42" s="30">
+      <c r="AY42" s="29">
         <f t="shared" si="96"/>
         <v>6533.8520830848565</v>
       </c>
-      <c r="AZ42" s="30">
+      <c r="AZ42" s="29">
         <f t="shared" si="96"/>
         <v>6468.5135622540083</v>
       </c>
-      <c r="BA42" s="30">
+      <c r="BA42" s="29">
         <f t="shared" si="96"/>
         <v>6403.8284266314686</v>
       </c>
-      <c r="BB42" s="30">
+      <c r="BB42" s="29">
         <f t="shared" si="96"/>
         <v>6339.7901423651538</v>
       </c>
-      <c r="BC42" s="30">
+      <c r="BC42" s="29">
         <f t="shared" ref="BC42:CH42" si="97">BB42*(1+$Y$46)</f>
         <v>6276.3922409415018</v>
       </c>
-      <c r="BD42" s="30">
+      <c r="BD42" s="29">
         <f t="shared" si="97"/>
         <v>6213.6283185320863</v>
       </c>
-      <c r="BE42" s="30">
+      <c r="BE42" s="29">
         <f t="shared" si="97"/>
         <v>6151.4920353467651</v>
       </c>
-      <c r="BF42" s="30">
+      <c r="BF42" s="29">
         <f t="shared" si="97"/>
         <v>6089.9771149932976</v>
       </c>
-      <c r="BG42" s="30">
+      <c r="BG42" s="29">
         <f t="shared" si="97"/>
         <v>6029.0773438433644</v>
       </c>
-      <c r="BH42" s="30">
+      <c r="BH42" s="29">
         <f t="shared" si="97"/>
         <v>5968.7865704049309</v>
       </c>
-      <c r="BI42" s="30">
+      <c r="BI42" s="29">
         <f t="shared" si="97"/>
         <v>5909.0987047008812</v>
       </c>
-      <c r="BJ42" s="30">
+      <c r="BJ42" s="29">
         <f t="shared" si="97"/>
         <v>5850.0077176538725</v>
       </c>
-      <c r="BK42" s="30">
+      <c r="BK42" s="29">
         <f t="shared" si="97"/>
         <v>5791.5076404773336</v>
       </c>
-      <c r="BL42" s="30">
+      <c r="BL42" s="29">
         <f t="shared" si="97"/>
         <v>5733.59256407256</v>
       </c>
-      <c r="BM42" s="30">
+      <c r="BM42" s="29">
         <f t="shared" si="97"/>
         <v>5676.2566384318343</v>
       </c>
-      <c r="BN42" s="30">
+      <c r="BN42" s="29">
         <f t="shared" si="97"/>
         <v>5619.4940720475161</v>
       </c>
-      <c r="BO42" s="30">
+      <c r="BO42" s="29">
         <f t="shared" si="97"/>
         <v>5563.2991313270404</v>
       </c>
-      <c r="BP42" s="30">
+      <c r="BP42" s="29">
         <f t="shared" si="97"/>
         <v>5507.66614001377</v>
       </c>
-      <c r="BQ42" s="30">
+      <c r="BQ42" s="29">
         <f t="shared" si="97"/>
         <v>5452.5894786136323</v>
       </c>
-      <c r="BR42" s="30">
+      <c r="BR42" s="29">
         <f t="shared" si="97"/>
         <v>5398.0635838274957</v>
       </c>
-      <c r="BS42" s="30">
+      <c r="BS42" s="29">
         <f t="shared" si="97"/>
         <v>5344.0829479892209</v>
       </c>
-      <c r="BT42" s="30">
+      <c r="BT42" s="29">
         <f t="shared" si="97"/>
         <v>5290.6421185093286</v>
       </c>
-      <c r="BU42" s="30">
+      <c r="BU42" s="29">
         <f t="shared" si="97"/>
         <v>5237.7356973242349</v>
       </c>
-      <c r="BV42" s="30">
+      <c r="BV42" s="29">
         <f t="shared" si="97"/>
         <v>5185.3583403509929</v>
       </c>
-      <c r="BW42" s="30">
+      <c r="BW42" s="29">
         <f t="shared" si="97"/>
         <v>5133.5047569474827</v>
       </c>
-      <c r="BX42" s="30">
+      <c r="BX42" s="29">
         <f t="shared" si="97"/>
         <v>5082.1697093780076</v>
       </c>
-      <c r="BY42" s="30">
+      <c r="BY42" s="29">
         <f t="shared" si="97"/>
         <v>5031.3480122842275</v>
       </c>
-      <c r="BZ42" s="30">
+      <c r="BZ42" s="29">
         <f t="shared" si="97"/>
         <v>4981.034532161385</v>
       </c>
-      <c r="CA42" s="30">
+      <c r="CA42" s="29">
         <f t="shared" si="97"/>
         <v>4931.2241868397714</v>
       </c>
-      <c r="CB42" s="30">
+      <c r="CB42" s="29">
         <f t="shared" si="97"/>
         <v>4881.9119449713735</v>
       </c>
-      <c r="CC42" s="30">
+      <c r="CC42" s="29">
         <f t="shared" si="97"/>
         <v>4833.0928255216595</v>
       </c>
-      <c r="CD42" s="30">
+      <c r="CD42" s="29">
         <f t="shared" si="97"/>
         <v>4784.7618972664432</v>
       </c>
-      <c r="CE42" s="30">
+      <c r="CE42" s="29">
         <f t="shared" si="97"/>
         <v>4736.9142782937788</v>
       </c>
-      <c r="CF42" s="30">
+      <c r="CF42" s="29">
         <f t="shared" si="97"/>
         <v>4689.5451355108407</v>
       </c>
-      <c r="CG42" s="30">
+      <c r="CG42" s="29">
         <f t="shared" si="97"/>
         <v>4642.6496841557318</v>
       </c>
-      <c r="CH42" s="30">
+      <c r="CH42" s="29">
         <f t="shared" si="97"/>
         <v>4596.2231873141745</v>
       </c>
-      <c r="CI42" s="30">
+      <c r="CI42" s="29">
         <f t="shared" ref="CI42:DN42" si="98">CH42*(1+$Y$46)</f>
         <v>4550.2609554410328</v>
       </c>
-      <c r="CJ42" s="30">
+      <c r="CJ42" s="29">
         <f t="shared" si="98"/>
         <v>4504.758345886622</v>
       </c>
-      <c r="CK42" s="30">
+      <c r="CK42" s="29">
         <f t="shared" si="98"/>
         <v>4459.710762427756</v>
       </c>
-      <c r="CL42" s="30">
+      <c r="CL42" s="29">
         <f t="shared" si="98"/>
         <v>4415.1136548034783</v>
       </c>
-      <c r="CM42" s="30">
+      <c r="CM42" s="29">
         <f t="shared" si="98"/>
         <v>4370.9625182554437</v>
       </c>
-      <c r="CN42" s="30">
+      <c r="CN42" s="29">
         <f t="shared" si="98"/>
         <v>4327.2528930728895</v>
       </c>
-      <c r="CO42" s="30">
+      <c r="CO42" s="29">
         <f t="shared" si="98"/>
         <v>4283.9803641421604</v>
       </c>
-      <c r="CP42" s="30">
+      <c r="CP42" s="29">
         <f t="shared" si="98"/>
         <v>4241.1405605007385</v>
       </c>
-      <c r="CQ42" s="30">
+      <c r="CQ42" s="29">
         <f t="shared" si="98"/>
         <v>4198.729154895731</v>
       </c>
-      <c r="CR42" s="30">
+      <c r="CR42" s="29">
         <f t="shared" si="98"/>
         <v>4156.7418633467732</v>
       </c>
-      <c r="CS42" s="30">
+      <c r="CS42" s="29">
         <f t="shared" si="98"/>
         <v>4115.1744447133051</v>
       </c>
-      <c r="CT42" s="30">
+      <c r="CT42" s="29">
         <f t="shared" si="98"/>
         <v>4074.0227002661718</v>
       </c>
-      <c r="CU42" s="30">
+      <c r="CU42" s="29">
         <f t="shared" si="98"/>
         <v>4033.2824732635099</v>
       </c>
-      <c r="CV42" s="30">
+      <c r="CV42" s="29">
         <f t="shared" si="98"/>
         <v>3992.9496485308746</v>
       </c>
-      <c r="CW42" s="30">
+      <c r="CW42" s="29">
         <f t="shared" si="98"/>
         <v>3953.0201520455657</v>
       </c>
-      <c r="CX42" s="30">
+      <c r="CX42" s="29">
         <f t="shared" si="98"/>
         <v>3913.4899505251101</v>
       </c>
-      <c r="CY42" s="30">
+      <c r="CY42" s="29">
         <f t="shared" si="98"/>
         <v>3874.3550510198588</v>
       </c>
-      <c r="CZ42" s="30">
+      <c r="CZ42" s="29">
         <f t="shared" si="98"/>
         <v>3835.6115005096603</v>
       </c>
-      <c r="DA42" s="30">
+      <c r="DA42" s="29">
         <f t="shared" si="98"/>
         <v>3797.2553855045635</v>
       </c>
-      <c r="DB42" s="30">
+      <c r="DB42" s="29">
         <f t="shared" si="98"/>
         <v>3759.2828316495179</v>
       </c>
-      <c r="DC42" s="30">
+      <c r="DC42" s="29">
         <f t="shared" si="98"/>
         <v>3721.6900033330226</v>
       </c>
-      <c r="DD42" s="30">
+      <c r="DD42" s="29">
         <f t="shared" si="98"/>
         <v>3684.4731032996924</v>
       </c>
-      <c r="DE42" s="30">
+      <c r="DE42" s="29">
         <f t="shared" si="98"/>
         <v>3647.6283722666954</v>
       </c>
-      <c r="DF42" s="30">
+      <c r="DF42" s="29">
         <f t="shared" si="98"/>
         <v>3611.1520885440282</v>
       </c>
-      <c r="DG42" s="30">
+      <c r="DG42" s="29">
         <f t="shared" si="98"/>
         <v>3575.0405676585879</v>
       </c>
-      <c r="DH42" s="30">
+      <c r="DH42" s="29">
         <f t="shared" si="98"/>
         <v>3539.2901619820018</v>
       </c>
-      <c r="DI42" s="30">
+      <c r="DI42" s="29">
         <f t="shared" si="98"/>
         <v>3503.8972603621819</v>
       </c>
-      <c r="DJ42" s="30">
+      <c r="DJ42" s="29">
         <f t="shared" si="98"/>
         <v>3468.85828775856</v>
       </c>
-      <c r="DK42" s="30">
+      <c r="DK42" s="29">
         <f t="shared" si="98"/>
         <v>3434.1697048809742</v>
       </c>
-      <c r="DL42" s="30">
+      <c r="DL42" s="29">
         <f t="shared" si="98"/>
         <v>3399.8280078321645</v>
       </c>
-      <c r="DM42" s="30">
+      <c r="DM42" s="29">
         <f t="shared" si="98"/>
         <v>3365.8297277538427</v>
       </c>
-      <c r="DN42" s="30">
+      <c r="DN42" s="29">
         <f t="shared" si="98"/>
         <v>3332.1714304763041</v>
       </c>
-      <c r="DO42" s="30">
+      <c r="DO42" s="29">
         <f t="shared" ref="DO42:DZ42" si="99">DN42*(1+$Y$46)</f>
         <v>3298.8497161715409</v>
       </c>
-      <c r="DP42" s="30">
+      <c r="DP42" s="29">
         <f t="shared" si="99"/>
         <v>3265.8612190098256</v>
       </c>
-      <c r="DQ42" s="30">
+      <c r="DQ42" s="29">
         <f t="shared" si="99"/>
         <v>3233.2026068197274</v>
       </c>
-      <c r="DR42" s="30">
+      <c r="DR42" s="29">
         <f t="shared" si="99"/>
         <v>3200.8705807515303</v>
       </c>
-      <c r="DS42" s="30">
+      <c r="DS42" s="29">
         <f t="shared" si="99"/>
         <v>3168.8618749440147</v>
       </c>
-      <c r="DT42" s="30">
+      <c r="DT42" s="29">
         <f t="shared" si="99"/>
         <v>3137.1732561945746</v>
       </c>
-      <c r="DU42" s="30">
+      <c r="DU42" s="29">
         <f t="shared" si="99"/>
         <v>3105.8015236326287</v>
       </c>
-      <c r="DV42" s="30">
+      <c r="DV42" s="29">
         <f t="shared" si="99"/>
         <v>3074.7435083963023</v>
       </c>
-      <c r="DW42" s="30">
+      <c r="DW42" s="29">
         <f t="shared" si="99"/>
         <v>3043.9960733123394</v>
       </c>
-      <c r="DX42" s="30">
+      <c r="DX42" s="29">
         <f t="shared" si="99"/>
         <v>3013.556112579216</v>
       </c>
-      <c r="DY42" s="30">
+      <c r="DY42" s="29">
         <f t="shared" si="99"/>
         <v>2983.4205514534237</v>
       </c>
-      <c r="DZ42" s="30">
+      <c r="DZ42" s="29">
         <f t="shared" si="99"/>
         <v>2953.5863459388893</v>
       </c>
     </row>
     <row r="43" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="29">
         <f>C42/C44</f>
         <v>1955.1782682512735</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="29">
         <v>2035.08</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="29">
         <v>2035.08</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="29">
         <v>2035.08</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <v>2035.08</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="29">
         <f>N42/N44</f>
         <v>2136.363636363636</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="29">
         <f>O42/O44</f>
         <v>2072.1649484536083</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="29">
         <f>2029.312</f>
         <v>2029.3119999999999</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="29">
         <f>J43</f>
         <v>2035.08</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="29">
         <f>Q43</f>
         <v>2035.08</v>
       </c>
-      <c r="S43" s="30">
+      <c r="S43" s="29">
         <f t="shared" ref="S43:V43" si="100">R43</f>
         <v>2035.08</v>
       </c>
-      <c r="T43" s="30">
+      <c r="T43" s="29">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="U43" s="30">
+      <c r="U43" s="29">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
-      <c r="V43" s="30">
+      <c r="V43" s="29">
         <f t="shared" si="100"/>
         <v>2035.08</v>
       </c>
     </row>
     <row r="44" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="32">
         <v>-5.89</v>
       </c>
-      <c r="D44" s="30" t="e">
+      <c r="D44" s="29" t="e">
         <f>D42/D43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="30" t="e">
+      <c r="E44" s="29" t="e">
         <f>E42/E43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="30" t="e">
+      <c r="F44" s="29" t="e">
         <f>F42/F43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="32">
         <f>G42/G43</f>
         <v>1.209289069717161</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="32">
         <f>H42/H43</f>
         <v>2.9593766584114634</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="32">
         <f t="shared" ref="I44:J44" si="101">I42/I43</f>
         <v>3.0040275147045818</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J44" s="32">
         <f t="shared" si="101"/>
         <v>3.0478292749748483</v>
       </c>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="N44" s="33">
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="N44" s="32">
         <v>2.97</v>
       </c>
-      <c r="O44" s="33">
+      <c r="O44" s="32">
         <v>3.88</v>
       </c>
-      <c r="P44" s="33">
+      <c r="P44" s="32">
         <f t="shared" ref="P44:Q44" si="102">P42/P43</f>
         <v>-4.3970567364702919</v>
       </c>
-      <c r="Q44" s="33">
+      <c r="Q44" s="32">
         <f t="shared" si="102"/>
         <v>10.220522517808055</v>
       </c>
-      <c r="R44" s="33">
+      <c r="R44" s="32">
         <f t="shared" ref="R44" si="103">R42/R43</f>
         <v>10.792674712657318</v>
       </c>
-      <c r="S44" s="33">
+      <c r="S44" s="32">
         <f t="shared" ref="S44" si="104">S42/S43</f>
         <v>11.108434308421977</v>
       </c>
-      <c r="T44" s="33">
+      <c r="T44" s="32">
         <f t="shared" ref="T44" si="105">T42/T43</f>
         <v>3.8817324563407847</v>
       </c>
-      <c r="U44" s="33">
+      <c r="U44" s="32">
         <f t="shared" ref="U44" si="106">U42/U43</f>
         <v>4.031871162030221</v>
       </c>
-      <c r="V44" s="33">
+      <c r="V44" s="32">
         <f t="shared" ref="V44" si="107">V42/V43</f>
         <v>4.2970179601482545</v>
       </c>
     </row>
     <row r="45" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="R45" s="34"/>
-      <c r="X45" s="30" t="s">
+      <c r="R45" s="33"/>
+      <c r="X45" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Y45" s="34">
+      <c r="Y45" s="33">
         <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
@@ -4611,1664 +4669,1664 @@
         <f t="shared" si="109"/>
         <v>4.630303598057206E-2</v>
       </c>
-      <c r="X46" s="30" t="s">
+      <c r="X46" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="34">
+      <c r="Y46" s="33">
         <v>-0.01</v>
       </c>
     </row>
     <row r="47" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <f>C31/C29-1</f>
         <v>-0.24711335861778339</v>
       </c>
-      <c r="D47" s="34" t="e">
+      <c r="D47" s="33" t="e">
         <f>D31/D29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="34" t="e">
+      <c r="E47" s="33" t="e">
         <f>E31/E29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="34" t="e">
+      <c r="F47" s="33" t="e">
         <f>F31/F29-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="33">
         <f>G31/G29-1</f>
         <v>-0.27077939469690204</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="33">
         <f t="shared" ref="H47:J47" si="110">H31/H29-1</f>
         <v>-0.25</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="33">
         <f t="shared" si="110"/>
         <v>-0.25000000000000011</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="33">
         <f t="shared" si="110"/>
         <v>-0.25</v>
       </c>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="N47" s="34">
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="N47" s="33">
         <f t="shared" ref="N47:V47" si="111">N31/N29</f>
         <v>0.78038952316991272</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="33">
         <f t="shared" si="111"/>
         <v>0.76240945651690883</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="33">
         <f t="shared" si="111"/>
         <v>0.71080745341614904</v>
       </c>
-      <c r="Q47" s="34">
+      <c r="Q47" s="33">
         <f t="shared" si="111"/>
         <v>0.74521487827538124</v>
       </c>
-      <c r="R47" s="34">
+      <c r="R47" s="33">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="S47" s="34">
+      <c r="S47" s="33">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="T47" s="34">
+      <c r="T47" s="33">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="33">
         <f t="shared" si="111"/>
         <v>0.75</v>
       </c>
-      <c r="V47" s="34">
+      <c r="V47" s="33">
         <f t="shared" si="111"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="X47" s="30" t="s">
+      <c r="X47" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="Y47" s="34">
+      <c r="Y47" s="33">
         <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:130" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="33">
         <f>G32/C32-1</f>
         <v>-0.33079847908745252</v>
       </c>
-      <c r="H48" s="34" t="e">
+      <c r="H48" s="33" t="e">
         <f t="shared" ref="H48:J48" si="112">H32/D32-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="34" t="e">
+      <c r="I48" s="33" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="34" t="e">
+      <c r="J48" s="33" t="e">
         <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="O48" s="34">
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="O48" s="33">
         <f t="shared" ref="O48:V48" si="113">O32/N32-1</f>
         <v>-5.3749680061427885E-3</v>
       </c>
-      <c r="P48" s="34">
+      <c r="P48" s="33">
         <f t="shared" si="113"/>
         <v>8.2604220277920692E-2</v>
       </c>
-      <c r="Q48" s="34">
+      <c r="Q48" s="33">
         <f t="shared" si="113"/>
         <v>4.4830045162823851E-2</v>
       </c>
-      <c r="R48" s="34">
+      <c r="R48" s="33">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S48" s="34">
+      <c r="S48" s="33">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T48" s="34">
+      <c r="T48" s="33">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="U48" s="34">
+      <c r="U48" s="33">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V48" s="34">
+      <c r="V48" s="33">
         <f t="shared" si="113"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="X48" s="30" t="s">
+      <c r="X48" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Y48" s="30">
+      <c r="Y48" s="29">
         <f>NPV(Y47,Q42:XFD42)+Main!L5-Main!L6+golcadomide!E42+'BMS-986365'!G21+admilparant!G18</f>
         <v>104952.78625217403</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="X49" s="30" t="s">
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="X49" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="33">
+      <c r="Y49" s="32">
         <f>Y48/Main!L3</f>
         <v>51.571823344622345</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="29">
         <f>SUM(G51:G52)-SUM(G66:G68)</f>
         <v>-39127</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="29">
         <f>G50+H42</f>
         <v>-33104.431750000003</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="29">
         <f t="shared" ref="I50:J50" si="114">H50+I42</f>
         <v>-26990.995435375004</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="29">
         <f t="shared" si="114"/>
         <v>-20788.419034459192</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="29">
         <f>SUM(N51:N52)-SUM(N66:N68)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="30">
+      <c r="O50" s="29">
         <f>SUM(O51:O52)-SUM(O67:O68)</f>
         <v>-30794</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="29">
         <f>SUM(P51:P52)-SUM(P67:P68)</f>
         <v>-41113</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="29">
         <f>J50</f>
         <v>-20788.419034459192</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="29">
         <f>Q50+R42</f>
         <v>1175.5374197754609</v>
       </c>
-      <c r="S50" s="30">
+      <c r="S50" s="29">
         <f>R50+S42</f>
         <v>23782.089912158855</v>
       </c>
-      <c r="T50" s="30">
+      <c r="T50" s="29">
         <f>S50+T42</f>
         <v>31681.72599940886</v>
       </c>
-      <c r="U50" s="30">
+      <c r="U50" s="29">
         <f>T50+U42</f>
         <v>39886.906363833317</v>
       </c>
-      <c r="V50" s="30">
+      <c r="V50" s="29">
         <f>U50+V42</f>
         <v>48631.681674171828</v>
       </c>
-      <c r="Y50" s="34">
+      <c r="Y50" s="33">
         <f>Y49/Main!L2-1</f>
         <v>0.17208689419596235</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="29">
         <f>10875</f>
         <v>10875</v>
       </c>
-      <c r="O51" s="30">
+      <c r="O51" s="29">
         <f>11464</f>
         <v>11464</v>
       </c>
-      <c r="P51" s="30">
+      <c r="P51" s="29">
         <f>10346</f>
         <v>10346</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="29">
         <f>907</f>
         <v>907</v>
       </c>
-      <c r="O52" s="30">
+      <c r="O52" s="29">
         <f>816</f>
         <v>816</v>
       </c>
-      <c r="P52" s="30">
+      <c r="P52" s="29">
         <f>513</f>
         <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <v>10801</v>
       </c>
-      <c r="O53" s="30">
+      <c r="O53" s="29">
         <f>10921</f>
         <v>10921</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="29">
         <f>10747</f>
         <v>10747</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="29">
         <v>2666</v>
       </c>
-      <c r="O54" s="30">
+      <c r="O54" s="29">
         <f>2662</f>
         <v>2662</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="29">
         <f>2557</f>
         <v>2557</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="29">
         <v>7213</v>
       </c>
-      <c r="O55" s="30">
+      <c r="O55" s="29">
         <f>6646</f>
         <v>6646</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P55" s="29">
         <f>7136</f>
         <v>7136</v>
       </c>
-      <c r="W55" s="34"/>
+      <c r="W55" s="33"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="29">
         <v>21737</v>
       </c>
-      <c r="O56" s="30">
+      <c r="O56" s="29">
         <f>21169</f>
         <v>21169</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="29">
         <f>21719</f>
         <v>21719</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="29">
         <v>22486</v>
       </c>
-      <c r="O57" s="30">
+      <c r="O57" s="29">
         <f>27072</f>
         <v>27072</v>
       </c>
-      <c r="P57" s="30">
+      <c r="P57" s="29">
         <f>23307</f>
         <v>23307</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="30">
+      <c r="O58" s="29">
         <f>2768</f>
         <v>2768</v>
       </c>
-      <c r="P58" s="30">
+      <c r="P58" s="29">
         <f>4236</f>
         <v>4236</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="29">
         <f>344</f>
         <v>344</v>
       </c>
-      <c r="O59" s="30">
+      <c r="O59" s="29">
         <f>364</f>
         <v>364</v>
       </c>
-      <c r="P59" s="30">
+      <c r="P59" s="29">
         <f>320</f>
         <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="29">
         <f>5534+5866</f>
         <v>11400</v>
       </c>
-      <c r="O60" s="30">
+      <c r="O60" s="29">
         <f>5370+5907</f>
         <v>11277</v>
       </c>
-      <c r="P60" s="30">
+      <c r="P60" s="29">
         <f>6105+5617</f>
         <v>11722</v>
       </c>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="29">
         <f>SUM(G51:G60)</f>
         <v>88429</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="29">
         <f>SUM(H51:H60)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="29">
         <f>SUM(I51:I60)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="29">
         <f>SUM(J51:J60)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="30">
+      <c r="N61" s="29">
         <f>SUM(N51:N60)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="30">
+      <c r="O61" s="29">
         <f>SUM(O51:O60)</f>
         <v>95159</v>
       </c>
-      <c r="P61" s="30">
+      <c r="P61" s="29">
         <f>SUM(P51:P60)</f>
         <v>92603</v>
       </c>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="29">
         <f>3554</f>
         <v>3554</v>
       </c>
-      <c r="O63" s="30">
+      <c r="O63" s="29">
         <f>3119</f>
         <v>3119</v>
       </c>
-      <c r="P63" s="30">
+      <c r="P63" s="29">
         <f>2046</f>
         <v>2046</v>
       </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="29">
         <f>4002</f>
         <v>4002</v>
       </c>
-      <c r="O64" s="30">
+      <c r="O64" s="29">
         <f>3259</f>
         <v>3259</v>
       </c>
-      <c r="P64" s="30">
+      <c r="P64" s="29">
         <f>3602</f>
         <v>3602</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="29">
         <f>16514</f>
         <v>16514</v>
       </c>
-      <c r="O65" s="30">
+      <c r="O65" s="29">
         <f>15884</f>
         <v>15884</v>
       </c>
-      <c r="P65" s="30">
+      <c r="P65" s="29">
         <f>18126</f>
         <v>18126</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="29">
         <f>276</f>
         <v>276</v>
       </c>
-      <c r="O66" s="30">
+      <c r="O66" s="29">
         <f>338</f>
         <v>338</v>
       </c>
-      <c r="P66" s="30">
+      <c r="P66" s="29">
         <f>369</f>
         <v>369</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="29">
         <f>46156</f>
         <v>46156</v>
       </c>
-      <c r="O67" s="30">
+      <c r="O67" s="29">
         <f>36653</f>
         <v>36653</v>
       </c>
-      <c r="P67" s="30">
+      <c r="P67" s="29">
         <f>47503</f>
         <v>47503</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="29">
         <f>4477</f>
         <v>4477</v>
       </c>
-      <c r="O68" s="30">
+      <c r="O68" s="29">
         <f>6421</f>
         <v>6421</v>
       </c>
-      <c r="P68" s="30">
+      <c r="P68" s="29">
         <f>4469</f>
         <v>4469</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="29">
         <f>SUM(G63:G68)</f>
         <v>74979</v>
       </c>
-      <c r="O69" s="30">
+      <c r="O69" s="29">
         <f>SUM(O63:O68)</f>
         <v>65674</v>
       </c>
-      <c r="P69" s="30">
+      <c r="P69" s="29">
         <f>SUM(P63:P68)</f>
         <v>76115</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G70" s="29">
         <f>G61-G69</f>
         <v>13450</v>
       </c>
-      <c r="O70" s="30">
+      <c r="O70" s="29">
         <f>O61-O69</f>
         <v>29485</v>
       </c>
-      <c r="P70" s="30">
+      <c r="P70" s="29">
         <f>P61-P69</f>
         <v>16488</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="29">
         <f>G69+G70</f>
         <v>88429</v>
       </c>
-      <c r="O71" s="30">
+      <c r="O71" s="29">
         <f>O69+O70</f>
         <v>95159</v>
       </c>
-      <c r="P71" s="30">
+      <c r="P71" s="29">
         <f>P69+P70</f>
         <v>92603</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="O73" s="30">
+      <c r="O73" s="29">
         <f>O42</f>
         <v>8040</v>
       </c>
-      <c r="P73" s="30">
+      <c r="P73" s="29">
         <f>P42</f>
         <v>-8923</v>
       </c>
-      <c r="Q73" s="30">
+      <c r="Q73" s="29">
         <f t="shared" ref="Q73:V73" si="115">Q42</f>
         <v>20799.580965540816</v>
       </c>
-      <c r="R73" s="30">
+      <c r="R73" s="29">
         <f t="shared" si="115"/>
         <v>21963.956454234652</v>
       </c>
-      <c r="S73" s="30">
+      <c r="S73" s="29">
         <f t="shared" si="115"/>
         <v>22606.552492383395</v>
       </c>
-      <c r="T73" s="30">
+      <c r="T73" s="29">
         <f t="shared" si="115"/>
         <v>7899.6360872500036</v>
       </c>
-      <c r="U73" s="30">
+      <c r="U73" s="29">
         <f t="shared" si="115"/>
         <v>8205.180364424461</v>
       </c>
-      <c r="V73" s="30">
+      <c r="V73" s="29">
         <f t="shared" si="115"/>
         <v>8744.7753103385094</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N74" s="30">
+      <c r="N74" s="29">
         <f>6345</f>
         <v>6345</v>
       </c>
-      <c r="O74" s="30">
+      <c r="O74" s="29">
         <f>8040</f>
         <v>8040</v>
       </c>
-      <c r="P74" s="30">
+      <c r="P74" s="29">
         <f>-8933</f>
         <v>-8933</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="N75" s="30">
+      <c r="N75" s="29">
         <f>10276</f>
         <v>10276</v>
       </c>
-      <c r="O75" s="30">
+      <c r="O75" s="29">
         <v>9760</v>
       </c>
-      <c r="P75" s="30">
+      <c r="P75" s="29">
         <v>9600</v>
       </c>
-      <c r="Q75" s="30">
+      <c r="Q75" s="29">
         <f>P75*1.01</f>
         <v>9696</v>
       </c>
-      <c r="R75" s="30">
+      <c r="R75" s="29">
         <f t="shared" ref="R75:V75" si="116">Q75*1.01</f>
         <v>9792.9600000000009</v>
       </c>
-      <c r="S75" s="30">
+      <c r="S75" s="29">
         <f t="shared" si="116"/>
         <v>9890.8896000000004</v>
       </c>
-      <c r="T75" s="30">
+      <c r="T75" s="29">
         <f t="shared" si="116"/>
         <v>9989.7984960000013</v>
       </c>
-      <c r="U75" s="30">
+      <c r="U75" s="29">
         <f t="shared" si="116"/>
         <v>10089.696480960001</v>
       </c>
-      <c r="V75" s="30">
+      <c r="V75" s="29">
         <f t="shared" si="116"/>
         <v>10190.593445769602</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="30">
+      <c r="N76" s="29">
         <v>-2738</v>
       </c>
-      <c r="O76" s="30">
+      <c r="O76" s="29">
         <v>-3288</v>
       </c>
-      <c r="P76" s="30">
+      <c r="P76" s="29">
         <v>-2089</v>
       </c>
-      <c r="Q76" s="30">
+      <c r="Q76" s="29">
         <f>P76*1.04</f>
         <v>-2172.56</v>
       </c>
-      <c r="R76" s="30">
+      <c r="R76" s="29">
         <f t="shared" ref="R76:V76" si="117">Q76*1.04</f>
         <v>-2259.4623999999999</v>
       </c>
-      <c r="S76" s="30">
+      <c r="S76" s="29">
         <f t="shared" si="117"/>
         <v>-2349.8408960000002</v>
       </c>
-      <c r="T76" s="30">
+      <c r="T76" s="29">
         <f t="shared" si="117"/>
         <v>-2443.8345318400002</v>
       </c>
-      <c r="U76" s="30">
+      <c r="U76" s="29">
         <f t="shared" si="117"/>
         <v>-2541.5879131136003</v>
       </c>
-      <c r="V76" s="30">
+      <c r="V76" s="29">
         <f t="shared" si="117"/>
         <v>-2643.2514296381446</v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="N77" s="30">
+      <c r="N77" s="29">
         <v>457</v>
       </c>
-      <c r="O77" s="30">
+      <c r="O77" s="29">
         <v>518</v>
       </c>
-      <c r="P77" s="30">
+      <c r="P77" s="29">
         <v>507</v>
       </c>
-      <c r="Q77" s="30">
+      <c r="Q77" s="29">
         <f>P77*1.02</f>
         <v>517.14</v>
       </c>
-      <c r="R77" s="30">
+      <c r="R77" s="29">
         <f t="shared" ref="R77:V77" si="118">Q77*1.02</f>
         <v>527.4828</v>
       </c>
-      <c r="S77" s="30">
+      <c r="S77" s="29">
         <f t="shared" si="118"/>
         <v>538.03245600000002</v>
       </c>
-      <c r="T77" s="30">
+      <c r="T77" s="29">
         <f t="shared" si="118"/>
         <v>548.79310512000006</v>
       </c>
-      <c r="U77" s="30">
+      <c r="U77" s="29">
         <f t="shared" si="118"/>
         <v>559.76896722240008</v>
       </c>
-      <c r="V77" s="30">
+      <c r="V77" s="29">
         <f t="shared" si="118"/>
         <v>570.96434656684812</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="N78" s="30">
+      <c r="N78" s="29">
         <v>179</v>
       </c>
-      <c r="O78" s="30">
+      <c r="O78" s="29">
         <v>255</v>
       </c>
-      <c r="P78" s="30">
+      <c r="P78" s="29">
         <v>2963</v>
       </c>
-      <c r="Q78" s="30">
-        <v>0</v>
-      </c>
-      <c r="R78" s="30">
+      <c r="Q78" s="29">
+        <v>0</v>
+      </c>
+      <c r="R78" s="29">
         <f t="shared" ref="R78:V84" si="119">Q78*1.01</f>
         <v>0</v>
       </c>
-      <c r="S78" s="30">
+      <c r="S78" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T78" s="30">
+      <c r="T78" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U78" s="30">
+      <c r="U78" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V78" s="30">
+      <c r="V78" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="N79" s="30">
+      <c r="N79" s="29">
         <v>-1063</v>
       </c>
-      <c r="O79" s="30">
+      <c r="O79" s="29">
         <v>-884</v>
       </c>
-      <c r="P79" s="30">
+      <c r="P79" s="29">
         <v>-1119</v>
       </c>
-      <c r="Q79" s="30">
-        <v>0</v>
-      </c>
-      <c r="R79" s="30">
+      <c r="Q79" s="29">
+        <v>0</v>
+      </c>
+      <c r="R79" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S79" s="30">
+      <c r="S79" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T79" s="30">
+      <c r="T79" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U79" s="30">
+      <c r="U79" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V79" s="30">
+      <c r="V79" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="30">
+      <c r="N80" s="29">
         <v>815</v>
       </c>
-      <c r="O80" s="30">
+      <c r="O80" s="29">
         <v>913</v>
       </c>
-      <c r="P80" s="30">
+      <c r="P80" s="29">
         <v>13373</v>
       </c>
-      <c r="Q80" s="30">
-        <v>0</v>
-      </c>
-      <c r="R80" s="30">
+      <c r="Q80" s="29">
+        <v>0</v>
+      </c>
+      <c r="R80" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S80" s="30">
+      <c r="S80" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T80" s="30">
+      <c r="T80" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U80" s="30">
+      <c r="U80" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V80" s="30">
+      <c r="V80" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="N81" s="30">
+      <c r="N81" s="29">
         <v>801</v>
       </c>
-      <c r="O81" s="30">
+      <c r="O81" s="29">
         <v>160</v>
       </c>
-      <c r="P81" s="30">
+      <c r="P81" s="29">
         <v>-16</v>
       </c>
-      <c r="Q81" s="30">
-        <v>0</v>
-      </c>
-      <c r="R81" s="30">
+      <c r="Q81" s="29">
+        <v>0</v>
+      </c>
+      <c r="R81" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S81" s="30">
+      <c r="S81" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T81" s="30">
+      <c r="T81" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U81" s="30">
+      <c r="U81" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V81" s="30">
+      <c r="V81" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="30">
+      <c r="N82" s="29">
         <v>-663</v>
       </c>
-      <c r="O82" s="30">
+      <c r="O82" s="29">
         <v>-995</v>
       </c>
-      <c r="P82" s="30">
+      <c r="P82" s="29">
         <v>264</v>
       </c>
-      <c r="Q82" s="30">
-        <v>0</v>
-      </c>
-      <c r="R82" s="30">
+      <c r="Q82" s="29">
+        <v>0</v>
+      </c>
+      <c r="R82" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S82" s="30">
+      <c r="S82" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T82" s="30">
+      <c r="T82" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U82" s="30">
+      <c r="U82" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V82" s="30">
+      <c r="V82" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="30">
+      <c r="N83" s="29">
         <v>-69</v>
       </c>
-      <c r="O83" s="30">
+      <c r="O83" s="29">
         <v>-751</v>
       </c>
-      <c r="P83" s="30">
+      <c r="P83" s="29">
         <v>-486</v>
       </c>
-      <c r="Q83" s="30">
-        <v>0</v>
-      </c>
-      <c r="R83" s="30">
+      <c r="Q83" s="29">
+        <v>0</v>
+      </c>
+      <c r="R83" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S83" s="30">
+      <c r="S83" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T83" s="30">
+      <c r="T83" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U83" s="30">
+      <c r="U83" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V83" s="30">
+      <c r="V83" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N84" s="30">
+      <c r="N84" s="29">
         <v>109</v>
       </c>
-      <c r="O84" s="30">
+      <c r="O84" s="29">
         <v>198</v>
       </c>
-      <c r="P84" s="30">
+      <c r="P84" s="29">
         <v>184</v>
       </c>
-      <c r="Q84" s="30">
-        <v>0</v>
-      </c>
-      <c r="R84" s="30">
+      <c r="Q84" s="29">
+        <v>0</v>
+      </c>
+      <c r="R84" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="S84" s="30">
+      <c r="S84" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T84" s="30">
+      <c r="T84" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="U84" s="30">
+      <c r="U84" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="V84" s="30">
+      <c r="V84" s="29">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N85" s="30">
+      <c r="N85" s="29">
         <v>427</v>
       </c>
-      <c r="O85" s="30">
+      <c r="O85" s="29">
         <v>904</v>
       </c>
-      <c r="P85" s="30">
+      <c r="P85" s="29">
         <v>1484</v>
       </c>
-      <c r="Q85" s="30">
-        <v>0</v>
-      </c>
-      <c r="R85" s="30">
+      <c r="Q85" s="29">
+        <v>0</v>
+      </c>
+      <c r="R85" s="29">
         <f t="shared" ref="R85:V85" si="120">Q85*1.04</f>
         <v>0</v>
       </c>
-      <c r="S85" s="30">
+      <c r="S85" s="29">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="T85" s="30">
+      <c r="T85" s="29">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="U85" s="30">
+      <c r="U85" s="29">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="V85" s="30">
+      <c r="V85" s="29">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="N86" s="30">
+      <c r="N86" s="29">
         <v>-1423</v>
       </c>
-      <c r="O86" s="30">
+      <c r="O86" s="29">
         <v>-603</v>
       </c>
-      <c r="P86" s="30">
+      <c r="P86" s="29">
         <v>-1260</v>
       </c>
-      <c r="Q86" s="30">
+      <c r="Q86" s="29">
         <f>P86*1.01</f>
         <v>-1272.5999999999999</v>
       </c>
-      <c r="R86" s="30">
+      <c r="R86" s="29">
         <f t="shared" ref="R86:V86" si="121">Q86*1.01</f>
         <v>-1285.326</v>
       </c>
-      <c r="S86" s="30">
+      <c r="S86" s="29">
         <f t="shared" si="121"/>
         <v>-1298.1792600000001</v>
       </c>
-      <c r="T86" s="30">
+      <c r="T86" s="29">
         <f t="shared" si="121"/>
         <v>-1311.1610526000002</v>
       </c>
-      <c r="U86" s="30">
+      <c r="U86" s="29">
         <f t="shared" si="121"/>
         <v>-1324.2726631260002</v>
       </c>
-      <c r="V86" s="30">
+      <c r="V86" s="29">
         <f t="shared" si="121"/>
         <v>-1337.5153897572602</v>
       </c>
     </row>
     <row r="87" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N87" s="30">
+      <c r="N87" s="29">
         <f>233-610</f>
         <v>-377</v>
       </c>
-      <c r="O87" s="30">
+      <c r="O87" s="29">
         <f>300-667</f>
         <v>-367</v>
       </c>
-      <c r="P87" s="30">
+      <c r="P87" s="29">
         <f>94+624</f>
         <v>718</v>
       </c>
-      <c r="Q87" s="30">
-        <v>0</v>
-      </c>
-      <c r="R87" s="30">
+      <c r="Q87" s="29">
+        <v>0</v>
+      </c>
+      <c r="R87" s="29">
         <f t="shared" ref="R87:V87" si="122">Q87*1.01</f>
         <v>0</v>
       </c>
-      <c r="S87" s="30">
+      <c r="S87" s="29">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="T87" s="30">
+      <c r="T87" s="29">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="U87" s="30">
+      <c r="U87" s="29">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="V87" s="30">
+      <c r="V87" s="29">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="N88" s="30">
+      <c r="N88" s="29">
         <f>SUM(N74:N87)</f>
         <v>13076</v>
       </c>
-      <c r="O88" s="30">
+      <c r="O88" s="29">
         <f t="shared" ref="O88:P88" si="123">SUM(O74:O87)</f>
         <v>13860</v>
       </c>
-      <c r="P88" s="30">
+      <c r="P88" s="29">
         <f t="shared" si="123"/>
         <v>15190</v>
       </c>
-      <c r="Q88" s="30">
+      <c r="Q88" s="29">
         <f>SUM(Q73:Q87)</f>
         <v>27567.560965540815</v>
       </c>
-      <c r="R88" s="30">
+      <c r="R88" s="29">
         <f t="shared" ref="R88:V88" si="124">SUM(R73:R87)</f>
         <v>28739.610854234656</v>
       </c>
-      <c r="S88" s="30">
+      <c r="S88" s="29">
         <f t="shared" si="124"/>
         <v>29387.454392383395</v>
       </c>
-      <c r="T88" s="30">
+      <c r="T88" s="29">
         <f t="shared" si="124"/>
         <v>14683.232103930002</v>
       </c>
-      <c r="U88" s="30">
+      <c r="U88" s="29">
         <f t="shared" si="124"/>
         <v>14988.785236367261</v>
       </c>
-      <c r="V88" s="30">
+      <c r="V88" s="29">
         <f t="shared" si="124"/>
         <v>15525.566283279553</v>
       </c>
     </row>
     <row r="90" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="91" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N91" s="30">
+      <c r="N91" s="29">
         <v>-1118</v>
       </c>
-      <c r="O91" s="30">
+      <c r="O91" s="29">
         <v>-1209</v>
       </c>
-      <c r="P91" s="30">
+      <c r="P91" s="29">
         <v>-1248</v>
       </c>
-      <c r="Q91" s="30">
+      <c r="Q91" s="29">
         <f>P91*1.05</f>
         <v>-1310.4000000000001</v>
       </c>
-      <c r="R91" s="30">
+      <c r="R91" s="29">
         <f t="shared" ref="R91:V91" si="125">Q91*1.05</f>
         <v>-1375.92</v>
       </c>
-      <c r="S91" s="30">
+      <c r="S91" s="29">
         <f t="shared" si="125"/>
         <v>-1444.7160000000001</v>
       </c>
-      <c r="T91" s="30">
+      <c r="T91" s="29">
         <f t="shared" si="125"/>
         <v>-1516.9518000000003</v>
       </c>
-      <c r="U91" s="30">
+      <c r="U91" s="29">
         <f t="shared" si="125"/>
         <v>-1592.7993900000004</v>
       </c>
-      <c r="V91" s="30">
+      <c r="V91" s="29">
         <f t="shared" si="125"/>
         <v>-1672.4393595000004</v>
       </c>
     </row>
     <row r="92" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
     </row>
     <row r="93" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="95" spans="2:121" x14ac:dyDescent="0.2">
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N95" s="30">
+      <c r="N95" s="29">
         <f>N88+N91</f>
         <v>11958</v>
       </c>
-      <c r="O95" s="30">
+      <c r="O95" s="29">
         <f t="shared" ref="O95:V95" si="126">O88+O91</f>
         <v>12651</v>
       </c>
-      <c r="P95" s="30">
+      <c r="P95" s="29">
         <f t="shared" si="126"/>
         <v>13942</v>
       </c>
-      <c r="Q95" s="30">
+      <c r="Q95" s="29">
         <f t="shared" si="126"/>
         <v>26257.160965540814</v>
       </c>
-      <c r="R95" s="30">
+      <c r="R95" s="29">
         <f t="shared" si="126"/>
         <v>27363.690854234657</v>
       </c>
-      <c r="S95" s="30">
+      <c r="S95" s="29">
         <f t="shared" si="126"/>
         <v>27942.738392383395</v>
       </c>
-      <c r="T95" s="30">
+      <c r="T95" s="29">
         <f t="shared" si="126"/>
         <v>13166.280303930002</v>
       </c>
-      <c r="U95" s="30">
+      <c r="U95" s="29">
         <f t="shared" si="126"/>
         <v>13395.985846367261</v>
       </c>
-      <c r="V95" s="30">
+      <c r="V95" s="29">
         <f t="shared" si="126"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="W95" s="30">
+      <c r="W95" s="29">
         <f t="shared" ref="W95:BB95" si="127">V95*(1+$X$97)</f>
         <v>13853.126923779553</v>
       </c>
-      <c r="X95" s="30">
+      <c r="X95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="Y95" s="30">
+      <c r="Y95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="Z95" s="30">
+      <c r="Z95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AA95" s="30">
+      <c r="AA95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AB95" s="30">
+      <c r="AB95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AC95" s="30">
+      <c r="AC95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AD95" s="30">
+      <c r="AD95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AE95" s="30">
+      <c r="AE95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AF95" s="30">
+      <c r="AF95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AG95" s="30">
+      <c r="AG95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AH95" s="30">
+      <c r="AH95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AI95" s="30">
+      <c r="AI95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AJ95" s="30">
+      <c r="AJ95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AK95" s="30">
+      <c r="AK95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AL95" s="30">
+      <c r="AL95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AM95" s="30">
+      <c r="AM95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AN95" s="30">
+      <c r="AN95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AO95" s="30">
+      <c r="AO95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AP95" s="30">
+      <c r="AP95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AQ95" s="30">
+      <c r="AQ95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AR95" s="30">
+      <c r="AR95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AS95" s="30">
+      <c r="AS95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AT95" s="30">
+      <c r="AT95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AU95" s="30">
+      <c r="AU95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AV95" s="30">
+      <c r="AV95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AW95" s="30">
+      <c r="AW95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AX95" s="30">
+      <c r="AX95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AY95" s="30">
+      <c r="AY95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="AZ95" s="30">
+      <c r="AZ95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BA95" s="30">
+      <c r="BA95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BB95" s="30">
+      <c r="BB95" s="29">
         <f t="shared" si="127"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BC95" s="30">
+      <c r="BC95" s="29">
         <f t="shared" ref="BC95:CH95" si="128">BB95*(1+$X$97)</f>
         <v>13853.126923779553</v>
       </c>
-      <c r="BD95" s="30">
+      <c r="BD95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BE95" s="30">
+      <c r="BE95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BF95" s="30">
+      <c r="BF95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BG95" s="30">
+      <c r="BG95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BH95" s="30">
+      <c r="BH95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BI95" s="30">
+      <c r="BI95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BJ95" s="30">
+      <c r="BJ95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BK95" s="30">
+      <c r="BK95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BL95" s="30">
+      <c r="BL95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BM95" s="30">
+      <c r="BM95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BN95" s="30">
+      <c r="BN95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BO95" s="30">
+      <c r="BO95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BP95" s="30">
+      <c r="BP95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BQ95" s="30">
+      <c r="BQ95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BR95" s="30">
+      <c r="BR95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BS95" s="30">
+      <c r="BS95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BT95" s="30">
+      <c r="BT95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BU95" s="30">
+      <c r="BU95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BV95" s="30">
+      <c r="BV95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BW95" s="30">
+      <c r="BW95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BX95" s="30">
+      <c r="BX95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BY95" s="30">
+      <c r="BY95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="BZ95" s="30">
+      <c r="BZ95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CA95" s="30">
+      <c r="CA95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CB95" s="30">
+      <c r="CB95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CC95" s="30">
+      <c r="CC95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CD95" s="30">
+      <c r="CD95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CE95" s="30">
+      <c r="CE95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CF95" s="30">
+      <c r="CF95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CG95" s="30">
+      <c r="CG95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CH95" s="30">
+      <c r="CH95" s="29">
         <f t="shared" si="128"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CI95" s="30">
+      <c r="CI95" s="29">
         <f t="shared" ref="CI95:DQ95" si="129">CH95*(1+$X$97)</f>
         <v>13853.126923779553</v>
       </c>
-      <c r="CJ95" s="30">
+      <c r="CJ95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CK95" s="30">
+      <c r="CK95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CL95" s="30">
+      <c r="CL95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CM95" s="30">
+      <c r="CM95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CN95" s="30">
+      <c r="CN95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CO95" s="30">
+      <c r="CO95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CP95" s="30">
+      <c r="CP95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CQ95" s="30">
+      <c r="CQ95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CR95" s="30">
+      <c r="CR95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CS95" s="30">
+      <c r="CS95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CT95" s="30">
+      <c r="CT95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CU95" s="30">
+      <c r="CU95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CV95" s="30">
+      <c r="CV95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CW95" s="30">
+      <c r="CW95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CX95" s="30">
+      <c r="CX95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CY95" s="30">
+      <c r="CY95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="CZ95" s="30">
+      <c r="CZ95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DA95" s="30">
+      <c r="DA95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DB95" s="30">
+      <c r="DB95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DC95" s="30">
+      <c r="DC95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DD95" s="30">
+      <c r="DD95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DE95" s="30">
+      <c r="DE95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DF95" s="30">
+      <c r="DF95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DG95" s="30">
+      <c r="DG95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DH95" s="30">
+      <c r="DH95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DI95" s="30">
+      <c r="DI95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DJ95" s="30">
+      <c r="DJ95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DK95" s="30">
+      <c r="DK95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DL95" s="30">
+      <c r="DL95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DM95" s="30">
+      <c r="DM95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DN95" s="30">
+      <c r="DN95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DO95" s="30">
+      <c r="DO95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DP95" s="30">
+      <c r="DP95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
-      <c r="DQ95" s="30">
+      <c r="DQ95" s="29">
         <f t="shared" si="129"/>
         <v>13853.126923779553</v>
       </c>
     </row>
     <row r="97" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="O97" s="34"/>
-      <c r="X97" s="34"/>
+      <c r="O97" s="33"/>
+      <c r="X97" s="33"/>
     </row>
     <row r="98" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X98" s="34"/>
+      <c r="X98" s="33"/>
     </row>
     <row r="100" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X100" s="33"/>
+      <c r="X100" s="32"/>
     </row>
     <row r="101" spans="15:24" x14ac:dyDescent="0.2">
-      <c r="X101" s="34"/>
+      <c r="X101" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433D08C-8714-4121-BE60-E3197E4C11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F71354-09E7-4A64-A91C-8D0AD23441F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
+    <workbookView xWindow="1350" yWindow="405" windowWidth="22140" windowHeight="14805" xr2:uid="{83ED8510-C560-4055-98B8-98F2B5E35FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="183">
   <si>
     <t>Indication</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>Juno Therapeutics</t>
-  </si>
-  <si>
-    <t>CAR-T</t>
   </si>
   <si>
     <t>USA</t>
@@ -772,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -825,8 +822,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1286,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C84D59-1CB2-4A24-A9E5-2B8BEE45A87C}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1329,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="2">
@@ -1342,7 +1338,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="20"/>
       <c r="K3" t="s">
@@ -1357,7 +1353,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="2">
@@ -1366,7 +1362,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="20"/>
       <c r="K4" t="s">
@@ -1379,7 +1375,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="2">
@@ -1388,7 +1384,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="20"/>
       <c r="K5" t="s">
@@ -1404,7 +1400,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="2">
@@ -1413,7 +1409,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="20"/>
       <c r="K6" t="s">
@@ -1429,7 +1425,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="2">
@@ -1438,7 +1434,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="20"/>
       <c r="K7" t="s">
@@ -1451,7 +1447,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="2">
@@ -1460,15 +1456,13 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>93</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="2">
@@ -1477,7 +1471,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="20"/>
       <c r="K9" t="s">
@@ -1486,7 +1480,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="2">
@@ -1495,7 +1489,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="20"/>
       <c r="K10" t="s">
@@ -1504,14 +1498,14 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="2">
         <v>44638</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -1519,7 +1513,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="2">
@@ -1528,28 +1522,28 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2">
         <v>41271</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2">
         <v>44232</v>
@@ -1558,27 +1552,25 @@
         <v>92</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>93</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2">
         <v>44813</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2">
         <v>43777</v>
@@ -1587,13 +1579,13 @@
         <v>88</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2">
         <v>44907</v>
@@ -1602,13 +1594,13 @@
         <v>91</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2">
         <v>41995</v>
@@ -1617,13 +1609,13 @@
         <v>90</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2">
         <v>45758</v>
@@ -1632,13 +1624,13 @@
         <v>90</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="18">
@@ -1649,7 +1641,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H20" s="26"/>
     </row>
@@ -1675,13 +1667,13 @@
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -1692,9 +1684,7 @@
       <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
@@ -1722,16 +1712,16 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -1746,18 +1736,16 @@
         <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>69</v>
@@ -1784,7 +1772,7 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>77</v>
@@ -1817,7 +1805,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>69</v>
@@ -1832,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -1840,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -1848,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -1856,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C781408B-354D-406F-81C7-71B6E19A8D24}">
   <dimension ref="A1:DZ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1989,7 +1977,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="29">
@@ -2007,7 +1995,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N4" s="31"/>
       <c r="O4" s="29">
@@ -2025,7 +2013,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" s="31"/>
       <c r="O5" s="29">
@@ -2052,7 +2040,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="29">
         <v>2265</v>
@@ -2108,7 +2096,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="29">
         <v>770</v>
@@ -2167,387 +2155,387 @@
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>624</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="1">
         <f t="shared" ref="H9:J12" si="5">G9*1.03</f>
         <v>642.72</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="1">
         <f t="shared" si="5"/>
         <v>662.00160000000005</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="1">
         <f t="shared" si="5"/>
         <v>681.86164800000006</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <v>1682</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="1">
         <v>2026</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="1">
         <v>2131</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="1">
         <v>2238</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="1">
         <v>2530</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="1">
         <f t="shared" si="2"/>
         <v>2610.5832479999999</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="1">
         <f>Q9*1.05</f>
         <v>2741.1124104</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="1">
         <f t="shared" ref="S9:V10" si="6">R9*1.05</f>
         <v>2878.1680309200001</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="1">
         <f t="shared" si="6"/>
         <v>3022.0764324660004</v>
       </c>
-      <c r="U9" s="36">
+      <c r="U9" s="1">
         <f t="shared" si="6"/>
         <v>3173.1802540893004</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="1">
         <f t="shared" si="6"/>
         <v>3331.8392667937655</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>478</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="1">
         <f t="shared" si="5"/>
         <v>492.34000000000003</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="1">
         <f t="shared" si="5"/>
         <v>507.11020000000002</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="1">
         <f t="shared" si="5"/>
         <v>522.32350600000007</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <v>274</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="1">
         <v>551</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="36">
         <v>717</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="1">
         <v>1008</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="1">
         <v>1773</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="1">
         <f t="shared" si="2"/>
         <v>1999.7737059999999</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="1">
         <f>Q10*1.05</f>
         <v>2099.7623913000002</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="1">
         <f t="shared" si="6"/>
         <v>2204.7505108650003</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="1">
         <f t="shared" si="6"/>
         <v>2314.9880364082505</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="1">
         <f t="shared" si="6"/>
         <v>2430.737438228663</v>
       </c>
-      <c r="V10" s="36">
+      <c r="V10" s="1">
         <f t="shared" si="6"/>
         <v>2552.2743101400961</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36">
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>252</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="1">
         <f>G11*1.05</f>
         <v>264.60000000000002</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="1">
         <f t="shared" ref="I11:J11" si="7">H11*1.05</f>
         <v>277.83000000000004</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="1">
         <f t="shared" si="7"/>
         <v>291.72150000000005</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="36">
         <v>252</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="1">
         <v>627</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="1">
         <v>928</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="1">
         <f t="shared" si="2"/>
         <v>1086.1515000000002</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="1">
         <f>Q11*1.05</f>
         <v>1140.4590750000002</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="1">
         <f t="shared" ref="S11:V11" si="8">R11*1.05</f>
         <v>1197.4820287500004</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="1">
         <f t="shared" si="8"/>
         <v>1257.3561301875004</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="1">
         <f t="shared" si="8"/>
         <v>1320.2239366968754</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="1">
         <f t="shared" si="8"/>
         <v>1386.2351335317192</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36">
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>263</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="1">
         <f t="shared" si="5"/>
         <v>270.89</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="1">
         <f t="shared" si="5"/>
         <v>279.01670000000001</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="1">
         <f t="shared" si="5"/>
         <v>287.387201</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>87</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="36">
         <v>182</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="1">
         <v>364</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="1">
         <v>747</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="1">
         <f t="shared" si="2"/>
         <v>1100.293901</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="1">
         <f t="shared" ref="R12" si="9">Q12*1.03</f>
         <v>1133.3027180300001</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="1">
         <f t="shared" ref="S12:V12" si="10">R12*1.03</f>
         <v>1167.3017995709001</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="1">
         <f t="shared" si="10"/>
         <v>1202.3208535580272</v>
       </c>
-      <c r="U12" s="36">
+      <c r="U12" s="1">
         <f t="shared" si="10"/>
         <v>1238.3904791647681</v>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="1">
         <f t="shared" si="10"/>
         <v>1275.5421935397112</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36">
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>159</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="1">
         <f>G13*1.2</f>
         <v>190.79999999999998</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="1">
         <f t="shared" ref="I13:J13" si="11">H13*1.2</f>
         <v>228.95999999999998</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="1">
         <f t="shared" si="11"/>
         <v>274.75199999999995</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="36">
         <v>24</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="1">
         <v>231</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="1">
         <v>602</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>853.51199999999994</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="1">
         <f>Q13*1.1</f>
         <v>938.86320000000001</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="1">
         <f t="shared" ref="S13:V13" si="12">R13*1.1</f>
         <v>1032.7495200000001</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="1">
         <f t="shared" si="12"/>
         <v>1136.0244720000003</v>
       </c>
-      <c r="U13" s="36">
+      <c r="U13" s="1">
         <f t="shared" si="12"/>
         <v>1249.6269192000004</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="1">
         <f t="shared" si="12"/>
         <v>1374.5896111200007</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36">
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
         <v>107</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="1">
         <f>G14*1.3</f>
         <v>139.1</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="1">
         <f t="shared" ref="I14:J14" si="13">H14*1.3</f>
         <v>180.83</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="1">
         <f t="shared" si="13"/>
         <v>235.07900000000004</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
         <v>12</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="1">
         <v>134</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="1">
         <v>252</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="1">
         <v>434</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="1">
         <v>566</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="1">
         <f t="shared" si="2"/>
         <v>662.00900000000001</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="1">
         <f>Q14*1.1</f>
         <v>728.20990000000006</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="1">
         <f t="shared" ref="S14:V14" si="14">R14*1.1</f>
         <v>801.03089000000011</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="1">
         <f t="shared" si="14"/>
         <v>881.13397900000018</v>
       </c>
-      <c r="U14" s="36">
+      <c r="U14" s="1">
         <f t="shared" si="14"/>
         <v>969.24737690000029</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="1">
         <f t="shared" si="14"/>
         <v>1066.1721145900003</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="29">
         <v>103</v>
@@ -2603,65 +2591,65 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36">
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>55</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="1">
         <v>100</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="1">
         <v>100</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="36">
         <v>8</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="1">
         <v>170</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="1">
         <v>246</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="1">
         <f t="shared" si="2"/>
         <v>355</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="1">
         <f>Q16*1.2</f>
         <v>426</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="1">
         <f t="shared" ref="S16:V16" si="16">R16*1.2</f>
         <v>511.2</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="1">
         <f t="shared" si="16"/>
         <v>613.43999999999994</v>
       </c>
-      <c r="U16" s="36">
+      <c r="U16" s="1">
         <f t="shared" si="16"/>
         <v>736.12799999999993</v>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="1">
         <f t="shared" si="16"/>
         <v>883.35359999999991</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="29">
         <v>48</v>
@@ -2709,120 +2697,120 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
-      <c r="B18" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36">
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
         <v>25</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="1">
         <v>25</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="1">
         <v>25</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36">
         <v>1</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="36">
         <v>38</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="1">
         <f>Q18*1.5</f>
         <v>112.5</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="1">
         <f t="shared" ref="S18:V18" si="18">R18*1.5</f>
         <v>168.75</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="1">
         <f t="shared" si="18"/>
         <v>253.125</v>
       </c>
-      <c r="U18" s="36">
+      <c r="U18" s="1">
         <f t="shared" si="18"/>
         <v>379.6875</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="1">
         <f t="shared" si="18"/>
         <v>569.53125</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
         <v>27</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="1">
         <f>G19*1.03</f>
         <v>27.810000000000002</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="1">
         <f>H19*1.03</f>
         <v>28.644300000000005</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="1">
         <f>I19*1.03</f>
         <v>29.503629000000007</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37">
-        <v>0</v>
-      </c>
-      <c r="P19" s="37">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="36">
         <v>10</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="1">
         <f t="shared" si="2"/>
         <v>112.95792900000001</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="1">
         <f>Q19*1.5</f>
         <v>169.4368935</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="1">
         <f t="shared" ref="S19:V19" si="19">R19*1.5</f>
         <v>254.15534024999999</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="1">
         <f t="shared" si="19"/>
         <v>381.23301037499999</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="1">
         <f t="shared" si="19"/>
         <v>571.84951556249996</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="1">
         <f t="shared" si="19"/>
         <v>857.77427334374988</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="29">
         <v>403</v>
@@ -2873,7 +2861,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="29">
         <v>3565</v>
@@ -2929,7 +2917,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="29">
         <v>936</v>
@@ -2988,7 +2976,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="29">
         <v>658</v>
@@ -3047,7 +3035,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="29">
         <v>175</v>
@@ -3106,7 +3094,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B25" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="29">
         <v>105</v>
@@ -3165,7 +3153,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B26" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="29">
         <v>199</v>
@@ -5241,7 +5229,7 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O73" s="29">
         <f>O42</f>
@@ -5278,7 +5266,7 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N74" s="29">
         <f>6345</f>
@@ -5295,7 +5283,7 @@
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N75" s="29">
         <f>10276</f>
@@ -5372,7 +5360,7 @@
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N77" s="29">
         <v>457</v>
@@ -5410,7 +5398,7 @@
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N78" s="29">
         <v>179</v>
@@ -5447,7 +5435,7 @@
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N79" s="29">
         <v>-1063</v>
@@ -5521,7 +5509,7 @@
     </row>
     <row r="81" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B81" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N81" s="29">
         <v>801</v>
@@ -5669,7 +5657,7 @@
     </row>
     <row r="85" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B85" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N85" s="29">
         <v>427</v>
@@ -5706,7 +5694,7 @@
     </row>
     <row r="86" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B86" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N86" s="29">
         <v>-1423</v>
@@ -5744,7 +5732,7 @@
     </row>
     <row r="87" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B87" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N87" s="29">
         <f>233-610</f>
@@ -5784,7 +5772,7 @@
     </row>
     <row r="88" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B88" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N88" s="29">
         <f>SUM(N74:N87)</f>
@@ -5825,12 +5813,12 @@
     </row>
     <row r="90" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B90" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B91" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N91" s="29">
         <v>-1118</v>
@@ -5868,19 +5856,19 @@
     </row>
     <row r="92" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B92" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P92" s="33"/>
       <c r="Q92" s="33"/>
     </row>
     <row r="93" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B93" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B95" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N95" s="29">
         <f>N88+N91</f>
@@ -6362,12 +6350,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -6378,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6386,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6394,35 +6382,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -6507,7 +6495,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1">
         <v>18228</v>
@@ -6587,7 +6575,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <v>18228</v>
@@ -6802,7 +6790,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -6967,7 +6955,7 @@
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="1">
         <v>6800</v>
@@ -7023,7 +7011,7 @@
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H17" s="3">
         <v>0.2</v>
